--- a/BackTest/2020-01-25 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-25 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C2" t="n">
         <v>1019</v>
       </c>
       <c r="D2" t="n">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E2" t="n">
         <v>1019</v>
       </c>
       <c r="F2" t="n">
-        <v>407.6339</v>
+        <v>89.0351</v>
       </c>
       <c r="G2" t="n">
-        <v>1026.9</v>
+        <v>1027.016666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C3" t="n">
         <v>1019</v>
       </c>
       <c r="D3" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E3" t="n">
         <v>1019</v>
       </c>
       <c r="F3" t="n">
-        <v>2641.8645</v>
+        <v>407.6339</v>
       </c>
       <c r="G3" t="n">
-        <v>1026.866666666667</v>
+        <v>1026.9</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>1019</v>
       </c>
       <c r="F4" t="n">
-        <v>1143.4301</v>
+        <v>2641.8645</v>
       </c>
       <c r="G4" t="n">
-        <v>1026.933333333333</v>
+        <v>1026.866666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>1019</v>
       </c>
       <c r="F5" t="n">
-        <v>275</v>
+        <v>1143.4301</v>
       </c>
       <c r="G5" t="n">
-        <v>1027.033333333334</v>
+        <v>1026.933333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>1019</v>
       </c>
       <c r="F6" t="n">
-        <v>119</v>
+        <v>275</v>
       </c>
       <c r="G6" t="n">
-        <v>1027</v>
+        <v>1027.033333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>1019</v>
       </c>
       <c r="F7" t="n">
-        <v>1298.42</v>
+        <v>119</v>
       </c>
       <c r="G7" t="n">
-        <v>1026.966666666667</v>
+        <v>1027</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>1019</v>
       </c>
       <c r="C8" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D8" t="n">
         <v>1019</v>
       </c>
       <c r="E8" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F8" t="n">
-        <v>4932.9102</v>
+        <v>1298.42</v>
       </c>
       <c r="G8" t="n">
-        <v>1026.916666666667</v>
+        <v>1026.966666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C9" t="n">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D9" t="n">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="E9" t="n">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="F9" t="n">
-        <v>4877.4023</v>
+        <v>4932.9102</v>
       </c>
       <c r="G9" t="n">
-        <v>1026.85</v>
+        <v>1026.916666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>1017</v>
       </c>
       <c r="C10" t="n">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D10" t="n">
         <v>1017</v>
       </c>
       <c r="E10" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F10" t="n">
-        <v>4207.2364</v>
+        <v>4877.4023</v>
       </c>
       <c r="G10" t="n">
-        <v>1026.766666666667</v>
+        <v>1026.85</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>1017</v>
+      </c>
+      <c r="C11" t="n">
         <v>1016</v>
       </c>
-      <c r="C11" t="n">
-        <v>1012</v>
-      </c>
       <c r="D11" t="n">
+        <v>1017</v>
+      </c>
+      <c r="E11" t="n">
         <v>1016</v>
       </c>
-      <c r="E11" t="n">
-        <v>1012</v>
-      </c>
       <c r="F11" t="n">
-        <v>2792.2771</v>
+        <v>4207.2364</v>
       </c>
       <c r="G11" t="n">
-        <v>1026.6</v>
+        <v>1026.766666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C12" t="n">
         <v>1012</v>
       </c>
-      <c r="C12" t="n">
-        <v>1019</v>
-      </c>
       <c r="D12" t="n">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E12" t="n">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="F12" t="n">
-        <v>7848.5722</v>
+        <v>2792.2771</v>
       </c>
       <c r="G12" t="n">
-        <v>1026.616666666667</v>
+        <v>1026.6</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C13" t="n">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="D13" t="n">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="E13" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F13" t="n">
-        <v>73.1987</v>
+        <v>7848.5722</v>
       </c>
       <c r="G13" t="n">
-        <v>1026.5</v>
+        <v>1026.616666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="C14" t="n">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="D14" t="n">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="E14" t="n">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="F14" t="n">
-        <v>88.8417</v>
+        <v>73.1987</v>
       </c>
       <c r="G14" t="n">
-        <v>1026.55</v>
+        <v>1026.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C15" t="n">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="D15" t="n">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="E15" t="n">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="F15" t="n">
-        <v>631.6999</v>
+        <v>88.8417</v>
       </c>
       <c r="G15" t="n">
-        <v>1026.5</v>
+        <v>1026.55</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="C16" t="n">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="D16" t="n">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="E16" t="n">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="F16" t="n">
-        <v>170.6697</v>
+        <v>631.6999</v>
       </c>
       <c r="G16" t="n">
-        <v>1026.366666666667</v>
+        <v>1026.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C17" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D17" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E17" t="n">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="F17" t="n">
-        <v>610</v>
+        <v>170.6697</v>
       </c>
       <c r="G17" t="n">
-        <v>1026.216666666667</v>
+        <v>1026.366666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="C18" t="n">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="D18" t="n">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="E18" t="n">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="F18" t="n">
-        <v>129.0258</v>
+        <v>610</v>
       </c>
       <c r="G18" t="n">
-        <v>1025.933333333333</v>
+        <v>1026.216666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>1008</v>
       </c>
       <c r="C19" t="n">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D19" t="n">
         <v>1008</v>
       </c>
       <c r="E19" t="n">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F19" t="n">
-        <v>71.91540000000001</v>
+        <v>129.0258</v>
       </c>
       <c r="G19" t="n">
-        <v>1025.683333333333</v>
+        <v>1025.933333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="C20" t="n">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="D20" t="n">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="E20" t="n">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="F20" t="n">
-        <v>910.3333</v>
+        <v>71.91540000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>1025.533333333334</v>
+        <v>1025.683333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="C21" t="n">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D21" t="n">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E21" t="n">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="F21" t="n">
-        <v>175.4382</v>
+        <v>910.3333</v>
       </c>
       <c r="G21" t="n">
-        <v>1025.416666666667</v>
+        <v>1025.533333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="C22" t="n">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D22" t="n">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E22" t="n">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="F22" t="n">
-        <v>1128.8387</v>
+        <v>175.4382</v>
       </c>
       <c r="G22" t="n">
-        <v>1025.283333333334</v>
+        <v>1025.416666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="C23" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D23" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E23" t="n">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="F23" t="n">
-        <v>1755</v>
+        <v>1128.8387</v>
       </c>
       <c r="G23" t="n">
-        <v>1025.116666666667</v>
+        <v>1025.283333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="C24" t="n">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D24" t="n">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="E24" t="n">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="F24" t="n">
-        <v>36.5988</v>
+        <v>1755</v>
       </c>
       <c r="G24" t="n">
-        <v>1024.9</v>
+        <v>1025.116666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="C25" t="n">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="D25" t="n">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="E25" t="n">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="F25" t="n">
-        <v>2089.6099</v>
+        <v>36.5988</v>
       </c>
       <c r="G25" t="n">
-        <v>1024.616666666667</v>
+        <v>1024.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C26" t="n">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="D26" t="n">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="E26" t="n">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="F26" t="n">
-        <v>175.3585</v>
+        <v>2089.6099</v>
       </c>
       <c r="G26" t="n">
-        <v>1024.3</v>
+        <v>1024.616666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="C27" t="n">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="D27" t="n">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="E27" t="n">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="F27" t="n">
-        <v>175.4382</v>
+        <v>175.3585</v>
       </c>
       <c r="G27" t="n">
-        <v>1023.966666666667</v>
+        <v>1024.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C28" t="n">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D28" t="n">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E28" t="n">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="F28" t="n">
-        <v>4209.9999</v>
+        <v>175.4382</v>
       </c>
       <c r="G28" t="n">
-        <v>1023.466666666667</v>
+        <v>1023.966666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C29" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D29" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E29" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>4209.9999</v>
       </c>
       <c r="G29" t="n">
-        <v>1022.95</v>
+        <v>1023.466666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>1007</v>
       </c>
       <c r="F30" t="n">
-        <v>40.4969</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>1022.483333333333</v>
+        <v>1022.95</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>1007</v>
       </c>
       <c r="C31" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D31" t="n">
         <v>1007</v>
       </c>
       <c r="E31" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F31" t="n">
-        <v>69.74209999999999</v>
+        <v>40.4969</v>
       </c>
       <c r="G31" t="n">
-        <v>1022.083333333333</v>
+        <v>1022.483333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="C32" t="n">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="D32" t="n">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E32" t="n">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="F32" t="n">
-        <v>182.5189</v>
+        <v>69.74209999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>1021.583333333333</v>
+        <v>1022.083333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C33" t="n">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D33" t="n">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="E33" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F33" t="n">
-        <v>210</v>
+        <v>182.5189</v>
       </c>
       <c r="G33" t="n">
-        <v>1021.183333333334</v>
+        <v>1021.583333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>1005</v>
       </c>
       <c r="C34" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D34" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E34" t="n">
         <v>1005</v>
       </c>
       <c r="F34" t="n">
-        <v>6.3644</v>
+        <v>210</v>
       </c>
       <c r="G34" t="n">
-        <v>1020.733333333333</v>
+        <v>1021.183333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C35" t="n">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="D35" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="E35" t="n">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="F35" t="n">
-        <v>225.8585</v>
+        <v>6.3644</v>
       </c>
       <c r="G35" t="n">
-        <v>1020.133333333333</v>
+        <v>1020.733333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>999.1</v>
+        <v>1003</v>
       </c>
       <c r="C36" t="n">
-        <v>999.1</v>
+        <v>1002</v>
       </c>
       <c r="D36" t="n">
-        <v>999.1</v>
+        <v>1003</v>
       </c>
       <c r="E36" t="n">
-        <v>999.1</v>
+        <v>1002</v>
       </c>
       <c r="F36" t="n">
-        <v>171.0919</v>
+        <v>225.8585</v>
       </c>
       <c r="G36" t="n">
-        <v>1019.468333333333</v>
+        <v>1020.133333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>999.1</v>
       </c>
       <c r="C37" t="n">
-        <v>999</v>
+        <v>999.1</v>
       </c>
       <c r="D37" t="n">
         <v>999.1</v>
       </c>
       <c r="E37" t="n">
-        <v>999</v>
+        <v>999.1</v>
       </c>
       <c r="F37" t="n">
-        <v>698.2125</v>
+        <v>171.0919</v>
       </c>
       <c r="G37" t="n">
-        <v>1018.751666666667</v>
+        <v>1019.468333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>997</v>
+        <v>999.1</v>
       </c>
       <c r="C38" t="n">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D38" t="n">
-        <v>997</v>
+        <v>999.1</v>
       </c>
       <c r="E38" t="n">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F38" t="n">
-        <v>215.4855</v>
+        <v>698.2125</v>
       </c>
       <c r="G38" t="n">
-        <v>1017.968333333333</v>
+        <v>1018.751666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>997.9</v>
+        <v>997</v>
       </c>
       <c r="C39" t="n">
-        <v>997.9</v>
+        <v>997</v>
       </c>
       <c r="D39" t="n">
-        <v>997.9</v>
+        <v>997</v>
       </c>
       <c r="E39" t="n">
-        <v>997.9</v>
+        <v>997</v>
       </c>
       <c r="F39" t="n">
-        <v>678.0903</v>
+        <v>215.4855</v>
       </c>
       <c r="G39" t="n">
-        <v>1017.25</v>
+        <v>1017.968333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>995</v>
+        <v>997.9</v>
       </c>
       <c r="C40" t="n">
-        <v>995</v>
+        <v>997.9</v>
       </c>
       <c r="D40" t="n">
-        <v>995</v>
+        <v>997.9</v>
       </c>
       <c r="E40" t="n">
-        <v>995</v>
+        <v>997.9</v>
       </c>
       <c r="F40" t="n">
-        <v>464.0891</v>
+        <v>678.0903</v>
       </c>
       <c r="G40" t="n">
-        <v>1016.616666666667</v>
+        <v>1017.25</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>995</v>
       </c>
       <c r="C41" t="n">
-        <v>992.2</v>
+        <v>995</v>
       </c>
       <c r="D41" t="n">
         <v>995</v>
       </c>
       <c r="E41" t="n">
-        <v>992.2</v>
+        <v>995</v>
       </c>
       <c r="F41" t="n">
-        <v>1299.9999</v>
+        <v>464.0891</v>
       </c>
       <c r="G41" t="n">
-        <v>1016.003333333333</v>
+        <v>1016.616666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>992.2</v>
+        <v>995</v>
       </c>
       <c r="C42" t="n">
         <v>992.2</v>
       </c>
       <c r="D42" t="n">
-        <v>992.2</v>
+        <v>995</v>
       </c>
       <c r="E42" t="n">
         <v>992.2</v>
       </c>
       <c r="F42" t="n">
-        <v>84.1228</v>
+        <v>1299.9999</v>
       </c>
       <c r="G42" t="n">
-        <v>1015.39</v>
+        <v>1016.003333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>998.9</v>
+        <v>992.2</v>
       </c>
       <c r="C43" t="n">
-        <v>993.1</v>
+        <v>992.2</v>
       </c>
       <c r="D43" t="n">
-        <v>998.9</v>
+        <v>992.2</v>
       </c>
       <c r="E43" t="n">
-        <v>993.1</v>
+        <v>992.2</v>
       </c>
       <c r="F43" t="n">
-        <v>199.72364803</v>
+        <v>84.1228</v>
       </c>
       <c r="G43" t="n">
-        <v>1014.658333333333</v>
+        <v>1015.39</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>991.3</v>
+        <v>998.9</v>
       </c>
       <c r="C44" t="n">
-        <v>991.3</v>
+        <v>993.1</v>
       </c>
       <c r="D44" t="n">
-        <v>991.3</v>
+        <v>998.9</v>
       </c>
       <c r="E44" t="n">
-        <v>991.3</v>
+        <v>993.1</v>
       </c>
       <c r="F44" t="n">
-        <v>1121.713</v>
+        <v>199.72364803</v>
       </c>
       <c r="G44" t="n">
-        <v>1013.93</v>
+        <v>1014.658333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>993.1</v>
+        <v>991.3</v>
       </c>
       <c r="C45" t="n">
-        <v>993.1</v>
+        <v>991.3</v>
       </c>
       <c r="D45" t="n">
-        <v>993.1</v>
+        <v>991.3</v>
       </c>
       <c r="E45" t="n">
-        <v>993.1</v>
+        <v>991.3</v>
       </c>
       <c r="F45" t="n">
-        <v>1.7197</v>
+        <v>1121.713</v>
       </c>
       <c r="G45" t="n">
-        <v>1013.398333333333</v>
+        <v>1013.93</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>993.1</v>
       </c>
       <c r="F46" t="n">
-        <v>65</v>
+        <v>1.7197</v>
       </c>
       <c r="G46" t="n">
-        <v>1012.766666666667</v>
+        <v>1013.398333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>993.2</v>
+        <v>993.1</v>
       </c>
       <c r="C47" t="n">
-        <v>993.2</v>
+        <v>993.1</v>
       </c>
       <c r="D47" t="n">
-        <v>993.2</v>
+        <v>993.1</v>
       </c>
       <c r="E47" t="n">
-        <v>993.2</v>
+        <v>993.1</v>
       </c>
       <c r="F47" t="n">
         <v>65</v>
       </c>
       <c r="G47" t="n">
-        <v>1012.27</v>
+        <v>1012.766666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>993.2</v>
       </c>
       <c r="F48" t="n">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="G48" t="n">
-        <v>1011.723333333333</v>
+        <v>1012.27</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>993.2</v>
       </c>
       <c r="C49" t="n">
-        <v>993.1</v>
+        <v>993.2</v>
       </c>
       <c r="D49" t="n">
         <v>993.2</v>
       </c>
       <c r="E49" t="n">
-        <v>993.1</v>
+        <v>993.2</v>
       </c>
       <c r="F49" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G49" t="n">
-        <v>1011.208333333333</v>
+        <v>1011.723333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,13 +2113,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>993.1</v>
+        <v>993.2</v>
       </c>
       <c r="C50" t="n">
         <v>993.1</v>
       </c>
       <c r="D50" t="n">
-        <v>993.1</v>
+        <v>993.2</v>
       </c>
       <c r="E50" t="n">
         <v>993.1</v>
@@ -2128,7 +2128,7 @@
         <v>275</v>
       </c>
       <c r="G50" t="n">
-        <v>1010.676666666667</v>
+        <v>1011.208333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>993.1</v>
       </c>
       <c r="F51" t="n">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G51" t="n">
-        <v>1010.111666666666</v>
+        <v>1010.676666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>993.1</v>
       </c>
       <c r="F52" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G52" t="n">
-        <v>1009.446666666666</v>
+        <v>1010.111666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>996.9</v>
+        <v>993.1</v>
       </c>
       <c r="C53" t="n">
-        <v>996.9</v>
+        <v>993.1</v>
       </c>
       <c r="D53" t="n">
-        <v>996.9</v>
+        <v>993.1</v>
       </c>
       <c r="E53" t="n">
-        <v>996.9</v>
+        <v>993.1</v>
       </c>
       <c r="F53" t="n">
-        <v>1.00310963</v>
+        <v>275</v>
       </c>
       <c r="G53" t="n">
-        <v>1008.945</v>
+        <v>1009.446666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>995</v>
+        <v>996.9</v>
       </c>
       <c r="C54" t="n">
-        <v>995</v>
+        <v>996.9</v>
       </c>
       <c r="D54" t="n">
-        <v>995</v>
+        <v>996.9</v>
       </c>
       <c r="E54" t="n">
-        <v>995</v>
+        <v>996.9</v>
       </c>
       <c r="F54" t="n">
-        <v>47.1141</v>
+        <v>1.00310963</v>
       </c>
       <c r="G54" t="n">
-        <v>1008.411666666667</v>
+        <v>1008.945</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>992.9</v>
+        <v>995</v>
       </c>
       <c r="C55" t="n">
-        <v>992.9</v>
+        <v>995</v>
       </c>
       <c r="D55" t="n">
-        <v>992.9</v>
+        <v>995</v>
       </c>
       <c r="E55" t="n">
-        <v>992.9</v>
+        <v>995</v>
       </c>
       <c r="F55" t="n">
-        <v>103</v>
+        <v>47.1141</v>
       </c>
       <c r="G55" t="n">
-        <v>1007.86</v>
+        <v>1008.411666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>990.6</v>
+        <v>992.9</v>
       </c>
       <c r="C56" t="n">
-        <v>989</v>
+        <v>992.9</v>
       </c>
       <c r="D56" t="n">
-        <v>990.6</v>
+        <v>992.9</v>
       </c>
       <c r="E56" t="n">
-        <v>989</v>
+        <v>992.9</v>
       </c>
       <c r="F56" t="n">
-        <v>3011.31</v>
+        <v>103</v>
       </c>
       <c r="G56" t="n">
-        <v>1007.226666666667</v>
+        <v>1007.86</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>991</v>
+        <v>990.6</v>
       </c>
       <c r="C57" t="n">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="D57" t="n">
-        <v>992</v>
+        <v>990.6</v>
       </c>
       <c r="E57" t="n">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F57" t="n">
-        <v>1050</v>
+        <v>3011.31</v>
       </c>
       <c r="G57" t="n">
-        <v>1006.643333333333</v>
+        <v>1007.226666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>986.6</v>
+        <v>991</v>
       </c>
       <c r="C58" t="n">
-        <v>986.6</v>
+        <v>992</v>
       </c>
       <c r="D58" t="n">
-        <v>986.6</v>
+        <v>992</v>
       </c>
       <c r="E58" t="n">
-        <v>986.6</v>
+        <v>991</v>
       </c>
       <c r="F58" t="n">
-        <v>269.96</v>
+        <v>1050</v>
       </c>
       <c r="G58" t="n">
-        <v>1005.97</v>
+        <v>1006.643333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2431,19 @@
         <v>986.6</v>
       </c>
       <c r="C59" t="n">
-        <v>986.5</v>
+        <v>986.6</v>
       </c>
       <c r="D59" t="n">
         <v>986.6</v>
       </c>
       <c r="E59" t="n">
-        <v>986.5</v>
+        <v>986.6</v>
       </c>
       <c r="F59" t="n">
-        <v>1069.1151</v>
+        <v>269.96</v>
       </c>
       <c r="G59" t="n">
-        <v>1005.295</v>
+        <v>1005.97</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>994</v>
+        <v>986.6</v>
       </c>
       <c r="C60" t="n">
-        <v>994</v>
+        <v>986.5</v>
       </c>
       <c r="D60" t="n">
-        <v>994</v>
+        <v>986.6</v>
       </c>
       <c r="E60" t="n">
-        <v>994</v>
+        <v>986.5</v>
       </c>
       <c r="F60" t="n">
-        <v>305</v>
+        <v>1069.1151</v>
       </c>
       <c r="G60" t="n">
-        <v>1004.828333333333</v>
+        <v>1005.295</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C61" t="n">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="D61" t="n">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="E61" t="n">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="F61" t="n">
-        <v>96.4889</v>
+        <v>305</v>
       </c>
       <c r="G61" t="n">
-        <v>1004.511666666667</v>
+        <v>1004.828333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>1000</v>
       </c>
       <c r="F62" t="n">
-        <v>104.7813</v>
+        <v>96.4889</v>
       </c>
       <c r="G62" t="n">
-        <v>1004.195</v>
+        <v>1004.511666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>1000</v>
       </c>
       <c r="F63" t="n">
-        <v>34.7493</v>
+        <v>104.7813</v>
       </c>
       <c r="G63" t="n">
-        <v>1003.878333333333</v>
+        <v>1004.195</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C64" t="n">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D64" t="n">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E64" t="n">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="F64" t="n">
-        <v>176.9441</v>
+        <v>34.7493</v>
       </c>
       <c r="G64" t="n">
-        <v>1003.611666666666</v>
+        <v>1003.878333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C65" t="n">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="D65" t="n">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E65" t="n">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F65" t="n">
-        <v>49.9999</v>
+        <v>176.9441</v>
       </c>
       <c r="G65" t="n">
-        <v>1003.395</v>
+        <v>1003.611666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C66" t="n">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D66" t="n">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E66" t="n">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="F66" t="n">
-        <v>500</v>
+        <v>49.9999</v>
       </c>
       <c r="G66" t="n">
-        <v>1003.211666666666</v>
+        <v>1003.395</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C67" t="n">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="D67" t="n">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="E67" t="n">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="F67" t="n">
-        <v>5398.00592299</v>
+        <v>500</v>
       </c>
       <c r="G67" t="n">
-        <v>1003.111666666666</v>
+        <v>1003.211666666666</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C68" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D68" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E68" t="n">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="F68" t="n">
-        <v>952.7741617299999</v>
+        <v>5398.00592299</v>
       </c>
       <c r="G68" t="n">
-        <v>1003.045</v>
+        <v>1003.111666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C69" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D69" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E69" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F69" t="n">
-        <v>78.7032</v>
+        <v>952.7741617299999</v>
       </c>
       <c r="G69" t="n">
-        <v>1002.978333333333</v>
+        <v>1003.045</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C70" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D70" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E70" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F70" t="n">
-        <v>80</v>
+        <v>78.7032</v>
       </c>
       <c r="G70" t="n">
-        <v>1002.945</v>
+        <v>1002.978333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C71" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D71" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E71" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F71" t="n">
-        <v>1.7</v>
+        <v>80</v>
       </c>
       <c r="G71" t="n">
-        <v>1002.961666666666</v>
+        <v>1002.945</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>1013</v>
       </c>
       <c r="F72" t="n">
-        <v>19</v>
+        <v>1.7</v>
       </c>
       <c r="G72" t="n">
-        <v>1002.861666666666</v>
+        <v>1002.961666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>1013</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5968</v>
+        <v>19</v>
       </c>
       <c r="G73" t="n">
-        <v>1002.895</v>
+        <v>1002.861666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="C74" t="n">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="D74" t="n">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="E74" t="n">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="F74" t="n">
-        <v>6350.7801</v>
+        <v>0.5968</v>
       </c>
       <c r="G74" t="n">
-        <v>1002.545</v>
+        <v>1002.895</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C75" t="n">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D75" t="n">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="E75" t="n">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="F75" t="n">
-        <v>528.8682</v>
+        <v>6350.7801</v>
       </c>
       <c r="G75" t="n">
-        <v>1002.328333333333</v>
+        <v>1002.545</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C76" t="n">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D76" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E76" t="n">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="F76" t="n">
-        <v>1627</v>
+        <v>528.8682</v>
       </c>
       <c r="G76" t="n">
-        <v>1002.161666666667</v>
+        <v>1002.328333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="C77" t="n">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D77" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="E77" t="n">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="F77" t="n">
-        <v>1829</v>
+        <v>1627</v>
       </c>
       <c r="G77" t="n">
-        <v>1001.978333333333</v>
+        <v>1002.161666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,10 +3093,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C78" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D78" t="n">
         <v>1003</v>
@@ -3105,10 +3105,10 @@
         <v>1001</v>
       </c>
       <c r="F78" t="n">
-        <v>1729.3814</v>
+        <v>1829</v>
       </c>
       <c r="G78" t="n">
-        <v>1001.895</v>
+        <v>1001.978333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>999.2</v>
+        <v>1003</v>
       </c>
       <c r="C79" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D79" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E79" t="n">
-        <v>999.2</v>
+        <v>1001</v>
       </c>
       <c r="F79" t="n">
-        <v>2593.7958</v>
+        <v>1729.3814</v>
       </c>
       <c r="G79" t="n">
-        <v>1001.761666666667</v>
+        <v>1001.895</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>999</v>
+        <v>999.2</v>
       </c>
       <c r="C80" t="n">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="D80" t="n">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="E80" t="n">
-        <v>998</v>
+        <v>999.2</v>
       </c>
       <c r="F80" t="n">
-        <v>1479.493</v>
+        <v>2593.7958</v>
       </c>
       <c r="G80" t="n">
-        <v>1001.478333333333</v>
+        <v>1001.761666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3201,19 +3201,19 @@
         <v>999</v>
       </c>
       <c r="C81" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D81" t="n">
         <v>999</v>
       </c>
       <c r="E81" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F81" t="n">
-        <v>1742.2687</v>
+        <v>1479.493</v>
       </c>
       <c r="G81" t="n">
-        <v>1001.178333333333</v>
+        <v>1001.478333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C82" t="n">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D82" t="n">
         <v>999</v>
       </c>
       <c r="E82" t="n">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F82" t="n">
-        <v>1535.0971</v>
+        <v>1742.2687</v>
       </c>
       <c r="G82" t="n">
-        <v>1000.861666666666</v>
+        <v>1001.178333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>998</v>
+      </c>
+      <c r="C83" t="n">
         <v>997</v>
       </c>
-      <c r="C83" t="n">
-        <v>996</v>
-      </c>
       <c r="D83" t="n">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E83" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F83" t="n">
-        <v>1939.3651</v>
+        <v>1535.0971</v>
       </c>
       <c r="G83" t="n">
-        <v>1000.545</v>
+        <v>1000.861666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C84" t="n">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="D84" t="n">
+        <v>998</v>
+      </c>
+      <c r="E84" t="n">
         <v>996</v>
       </c>
-      <c r="E84" t="n">
-        <v>992</v>
-      </c>
       <c r="F84" t="n">
-        <v>1621</v>
+        <v>1939.3651</v>
       </c>
       <c r="G84" t="n">
-        <v>1000.228333333333</v>
+        <v>1000.545</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>995</v>
+      </c>
+      <c r="C85" t="n">
+        <v>994</v>
+      </c>
+      <c r="D85" t="n">
+        <v>996</v>
+      </c>
+      <c r="E85" t="n">
         <v>992</v>
       </c>
-      <c r="C85" t="n">
-        <v>992</v>
-      </c>
-      <c r="D85" t="n">
-        <v>994</v>
-      </c>
-      <c r="E85" t="n">
-        <v>990.5</v>
-      </c>
       <c r="F85" t="n">
-        <v>1660.9348</v>
+        <v>1621</v>
       </c>
       <c r="G85" t="n">
-        <v>999.9449999999998</v>
+        <v>1000.228333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>990.5</v>
+        <v>992</v>
       </c>
       <c r="C86" t="n">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="D86" t="n">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E86" t="n">
         <v>990.5</v>
       </c>
       <c r="F86" t="n">
-        <v>1845.0652</v>
+        <v>1660.9348</v>
       </c>
       <c r="G86" t="n">
-        <v>999.6616666666665</v>
+        <v>999.9449999999998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>992</v>
+        <v>990.5</v>
       </c>
       <c r="C87" t="n">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="D87" t="n">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E87" t="n">
         <v>990.5</v>
       </c>
       <c r="F87" t="n">
-        <v>2647</v>
+        <v>1845.0652</v>
       </c>
       <c r="G87" t="n">
-        <v>999.3949999999999</v>
+        <v>999.6616666666665</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>992</v>
+      </c>
+      <c r="C88" t="n">
         <v>993</v>
       </c>
-      <c r="C88" t="n">
-        <v>990.5</v>
-      </c>
       <c r="D88" t="n">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E88" t="n">
         <v>990.5</v>
       </c>
       <c r="F88" t="n">
-        <v>2343.4478</v>
+        <v>2647</v>
       </c>
       <c r="G88" t="n">
-        <v>999.1033333333331</v>
+        <v>999.3949999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>993</v>
+      </c>
+      <c r="C89" t="n">
         <v>990.5</v>
       </c>
-      <c r="C89" t="n">
-        <v>992</v>
-      </c>
       <c r="D89" t="n">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E89" t="n">
         <v>990.5</v>
       </c>
       <c r="F89" t="n">
-        <v>1651.6749</v>
+        <v>2343.4478</v>
       </c>
       <c r="G89" t="n">
-        <v>998.8533333333331</v>
+        <v>999.1033333333331</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3516,19 +3516,19 @@
         <v>990.5</v>
       </c>
       <c r="C90" t="n">
-        <v>990.5</v>
+        <v>992</v>
       </c>
       <c r="D90" t="n">
-        <v>990.5</v>
+        <v>992</v>
       </c>
       <c r="E90" t="n">
         <v>990.5</v>
       </c>
       <c r="F90" t="n">
-        <v>2202</v>
+        <v>1651.6749</v>
       </c>
       <c r="G90" t="n">
-        <v>998.5783333333331</v>
+        <v>998.8533333333331</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>990.5</v>
       </c>
       <c r="C91" t="n">
-        <v>995</v>
+        <v>990.5</v>
       </c>
       <c r="D91" t="n">
-        <v>995</v>
+        <v>990.5</v>
       </c>
       <c r="E91" t="n">
         <v>990.5</v>
       </c>
       <c r="F91" t="n">
-        <v>3004.4345</v>
+        <v>2202</v>
       </c>
       <c r="G91" t="n">
-        <v>998.3949999999999</v>
+        <v>998.5783333333331</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>991</v>
+        <v>990.5</v>
       </c>
       <c r="C92" t="n">
-        <v>990.4</v>
+        <v>995</v>
       </c>
       <c r="D92" t="n">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E92" t="n">
-        <v>990.4</v>
+        <v>990.5</v>
       </c>
       <c r="F92" t="n">
-        <v>1547</v>
+        <v>3004.4345</v>
       </c>
       <c r="G92" t="n">
-        <v>998.2349999999999</v>
+        <v>998.3949999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>991</v>
+      </c>
+      <c r="C93" t="n">
         <v>990.4</v>
       </c>
-      <c r="C93" t="n">
-        <v>992</v>
-      </c>
       <c r="D93" t="n">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E93" t="n">
         <v>990.4</v>
       </c>
       <c r="F93" t="n">
-        <v>1820</v>
+        <v>1547</v>
       </c>
       <c r="G93" t="n">
-        <v>998.0016666666666</v>
+        <v>998.2349999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>990</v>
+        <v>990.4</v>
       </c>
       <c r="C94" t="n">
-        <v>989.1</v>
+        <v>992</v>
       </c>
       <c r="D94" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E94" t="n">
-        <v>989.1</v>
+        <v>990.4</v>
       </c>
       <c r="F94" t="n">
-        <v>1013.3078</v>
+        <v>1820</v>
       </c>
       <c r="G94" t="n">
-        <v>997.7366666666665</v>
+        <v>998.0016666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3691,19 +3691,19 @@
         <v>990</v>
       </c>
       <c r="C95" t="n">
-        <v>990</v>
+        <v>989.1</v>
       </c>
       <c r="D95" t="n">
         <v>990</v>
       </c>
       <c r="E95" t="n">
-        <v>989</v>
+        <v>989.1</v>
       </c>
       <c r="F95" t="n">
-        <v>6262.6922</v>
+        <v>1013.3078</v>
       </c>
       <c r="G95" t="n">
-        <v>997.5366666666665</v>
+        <v>997.7366666666665</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3732,13 +3732,13 @@
         <v>990</v>
       </c>
       <c r="E96" t="n">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F96" t="n">
-        <v>2334</v>
+        <v>6262.6922</v>
       </c>
       <c r="G96" t="n">
-        <v>997.3849999999999</v>
+        <v>997.5366666666665</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3761,19 +3761,19 @@
         <v>990</v>
       </c>
       <c r="C97" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D97" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E97" t="n">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="F97" t="n">
-        <v>1151.7739</v>
+        <v>2334</v>
       </c>
       <c r="G97" t="n">
-        <v>997.2683333333332</v>
+        <v>997.3849999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C98" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D98" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E98" t="n">
         <v>988</v>
       </c>
       <c r="F98" t="n">
-        <v>2543</v>
+        <v>1151.7739</v>
       </c>
       <c r="G98" t="n">
-        <v>997.1516666666665</v>
+        <v>997.2683333333332</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>989</v>
+      </c>
+      <c r="C99" t="n">
         <v>990</v>
-      </c>
-      <c r="C99" t="n">
-        <v>989</v>
       </c>
       <c r="D99" t="n">
         <v>990</v>
       </c>
       <c r="E99" t="n">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F99" t="n">
-        <v>1891.0857</v>
+        <v>2543</v>
       </c>
       <c r="G99" t="n">
-        <v>997.0033333333332</v>
+        <v>997.1516666666665</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C100" t="n">
         <v>989</v>
       </c>
       <c r="D100" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E100" t="n">
         <v>989</v>
       </c>
       <c r="F100" t="n">
-        <v>100</v>
+        <v>1891.0857</v>
       </c>
       <c r="G100" t="n">
-        <v>996.9033333333332</v>
+        <v>997.0033333333332</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>988.1</v>
+        <v>989</v>
       </c>
       <c r="C101" t="n">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D101" t="n">
-        <v>988.1</v>
+        <v>989</v>
       </c>
       <c r="E101" t="n">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F101" t="n">
-        <v>283</v>
+        <v>100</v>
       </c>
       <c r="G101" t="n">
-        <v>996.8333333333333</v>
+        <v>996.9033333333332</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>989</v>
+        <v>988.1</v>
       </c>
       <c r="C102" t="n">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D102" t="n">
-        <v>989</v>
+        <v>988.1</v>
       </c>
       <c r="E102" t="n">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F102" t="n">
-        <v>345</v>
+        <v>283</v>
       </c>
       <c r="G102" t="n">
-        <v>996.78</v>
+        <v>996.8333333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>989</v>
       </c>
       <c r="F103" t="n">
-        <v>1830</v>
+        <v>345</v>
       </c>
       <c r="G103" t="n">
-        <v>996.7116666666666</v>
+        <v>996.78</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>988.1</v>
+        <v>989</v>
       </c>
       <c r="C104" t="n">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D104" t="n">
-        <v>988.1</v>
+        <v>989</v>
       </c>
       <c r="E104" t="n">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F104" t="n">
-        <v>1529</v>
+        <v>1830</v>
       </c>
       <c r="G104" t="n">
-        <v>996.6566666666665</v>
+        <v>996.7116666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>988</v>
+        <v>988.1</v>
       </c>
       <c r="C105" t="n">
         <v>988</v>
       </c>
       <c r="D105" t="n">
-        <v>989</v>
+        <v>988.1</v>
       </c>
       <c r="E105" t="n">
-        <v>987.3</v>
+        <v>988</v>
       </c>
       <c r="F105" t="n">
-        <v>2196.13</v>
+        <v>1529</v>
       </c>
       <c r="G105" t="n">
-        <v>996.5716666666666</v>
+        <v>996.6566666666665</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,709 +4073,703 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>988</v>
+      </c>
+      <c r="C106" t="n">
+        <v>988</v>
+      </c>
+      <c r="D106" t="n">
+        <v>989</v>
+      </c>
+      <c r="E106" t="n">
+        <v>987.3</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2196.13</v>
+      </c>
+      <c r="G106" t="n">
+        <v>996.5716666666666</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
         <v>987.2</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C107" t="n">
         <v>986.7</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D107" t="n">
         <v>987.2</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E107" t="n">
         <v>986.7</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F107" t="n">
         <v>2176</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G107" t="n">
         <v>996.4649999999999</v>
       </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>986.6</v>
+      </c>
+      <c r="C108" t="n">
+        <v>986</v>
+      </c>
+      <c r="D108" t="n">
+        <v>987</v>
+      </c>
+      <c r="E108" t="n">
+        <v>986</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1328</v>
+      </c>
+      <c r="G108" t="n">
+        <v>996.3449999999999</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>984.7</v>
+      </c>
+      <c r="C109" t="n">
+        <v>984</v>
+      </c>
+      <c r="D109" t="n">
+        <v>985</v>
+      </c>
+      <c r="E109" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2221</v>
+      </c>
+      <c r="G109" t="n">
+        <v>996.1916666666667</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>984</v>
+      </c>
+      <c r="C110" t="n">
+        <v>986</v>
+      </c>
+      <c r="D110" t="n">
+        <v>986</v>
+      </c>
+      <c r="E110" t="n">
+        <v>984</v>
+      </c>
+      <c r="F110" t="n">
+        <v>580</v>
+      </c>
+      <c r="G110" t="n">
+        <v>996.0733333333334</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>986</v>
+      </c>
+      <c r="C111" t="n">
+        <v>987</v>
+      </c>
+      <c r="D111" t="n">
+        <v>987</v>
+      </c>
+      <c r="E111" t="n">
+        <v>986</v>
+      </c>
+      <c r="F111" t="n">
+        <v>625</v>
+      </c>
+      <c r="G111" t="n">
+        <v>995.9716666666667</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
         <v>988</v>
       </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
+      <c r="C112" t="n">
+        <v>988</v>
+      </c>
+      <c r="D112" t="n">
+        <v>988</v>
+      </c>
+      <c r="E112" t="n">
+        <v>988</v>
+      </c>
+      <c r="F112" t="n">
+        <v>273.87</v>
+      </c>
+      <c r="G112" t="n">
+        <v>995.8866666666668</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>987</v>
+      </c>
+      <c r="K112" t="n">
+        <v>987</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>989</v>
+      </c>
+      <c r="C113" t="n">
+        <v>989</v>
+      </c>
+      <c r="D113" t="n">
+        <v>989</v>
+      </c>
+      <c r="E113" t="n">
+        <v>989</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1576.3636</v>
+      </c>
+      <c r="G113" t="n">
+        <v>995.8183333333334</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>988</v>
+      </c>
+      <c r="K113" t="n">
+        <v>987</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>989</v>
+      </c>
+      <c r="C114" t="n">
+        <v>989</v>
+      </c>
+      <c r="D114" t="n">
+        <v>989</v>
+      </c>
+      <c r="E114" t="n">
+        <v>989</v>
+      </c>
+      <c r="F114" t="n">
+        <v>902.5007000000001</v>
+      </c>
+      <c r="G114" t="n">
+        <v>995.6866666666667</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>989</v>
+      </c>
+      <c r="K114" t="n">
+        <v>987</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>986</v>
+      </c>
+      <c r="C115" t="n">
+        <v>986</v>
+      </c>
+      <c r="D115" t="n">
+        <v>986</v>
+      </c>
+      <c r="E115" t="n">
+        <v>986</v>
+      </c>
+      <c r="F115" t="n">
+        <v>570</v>
+      </c>
+      <c r="G115" t="n">
+        <v>995.5366666666667</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>989</v>
+      </c>
+      <c r="K115" t="n">
+        <v>989</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>989</v>
+      </c>
+      <c r="C116" t="n">
+        <v>989</v>
+      </c>
+      <c r="D116" t="n">
+        <v>989</v>
+      </c>
+      <c r="E116" t="n">
+        <v>989</v>
+      </c>
+      <c r="F116" t="n">
+        <v>341.1378</v>
+      </c>
+      <c r="G116" t="n">
+        <v>995.4716666666667</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>986</v>
+      </c>
+      <c r="K116" t="n">
+        <v>989</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>989</v>
+      </c>
+      <c r="C117" t="n">
+        <v>989</v>
+      </c>
+      <c r="D117" t="n">
+        <v>989</v>
+      </c>
+      <c r="E117" t="n">
+        <v>989</v>
+      </c>
+      <c r="F117" t="n">
+        <v>753.5481</v>
+      </c>
+      <c r="G117" t="n">
+        <v>995.4716666666667</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>989</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>989</v>
+      </c>
+      <c r="C118" t="n">
+        <v>989</v>
+      </c>
+      <c r="D118" t="n">
+        <v>989</v>
+      </c>
+      <c r="E118" t="n">
+        <v>989</v>
+      </c>
+      <c r="F118" t="n">
+        <v>350.1504</v>
+      </c>
+      <c r="G118" t="n">
+        <v>995.4216666666667</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>989</v>
+      </c>
+      <c r="K118" t="n">
+        <v>989</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>989</v>
+      </c>
+      <c r="C119" t="n">
+        <v>989</v>
+      </c>
+      <c r="D119" t="n">
+        <v>989</v>
+      </c>
+      <c r="E119" t="n">
+        <v>989</v>
+      </c>
+      <c r="F119" t="n">
+        <v>355.8579</v>
+      </c>
+      <c r="G119" t="n">
+        <v>995.4616666666667</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>989</v>
+      </c>
+      <c r="K119" t="n">
+        <v>989</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>989</v>
+      </c>
+      <c r="C120" t="n">
+        <v>989</v>
+      </c>
+      <c r="D120" t="n">
+        <v>989</v>
+      </c>
+      <c r="E120" t="n">
+        <v>989</v>
+      </c>
+      <c r="F120" t="n">
+        <v>44.246</v>
+      </c>
+      <c r="G120" t="n">
+        <v>995.5033333333334</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>989</v>
+      </c>
+      <c r="K120" t="n">
+        <v>989</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>989</v>
+      </c>
+      <c r="C121" t="n">
+        <v>989</v>
+      </c>
+      <c r="D121" t="n">
+        <v>989</v>
+      </c>
+      <c r="E121" t="n">
+        <v>989</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1728.0284</v>
+      </c>
+      <c r="G121" t="n">
+        <v>995.4200000000001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>989</v>
+      </c>
+      <c r="K121" t="n">
+        <v>989</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>989</v>
+      </c>
+      <c r="C122" t="n">
+        <v>989</v>
+      </c>
+      <c r="D122" t="n">
+        <v>989</v>
+      </c>
+      <c r="E122" t="n">
+        <v>989</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3945.2335</v>
+      </c>
+      <c r="G122" t="n">
+        <v>995.2366666666668</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>989</v>
+      </c>
+      <c r="K122" t="n">
+        <v>989</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="C123" t="n">
+        <v>981</v>
+      </c>
+      <c r="D123" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>981</v>
+      </c>
+      <c r="F123" t="n">
+        <v>321.9</v>
+      </c>
+      <c r="G123" t="n">
+        <v>994.9200000000001</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>989</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>986.6</v>
-      </c>
-      <c r="C107" t="n">
-        <v>986</v>
-      </c>
-      <c r="D107" t="n">
-        <v>987</v>
-      </c>
-      <c r="E107" t="n">
-        <v>986</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1328</v>
-      </c>
-      <c r="G107" t="n">
-        <v>996.3449999999999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>984.7</v>
-      </c>
-      <c r="C108" t="n">
-        <v>984</v>
-      </c>
-      <c r="D108" t="n">
-        <v>985</v>
-      </c>
-      <c r="E108" t="n">
-        <v>983.5</v>
-      </c>
-      <c r="F108" t="n">
-        <v>2221</v>
-      </c>
-      <c r="G108" t="n">
-        <v>996.1916666666667</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>986</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>984</v>
-      </c>
-      <c r="C109" t="n">
-        <v>986</v>
-      </c>
-      <c r="D109" t="n">
-        <v>986</v>
-      </c>
-      <c r="E109" t="n">
-        <v>984</v>
-      </c>
-      <c r="F109" t="n">
-        <v>580</v>
-      </c>
-      <c r="G109" t="n">
-        <v>996.0733333333334</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>984</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>986</v>
-      </c>
-      <c r="C110" t="n">
-        <v>987</v>
-      </c>
-      <c r="D110" t="n">
-        <v>987</v>
-      </c>
-      <c r="E110" t="n">
-        <v>986</v>
-      </c>
-      <c r="F110" t="n">
-        <v>625</v>
-      </c>
-      <c r="G110" t="n">
-        <v>995.9716666666667</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>986</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>988</v>
-      </c>
-      <c r="C111" t="n">
-        <v>988</v>
-      </c>
-      <c r="D111" t="n">
-        <v>988</v>
-      </c>
-      <c r="E111" t="n">
-        <v>988</v>
-      </c>
-      <c r="F111" t="n">
-        <v>273.87</v>
-      </c>
-      <c r="G111" t="n">
-        <v>995.8866666666668</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>987</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>989</v>
-      </c>
-      <c r="C112" t="n">
-        <v>989</v>
-      </c>
-      <c r="D112" t="n">
-        <v>989</v>
-      </c>
-      <c r="E112" t="n">
-        <v>989</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1576.3636</v>
-      </c>
-      <c r="G112" t="n">
-        <v>995.8183333333334</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>989</v>
-      </c>
-      <c r="C113" t="n">
-        <v>989</v>
-      </c>
-      <c r="D113" t="n">
-        <v>989</v>
-      </c>
-      <c r="E113" t="n">
-        <v>989</v>
-      </c>
-      <c r="F113" t="n">
-        <v>902.5007000000001</v>
-      </c>
-      <c r="G113" t="n">
-        <v>995.6866666666667</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>986</v>
-      </c>
-      <c r="C114" t="n">
-        <v>986</v>
-      </c>
-      <c r="D114" t="n">
-        <v>986</v>
-      </c>
-      <c r="E114" t="n">
-        <v>986</v>
-      </c>
-      <c r="F114" t="n">
-        <v>570</v>
-      </c>
-      <c r="G114" t="n">
-        <v>995.5366666666667</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>989</v>
-      </c>
-      <c r="C115" t="n">
-        <v>989</v>
-      </c>
-      <c r="D115" t="n">
-        <v>989</v>
-      </c>
-      <c r="E115" t="n">
-        <v>989</v>
-      </c>
-      <c r="F115" t="n">
-        <v>341.1378</v>
-      </c>
-      <c r="G115" t="n">
-        <v>995.4716666666667</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>989</v>
-      </c>
-      <c r="C116" t="n">
-        <v>989</v>
-      </c>
-      <c r="D116" t="n">
-        <v>989</v>
-      </c>
-      <c r="E116" t="n">
-        <v>989</v>
-      </c>
-      <c r="F116" t="n">
-        <v>753.5481</v>
-      </c>
-      <c r="G116" t="n">
-        <v>995.4716666666667</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>989</v>
-      </c>
-      <c r="C117" t="n">
-        <v>989</v>
-      </c>
-      <c r="D117" t="n">
-        <v>989</v>
-      </c>
-      <c r="E117" t="n">
-        <v>989</v>
-      </c>
-      <c r="F117" t="n">
-        <v>350.1504</v>
-      </c>
-      <c r="G117" t="n">
-        <v>995.4216666666667</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>989</v>
-      </c>
-      <c r="C118" t="n">
-        <v>989</v>
-      </c>
-      <c r="D118" t="n">
-        <v>989</v>
-      </c>
-      <c r="E118" t="n">
-        <v>989</v>
-      </c>
-      <c r="F118" t="n">
-        <v>355.8579</v>
-      </c>
-      <c r="G118" t="n">
-        <v>995.4616666666667</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>989</v>
-      </c>
-      <c r="C119" t="n">
-        <v>989</v>
-      </c>
-      <c r="D119" t="n">
-        <v>989</v>
-      </c>
-      <c r="E119" t="n">
-        <v>989</v>
-      </c>
-      <c r="F119" t="n">
-        <v>44.246</v>
-      </c>
-      <c r="G119" t="n">
-        <v>995.5033333333334</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>989</v>
-      </c>
-      <c r="C120" t="n">
-        <v>989</v>
-      </c>
-      <c r="D120" t="n">
-        <v>989</v>
-      </c>
-      <c r="E120" t="n">
-        <v>989</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1728.0284</v>
-      </c>
-      <c r="G120" t="n">
-        <v>995.4200000000001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>989</v>
-      </c>
-      <c r="C121" t="n">
-        <v>989</v>
-      </c>
-      <c r="D121" t="n">
-        <v>989</v>
-      </c>
-      <c r="E121" t="n">
-        <v>989</v>
-      </c>
-      <c r="F121" t="n">
-        <v>3945.2335</v>
-      </c>
-      <c r="G121" t="n">
-        <v>995.2366666666668</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>983.5</v>
-      </c>
-      <c r="C122" t="n">
-        <v>981</v>
-      </c>
-      <c r="D122" t="n">
-        <v>983.5</v>
-      </c>
-      <c r="E122" t="n">
-        <v>981</v>
-      </c>
-      <c r="F122" t="n">
-        <v>321.9</v>
-      </c>
-      <c r="G122" t="n">
-        <v>994.9200000000001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>984.8</v>
-      </c>
-      <c r="C123" t="n">
-        <v>984.8</v>
-      </c>
-      <c r="D123" t="n">
-        <v>984.8</v>
-      </c>
-      <c r="E123" t="n">
-        <v>984.8</v>
-      </c>
-      <c r="F123" t="n">
-        <v>85.17319999999999</v>
-      </c>
-      <c r="G123" t="n">
-        <v>994.6666666666667</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4785,22 +4779,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>979</v>
+        <v>984.8</v>
       </c>
       <c r="C124" t="n">
-        <v>984.9</v>
+        <v>984.8</v>
       </c>
       <c r="D124" t="n">
-        <v>984.9</v>
+        <v>984.8</v>
       </c>
       <c r="E124" t="n">
-        <v>979</v>
+        <v>984.8</v>
       </c>
       <c r="F124" t="n">
-        <v>2109.7322</v>
+        <v>85.17319999999999</v>
       </c>
       <c r="G124" t="n">
-        <v>994.3650000000001</v>
+        <v>994.6666666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4809,7 +4803,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>989</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4824,22 +4820,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="C125" t="n">
-        <v>986</v>
+        <v>984.9</v>
       </c>
       <c r="D125" t="n">
-        <v>986</v>
+        <v>984.9</v>
       </c>
       <c r="E125" t="n">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="F125" t="n">
-        <v>57</v>
+        <v>2109.7322</v>
       </c>
       <c r="G125" t="n">
-        <v>994.0316666666669</v>
+        <v>994.3650000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4848,7 +4844,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>989</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4863,22 +4861,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C126" t="n">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="D126" t="n">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E126" t="n">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="F126" t="n">
-        <v>3295.3688</v>
+        <v>57</v>
       </c>
       <c r="G126" t="n">
-        <v>993.7150000000001</v>
+        <v>994.0316666666669</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4887,7 +4885,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>989</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4914,10 +4914,10 @@
         <v>989</v>
       </c>
       <c r="F127" t="n">
-        <v>1383.72</v>
+        <v>3295.3688</v>
       </c>
       <c r="G127" t="n">
-        <v>993.3150000000002</v>
+        <v>993.7150000000001</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4926,7 +4926,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>989</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4953,10 +4955,10 @@
         <v>989</v>
       </c>
       <c r="F128" t="n">
-        <v>1013.4832</v>
+        <v>1383.72</v>
       </c>
       <c r="G128" t="n">
-        <v>992.8983333333334</v>
+        <v>993.3150000000002</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4965,7 +4967,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>989</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4992,10 +4996,10 @@
         <v>989</v>
       </c>
       <c r="F129" t="n">
-        <v>778.2759</v>
+        <v>1013.4832</v>
       </c>
       <c r="G129" t="n">
-        <v>992.4983333333334</v>
+        <v>992.8983333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5004,7 +5008,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>989</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5019,22 +5025,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="C130" t="n">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="D130" t="n">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="E130" t="n">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="F130" t="n">
-        <v>1050</v>
+        <v>778.2759</v>
       </c>
       <c r="G130" t="n">
-        <v>991.9816666666668</v>
+        <v>992.4983333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5043,7 +5049,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>989</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5058,22 +5066,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="C131" t="n">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="D131" t="n">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="E131" t="n">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="F131" t="n">
-        <v>455</v>
+        <v>1050</v>
       </c>
       <c r="G131" t="n">
-        <v>991.4316666666668</v>
+        <v>991.9816666666668</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5082,7 +5090,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>989</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5097,22 +5107,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="C132" t="n">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="D132" t="n">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="E132" t="n">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="F132" t="n">
-        <v>197.847</v>
+        <v>455</v>
       </c>
       <c r="G132" t="n">
-        <v>991.0650000000002</v>
+        <v>991.4316666666668</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5121,7 +5131,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>989</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5136,22 +5148,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>990</v>
+      </c>
+      <c r="C133" t="n">
         <v>991</v>
       </c>
-      <c r="C133" t="n">
-        <v>992</v>
-      </c>
       <c r="D133" t="n">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E133" t="n">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F133" t="n">
-        <v>1498.712</v>
+        <v>197.847</v>
       </c>
       <c r="G133" t="n">
-        <v>990.7150000000001</v>
+        <v>991.0650000000002</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5160,7 +5172,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>989</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5175,22 +5189,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>991</v>
+      </c>
+      <c r="C134" t="n">
         <v>992</v>
       </c>
-      <c r="C134" t="n">
-        <v>994</v>
-      </c>
       <c r="D134" t="n">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E134" t="n">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F134" t="n">
-        <v>283.8622</v>
+        <v>1498.712</v>
       </c>
       <c r="G134" t="n">
-        <v>990.6150000000001</v>
+        <v>990.7150000000001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5199,7 +5213,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>989</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5214,7 +5230,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C135" t="n">
         <v>994</v>
@@ -5223,13 +5239,13 @@
         <v>994</v>
       </c>
       <c r="E135" t="n">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F135" t="n">
-        <v>82.66079999999999</v>
+        <v>283.8622</v>
       </c>
       <c r="G135" t="n">
-        <v>990.4150000000002</v>
+        <v>990.6150000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5238,7 +5254,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>989</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5253,22 +5271,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C136" t="n">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D136" t="n">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E136" t="n">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F136" t="n">
-        <v>116.0376</v>
+        <v>82.66079999999999</v>
       </c>
       <c r="G136" t="n">
-        <v>990.2816666666669</v>
+        <v>990.4150000000002</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5277,7 +5295,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>989</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5292,22 +5312,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C137" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D137" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E137" t="n">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F137" t="n">
-        <v>150</v>
+        <v>116.0376</v>
       </c>
       <c r="G137" t="n">
-        <v>990.1983333333335</v>
+        <v>990.2816666666669</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5316,7 +5336,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>989</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5343,10 +5365,10 @@
         <v>997</v>
       </c>
       <c r="F138" t="n">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="G138" t="n">
-        <v>990.1316666666668</v>
+        <v>990.1983333333335</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5355,7 +5377,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>989</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5370,22 +5394,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C139" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D139" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E139" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F139" t="n">
-        <v>791.7313</v>
+        <v>237</v>
       </c>
       <c r="G139" t="n">
-        <v>990.0983333333335</v>
+        <v>990.1316666666668</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5394,7 +5418,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>989</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5409,22 +5435,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C140" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D140" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E140" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F140" t="n">
-        <v>370</v>
+        <v>791.7313</v>
       </c>
       <c r="G140" t="n">
-        <v>990.1150000000001</v>
+        <v>990.0983333333335</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5433,7 +5459,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>989</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5448,22 +5476,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C141" t="n">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="D141" t="n">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="E141" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F141" t="n">
-        <v>4535</v>
+        <v>370</v>
       </c>
       <c r="G141" t="n">
-        <v>990.2150000000001</v>
+        <v>990.1150000000001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5472,7 +5500,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>989</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5487,10 +5517,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C142" t="n">
         <v>1005</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1000</v>
       </c>
       <c r="D142" t="n">
         <v>1005</v>
@@ -5499,10 +5529,10 @@
         <v>1000</v>
       </c>
       <c r="F142" t="n">
-        <v>1413.8523</v>
+        <v>4535</v>
       </c>
       <c r="G142" t="n">
-        <v>990.2650000000001</v>
+        <v>990.2150000000001</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5511,7 +5541,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>989</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5526,22 +5558,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="C143" t="n">
         <v>1000</v>
       </c>
       <c r="D143" t="n">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="E143" t="n">
         <v>1000</v>
       </c>
       <c r="F143" t="n">
-        <v>2127.8335</v>
+        <v>1413.8523</v>
       </c>
       <c r="G143" t="n">
-        <v>990.3316666666668</v>
+        <v>990.2650000000001</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5550,7 +5582,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>989</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5571,380 +5605,444 @@
         <v>1000</v>
       </c>
       <c r="D144" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E144" t="n">
         <v>1000</v>
       </c>
       <c r="F144" t="n">
+        <v>2127.8335</v>
+      </c>
+      <c r="G144" t="n">
+        <v>990.3316666666668</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>989</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F145" t="n">
         <v>1225.52</v>
       </c>
-      <c r="G144" t="n">
+      <c r="G145" t="n">
         <v>990.4316666666668</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>989</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C146" t="n">
+        <v>999</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E146" t="n">
+        <v>999</v>
+      </c>
+      <c r="F146" t="n">
+        <v>203.04</v>
+      </c>
+      <c r="G146" t="n">
+        <v>990.5483333333335</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>989</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>999</v>
+      </c>
+      <c r="C147" t="n">
+        <v>999</v>
+      </c>
+      <c r="D147" t="n">
+        <v>999</v>
+      </c>
+      <c r="E147" t="n">
+        <v>999</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G147" t="n">
+        <v>990.5983333333335</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>989</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>999</v>
+      </c>
+      <c r="C148" t="n">
+        <v>999</v>
+      </c>
+      <c r="D148" t="n">
+        <v>999</v>
+      </c>
+      <c r="E148" t="n">
+        <v>999</v>
+      </c>
+      <c r="F148" t="n">
+        <v>109.0783</v>
+      </c>
+      <c r="G148" t="n">
+        <v>990.6983333333335</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>989</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F149" t="n">
+        <v>5</v>
+      </c>
+      <c r="G149" t="n">
+        <v>990.8566666666668</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>989</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F150" t="n">
+        <v>47.3999</v>
+      </c>
+      <c r="G150" t="n">
+        <v>990.9900000000001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>989</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1007</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F151" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>991.2650000000001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>989</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1036.1772</v>
+      </c>
+      <c r="G152" t="n">
+        <v>991.4483333333335</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>989</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2765</v>
+      </c>
+      <c r="G153" t="n">
+        <v>991.7083333333335</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>989</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F154" t="n">
+        <v>53.0359</v>
+      </c>
+      <c r="G154" t="n">
+        <v>991.9416666666668</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>989</v>
+      </c>
+      <c r="L154" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C145" t="n">
-        <v>999</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E145" t="n">
-        <v>999</v>
-      </c>
-      <c r="F145" t="n">
-        <v>203.04</v>
-      </c>
-      <c r="G145" t="n">
-        <v>990.5483333333335</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>999</v>
-      </c>
-      <c r="C146" t="n">
-        <v>999</v>
-      </c>
-      <c r="D146" t="n">
-        <v>999</v>
-      </c>
-      <c r="E146" t="n">
-        <v>999</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G146" t="n">
-        <v>990.5983333333335</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>999</v>
-      </c>
-      <c r="C147" t="n">
-        <v>999</v>
-      </c>
-      <c r="D147" t="n">
-        <v>999</v>
-      </c>
-      <c r="E147" t="n">
-        <v>999</v>
-      </c>
-      <c r="F147" t="n">
-        <v>109.0783</v>
-      </c>
-      <c r="G147" t="n">
-        <v>990.6983333333335</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D148" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E148" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F148" t="n">
-        <v>5</v>
-      </c>
-      <c r="G148" t="n">
-        <v>990.8566666666668</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E149" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F149" t="n">
-        <v>47.3999</v>
-      </c>
-      <c r="G149" t="n">
-        <v>990.9900000000001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>1005</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1007</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1007</v>
-      </c>
-      <c r="E150" t="n">
-        <v>1005</v>
-      </c>
-      <c r="F150" t="n">
-        <v>103.1</v>
-      </c>
-      <c r="G150" t="n">
-        <v>991.2650000000001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>1006</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1006</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1006</v>
-      </c>
-      <c r="E151" t="n">
-        <v>1006</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1036.1772</v>
-      </c>
-      <c r="G151" t="n">
-        <v>991.4483333333335</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>1006</v>
-      </c>
-      <c r="C152" t="n">
-        <v>1006</v>
-      </c>
-      <c r="D152" t="n">
-        <v>1006</v>
-      </c>
-      <c r="E152" t="n">
-        <v>1006</v>
-      </c>
-      <c r="F152" t="n">
-        <v>2765</v>
-      </c>
-      <c r="G152" t="n">
-        <v>991.7083333333335</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>1006</v>
-      </c>
-      <c r="C153" t="n">
-        <v>1006</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1006</v>
-      </c>
-      <c r="E153" t="n">
-        <v>1006</v>
-      </c>
-      <c r="F153" t="n">
-        <v>53.0359</v>
-      </c>
-      <c r="G153" t="n">
-        <v>991.9416666666668</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>1005</v>
-      </c>
-      <c r="C154" t="n">
-        <v>1005</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1006</v>
-      </c>
-      <c r="E154" t="n">
-        <v>1004</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1554.8558</v>
-      </c>
-      <c r="G154" t="n">
-        <v>992.2066666666668</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
-        <v>1</v>
+        <v>1.012189079878665</v>
       </c>
     </row>
     <row r="155">
@@ -5958,22 +6056,22 @@
         <v>1005</v>
       </c>
       <c r="D155" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E155" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F155" t="n">
-        <v>46.9102</v>
+        <v>1554.8558</v>
       </c>
       <c r="G155" t="n">
-        <v>992.4566666666668</v>
+        <v>992.2066666666668</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -5987,28 +6085,28 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C156" t="n">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D156" t="n">
         <v>1005</v>
       </c>
       <c r="E156" t="n">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F156" t="n">
-        <v>4483.3208</v>
+        <v>46.9102</v>
       </c>
       <c r="G156" t="n">
-        <v>992.6900000000002</v>
+        <v>992.4566666666668</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -6028,16 +6126,16 @@
         <v>1004</v>
       </c>
       <c r="D157" t="n">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E157" t="n">
         <v>1004</v>
       </c>
       <c r="F157" t="n">
-        <v>1120.5961</v>
+        <v>4483.3208</v>
       </c>
       <c r="G157" t="n">
-        <v>992.8900000000001</v>
+        <v>992.6900000000002</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6060,25 +6158,25 @@
         <v>1004</v>
       </c>
       <c r="C158" t="n">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D158" t="n">
         <v>1004</v>
       </c>
       <c r="E158" t="n">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F158" t="n">
-        <v>2492.1433</v>
+        <v>1120.5961</v>
       </c>
       <c r="G158" t="n">
-        <v>993.1066666666668</v>
+        <v>992.8900000000001</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -6087,6 +6185,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2492.1433</v>
+      </c>
+      <c r="G159" t="n">
+        <v>993.1066666666668</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-25 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-25 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M159"/>
+  <dimension ref="A1:N169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>89.0351</v>
       </c>
       <c r="G2" t="n">
+        <v>1025.8</v>
+      </c>
+      <c r="H2" t="n">
         <v>1027.016666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>407.6339</v>
       </c>
       <c r="G3" t="n">
+        <v>1025.533333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>1026.9</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>2641.8645</v>
       </c>
       <c r="G4" t="n">
+        <v>1025.066666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>1026.866666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1143.4301</v>
       </c>
       <c r="G5" t="n">
+        <v>1024.733333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>1026.933333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>275</v>
       </c>
       <c r="G6" t="n">
+        <v>1024.333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>1027.033333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>119</v>
       </c>
       <c r="G7" t="n">
+        <v>1023.8</v>
+      </c>
+      <c r="H7" t="n">
         <v>1027</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1298.42</v>
       </c>
       <c r="G8" t="n">
+        <v>1022.866666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>1026.966666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>4932.9102</v>
       </c>
       <c r="G9" t="n">
+        <v>1022.266666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>1026.916666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>4877.4023</v>
       </c>
       <c r="G10" t="n">
+        <v>1021.6</v>
+      </c>
+      <c r="H10" t="n">
         <v>1026.85</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>4207.2364</v>
       </c>
       <c r="G11" t="n">
+        <v>1020.933333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>1026.766666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>2792.2771</v>
       </c>
       <c r="G12" t="n">
+        <v>1019.933333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>1026.6</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>7848.5722</v>
       </c>
       <c r="G13" t="n">
+        <v>1019.4</v>
+      </c>
+      <c r="H13" t="n">
         <v>1026.616666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>73.1987</v>
       </c>
       <c r="G14" t="n">
+        <v>1018.333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>1026.5</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>88.8417</v>
       </c>
       <c r="G15" t="n">
+        <v>1017.933333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>1026.55</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>631.6999</v>
       </c>
       <c r="G16" t="n">
+        <v>1017.733333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>1026.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>170.6697</v>
       </c>
       <c r="G17" t="n">
+        <v>1017.4</v>
+      </c>
+      <c r="H17" t="n">
         <v>1026.366666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>610</v>
       </c>
       <c r="G18" t="n">
+        <v>1017</v>
+      </c>
+      <c r="H18" t="n">
         <v>1026.216666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>129.0258</v>
       </c>
       <c r="G19" t="n">
+        <v>1016.133333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>1025.933333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>71.91540000000001</v>
       </c>
       <c r="G20" t="n">
+        <v>1015.4</v>
+      </c>
+      <c r="H20" t="n">
         <v>1025.683333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>910.3333</v>
       </c>
       <c r="G21" t="n">
+        <v>1015.133333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>1025.533333333334</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>175.4382</v>
       </c>
       <c r="G22" t="n">
+        <v>1015</v>
+      </c>
+      <c r="H22" t="n">
         <v>1025.416666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>1128.8387</v>
       </c>
       <c r="G23" t="n">
+        <v>1014.8</v>
+      </c>
+      <c r="H23" t="n">
         <v>1025.283333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>1755</v>
       </c>
       <c r="G24" t="n">
+        <v>1014.6</v>
+      </c>
+      <c r="H24" t="n">
         <v>1025.116666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>36.5988</v>
       </c>
       <c r="G25" t="n">
+        <v>1014.333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>1024.9</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>2089.6099</v>
       </c>
       <c r="G26" t="n">
+        <v>1013.866666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>1024.616666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>175.3585</v>
       </c>
       <c r="G27" t="n">
+        <v>1013.933333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>1024.3</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>175.4382</v>
       </c>
       <c r="G28" t="n">
+        <v>1013.266666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>1023.966666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>4209.9999</v>
       </c>
       <c r="G29" t="n">
+        <v>1013.066666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>1023.466666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>10</v>
       </c>
       <c r="G30" t="n">
+        <v>1012.133333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>1022.95</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>40.4969</v>
       </c>
       <c r="G31" t="n">
+        <v>1011.333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>1022.483333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>69.74209999999999</v>
       </c>
       <c r="G32" t="n">
+        <v>1010.8</v>
+      </c>
+      <c r="H32" t="n">
         <v>1022.083333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>182.5189</v>
       </c>
       <c r="G33" t="n">
+        <v>1009.933333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>1021.583333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>210</v>
       </c>
       <c r="G34" t="n">
+        <v>1009.933333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>1021.183333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>6.3644</v>
       </c>
       <c r="G35" t="n">
+        <v>1009.733333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>1020.733333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>225.8585</v>
       </c>
       <c r="G36" t="n">
+        <v>1008.866666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>1020.133333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>171.0919</v>
       </c>
       <c r="G37" t="n">
+        <v>1007.673333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>1019.468333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>698.2125</v>
       </c>
       <c r="G38" t="n">
+        <v>1006.54</v>
+      </c>
+      <c r="H38" t="n">
         <v>1018.751666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>215.4855</v>
       </c>
       <c r="G39" t="n">
+        <v>1005.34</v>
+      </c>
+      <c r="H39" t="n">
         <v>1017.968333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>678.0903</v>
       </c>
       <c r="G40" t="n">
+        <v>1004.333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>1017.25</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>464.0891</v>
       </c>
       <c r="G41" t="n">
+        <v>1003.4</v>
+      </c>
+      <c r="H41" t="n">
         <v>1016.616666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>1299.9999</v>
       </c>
       <c r="G42" t="n">
+        <v>1002.013333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>1016.003333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>84.1228</v>
       </c>
       <c r="G43" t="n">
+        <v>1000.893333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>1015.39</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>199.72364803</v>
       </c>
       <c r="G44" t="n">
+        <v>999.9000000000001</v>
+      </c>
+      <c r="H44" t="n">
         <v>1014.658333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>1121.713</v>
       </c>
       <c r="G45" t="n">
+        <v>998.8533333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>1013.93</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>1.7197</v>
       </c>
       <c r="G46" t="n">
+        <v>997.9266666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>1013.398333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>65</v>
       </c>
       <c r="G47" t="n">
+        <v>997.0666666666668</v>
+      </c>
+      <c r="H47" t="n">
         <v>1012.766666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>65</v>
       </c>
       <c r="G48" t="n">
+        <v>996.6133333333335</v>
+      </c>
+      <c r="H48" t="n">
         <v>1012.27</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>280</v>
       </c>
       <c r="G49" t="n">
+        <v>995.7600000000002</v>
+      </c>
+      <c r="H49" t="n">
         <v>1011.723333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>275</v>
       </c>
       <c r="G50" t="n">
+        <v>994.9666666666669</v>
+      </c>
+      <c r="H50" t="n">
         <v>1011.208333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>275</v>
       </c>
       <c r="G51" t="n">
+        <v>994.3733333333336</v>
+      </c>
+      <c r="H51" t="n">
         <v>1010.676666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>280</v>
       </c>
       <c r="G52" t="n">
+        <v>993.9733333333336</v>
+      </c>
+      <c r="H52" t="n">
         <v>1010.111666666666</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>275</v>
       </c>
       <c r="G53" t="n">
+        <v>993.5800000000003</v>
+      </c>
+      <c r="H53" t="n">
         <v>1009.446666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>1.00310963</v>
       </c>
       <c r="G54" t="n">
+        <v>993.5733333333336</v>
+      </c>
+      <c r="H54" t="n">
         <v>1008.945</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>47.1141</v>
       </c>
       <c r="G55" t="n">
+        <v>993.3800000000003</v>
+      </c>
+      <c r="H55" t="n">
         <v>1008.411666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>103</v>
       </c>
       <c r="G56" t="n">
+        <v>993.2400000000002</v>
+      </c>
+      <c r="H56" t="n">
         <v>1007.86</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>3011.31</v>
       </c>
       <c r="G57" t="n">
+        <v>993.0266666666669</v>
+      </c>
+      <c r="H57" t="n">
         <v>1007.226666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>1050</v>
       </c>
       <c r="G58" t="n">
+        <v>993.0133333333335</v>
+      </c>
+      <c r="H58" t="n">
         <v>1006.643333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>269.96</v>
       </c>
       <c r="G59" t="n">
+        <v>992.5800000000002</v>
+      </c>
+      <c r="H59" t="n">
         <v>1005.97</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>1069.1151</v>
       </c>
       <c r="G60" t="n">
+        <v>992.2600000000002</v>
+      </c>
+      <c r="H60" t="n">
         <v>1005.295</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>305</v>
       </c>
       <c r="G61" t="n">
+        <v>992.3200000000002</v>
+      </c>
+      <c r="H61" t="n">
         <v>1004.828333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>96.4889</v>
       </c>
       <c r="G62" t="n">
+        <v>992.7800000000002</v>
+      </c>
+      <c r="H62" t="n">
         <v>1004.511666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>104.7813</v>
       </c>
       <c r="G63" t="n">
+        <v>993.2333333333335</v>
+      </c>
+      <c r="H63" t="n">
         <v>1004.195</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>34.7493</v>
       </c>
       <c r="G64" t="n">
+        <v>993.6866666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>1003.878333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>176.9441</v>
       </c>
       <c r="G65" t="n">
+        <v>994.3466666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>1003.611666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>49.9999</v>
       </c>
       <c r="G66" t="n">
+        <v>995.2066666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>1003.395</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>500</v>
       </c>
       <c r="G67" t="n">
+        <v>996.2</v>
+      </c>
+      <c r="H67" t="n">
         <v>1003.211666666666</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>5398.00592299</v>
       </c>
       <c r="G68" t="n">
+        <v>997.5266666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>1003.111666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>952.7741617299999</v>
       </c>
       <c r="G69" t="n">
+        <v>998.6666666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>1003.045</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>78.7032</v>
       </c>
       <c r="G70" t="n">
+        <v>999.8666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>1002.978333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>80</v>
       </c>
       <c r="G71" t="n">
+        <v>1001.273333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>1002.945</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>1.7</v>
       </c>
       <c r="G72" t="n">
+        <v>1002.873333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>1002.961666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>19</v>
       </c>
       <c r="G73" t="n">
+        <v>1004.273333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>1002.861666666666</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>0.5968</v>
       </c>
       <c r="G74" t="n">
+        <v>1006.033333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>1002.895</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>6350.7801</v>
       </c>
       <c r="G75" t="n">
+        <v>1006.933333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>1002.545</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>528.8682</v>
       </c>
       <c r="G76" t="n">
+        <v>1007.733333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>1002.328333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>1627</v>
       </c>
       <c r="G77" t="n">
+        <v>1008</v>
+      </c>
+      <c r="H77" t="n">
         <v>1002.161666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>1829</v>
       </c>
       <c r="G78" t="n">
+        <v>1008.133333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>1001.978333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>1729.3814</v>
       </c>
       <c r="G79" t="n">
+        <v>1008.2</v>
+      </c>
+      <c r="H79" t="n">
         <v>1001.895</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>2593.7958</v>
       </c>
       <c r="G80" t="n">
+        <v>1008</v>
+      </c>
+      <c r="H80" t="n">
         <v>1001.761666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>1479.493</v>
       </c>
       <c r="G81" t="n">
+        <v>1007.466666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>1001.478333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>1742.2687</v>
       </c>
       <c r="G82" t="n">
+        <v>1006.866666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>1001.178333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>1535.0971</v>
       </c>
       <c r="G83" t="n">
+        <v>1005.8</v>
+      </c>
+      <c r="H83" t="n">
         <v>1000.861666666666</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>1939.3651</v>
       </c>
       <c r="G84" t="n">
+        <v>1004.6</v>
+      </c>
+      <c r="H84" t="n">
         <v>1000.545</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>1621</v>
       </c>
       <c r="G85" t="n">
+        <v>1003.333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>1000.228333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>1660.9348</v>
       </c>
       <c r="G86" t="n">
+        <v>1001.866666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>999.9449999999998</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>1845.0652</v>
       </c>
       <c r="G87" t="n">
+        <v>1000.733333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>999.6616666666665</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>2647</v>
       </c>
       <c r="G88" t="n">
+        <v>999.4</v>
+      </c>
+      <c r="H88" t="n">
         <v>999.3949999999999</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>2343.4478</v>
       </c>
       <c r="G89" t="n">
+        <v>997.9</v>
+      </c>
+      <c r="H89" t="n">
         <v>999.1033333333331</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>1651.6749</v>
       </c>
       <c r="G90" t="n">
+        <v>997.3666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>998.8533333333331</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>2202</v>
       </c>
       <c r="G91" t="n">
+        <v>996.3333333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>998.5783333333331</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>3004.4345</v>
       </c>
       <c r="G92" t="n">
+        <v>995.7333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>998.3949999999999</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>1547</v>
       </c>
       <c r="G93" t="n">
+        <v>994.9599999999999</v>
+      </c>
+      <c r="H93" t="n">
         <v>998.2349999999999</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>1820</v>
       </c>
       <c r="G94" t="n">
+        <v>994.36</v>
+      </c>
+      <c r="H94" t="n">
         <v>998.0016666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>1013.3078</v>
       </c>
       <c r="G95" t="n">
+        <v>993.6333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>997.7366666666665</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>6262.6922</v>
       </c>
       <c r="G96" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="H96" t="n">
         <v>997.5366666666665</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>2334</v>
       </c>
       <c r="G97" t="n">
+        <v>992.5</v>
+      </c>
+      <c r="H97" t="n">
         <v>997.3849999999999</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>1151.7739</v>
       </c>
       <c r="G98" t="n">
+        <v>992.1666666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>997.2683333333332</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>2543</v>
       </c>
       <c r="G99" t="n">
+        <v>991.7666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>997.1516666666665</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>1891.0857</v>
       </c>
       <c r="G100" t="n">
+        <v>991.4333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>997.0033333333332</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>100</v>
       </c>
       <c r="G101" t="n">
+        <v>991.2333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>996.9033333333332</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>283</v>
       </c>
       <c r="G102" t="n">
+        <v>990.7</v>
+      </c>
+      <c r="H102" t="n">
         <v>996.8333333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>345</v>
       </c>
       <c r="G103" t="n">
+        <v>990.4333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>996.78</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>1830</v>
       </c>
       <c r="G104" t="n">
+        <v>990.3333333333334</v>
+      </c>
+      <c r="H104" t="n">
         <v>996.7116666666666</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>1529</v>
       </c>
       <c r="G105" t="n">
+        <v>990.0666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>996.6566666666665</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>2196.13</v>
       </c>
       <c r="G106" t="n">
+        <v>989.9</v>
+      </c>
+      <c r="H106" t="n">
         <v>996.5716666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>2176</v>
       </c>
       <c r="G107" t="n">
+        <v>989.3466666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>996.4649999999999</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>1328</v>
       </c>
       <c r="G108" t="n">
+        <v>989.0533333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>996.3449999999999</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>2221</v>
       </c>
       <c r="G109" t="n">
+        <v>988.5200000000001</v>
+      </c>
+      <c r="H109" t="n">
         <v>996.1916666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>580</v>
       </c>
       <c r="G110" t="n">
+        <v>988.3133333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>996.0733333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>625</v>
       </c>
       <c r="G111" t="n">
+        <v>988.1133333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>995.9716666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,22 +4633,21 @@
         <v>273.87</v>
       </c>
       <c r="G112" t="n">
+        <v>987.98</v>
+      </c>
+      <c r="H112" t="n">
         <v>995.8866666666668</v>
       </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>987</v>
-      </c>
-      <c r="K112" t="n">
-        <v>987</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4337,26 +4671,21 @@
         <v>1576.3636</v>
       </c>
       <c r="G113" t="n">
+        <v>987.7800000000001</v>
+      </c>
+      <c r="H113" t="n">
         <v>995.8183333333334</v>
       </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>988</v>
-      </c>
-      <c r="K113" t="n">
-        <v>987</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4380,26 +4709,21 @@
         <v>902.5007000000001</v>
       </c>
       <c r="G114" t="n">
+        <v>987.7133333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>995.6866666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>989</v>
-      </c>
-      <c r="K114" t="n">
-        <v>987</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,22 +4747,21 @@
         <v>570</v>
       </c>
       <c r="G115" t="n">
+        <v>987.5133333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>995.5366666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>989</v>
-      </c>
-      <c r="K115" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4462,26 +4785,21 @@
         <v>341.1378</v>
       </c>
       <c r="G116" t="n">
+        <v>987.5133333333334</v>
+      </c>
+      <c r="H116" t="n">
         <v>995.4716666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>986</v>
-      </c>
-      <c r="K116" t="n">
-        <v>989</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4505,24 +4823,21 @@
         <v>753.5481</v>
       </c>
       <c r="G117" t="n">
+        <v>987.58</v>
+      </c>
+      <c r="H117" t="n">
         <v>995.4716666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>989</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4546,22 +4861,21 @@
         <v>350.1504</v>
       </c>
       <c r="G118" t="n">
+        <v>987.58</v>
+      </c>
+      <c r="H118" t="n">
         <v>995.4216666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>989</v>
-      </c>
-      <c r="K118" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4585,26 +4899,21 @@
         <v>355.8579</v>
       </c>
       <c r="G119" t="n">
+        <v>987.58</v>
+      </c>
+      <c r="H119" t="n">
         <v>995.4616666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>989</v>
-      </c>
-      <c r="K119" t="n">
-        <v>989</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4628,26 +4937,21 @@
         <v>44.246</v>
       </c>
       <c r="G120" t="n">
+        <v>987.6466666666668</v>
+      </c>
+      <c r="H120" t="n">
         <v>995.5033333333334</v>
       </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>989</v>
-      </c>
-      <c r="K120" t="n">
-        <v>989</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4671,22 +4975,21 @@
         <v>1728.0284</v>
       </c>
       <c r="G121" t="n">
+        <v>987.7133333333334</v>
+      </c>
+      <c r="H121" t="n">
         <v>995.4200000000001</v>
       </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>989</v>
-      </c>
-      <c r="K121" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4710,26 +5013,21 @@
         <v>3945.2335</v>
       </c>
       <c r="G122" t="n">
+        <v>987.8666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>995.2366666666668</v>
       </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>989</v>
-      </c>
-      <c r="K122" t="n">
-        <v>989</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,1470 +5051,2037 @@
         <v>321.9</v>
       </c>
       <c r="G123" t="n">
+        <v>987.5333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>994.9200000000001</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>989</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>984.8</v>
+      </c>
+      <c r="C124" t="n">
+        <v>984.8</v>
+      </c>
+      <c r="D124" t="n">
+        <v>984.8</v>
+      </c>
+      <c r="E124" t="n">
+        <v>984.8</v>
+      </c>
+      <c r="F124" t="n">
+        <v>85.17319999999999</v>
+      </c>
+      <c r="G124" t="n">
+        <v>987.5866666666666</v>
+      </c>
+      <c r="H124" t="n">
+        <v>994.6666666666667</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>979</v>
+      </c>
+      <c r="C125" t="n">
+        <v>984.9</v>
+      </c>
+      <c r="D125" t="n">
+        <v>984.9</v>
+      </c>
+      <c r="E125" t="n">
+        <v>979</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2109.7322</v>
+      </c>
+      <c r="G125" t="n">
+        <v>987.5133333333332</v>
+      </c>
+      <c r="H125" t="n">
+        <v>994.3650000000001</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>986</v>
+      </c>
+      <c r="C126" t="n">
+        <v>986</v>
+      </c>
+      <c r="D126" t="n">
+        <v>986</v>
+      </c>
+      <c r="E126" t="n">
+        <v>986</v>
+      </c>
+      <c r="F126" t="n">
+        <v>57</v>
+      </c>
+      <c r="G126" t="n">
+        <v>987.4466666666666</v>
+      </c>
+      <c r="H126" t="n">
+        <v>994.0316666666669</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>989</v>
+      </c>
+      <c r="C127" t="n">
+        <v>989</v>
+      </c>
+      <c r="D127" t="n">
+        <v>989</v>
+      </c>
+      <c r="E127" t="n">
+        <v>989</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3295.3688</v>
+      </c>
+      <c r="G127" t="n">
+        <v>987.5133333333332</v>
+      </c>
+      <c r="H127" t="n">
+        <v>993.7150000000001</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>989</v>
+      </c>
+      <c r="C128" t="n">
+        <v>989</v>
+      </c>
+      <c r="D128" t="n">
+        <v>989</v>
+      </c>
+      <c r="E128" t="n">
+        <v>989</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1383.72</v>
+      </c>
+      <c r="G128" t="n">
+        <v>987.5133333333332</v>
+      </c>
+      <c r="H128" t="n">
+        <v>993.3150000000002</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>989</v>
+      </c>
+      <c r="C129" t="n">
+        <v>989</v>
+      </c>
+      <c r="D129" t="n">
+        <v>989</v>
+      </c>
+      <c r="E129" t="n">
+        <v>989</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1013.4832</v>
+      </c>
+      <c r="G129" t="n">
+        <v>987.5133333333332</v>
+      </c>
+      <c r="H129" t="n">
+        <v>992.8983333333334</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>989</v>
+      </c>
+      <c r="C130" t="n">
+        <v>989</v>
+      </c>
+      <c r="D130" t="n">
+        <v>989</v>
+      </c>
+      <c r="E130" t="n">
+        <v>989</v>
+      </c>
+      <c r="F130" t="n">
+        <v>778.2759</v>
+      </c>
+      <c r="G130" t="n">
+        <v>987.7133333333333</v>
+      </c>
+      <c r="H130" t="n">
+        <v>992.4983333333334</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>989</v>
+      </c>
+      <c r="L130" t="n">
+        <v>989</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>985</v>
+      </c>
+      <c r="C131" t="n">
+        <v>983</v>
+      </c>
+      <c r="D131" t="n">
+        <v>985</v>
+      </c>
+      <c r="E131" t="n">
+        <v>983</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G131" t="n">
+        <v>987.3133333333333</v>
+      </c>
+      <c r="H131" t="n">
+        <v>991.9816666666668</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>989</v>
+      </c>
+      <c r="L131" t="n">
+        <v>989</v>
+      </c>
+      <c r="M131" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>984.8</v>
-      </c>
-      <c r="C124" t="n">
-        <v>984.8</v>
-      </c>
-      <c r="D124" t="n">
-        <v>984.8</v>
-      </c>
-      <c r="E124" t="n">
-        <v>984.8</v>
-      </c>
-      <c r="F124" t="n">
-        <v>85.17319999999999</v>
-      </c>
-      <c r="G124" t="n">
-        <v>994.6666666666667</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>989</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>982</v>
+      </c>
+      <c r="C132" t="n">
+        <v>980</v>
+      </c>
+      <c r="D132" t="n">
+        <v>982</v>
+      </c>
+      <c r="E132" t="n">
+        <v>980</v>
+      </c>
+      <c r="F132" t="n">
+        <v>455</v>
+      </c>
+      <c r="G132" t="n">
+        <v>986.7133333333333</v>
+      </c>
+      <c r="H132" t="n">
+        <v>991.4316666666668</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>983</v>
+      </c>
+      <c r="L132" t="n">
+        <v>989</v>
+      </c>
+      <c r="M132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>979</v>
-      </c>
-      <c r="C125" t="n">
-        <v>984.9</v>
-      </c>
-      <c r="D125" t="n">
-        <v>984.9</v>
-      </c>
-      <c r="E125" t="n">
-        <v>979</v>
-      </c>
-      <c r="F125" t="n">
-        <v>2109.7322</v>
-      </c>
-      <c r="G125" t="n">
-        <v>994.3650000000001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>989</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>990</v>
+      </c>
+      <c r="C133" t="n">
+        <v>991</v>
+      </c>
+      <c r="D133" t="n">
+        <v>991</v>
+      </c>
+      <c r="E133" t="n">
+        <v>990</v>
+      </c>
+      <c r="F133" t="n">
+        <v>197.847</v>
+      </c>
+      <c r="G133" t="n">
+        <v>986.8466666666666</v>
+      </c>
+      <c r="H133" t="n">
+        <v>991.0650000000002</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>980</v>
+      </c>
+      <c r="L133" t="n">
+        <v>989</v>
+      </c>
+      <c r="M133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>986</v>
-      </c>
-      <c r="C126" t="n">
-        <v>986</v>
-      </c>
-      <c r="D126" t="n">
-        <v>986</v>
-      </c>
-      <c r="E126" t="n">
-        <v>986</v>
-      </c>
-      <c r="F126" t="n">
-        <v>57</v>
-      </c>
-      <c r="G126" t="n">
-        <v>994.0316666666669</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>989</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>991</v>
+      </c>
+      <c r="C134" t="n">
+        <v>992</v>
+      </c>
+      <c r="D134" t="n">
+        <v>992</v>
+      </c>
+      <c r="E134" t="n">
+        <v>991</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1498.712</v>
+      </c>
+      <c r="G134" t="n">
+        <v>987.0466666666666</v>
+      </c>
+      <c r="H134" t="n">
+        <v>990.7150000000001</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>991</v>
+      </c>
+      <c r="L134" t="n">
+        <v>989</v>
+      </c>
+      <c r="M134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>989</v>
-      </c>
-      <c r="C127" t="n">
-        <v>989</v>
-      </c>
-      <c r="D127" t="n">
-        <v>989</v>
-      </c>
-      <c r="E127" t="n">
-        <v>989</v>
-      </c>
-      <c r="F127" t="n">
-        <v>3295.3688</v>
-      </c>
-      <c r="G127" t="n">
-        <v>993.7150000000001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>989</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>992</v>
+      </c>
+      <c r="C135" t="n">
+        <v>994</v>
+      </c>
+      <c r="D135" t="n">
+        <v>994</v>
+      </c>
+      <c r="E135" t="n">
+        <v>992</v>
+      </c>
+      <c r="F135" t="n">
+        <v>283.8622</v>
+      </c>
+      <c r="G135" t="n">
+        <v>987.3799999999999</v>
+      </c>
+      <c r="H135" t="n">
+        <v>990.6150000000001</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>992</v>
+      </c>
+      <c r="L135" t="n">
+        <v>989</v>
+      </c>
+      <c r="M135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>989</v>
-      </c>
-      <c r="C128" t="n">
-        <v>989</v>
-      </c>
-      <c r="D128" t="n">
-        <v>989</v>
-      </c>
-      <c r="E128" t="n">
-        <v>989</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1383.72</v>
-      </c>
-      <c r="G128" t="n">
-        <v>993.3150000000002</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>989</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>994</v>
+      </c>
+      <c r="C136" t="n">
+        <v>994</v>
+      </c>
+      <c r="D136" t="n">
+        <v>994</v>
+      </c>
+      <c r="E136" t="n">
+        <v>994</v>
+      </c>
+      <c r="F136" t="n">
+        <v>82.66079999999999</v>
+      </c>
+      <c r="G136" t="n">
+        <v>987.7133333333333</v>
+      </c>
+      <c r="H136" t="n">
+        <v>990.4150000000002</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>994</v>
+      </c>
+      <c r="L136" t="n">
+        <v>989</v>
+      </c>
+      <c r="M136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>989</v>
-      </c>
-      <c r="C129" t="n">
-        <v>989</v>
-      </c>
-      <c r="D129" t="n">
-        <v>989</v>
-      </c>
-      <c r="E129" t="n">
-        <v>989</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1013.4832</v>
-      </c>
-      <c r="G129" t="n">
-        <v>992.8983333333334</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>989</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>995</v>
+      </c>
+      <c r="C137" t="n">
+        <v>996</v>
+      </c>
+      <c r="D137" t="n">
+        <v>996</v>
+      </c>
+      <c r="E137" t="n">
+        <v>995</v>
+      </c>
+      <c r="F137" t="n">
+        <v>116.0376</v>
+      </c>
+      <c r="G137" t="n">
+        <v>988.1799999999999</v>
+      </c>
+      <c r="H137" t="n">
+        <v>990.2816666666669</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>994</v>
+      </c>
+      <c r="L137" t="n">
+        <v>989</v>
+      </c>
+      <c r="M137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>989</v>
-      </c>
-      <c r="C130" t="n">
-        <v>989</v>
-      </c>
-      <c r="D130" t="n">
-        <v>989</v>
-      </c>
-      <c r="E130" t="n">
-        <v>989</v>
-      </c>
-      <c r="F130" t="n">
-        <v>778.2759</v>
-      </c>
-      <c r="G130" t="n">
-        <v>992.4983333333334</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>989</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>997</v>
+      </c>
+      <c r="C138" t="n">
+        <v>997</v>
+      </c>
+      <c r="D138" t="n">
+        <v>997</v>
+      </c>
+      <c r="E138" t="n">
+        <v>997</v>
+      </c>
+      <c r="F138" t="n">
+        <v>150</v>
+      </c>
+      <c r="G138" t="n">
+        <v>989.2466666666666</v>
+      </c>
+      <c r="H138" t="n">
+        <v>990.1983333333335</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>996</v>
+      </c>
+      <c r="L138" t="n">
+        <v>989</v>
+      </c>
+      <c r="M138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>985</v>
-      </c>
-      <c r="C131" t="n">
-        <v>983</v>
-      </c>
-      <c r="D131" t="n">
-        <v>985</v>
-      </c>
-      <c r="E131" t="n">
-        <v>983</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1050</v>
-      </c>
-      <c r="G131" t="n">
-        <v>991.9816666666668</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>989</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>997</v>
+      </c>
+      <c r="C139" t="n">
+        <v>997</v>
+      </c>
+      <c r="D139" t="n">
+        <v>997</v>
+      </c>
+      <c r="E139" t="n">
+        <v>997</v>
+      </c>
+      <c r="F139" t="n">
+        <v>237</v>
+      </c>
+      <c r="G139" t="n">
+        <v>990.0599999999999</v>
+      </c>
+      <c r="H139" t="n">
+        <v>990.1316666666668</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>997</v>
+      </c>
+      <c r="L139" t="n">
+        <v>989</v>
+      </c>
+      <c r="M139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>982</v>
-      </c>
-      <c r="C132" t="n">
-        <v>980</v>
-      </c>
-      <c r="D132" t="n">
-        <v>982</v>
-      </c>
-      <c r="E132" t="n">
-        <v>980</v>
-      </c>
-      <c r="F132" t="n">
-        <v>455</v>
-      </c>
-      <c r="G132" t="n">
-        <v>991.4316666666668</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>989</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>998</v>
+      </c>
+      <c r="C140" t="n">
+        <v>998</v>
+      </c>
+      <c r="D140" t="n">
+        <v>998</v>
+      </c>
+      <c r="E140" t="n">
+        <v>998</v>
+      </c>
+      <c r="F140" t="n">
+        <v>791.7313</v>
+      </c>
+      <c r="G140" t="n">
+        <v>990.9333333333333</v>
+      </c>
+      <c r="H140" t="n">
+        <v>990.0983333333335</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>989</v>
+      </c>
+      <c r="M140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>990</v>
-      </c>
-      <c r="C133" t="n">
-        <v>991</v>
-      </c>
-      <c r="D133" t="n">
-        <v>991</v>
-      </c>
-      <c r="E133" t="n">
-        <v>990</v>
-      </c>
-      <c r="F133" t="n">
-        <v>197.847</v>
-      </c>
-      <c r="G133" t="n">
-        <v>991.0650000000002</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>989</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>999</v>
+      </c>
+      <c r="C141" t="n">
+        <v>999</v>
+      </c>
+      <c r="D141" t="n">
+        <v>999</v>
+      </c>
+      <c r="E141" t="n">
+        <v>999</v>
+      </c>
+      <c r="F141" t="n">
+        <v>370</v>
+      </c>
+      <c r="G141" t="n">
+        <v>991.8</v>
+      </c>
+      <c r="H141" t="n">
+        <v>990.1150000000001</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>998</v>
+      </c>
+      <c r="L141" t="n">
+        <v>989</v>
+      </c>
+      <c r="M141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>991</v>
-      </c>
-      <c r="C134" t="n">
-        <v>992</v>
-      </c>
-      <c r="D134" t="n">
-        <v>992</v>
-      </c>
-      <c r="E134" t="n">
-        <v>991</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1498.712</v>
-      </c>
-      <c r="G134" t="n">
-        <v>990.7150000000001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>989</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F142" t="n">
+        <v>4535</v>
+      </c>
+      <c r="G142" t="n">
+        <v>992.8666666666667</v>
+      </c>
+      <c r="H142" t="n">
+        <v>990.2150000000001</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>989</v>
+      </c>
+      <c r="M142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>992</v>
-      </c>
-      <c r="C135" t="n">
-        <v>994</v>
-      </c>
-      <c r="D135" t="n">
-        <v>994</v>
-      </c>
-      <c r="E135" t="n">
-        <v>992</v>
-      </c>
-      <c r="F135" t="n">
-        <v>283.8622</v>
-      </c>
-      <c r="G135" t="n">
-        <v>990.6150000000001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>989</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1413.8523</v>
+      </c>
+      <c r="G143" t="n">
+        <v>993.6</v>
+      </c>
+      <c r="H143" t="n">
+        <v>990.2650000000001</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>989</v>
+      </c>
+      <c r="M143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>994</v>
-      </c>
-      <c r="C136" t="n">
-        <v>994</v>
-      </c>
-      <c r="D136" t="n">
-        <v>994</v>
-      </c>
-      <c r="E136" t="n">
-        <v>994</v>
-      </c>
-      <c r="F136" t="n">
-        <v>82.66079999999999</v>
-      </c>
-      <c r="G136" t="n">
-        <v>990.4150000000002</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>989</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2127.8335</v>
+      </c>
+      <c r="G144" t="n">
+        <v>994.3333333333334</v>
+      </c>
+      <c r="H144" t="n">
+        <v>990.3316666666668</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>989</v>
+      </c>
+      <c r="M144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>995</v>
-      </c>
-      <c r="C137" t="n">
-        <v>996</v>
-      </c>
-      <c r="D137" t="n">
-        <v>996</v>
-      </c>
-      <c r="E137" t="n">
-        <v>995</v>
-      </c>
-      <c r="F137" t="n">
-        <v>116.0376</v>
-      </c>
-      <c r="G137" t="n">
-        <v>990.2816666666669</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>989</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1225.52</v>
+      </c>
+      <c r="G145" t="n">
+        <v>995.0666666666667</v>
+      </c>
+      <c r="H145" t="n">
+        <v>990.4316666666668</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>989</v>
+      </c>
+      <c r="M145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>997</v>
-      </c>
-      <c r="C138" t="n">
-        <v>997</v>
-      </c>
-      <c r="D138" t="n">
-        <v>997</v>
-      </c>
-      <c r="E138" t="n">
-        <v>997</v>
-      </c>
-      <c r="F138" t="n">
-        <v>150</v>
-      </c>
-      <c r="G138" t="n">
-        <v>990.1983333333335</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>989</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C146" t="n">
+        <v>999</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E146" t="n">
+        <v>999</v>
+      </c>
+      <c r="F146" t="n">
+        <v>203.04</v>
+      </c>
+      <c r="G146" t="n">
+        <v>996.1333333333333</v>
+      </c>
+      <c r="H146" t="n">
+        <v>990.5483333333335</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>989</v>
+      </c>
+      <c r="M146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>997</v>
-      </c>
-      <c r="C139" t="n">
-        <v>997</v>
-      </c>
-      <c r="D139" t="n">
-        <v>997</v>
-      </c>
-      <c r="E139" t="n">
-        <v>997</v>
-      </c>
-      <c r="F139" t="n">
-        <v>237</v>
-      </c>
-      <c r="G139" t="n">
-        <v>990.1316666666668</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>989</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>999</v>
+      </c>
+      <c r="C147" t="n">
+        <v>999</v>
+      </c>
+      <c r="D147" t="n">
+        <v>999</v>
+      </c>
+      <c r="E147" t="n">
+        <v>999</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G147" t="n">
+        <v>997.4</v>
+      </c>
+      <c r="H147" t="n">
+        <v>990.5983333333335</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>989</v>
+      </c>
+      <c r="M147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>998</v>
-      </c>
-      <c r="C140" t="n">
-        <v>998</v>
-      </c>
-      <c r="D140" t="n">
-        <v>998</v>
-      </c>
-      <c r="E140" t="n">
-        <v>998</v>
-      </c>
-      <c r="F140" t="n">
-        <v>791.7313</v>
-      </c>
-      <c r="G140" t="n">
-        <v>990.0983333333335</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>989</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>999</v>
+      </c>
+      <c r="C148" t="n">
+        <v>999</v>
+      </c>
+      <c r="D148" t="n">
+        <v>999</v>
+      </c>
+      <c r="E148" t="n">
+        <v>999</v>
+      </c>
+      <c r="F148" t="n">
+        <v>109.0783</v>
+      </c>
+      <c r="G148" t="n">
+        <v>997.9333333333333</v>
+      </c>
+      <c r="H148" t="n">
+        <v>990.6983333333335</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>999</v>
+      </c>
+      <c r="L148" t="n">
+        <v>989</v>
+      </c>
+      <c r="M148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F149" t="n">
+        <v>5</v>
+      </c>
+      <c r="G149" t="n">
+        <v>998.4666666666667</v>
+      </c>
+      <c r="H149" t="n">
+        <v>990.8566666666668</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
         <v>999</v>
       </c>
-      <c r="C141" t="n">
-        <v>999</v>
-      </c>
-      <c r="D141" t="n">
-        <v>999</v>
-      </c>
-      <c r="E141" t="n">
-        <v>999</v>
-      </c>
-      <c r="F141" t="n">
-        <v>370</v>
-      </c>
-      <c r="G141" t="n">
-        <v>990.1150000000001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>989</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="L149" t="n">
+        <v>989</v>
+      </c>
+      <c r="M149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
         <v>1000</v>
       </c>
-      <c r="C142" t="n">
-        <v>1005</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1005</v>
-      </c>
-      <c r="E142" t="n">
+      <c r="C150" t="n">
         <v>1000</v>
       </c>
-      <c r="F142" t="n">
-        <v>4535</v>
-      </c>
-      <c r="G142" t="n">
-        <v>990.2150000000001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>989</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="D150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F150" t="n">
+        <v>47.3999</v>
+      </c>
+      <c r="G150" t="n">
+        <v>998.8666666666667</v>
+      </c>
+      <c r="H150" t="n">
+        <v>990.9900000000001</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L150" t="n">
+        <v>989</v>
+      </c>
+      <c r="M150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
         <v>1005</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C151" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1007</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F151" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>999.7333333333333</v>
+      </c>
+      <c r="H151" t="n">
+        <v>991.2650000000001</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
         <v>1000</v>
       </c>
-      <c r="D143" t="n">
-        <v>1005</v>
-      </c>
-      <c r="E143" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1413.8523</v>
-      </c>
-      <c r="G143" t="n">
-        <v>990.2650000000001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>989</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="L151" t="n">
+        <v>989</v>
+      </c>
+      <c r="M151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1002</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F144" t="n">
-        <v>2127.8335</v>
-      </c>
-      <c r="G144" t="n">
-        <v>990.3316666666668</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>989</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1036.1772</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1000.4</v>
+      </c>
+      <c r="H152" t="n">
+        <v>991.4483333333335</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>989</v>
+      </c>
+      <c r="M152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E145" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1225.52</v>
-      </c>
-      <c r="G145" t="n">
-        <v>990.4316666666668</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>989</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2765</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>991.7083333333335</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>989</v>
+      </c>
+      <c r="M153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C146" t="n">
-        <v>999</v>
-      </c>
-      <c r="D146" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E146" t="n">
-        <v>999</v>
-      </c>
-      <c r="F146" t="n">
-        <v>203.04</v>
-      </c>
-      <c r="G146" t="n">
-        <v>990.5483333333335</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>989</v>
-      </c>
-      <c r="L146" t="inlineStr">
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F154" t="n">
+        <v>53.0359</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1001.6</v>
+      </c>
+      <c r="H154" t="n">
+        <v>991.9416666666668</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>989</v>
+      </c>
+      <c r="M154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>999</v>
-      </c>
-      <c r="C147" t="n">
-        <v>999</v>
-      </c>
-      <c r="D147" t="n">
-        <v>999</v>
-      </c>
-      <c r="E147" t="n">
-        <v>999</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G147" t="n">
-        <v>990.5983333333335</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>989</v>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1004</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1554.8558</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1002.066666666667</v>
+      </c>
+      <c r="H155" t="n">
+        <v>992.2066666666668</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>989</v>
+      </c>
+      <c r="M155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>999</v>
-      </c>
-      <c r="C148" t="n">
-        <v>999</v>
-      </c>
-      <c r="D148" t="n">
-        <v>999</v>
-      </c>
-      <c r="E148" t="n">
-        <v>999</v>
-      </c>
-      <c r="F148" t="n">
-        <v>109.0783</v>
-      </c>
-      <c r="G148" t="n">
-        <v>990.6983333333335</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>989</v>
-      </c>
-      <c r="L148" t="inlineStr">
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F156" t="n">
+        <v>46.9102</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1002.466666666667</v>
+      </c>
+      <c r="H156" t="n">
+        <v>992.4566666666668</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>989</v>
+      </c>
+      <c r="M156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E149" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F149" t="n">
-        <v>5</v>
-      </c>
-      <c r="G149" t="n">
-        <v>990.8566666666668</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>989</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1004</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1004</v>
+      </c>
+      <c r="F157" t="n">
+        <v>4483.3208</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1002.4</v>
+      </c>
+      <c r="H157" t="n">
+        <v>992.6900000000002</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>989</v>
+      </c>
+      <c r="M157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E150" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F150" t="n">
-        <v>47.3999</v>
-      </c>
-      <c r="G150" t="n">
-        <v>990.9900000000001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>989</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1004</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1004</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1120.5961</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1002.666666666667</v>
+      </c>
+      <c r="H158" t="n">
+        <v>992.8900000000001</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>989</v>
+      </c>
+      <c r="M158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>1005</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1007</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1007</v>
-      </c>
-      <c r="E151" t="n">
-        <v>1005</v>
-      </c>
-      <c r="F151" t="n">
-        <v>103.1</v>
-      </c>
-      <c r="G151" t="n">
-        <v>991.2650000000001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>989</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2492.1433</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1002.866666666667</v>
+      </c>
+      <c r="H159" t="n">
+        <v>993.1066666666668</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>989</v>
+      </c>
+      <c r="M159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>1006</v>
-      </c>
-      <c r="C152" t="n">
-        <v>1006</v>
-      </c>
-      <c r="D152" t="n">
-        <v>1006</v>
-      </c>
-      <c r="E152" t="n">
-        <v>1006</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1036.1772</v>
-      </c>
-      <c r="G152" t="n">
-        <v>991.4483333333335</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>989</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3970.1906</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1003.066666666667</v>
+      </c>
+      <c r="H160" t="n">
+        <v>993.3400000000001</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>989</v>
+      </c>
+      <c r="M160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>1006</v>
-      </c>
-      <c r="C153" t="n">
-        <v>1006</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1006</v>
-      </c>
-      <c r="E153" t="n">
-        <v>1006</v>
-      </c>
-      <c r="F153" t="n">
-        <v>2765</v>
-      </c>
-      <c r="G153" t="n">
-        <v>991.7083333333335</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>989</v>
-      </c>
-      <c r="L153" t="inlineStr">
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1111.2598</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1003.333333333333</v>
+      </c>
+      <c r="H161" t="n">
+        <v>993.5733333333335</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>989</v>
+      </c>
+      <c r="M161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>1006</v>
-      </c>
-      <c r="C154" t="n">
-        <v>1006</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1006</v>
-      </c>
-      <c r="E154" t="n">
-        <v>1006</v>
-      </c>
-      <c r="F154" t="n">
-        <v>53.0359</v>
-      </c>
-      <c r="G154" t="n">
-        <v>991.9416666666668</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>989</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2115</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1003.6</v>
+      </c>
+      <c r="H162" t="n">
+        <v>993.8233333333335</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>989</v>
+      </c>
+      <c r="M162" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1.012189079878665</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>1005</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1005</v>
-      </c>
-      <c r="D155" t="n">
-        <v>1006</v>
-      </c>
-      <c r="E155" t="n">
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1002</v>
+      </c>
+      <c r="F163" t="n">
+        <v>200</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1003.8</v>
+      </c>
+      <c r="H163" t="n">
+        <v>994.0400000000002</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>989</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1002</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1800.43</v>
+      </c>
+      <c r="G164" t="n">
         <v>1004</v>
       </c>
-      <c r="F155" t="n">
-        <v>1554.8558</v>
-      </c>
-      <c r="G155" t="n">
-        <v>992.2066666666668</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>1005</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1005</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1005</v>
-      </c>
-      <c r="E156" t="n">
-        <v>1005</v>
-      </c>
-      <c r="F156" t="n">
-        <v>46.9102</v>
-      </c>
-      <c r="G156" t="n">
-        <v>992.4566666666668</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>1004</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1004</v>
-      </c>
-      <c r="D157" t="n">
-        <v>1005</v>
-      </c>
-      <c r="E157" t="n">
-        <v>1004</v>
-      </c>
-      <c r="F157" t="n">
-        <v>4483.3208</v>
-      </c>
-      <c r="G157" t="n">
-        <v>992.6900000000002</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>1004</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1004</v>
-      </c>
-      <c r="D158" t="n">
-        <v>1004</v>
-      </c>
-      <c r="E158" t="n">
-        <v>1004</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1120.5961</v>
-      </c>
-      <c r="G158" t="n">
-        <v>992.8900000000001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>1004</v>
-      </c>
-      <c r="C159" t="n">
+      <c r="H164" t="n">
+        <v>994.2733333333334</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>989</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1002</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1063</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1004.133333333333</v>
+      </c>
+      <c r="H165" t="n">
+        <v>994.5066666666668</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>989</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
         <v>1003</v>
       </c>
-      <c r="D159" t="n">
-        <v>1004</v>
-      </c>
-      <c r="E159" t="n">
+      <c r="C166" t="n">
         <v>1003</v>
       </c>
-      <c r="F159" t="n">
-        <v>2492.1433</v>
-      </c>
-      <c r="G159" t="n">
-        <v>993.1066666666668</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="D166" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1515</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1003.866666666667</v>
+      </c>
+      <c r="H166" t="n">
+        <v>994.7566666666668</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>989</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2250.1245</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1003.666666666667</v>
+      </c>
+      <c r="H167" t="n">
+        <v>995.0283333333335</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1003</v>
+      </c>
+      <c r="L167" t="n">
+        <v>989</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F168" t="n">
+        <v>625</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1003.466666666667</v>
+      </c>
+      <c r="H168" t="n">
+        <v>995.3116666666668</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>989</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F169" t="n">
+        <v>370</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1003.266666666667</v>
+      </c>
+      <c r="H169" t="n">
+        <v>995.6283333333336</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>989</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-25 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-25 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:M198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1019</v>
+        <v>1030</v>
       </c>
       <c r="C2" t="n">
-        <v>1019</v>
+        <v>1030</v>
       </c>
       <c r="D2" t="n">
-        <v>1019</v>
+        <v>1030</v>
       </c>
       <c r="E2" t="n">
-        <v>1019</v>
+        <v>1030</v>
       </c>
       <c r="F2" t="n">
-        <v>89.0351</v>
+        <v>17.3709</v>
       </c>
       <c r="G2" t="n">
-        <v>1025.8</v>
+        <v>41998.3062</v>
       </c>
       <c r="H2" t="n">
-        <v>1027.016666666667</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="C3" t="n">
-        <v>1019</v>
+        <v>1030</v>
       </c>
       <c r="D3" t="n">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="E3" t="n">
-        <v>1019</v>
+        <v>1030</v>
       </c>
       <c r="F3" t="n">
-        <v>407.6339</v>
+        <v>59.9747</v>
       </c>
       <c r="G3" t="n">
-        <v>1025.533333333333</v>
+        <v>41998.3062</v>
       </c>
       <c r="H3" t="n">
-        <v>1026.9</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="C4" t="n">
-        <v>1019</v>
+        <v>1032</v>
       </c>
       <c r="D4" t="n">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="E4" t="n">
-        <v>1019</v>
+        <v>1032</v>
       </c>
       <c r="F4" t="n">
-        <v>2641.8645</v>
+        <v>235.2795</v>
       </c>
       <c r="G4" t="n">
-        <v>1025.066666666667</v>
+        <v>42233.5857</v>
       </c>
       <c r="H4" t="n">
-        <v>1026.866666666667</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1019</v>
+        <v>1036</v>
       </c>
       <c r="C5" t="n">
-        <v>1019</v>
+        <v>1038</v>
       </c>
       <c r="D5" t="n">
-        <v>1019</v>
+        <v>1038</v>
       </c>
       <c r="E5" t="n">
-        <v>1019</v>
+        <v>1036</v>
       </c>
       <c r="F5" t="n">
-        <v>1143.4301</v>
+        <v>4820.70231127</v>
       </c>
       <c r="G5" t="n">
-        <v>1024.733333333333</v>
+        <v>47054.28801126999</v>
       </c>
       <c r="H5" t="n">
-        <v>1026.933333333333</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1019</v>
+        <v>1039</v>
       </c>
       <c r="C6" t="n">
-        <v>1019</v>
+        <v>1039</v>
       </c>
       <c r="D6" t="n">
-        <v>1019</v>
+        <v>1039</v>
       </c>
       <c r="E6" t="n">
-        <v>1019</v>
+        <v>1039</v>
       </c>
       <c r="F6" t="n">
-        <v>275</v>
+        <v>477.7365</v>
       </c>
       <c r="G6" t="n">
-        <v>1024.333333333333</v>
+        <v>47532.02451126999</v>
       </c>
       <c r="H6" t="n">
-        <v>1027.033333333334</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1019</v>
+        <v>1040</v>
       </c>
       <c r="C7" t="n">
-        <v>1019</v>
+        <v>1042</v>
       </c>
       <c r="D7" t="n">
-        <v>1019</v>
+        <v>1042</v>
       </c>
       <c r="E7" t="n">
-        <v>1019</v>
+        <v>1040</v>
       </c>
       <c r="F7" t="n">
-        <v>119</v>
+        <v>88.7608</v>
       </c>
       <c r="G7" t="n">
-        <v>1023.8</v>
+        <v>47620.78531126999</v>
       </c>
       <c r="H7" t="n">
-        <v>1027</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1019</v>
+        <v>1042</v>
       </c>
       <c r="C8" t="n">
-        <v>1019</v>
+        <v>1044</v>
       </c>
       <c r="D8" t="n">
-        <v>1019</v>
+        <v>1044</v>
       </c>
       <c r="E8" t="n">
-        <v>1019</v>
+        <v>1042</v>
       </c>
       <c r="F8" t="n">
-        <v>1298.42</v>
+        <v>1513.7392</v>
       </c>
       <c r="G8" t="n">
-        <v>1022.866666666667</v>
+        <v>49134.52451126999</v>
       </c>
       <c r="H8" t="n">
-        <v>1026.966666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1019</v>
+        <v>1043</v>
       </c>
       <c r="C9" t="n">
-        <v>1018</v>
+        <v>1041</v>
       </c>
       <c r="D9" t="n">
-        <v>1019</v>
+        <v>1043</v>
       </c>
       <c r="E9" t="n">
-        <v>1018</v>
+        <v>1041</v>
       </c>
       <c r="F9" t="n">
-        <v>4932.9102</v>
+        <v>42.4481</v>
       </c>
       <c r="G9" t="n">
-        <v>1022.266666666667</v>
+        <v>49092.07641126999</v>
       </c>
       <c r="H9" t="n">
-        <v>1026.916666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1017</v>
+        <v>1040</v>
       </c>
       <c r="C10" t="n">
-        <v>1017</v>
+        <v>1033</v>
       </c>
       <c r="D10" t="n">
-        <v>1017</v>
+        <v>1042</v>
       </c>
       <c r="E10" t="n">
-        <v>1014</v>
+        <v>1033</v>
       </c>
       <c r="F10" t="n">
-        <v>4877.4023</v>
+        <v>1005.4621</v>
       </c>
       <c r="G10" t="n">
-        <v>1021.6</v>
+        <v>48086.61431126999</v>
       </c>
       <c r="H10" t="n">
-        <v>1026.85</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1017</v>
+        <v>1030</v>
       </c>
       <c r="C11" t="n">
-        <v>1016</v>
+        <v>1029</v>
       </c>
       <c r="D11" t="n">
-        <v>1017</v>
+        <v>1030</v>
       </c>
       <c r="E11" t="n">
-        <v>1016</v>
+        <v>1029</v>
       </c>
       <c r="F11" t="n">
-        <v>4207.2364</v>
+        <v>31.9172</v>
       </c>
       <c r="G11" t="n">
-        <v>1020.933333333333</v>
+        <v>48054.69711126999</v>
       </c>
       <c r="H11" t="n">
-        <v>1026.766666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1016</v>
+        <v>1029</v>
       </c>
       <c r="C12" t="n">
-        <v>1012</v>
+        <v>1029</v>
       </c>
       <c r="D12" t="n">
-        <v>1016</v>
+        <v>1029</v>
       </c>
       <c r="E12" t="n">
-        <v>1012</v>
+        <v>1029</v>
       </c>
       <c r="F12" t="n">
-        <v>2792.2771</v>
+        <v>6.6662</v>
       </c>
       <c r="G12" t="n">
-        <v>1019.933333333333</v>
+        <v>48054.69711126999</v>
       </c>
       <c r="H12" t="n">
-        <v>1026.6</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1012</v>
+        <v>1037</v>
       </c>
       <c r="C13" t="n">
-        <v>1019</v>
+        <v>1037</v>
       </c>
       <c r="D13" t="n">
-        <v>1019</v>
+        <v>1037</v>
       </c>
       <c r="E13" t="n">
-        <v>1010</v>
+        <v>1037</v>
       </c>
       <c r="F13" t="n">
-        <v>7848.5722</v>
+        <v>31.9</v>
       </c>
       <c r="G13" t="n">
-        <v>1019.4</v>
+        <v>48086.59711126999</v>
       </c>
       <c r="H13" t="n">
-        <v>1026.616666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1011</v>
+        <v>1035</v>
       </c>
       <c r="C14" t="n">
-        <v>1011</v>
+        <v>1035</v>
       </c>
       <c r="D14" t="n">
-        <v>1011</v>
+        <v>1035</v>
       </c>
       <c r="E14" t="n">
-        <v>1011</v>
+        <v>1035</v>
       </c>
       <c r="F14" t="n">
-        <v>73.1987</v>
+        <v>35.0096</v>
       </c>
       <c r="G14" t="n">
-        <v>1018.333333333333</v>
+        <v>48051.58751126999</v>
       </c>
       <c r="H14" t="n">
-        <v>1026.5</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="C15" t="n">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="D15" t="n">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="E15" t="n">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="F15" t="n">
-        <v>88.8417</v>
+        <v>123.1736</v>
       </c>
       <c r="G15" t="n">
-        <v>1017.933333333333</v>
+        <v>47928.41391126999</v>
       </c>
       <c r="H15" t="n">
-        <v>1026.55</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1018</v>
+        <v>1031</v>
       </c>
       <c r="C16" t="n">
-        <v>1019</v>
+        <v>1031</v>
       </c>
       <c r="D16" t="n">
-        <v>1019</v>
+        <v>1031</v>
       </c>
       <c r="E16" t="n">
-        <v>1018</v>
+        <v>1031</v>
       </c>
       <c r="F16" t="n">
-        <v>631.6999</v>
+        <v>390</v>
       </c>
       <c r="G16" t="n">
-        <v>1017.733333333333</v>
+        <v>48318.41391126999</v>
       </c>
       <c r="H16" t="n">
-        <v>1026.5</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="C17" t="n">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="D17" t="n">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="E17" t="n">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="F17" t="n">
-        <v>170.6697</v>
+        <v>1.2598</v>
       </c>
       <c r="G17" t="n">
-        <v>1017.4</v>
+        <v>48317.15411126999</v>
       </c>
       <c r="H17" t="n">
-        <v>1026.366666666667</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1012</v>
+        <v>1023</v>
       </c>
       <c r="C18" t="n">
-        <v>1013</v>
+        <v>1026</v>
       </c>
       <c r="D18" t="n">
-        <v>1013</v>
+        <v>1026</v>
       </c>
       <c r="E18" t="n">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="F18" t="n">
-        <v>610</v>
+        <v>1345.5736</v>
       </c>
       <c r="G18" t="n">
-        <v>1017</v>
+        <v>49662.72771127</v>
       </c>
       <c r="H18" t="n">
-        <v>1026.216666666667</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1008</v>
+        <v>1024</v>
       </c>
       <c r="C19" t="n">
-        <v>1006</v>
+        <v>1024</v>
       </c>
       <c r="D19" t="n">
-        <v>1008</v>
+        <v>1024</v>
       </c>
       <c r="E19" t="n">
-        <v>1006</v>
+        <v>1024</v>
       </c>
       <c r="F19" t="n">
-        <v>129.0258</v>
+        <v>45.1113</v>
       </c>
       <c r="G19" t="n">
-        <v>1016.133333333333</v>
+        <v>49617.61641127</v>
       </c>
       <c r="H19" t="n">
-        <v>1025.933333333333</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1008</v>
+        <v>1025</v>
       </c>
       <c r="C20" t="n">
-        <v>1008</v>
+        <v>1025</v>
       </c>
       <c r="D20" t="n">
-        <v>1008</v>
+        <v>1025</v>
       </c>
       <c r="E20" t="n">
-        <v>1008</v>
+        <v>1025</v>
       </c>
       <c r="F20" t="n">
-        <v>71.91540000000001</v>
+        <v>1156.5639</v>
       </c>
       <c r="G20" t="n">
-        <v>1015.4</v>
+        <v>50774.18031127</v>
       </c>
       <c r="H20" t="n">
-        <v>1025.683333333333</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1013</v>
+        <v>1027</v>
       </c>
       <c r="C21" t="n">
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="D21" t="n">
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="E21" t="n">
-        <v>1013</v>
+        <v>1026</v>
       </c>
       <c r="F21" t="n">
-        <v>910.3333</v>
+        <v>299.7898</v>
       </c>
       <c r="G21" t="n">
-        <v>1015.133333333333</v>
+        <v>51073.97011127</v>
       </c>
       <c r="H21" t="n">
-        <v>1025.533333333334</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1017</v>
+        <v>1028</v>
       </c>
       <c r="C22" t="n">
-        <v>1017</v>
+        <v>1033</v>
       </c>
       <c r="D22" t="n">
-        <v>1017</v>
+        <v>1033</v>
       </c>
       <c r="E22" t="n">
-        <v>1017</v>
+        <v>1028</v>
       </c>
       <c r="F22" t="n">
-        <v>175.4382</v>
+        <v>985.1824</v>
       </c>
       <c r="G22" t="n">
-        <v>1015</v>
+        <v>52059.15251127</v>
       </c>
       <c r="H22" t="n">
-        <v>1025.416666666667</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1011</v>
+        <v>1034</v>
       </c>
       <c r="C23" t="n">
-        <v>1016</v>
+        <v>1027</v>
       </c>
       <c r="D23" t="n">
-        <v>1016</v>
+        <v>1034</v>
       </c>
       <c r="E23" t="n">
-        <v>1011</v>
+        <v>1027</v>
       </c>
       <c r="F23" t="n">
-        <v>1128.8387</v>
+        <v>103.8108</v>
       </c>
       <c r="G23" t="n">
-        <v>1014.8</v>
+        <v>51955.34171127</v>
       </c>
       <c r="H23" t="n">
-        <v>1025.283333333334</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="C24" t="n">
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="D24" t="n">
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="E24" t="n">
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="F24" t="n">
-        <v>1755</v>
+        <v>2012.0647</v>
       </c>
       <c r="G24" t="n">
-        <v>1014.6</v>
+        <v>51955.34171127</v>
       </c>
       <c r="H24" t="n">
-        <v>1025.116666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1013</v>
+        <v>1027</v>
       </c>
       <c r="C25" t="n">
-        <v>1013</v>
+        <v>1026</v>
       </c>
       <c r="D25" t="n">
-        <v>1013</v>
+        <v>1027</v>
       </c>
       <c r="E25" t="n">
-        <v>1013</v>
+        <v>1026</v>
       </c>
       <c r="F25" t="n">
-        <v>36.5988</v>
+        <v>1294.895</v>
       </c>
       <c r="G25" t="n">
-        <v>1014.333333333333</v>
+        <v>50660.44671127</v>
       </c>
       <c r="H25" t="n">
-        <v>1024.9</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1009</v>
+        <v>1026</v>
       </c>
       <c r="C26" t="n">
-        <v>1009</v>
+        <v>1027</v>
       </c>
       <c r="D26" t="n">
-        <v>1009</v>
+        <v>1027</v>
       </c>
       <c r="E26" t="n">
-        <v>1009</v>
+        <v>1026</v>
       </c>
       <c r="F26" t="n">
-        <v>2089.6099</v>
+        <v>717.545</v>
       </c>
       <c r="G26" t="n">
-        <v>1013.866666666667</v>
+        <v>51377.99171127</v>
       </c>
       <c r="H26" t="n">
-        <v>1024.616666666667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1013</v>
+        <v>1027</v>
       </c>
       <c r="C27" t="n">
-        <v>1013</v>
+        <v>1027</v>
       </c>
       <c r="D27" t="n">
-        <v>1013</v>
+        <v>1027</v>
       </c>
       <c r="E27" t="n">
-        <v>1013</v>
+        <v>1027</v>
       </c>
       <c r="F27" t="n">
-        <v>175.3585</v>
+        <v>5711.7834</v>
       </c>
       <c r="G27" t="n">
-        <v>1013.933333333333</v>
+        <v>51377.99171127</v>
       </c>
       <c r="H27" t="n">
-        <v>1024.3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1009</v>
+        <v>1027</v>
       </c>
       <c r="C28" t="n">
-        <v>1009</v>
+        <v>1027</v>
       </c>
       <c r="D28" t="n">
-        <v>1009</v>
+        <v>1027</v>
       </c>
       <c r="E28" t="n">
-        <v>1009</v>
+        <v>1027</v>
       </c>
       <c r="F28" t="n">
-        <v>175.4382</v>
+        <v>335.3798</v>
       </c>
       <c r="G28" t="n">
-        <v>1013.266666666667</v>
+        <v>51377.99171127</v>
       </c>
       <c r="H28" t="n">
-        <v>1023.966666666667</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1008</v>
+        <v>1027</v>
       </c>
       <c r="C29" t="n">
-        <v>1008</v>
+        <v>1027</v>
       </c>
       <c r="D29" t="n">
-        <v>1008</v>
+        <v>1027</v>
       </c>
       <c r="E29" t="n">
-        <v>1008</v>
+        <v>1027</v>
       </c>
       <c r="F29" t="n">
-        <v>4209.9999</v>
+        <v>795.0701</v>
       </c>
       <c r="G29" t="n">
-        <v>1013.066666666667</v>
+        <v>51377.99171127</v>
       </c>
       <c r="H29" t="n">
-        <v>1023.466666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1007</v>
+        <v>1022</v>
       </c>
       <c r="C30" t="n">
-        <v>1007</v>
+        <v>1022</v>
       </c>
       <c r="D30" t="n">
-        <v>1007</v>
+        <v>1022</v>
       </c>
       <c r="E30" t="n">
-        <v>1007</v>
+        <v>1022</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>897.6237</v>
       </c>
       <c r="G30" t="n">
-        <v>1012.133333333333</v>
+        <v>50480.36801127</v>
       </c>
       <c r="H30" t="n">
-        <v>1022.95</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="C31" t="n">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="D31" t="n">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="E31" t="n">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="F31" t="n">
-        <v>40.4969</v>
+        <v>89.0351</v>
       </c>
       <c r="G31" t="n">
-        <v>1011.333333333333</v>
+        <v>50391.33291127</v>
       </c>
       <c r="H31" t="n">
-        <v>1022.483333333333</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1007</v>
+        <v>1020</v>
       </c>
       <c r="C32" t="n">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="D32" t="n">
-        <v>1007</v>
+        <v>1020</v>
       </c>
       <c r="E32" t="n">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="F32" t="n">
-        <v>69.74209999999999</v>
+        <v>407.6339</v>
       </c>
       <c r="G32" t="n">
-        <v>1010.8</v>
+        <v>50391.33291127</v>
       </c>
       <c r="H32" t="n">
-        <v>1022.083333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="C33" t="n">
-        <v>1000</v>
+        <v>1019</v>
       </c>
       <c r="D33" t="n">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="E33" t="n">
-        <v>1000</v>
+        <v>1019</v>
       </c>
       <c r="F33" t="n">
-        <v>182.5189</v>
+        <v>2641.8645</v>
       </c>
       <c r="G33" t="n">
-        <v>1009.933333333333</v>
+        <v>50391.33291127</v>
       </c>
       <c r="H33" t="n">
-        <v>1021.583333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="C34" t="n">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="D34" t="n">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="E34" t="n">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="F34" t="n">
-        <v>210</v>
+        <v>1143.4301</v>
       </c>
       <c r="G34" t="n">
-        <v>1009.933333333333</v>
+        <v>50391.33291127</v>
       </c>
       <c r="H34" t="n">
-        <v>1021.183333333334</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="C35" t="n">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="D35" t="n">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="E35" t="n">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="F35" t="n">
-        <v>6.3644</v>
+        <v>275</v>
       </c>
       <c r="G35" t="n">
-        <v>1009.733333333333</v>
+        <v>50391.33291127</v>
       </c>
       <c r="H35" t="n">
-        <v>1020.733333333333</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1003</v>
+        <v>1019</v>
       </c>
       <c r="C36" t="n">
-        <v>1002</v>
+        <v>1019</v>
       </c>
       <c r="D36" t="n">
-        <v>1003</v>
+        <v>1019</v>
       </c>
       <c r="E36" t="n">
-        <v>1002</v>
+        <v>1019</v>
       </c>
       <c r="F36" t="n">
-        <v>225.8585</v>
+        <v>119</v>
       </c>
       <c r="G36" t="n">
-        <v>1008.866666666667</v>
+        <v>50391.33291127</v>
       </c>
       <c r="H36" t="n">
-        <v>1020.133333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>999.1</v>
+        <v>1019</v>
       </c>
       <c r="C37" t="n">
-        <v>999.1</v>
+        <v>1019</v>
       </c>
       <c r="D37" t="n">
-        <v>999.1</v>
+        <v>1019</v>
       </c>
       <c r="E37" t="n">
-        <v>999.1</v>
+        <v>1019</v>
       </c>
       <c r="F37" t="n">
-        <v>171.0919</v>
+        <v>1298.42</v>
       </c>
       <c r="G37" t="n">
-        <v>1007.673333333333</v>
+        <v>50391.33291127</v>
       </c>
       <c r="H37" t="n">
-        <v>1019.468333333333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>999.1</v>
+        <v>1019</v>
       </c>
       <c r="C38" t="n">
-        <v>999</v>
+        <v>1018</v>
       </c>
       <c r="D38" t="n">
-        <v>999.1</v>
+        <v>1019</v>
       </c>
       <c r="E38" t="n">
-        <v>999</v>
+        <v>1018</v>
       </c>
       <c r="F38" t="n">
-        <v>698.2125</v>
+        <v>4932.9102</v>
       </c>
       <c r="G38" t="n">
-        <v>1006.54</v>
+        <v>45458.42271127</v>
       </c>
       <c r="H38" t="n">
-        <v>1018.751666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>997</v>
+        <v>1017</v>
       </c>
       <c r="C39" t="n">
-        <v>997</v>
+        <v>1017</v>
       </c>
       <c r="D39" t="n">
-        <v>997</v>
+        <v>1017</v>
       </c>
       <c r="E39" t="n">
-        <v>997</v>
+        <v>1014</v>
       </c>
       <c r="F39" t="n">
-        <v>215.4855</v>
+        <v>4877.4023</v>
       </c>
       <c r="G39" t="n">
-        <v>1005.34</v>
+        <v>40581.02041127</v>
       </c>
       <c r="H39" t="n">
-        <v>1017.968333333333</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>997.9</v>
+        <v>1017</v>
       </c>
       <c r="C40" t="n">
-        <v>997.9</v>
+        <v>1016</v>
       </c>
       <c r="D40" t="n">
-        <v>997.9</v>
+        <v>1017</v>
       </c>
       <c r="E40" t="n">
-        <v>997.9</v>
+        <v>1016</v>
       </c>
       <c r="F40" t="n">
-        <v>678.0903</v>
+        <v>4207.2364</v>
       </c>
       <c r="G40" t="n">
-        <v>1004.333333333333</v>
+        <v>36373.78401127</v>
       </c>
       <c r="H40" t="n">
-        <v>1017.25</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>995</v>
+        <v>1016</v>
       </c>
       <c r="C41" t="n">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="D41" t="n">
-        <v>995</v>
+        <v>1016</v>
       </c>
       <c r="E41" t="n">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="F41" t="n">
-        <v>464.0891</v>
+        <v>2792.2771</v>
       </c>
       <c r="G41" t="n">
-        <v>1003.4</v>
+        <v>33581.50691127</v>
       </c>
       <c r="H41" t="n">
-        <v>1016.616666666667</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="C42" t="n">
-        <v>992.2</v>
+        <v>1019</v>
       </c>
       <c r="D42" t="n">
-        <v>995</v>
+        <v>1019</v>
       </c>
       <c r="E42" t="n">
-        <v>992.2</v>
+        <v>1010</v>
       </c>
       <c r="F42" t="n">
-        <v>1299.9999</v>
+        <v>7848.5722</v>
       </c>
       <c r="G42" t="n">
-        <v>1002.013333333333</v>
+        <v>41430.07911127</v>
       </c>
       <c r="H42" t="n">
-        <v>1016.003333333333</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>992.2</v>
+        <v>1011</v>
       </c>
       <c r="C43" t="n">
-        <v>992.2</v>
+        <v>1011</v>
       </c>
       <c r="D43" t="n">
-        <v>992.2</v>
+        <v>1011</v>
       </c>
       <c r="E43" t="n">
-        <v>992.2</v>
+        <v>1011</v>
       </c>
       <c r="F43" t="n">
-        <v>84.1228</v>
+        <v>73.1987</v>
       </c>
       <c r="G43" t="n">
-        <v>1000.893333333333</v>
+        <v>41356.88041127</v>
       </c>
       <c r="H43" t="n">
-        <v>1015.39</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>998.9</v>
+        <v>1021</v>
       </c>
       <c r="C44" t="n">
-        <v>993.1</v>
+        <v>1021</v>
       </c>
       <c r="D44" t="n">
-        <v>998.9</v>
+        <v>1021</v>
       </c>
       <c r="E44" t="n">
-        <v>993.1</v>
+        <v>1021</v>
       </c>
       <c r="F44" t="n">
-        <v>199.72364803</v>
+        <v>88.8417</v>
       </c>
       <c r="G44" t="n">
-        <v>999.9000000000001</v>
+        <v>41445.72211127</v>
       </c>
       <c r="H44" t="n">
-        <v>1014.658333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>991.3</v>
+        <v>1018</v>
       </c>
       <c r="C45" t="n">
-        <v>991.3</v>
+        <v>1019</v>
       </c>
       <c r="D45" t="n">
-        <v>991.3</v>
+        <v>1019</v>
       </c>
       <c r="E45" t="n">
-        <v>991.3</v>
+        <v>1018</v>
       </c>
       <c r="F45" t="n">
-        <v>1121.713</v>
+        <v>631.6999</v>
       </c>
       <c r="G45" t="n">
-        <v>998.8533333333334</v>
+        <v>40814.02221127</v>
       </c>
       <c r="H45" t="n">
-        <v>1013.93</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>993.1</v>
+        <v>1014</v>
       </c>
       <c r="C46" t="n">
-        <v>993.1</v>
+        <v>1014</v>
       </c>
       <c r="D46" t="n">
-        <v>993.1</v>
+        <v>1014</v>
       </c>
       <c r="E46" t="n">
-        <v>993.1</v>
+        <v>1014</v>
       </c>
       <c r="F46" t="n">
-        <v>1.7197</v>
+        <v>170.6697</v>
       </c>
       <c r="G46" t="n">
-        <v>997.9266666666667</v>
+        <v>40643.35251127</v>
       </c>
       <c r="H46" t="n">
-        <v>1013.398333333333</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>993.1</v>
+        <v>1012</v>
       </c>
       <c r="C47" t="n">
-        <v>993.1</v>
+        <v>1013</v>
       </c>
       <c r="D47" t="n">
-        <v>993.1</v>
+        <v>1013</v>
       </c>
       <c r="E47" t="n">
-        <v>993.1</v>
+        <v>1012</v>
       </c>
       <c r="F47" t="n">
-        <v>65</v>
+        <v>610</v>
       </c>
       <c r="G47" t="n">
-        <v>997.0666666666668</v>
+        <v>40033.35251127</v>
       </c>
       <c r="H47" t="n">
-        <v>1012.766666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>993.2</v>
+        <v>1008</v>
       </c>
       <c r="C48" t="n">
-        <v>993.2</v>
+        <v>1006</v>
       </c>
       <c r="D48" t="n">
-        <v>993.2</v>
+        <v>1008</v>
       </c>
       <c r="E48" t="n">
-        <v>993.2</v>
+        <v>1006</v>
       </c>
       <c r="F48" t="n">
-        <v>65</v>
+        <v>129.0258</v>
       </c>
       <c r="G48" t="n">
-        <v>996.6133333333335</v>
+        <v>39904.32671127</v>
       </c>
       <c r="H48" t="n">
-        <v>1012.27</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>993.2</v>
+        <v>1008</v>
       </c>
       <c r="C49" t="n">
-        <v>993.2</v>
+        <v>1008</v>
       </c>
       <c r="D49" t="n">
-        <v>993.2</v>
+        <v>1008</v>
       </c>
       <c r="E49" t="n">
-        <v>993.2</v>
+        <v>1008</v>
       </c>
       <c r="F49" t="n">
-        <v>280</v>
+        <v>71.91540000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>995.7600000000002</v>
+        <v>39976.24211127</v>
       </c>
       <c r="H49" t="n">
-        <v>1011.723333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>993.2</v>
+        <v>1013</v>
       </c>
       <c r="C50" t="n">
-        <v>993.1</v>
+        <v>1015</v>
       </c>
       <c r="D50" t="n">
-        <v>993.2</v>
+        <v>1015</v>
       </c>
       <c r="E50" t="n">
-        <v>993.1</v>
+        <v>1013</v>
       </c>
       <c r="F50" t="n">
-        <v>275</v>
+        <v>910.3333</v>
       </c>
       <c r="G50" t="n">
-        <v>994.9666666666669</v>
+        <v>40886.57541126999</v>
       </c>
       <c r="H50" t="n">
-        <v>1011.208333333333</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>993.1</v>
+        <v>1017</v>
       </c>
       <c r="C51" t="n">
-        <v>993.1</v>
+        <v>1017</v>
       </c>
       <c r="D51" t="n">
-        <v>993.1</v>
+        <v>1017</v>
       </c>
       <c r="E51" t="n">
-        <v>993.1</v>
+        <v>1017</v>
       </c>
       <c r="F51" t="n">
-        <v>275</v>
+        <v>175.4382</v>
       </c>
       <c r="G51" t="n">
-        <v>994.3733333333336</v>
+        <v>41062.01361126999</v>
       </c>
       <c r="H51" t="n">
-        <v>1010.676666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>993.1</v>
+        <v>1011</v>
       </c>
       <c r="C52" t="n">
-        <v>993.1</v>
+        <v>1016</v>
       </c>
       <c r="D52" t="n">
-        <v>993.1</v>
+        <v>1016</v>
       </c>
       <c r="E52" t="n">
-        <v>993.1</v>
+        <v>1011</v>
       </c>
       <c r="F52" t="n">
-        <v>280</v>
+        <v>1128.8387</v>
       </c>
       <c r="G52" t="n">
-        <v>993.9733333333336</v>
+        <v>39933.17491126999</v>
       </c>
       <c r="H52" t="n">
-        <v>1010.111666666666</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>993.1</v>
+        <v>1015</v>
       </c>
       <c r="C53" t="n">
-        <v>993.1</v>
+        <v>1015</v>
       </c>
       <c r="D53" t="n">
-        <v>993.1</v>
+        <v>1015</v>
       </c>
       <c r="E53" t="n">
-        <v>993.1</v>
+        <v>1015</v>
       </c>
       <c r="F53" t="n">
-        <v>275</v>
+        <v>1755</v>
       </c>
       <c r="G53" t="n">
-        <v>993.5800000000003</v>
+        <v>38178.17491126999</v>
       </c>
       <c r="H53" t="n">
-        <v>1009.446666666666</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>996.9</v>
+        <v>1013</v>
       </c>
       <c r="C54" t="n">
-        <v>996.9</v>
+        <v>1013</v>
       </c>
       <c r="D54" t="n">
-        <v>996.9</v>
+        <v>1013</v>
       </c>
       <c r="E54" t="n">
-        <v>996.9</v>
+        <v>1013</v>
       </c>
       <c r="F54" t="n">
-        <v>1.00310963</v>
+        <v>36.5988</v>
       </c>
       <c r="G54" t="n">
-        <v>993.5733333333336</v>
+        <v>38141.57611126999</v>
       </c>
       <c r="H54" t="n">
-        <v>1008.945</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>995</v>
+        <v>1009</v>
       </c>
       <c r="C55" t="n">
-        <v>995</v>
+        <v>1009</v>
       </c>
       <c r="D55" t="n">
-        <v>995</v>
+        <v>1009</v>
       </c>
       <c r="E55" t="n">
-        <v>995</v>
+        <v>1009</v>
       </c>
       <c r="F55" t="n">
-        <v>47.1141</v>
+        <v>2089.6099</v>
       </c>
       <c r="G55" t="n">
-        <v>993.3800000000003</v>
+        <v>36051.96621126999</v>
       </c>
       <c r="H55" t="n">
-        <v>1008.411666666667</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>992.9</v>
+        <v>1013</v>
       </c>
       <c r="C56" t="n">
-        <v>992.9</v>
+        <v>1013</v>
       </c>
       <c r="D56" t="n">
-        <v>992.9</v>
+        <v>1013</v>
       </c>
       <c r="E56" t="n">
-        <v>992.9</v>
+        <v>1013</v>
       </c>
       <c r="F56" t="n">
-        <v>103</v>
+        <v>175.3585</v>
       </c>
       <c r="G56" t="n">
-        <v>993.2400000000002</v>
+        <v>36227.32471126999</v>
       </c>
       <c r="H56" t="n">
-        <v>1007.86</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>990.6</v>
+        <v>1009</v>
       </c>
       <c r="C57" t="n">
-        <v>989</v>
+        <v>1009</v>
       </c>
       <c r="D57" t="n">
-        <v>990.6</v>
+        <v>1009</v>
       </c>
       <c r="E57" t="n">
-        <v>989</v>
+        <v>1009</v>
       </c>
       <c r="F57" t="n">
-        <v>3011.31</v>
+        <v>175.4382</v>
       </c>
       <c r="G57" t="n">
-        <v>993.0266666666669</v>
+        <v>36051.88651126999</v>
       </c>
       <c r="H57" t="n">
-        <v>1007.226666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>991</v>
+        <v>1008</v>
       </c>
       <c r="C58" t="n">
-        <v>992</v>
+        <v>1008</v>
       </c>
       <c r="D58" t="n">
-        <v>992</v>
+        <v>1008</v>
       </c>
       <c r="E58" t="n">
-        <v>991</v>
+        <v>1008</v>
       </c>
       <c r="F58" t="n">
-        <v>1050</v>
+        <v>4209.9999</v>
       </c>
       <c r="G58" t="n">
-        <v>993.0133333333335</v>
+        <v>31841.88661126999</v>
       </c>
       <c r="H58" t="n">
-        <v>1006.643333333333</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>986.6</v>
+        <v>1007</v>
       </c>
       <c r="C59" t="n">
-        <v>986.6</v>
+        <v>1007</v>
       </c>
       <c r="D59" t="n">
-        <v>986.6</v>
+        <v>1007</v>
       </c>
       <c r="E59" t="n">
-        <v>986.6</v>
+        <v>1007</v>
       </c>
       <c r="F59" t="n">
-        <v>269.96</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>992.5800000000002</v>
+        <v>31831.88661126999</v>
       </c>
       <c r="H59" t="n">
-        <v>1005.97</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>986.6</v>
+        <v>1007</v>
       </c>
       <c r="C60" t="n">
-        <v>986.5</v>
+        <v>1007</v>
       </c>
       <c r="D60" t="n">
-        <v>986.6</v>
+        <v>1007</v>
       </c>
       <c r="E60" t="n">
-        <v>986.5</v>
+        <v>1007</v>
       </c>
       <c r="F60" t="n">
-        <v>1069.1151</v>
+        <v>40.4969</v>
       </c>
       <c r="G60" t="n">
-        <v>992.2600000000002</v>
+        <v>31831.88661126999</v>
       </c>
       <c r="H60" t="n">
-        <v>1005.295</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>994</v>
+        <v>1007</v>
       </c>
       <c r="C61" t="n">
-        <v>994</v>
+        <v>1006</v>
       </c>
       <c r="D61" t="n">
-        <v>994</v>
+        <v>1007</v>
       </c>
       <c r="E61" t="n">
-        <v>994</v>
+        <v>1006</v>
       </c>
       <c r="F61" t="n">
-        <v>305</v>
+        <v>69.74209999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>992.3200000000002</v>
+        <v>31762.14451126999</v>
       </c>
       <c r="H61" t="n">
-        <v>1004.828333333333</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C62" t="n">
         <v>1000</v>
       </c>
       <c r="D62" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E62" t="n">
         <v>1000</v>
       </c>
       <c r="F62" t="n">
-        <v>96.4889</v>
+        <v>182.5189</v>
       </c>
       <c r="G62" t="n">
-        <v>992.7800000000002</v>
+        <v>31579.62561127</v>
       </c>
       <c r="H62" t="n">
-        <v>1004.511666666667</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="C63" t="n">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="D63" t="n">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="E63" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="F63" t="n">
-        <v>104.7813</v>
+        <v>210</v>
       </c>
       <c r="G63" t="n">
-        <v>993.2333333333335</v>
+        <v>31789.62561127</v>
       </c>
       <c r="H63" t="n">
-        <v>1004.195</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="C64" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="D64" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="E64" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="F64" t="n">
-        <v>34.7493</v>
+        <v>6.3644</v>
       </c>
       <c r="G64" t="n">
-        <v>993.6866666666667</v>
+        <v>31783.26121127</v>
       </c>
       <c r="H64" t="n">
-        <v>1003.878333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2835,33 +2641,30 @@
         <v>1003</v>
       </c>
       <c r="C65" t="n">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D65" t="n">
         <v>1003</v>
       </c>
       <c r="E65" t="n">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F65" t="n">
-        <v>176.9441</v>
+        <v>225.8585</v>
       </c>
       <c r="G65" t="n">
-        <v>994.3466666666667</v>
+        <v>31557.40271127</v>
       </c>
       <c r="H65" t="n">
-        <v>1003.611666666666</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1005</v>
+        <v>999.1</v>
       </c>
       <c r="C66" t="n">
-        <v>1006</v>
+        <v>999.1</v>
       </c>
       <c r="D66" t="n">
-        <v>1006</v>
+        <v>999.1</v>
       </c>
       <c r="E66" t="n">
-        <v>1005</v>
+        <v>999.1</v>
       </c>
       <c r="F66" t="n">
-        <v>49.9999</v>
+        <v>171.0919</v>
       </c>
       <c r="G66" t="n">
-        <v>995.2066666666667</v>
+        <v>31386.31081127</v>
       </c>
       <c r="H66" t="n">
-        <v>1003.395</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1008</v>
+        <v>999.1</v>
       </c>
       <c r="C67" t="n">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="D67" t="n">
-        <v>1008</v>
+        <v>999.1</v>
       </c>
       <c r="E67" t="n">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="F67" t="n">
-        <v>500</v>
+        <v>698.2125</v>
       </c>
       <c r="G67" t="n">
-        <v>996.2</v>
+        <v>30688.09831127</v>
       </c>
       <c r="H67" t="n">
-        <v>1003.211666666666</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1012</v>
+        <v>997</v>
       </c>
       <c r="C68" t="n">
-        <v>1013</v>
+        <v>997</v>
       </c>
       <c r="D68" t="n">
-        <v>1013</v>
+        <v>997</v>
       </c>
       <c r="E68" t="n">
-        <v>1012</v>
+        <v>997</v>
       </c>
       <c r="F68" t="n">
-        <v>5398.00592299</v>
+        <v>215.4855</v>
       </c>
       <c r="G68" t="n">
-        <v>997.5266666666666</v>
+        <v>30472.61281127</v>
       </c>
       <c r="H68" t="n">
-        <v>1003.111666666666</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1014</v>
+        <v>997.9</v>
       </c>
       <c r="C69" t="n">
-        <v>1014</v>
+        <v>997.9</v>
       </c>
       <c r="D69" t="n">
-        <v>1014</v>
+        <v>997.9</v>
       </c>
       <c r="E69" t="n">
-        <v>1014</v>
+        <v>997.9</v>
       </c>
       <c r="F69" t="n">
-        <v>952.7741617299999</v>
+        <v>678.0903</v>
       </c>
       <c r="G69" t="n">
-        <v>998.6666666666666</v>
+        <v>31150.70311127</v>
       </c>
       <c r="H69" t="n">
-        <v>1003.045</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1013</v>
+        <v>995</v>
       </c>
       <c r="C70" t="n">
-        <v>1013</v>
+        <v>995</v>
       </c>
       <c r="D70" t="n">
-        <v>1013</v>
+        <v>995</v>
       </c>
       <c r="E70" t="n">
-        <v>1013</v>
+        <v>995</v>
       </c>
       <c r="F70" t="n">
-        <v>78.7032</v>
+        <v>464.0891</v>
       </c>
       <c r="G70" t="n">
-        <v>999.8666666666667</v>
+        <v>30686.61401127</v>
       </c>
       <c r="H70" t="n">
-        <v>1002.978333333333</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1014</v>
+        <v>995</v>
       </c>
       <c r="C71" t="n">
-        <v>1014</v>
+        <v>992.2</v>
       </c>
       <c r="D71" t="n">
-        <v>1014</v>
+        <v>995</v>
       </c>
       <c r="E71" t="n">
-        <v>1014</v>
+        <v>992.2</v>
       </c>
       <c r="F71" t="n">
-        <v>80</v>
+        <v>1299.9999</v>
       </c>
       <c r="G71" t="n">
-        <v>1001.273333333333</v>
+        <v>29386.61411127</v>
       </c>
       <c r="H71" t="n">
-        <v>1002.945</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1013</v>
+        <v>992.2</v>
       </c>
       <c r="C72" t="n">
-        <v>1013</v>
+        <v>992.2</v>
       </c>
       <c r="D72" t="n">
-        <v>1013</v>
+        <v>992.2</v>
       </c>
       <c r="E72" t="n">
-        <v>1013</v>
+        <v>992.2</v>
       </c>
       <c r="F72" t="n">
-        <v>1.7</v>
+        <v>84.1228</v>
       </c>
       <c r="G72" t="n">
-        <v>1002.873333333333</v>
+        <v>29386.61411127</v>
       </c>
       <c r="H72" t="n">
-        <v>1002.961666666666</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1013</v>
+        <v>998.9</v>
       </c>
       <c r="C73" t="n">
-        <v>1013</v>
+        <v>993.1</v>
       </c>
       <c r="D73" t="n">
-        <v>1013</v>
+        <v>998.9</v>
       </c>
       <c r="E73" t="n">
-        <v>1013</v>
+        <v>993.1</v>
       </c>
       <c r="F73" t="n">
-        <v>19</v>
+        <v>199.72364803</v>
       </c>
       <c r="G73" t="n">
-        <v>1004.273333333333</v>
+        <v>29586.3377593</v>
       </c>
       <c r="H73" t="n">
-        <v>1002.861666666666</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1013</v>
+        <v>991.3</v>
       </c>
       <c r="C74" t="n">
-        <v>1013</v>
+        <v>991.3</v>
       </c>
       <c r="D74" t="n">
-        <v>1013</v>
+        <v>991.3</v>
       </c>
       <c r="E74" t="n">
-        <v>1013</v>
+        <v>991.3</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5968</v>
+        <v>1121.713</v>
       </c>
       <c r="G74" t="n">
-        <v>1006.033333333333</v>
+        <v>28464.6247593</v>
       </c>
       <c r="H74" t="n">
-        <v>1002.895</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1008</v>
+        <v>993.1</v>
       </c>
       <c r="C75" t="n">
-        <v>1000</v>
+        <v>993.1</v>
       </c>
       <c r="D75" t="n">
-        <v>1008</v>
+        <v>993.1</v>
       </c>
       <c r="E75" t="n">
-        <v>1000</v>
+        <v>993.1</v>
       </c>
       <c r="F75" t="n">
-        <v>6350.7801</v>
+        <v>1.7197</v>
       </c>
       <c r="G75" t="n">
-        <v>1006.933333333333</v>
+        <v>28466.3444593</v>
       </c>
       <c r="H75" t="n">
-        <v>1002.545</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1006</v>
+        <v>993.1</v>
       </c>
       <c r="C76" t="n">
-        <v>1006</v>
+        <v>993.1</v>
       </c>
       <c r="D76" t="n">
-        <v>1006</v>
+        <v>993.1</v>
       </c>
       <c r="E76" t="n">
-        <v>1006</v>
+        <v>993.1</v>
       </c>
       <c r="F76" t="n">
-        <v>528.8682</v>
+        <v>65</v>
       </c>
       <c r="G76" t="n">
-        <v>1007.733333333333</v>
+        <v>28466.3444593</v>
       </c>
       <c r="H76" t="n">
-        <v>1002.328333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1005</v>
+        <v>993.2</v>
       </c>
       <c r="C77" t="n">
-        <v>1004</v>
+        <v>993.2</v>
       </c>
       <c r="D77" t="n">
-        <v>1005</v>
+        <v>993.2</v>
       </c>
       <c r="E77" t="n">
-        <v>1004</v>
+        <v>993.2</v>
       </c>
       <c r="F77" t="n">
-        <v>1627</v>
+        <v>65</v>
       </c>
       <c r="G77" t="n">
-        <v>1008</v>
+        <v>28531.3444593</v>
       </c>
       <c r="H77" t="n">
-        <v>1002.161666666667</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1002</v>
+        <v>993.2</v>
       </c>
       <c r="C78" t="n">
-        <v>1002</v>
+        <v>993.2</v>
       </c>
       <c r="D78" t="n">
-        <v>1003</v>
+        <v>993.2</v>
       </c>
       <c r="E78" t="n">
-        <v>1001</v>
+        <v>993.2</v>
       </c>
       <c r="F78" t="n">
-        <v>1829</v>
+        <v>280</v>
       </c>
       <c r="G78" t="n">
-        <v>1008.133333333333</v>
+        <v>28531.3444593</v>
       </c>
       <c r="H78" t="n">
-        <v>1001.978333333333</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1003</v>
+        <v>993.2</v>
       </c>
       <c r="C79" t="n">
-        <v>1001</v>
+        <v>993.1</v>
       </c>
       <c r="D79" t="n">
-        <v>1003</v>
+        <v>993.2</v>
       </c>
       <c r="E79" t="n">
-        <v>1001</v>
+        <v>993.1</v>
       </c>
       <c r="F79" t="n">
-        <v>1729.3814</v>
+        <v>275</v>
       </c>
       <c r="G79" t="n">
-        <v>1008.2</v>
+        <v>28256.3444593</v>
       </c>
       <c r="H79" t="n">
-        <v>1001.895</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>999.2</v>
+        <v>993.1</v>
       </c>
       <c r="C80" t="n">
-        <v>1000</v>
+        <v>993.1</v>
       </c>
       <c r="D80" t="n">
-        <v>1002</v>
+        <v>993.1</v>
       </c>
       <c r="E80" t="n">
-        <v>999.2</v>
+        <v>993.1</v>
       </c>
       <c r="F80" t="n">
-        <v>2593.7958</v>
+        <v>275</v>
       </c>
       <c r="G80" t="n">
-        <v>1008</v>
+        <v>28256.3444593</v>
       </c>
       <c r="H80" t="n">
-        <v>1001.761666666667</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>999</v>
+        <v>993.1</v>
       </c>
       <c r="C81" t="n">
-        <v>998</v>
+        <v>993.1</v>
       </c>
       <c r="D81" t="n">
-        <v>999</v>
+        <v>993.1</v>
       </c>
       <c r="E81" t="n">
-        <v>998</v>
+        <v>993.1</v>
       </c>
       <c r="F81" t="n">
-        <v>1479.493</v>
+        <v>280</v>
       </c>
       <c r="G81" t="n">
-        <v>1007.466666666667</v>
+        <v>28256.3444593</v>
       </c>
       <c r="H81" t="n">
-        <v>1001.478333333333</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>999</v>
+        <v>993.1</v>
       </c>
       <c r="C82" t="n">
-        <v>999</v>
+        <v>993.1</v>
       </c>
       <c r="D82" t="n">
-        <v>999</v>
+        <v>993.1</v>
       </c>
       <c r="E82" t="n">
-        <v>999</v>
+        <v>993.1</v>
       </c>
       <c r="F82" t="n">
-        <v>1742.2687</v>
+        <v>275</v>
       </c>
       <c r="G82" t="n">
-        <v>1006.866666666667</v>
+        <v>28256.3444593</v>
       </c>
       <c r="H82" t="n">
-        <v>1001.178333333333</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>998</v>
+        <v>996.9</v>
       </c>
       <c r="C83" t="n">
-        <v>997</v>
+        <v>996.9</v>
       </c>
       <c r="D83" t="n">
-        <v>999</v>
+        <v>996.9</v>
       </c>
       <c r="E83" t="n">
-        <v>997</v>
+        <v>996.9</v>
       </c>
       <c r="F83" t="n">
-        <v>1535.0971</v>
+        <v>1.00310963</v>
       </c>
       <c r="G83" t="n">
-        <v>1005.8</v>
+        <v>28257.34756893</v>
       </c>
       <c r="H83" t="n">
-        <v>1000.861666666666</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C84" t="n">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D84" t="n">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E84" t="n">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F84" t="n">
-        <v>1939.3651</v>
+        <v>47.1141</v>
       </c>
       <c r="G84" t="n">
-        <v>1004.6</v>
+        <v>28210.23346893</v>
       </c>
       <c r="H84" t="n">
-        <v>1000.545</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>995</v>
+        <v>992.9</v>
       </c>
       <c r="C85" t="n">
-        <v>994</v>
+        <v>992.9</v>
       </c>
       <c r="D85" t="n">
-        <v>996</v>
+        <v>992.9</v>
       </c>
       <c r="E85" t="n">
-        <v>992</v>
+        <v>992.9</v>
       </c>
       <c r="F85" t="n">
-        <v>1621</v>
+        <v>103</v>
       </c>
       <c r="G85" t="n">
-        <v>1003.333333333333</v>
+        <v>28107.23346893</v>
       </c>
       <c r="H85" t="n">
-        <v>1000.228333333333</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>992</v>
+        <v>990.6</v>
       </c>
       <c r="C86" t="n">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="D86" t="n">
-        <v>994</v>
+        <v>990.6</v>
       </c>
       <c r="E86" t="n">
-        <v>990.5</v>
+        <v>989</v>
       </c>
       <c r="F86" t="n">
-        <v>1660.9348</v>
+        <v>3011.31</v>
       </c>
       <c r="G86" t="n">
-        <v>1001.866666666667</v>
+        <v>25095.92346893</v>
       </c>
       <c r="H86" t="n">
-        <v>999.9449999999998</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>990.5</v>
+        <v>991</v>
       </c>
       <c r="C87" t="n">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="D87" t="n">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="E87" t="n">
-        <v>990.5</v>
+        <v>991</v>
       </c>
       <c r="F87" t="n">
-        <v>1845.0652</v>
+        <v>1050</v>
       </c>
       <c r="G87" t="n">
-        <v>1000.733333333333</v>
+        <v>26145.92346893</v>
       </c>
       <c r="H87" t="n">
-        <v>999.6616666666665</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>992</v>
+        <v>986.6</v>
       </c>
       <c r="C88" t="n">
-        <v>993</v>
+        <v>986.6</v>
       </c>
       <c r="D88" t="n">
-        <v>995</v>
+        <v>986.6</v>
       </c>
       <c r="E88" t="n">
-        <v>990.5</v>
+        <v>986.6</v>
       </c>
       <c r="F88" t="n">
-        <v>2647</v>
+        <v>269.96</v>
       </c>
       <c r="G88" t="n">
-        <v>999.4</v>
+        <v>25875.96346893</v>
       </c>
       <c r="H88" t="n">
-        <v>999.3949999999999</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>993</v>
+        <v>986.6</v>
       </c>
       <c r="C89" t="n">
-        <v>990.5</v>
+        <v>986.5</v>
       </c>
       <c r="D89" t="n">
-        <v>993</v>
+        <v>986.6</v>
       </c>
       <c r="E89" t="n">
-        <v>990.5</v>
+        <v>986.5</v>
       </c>
       <c r="F89" t="n">
-        <v>2343.4478</v>
+        <v>1069.1151</v>
       </c>
       <c r="G89" t="n">
-        <v>997.9</v>
+        <v>24806.84836893</v>
       </c>
       <c r="H89" t="n">
-        <v>999.1033333333331</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>990.5</v>
+        <v>994</v>
       </c>
       <c r="C90" t="n">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D90" t="n">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="E90" t="n">
-        <v>990.5</v>
+        <v>994</v>
       </c>
       <c r="F90" t="n">
-        <v>1651.6749</v>
+        <v>305</v>
       </c>
       <c r="G90" t="n">
-        <v>997.3666666666667</v>
+        <v>25111.84836893</v>
       </c>
       <c r="H90" t="n">
-        <v>998.8533333333331</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>990.5</v>
+        <v>1000</v>
       </c>
       <c r="C91" t="n">
-        <v>990.5</v>
+        <v>1000</v>
       </c>
       <c r="D91" t="n">
-        <v>990.5</v>
+        <v>1000</v>
       </c>
       <c r="E91" t="n">
-        <v>990.5</v>
+        <v>1000</v>
       </c>
       <c r="F91" t="n">
-        <v>2202</v>
+        <v>96.4889</v>
       </c>
       <c r="G91" t="n">
-        <v>996.3333333333334</v>
+        <v>25208.33726893</v>
       </c>
       <c r="H91" t="n">
-        <v>998.5783333333331</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>990.5</v>
+        <v>1000</v>
       </c>
       <c r="C92" t="n">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="D92" t="n">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="E92" t="n">
-        <v>990.5</v>
+        <v>1000</v>
       </c>
       <c r="F92" t="n">
-        <v>3004.4345</v>
+        <v>104.7813</v>
       </c>
       <c r="G92" t="n">
-        <v>995.7333333333333</v>
+        <v>25208.33726893</v>
       </c>
       <c r="H92" t="n">
-        <v>998.3949999999999</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>991</v>
+        <v>1000</v>
       </c>
       <c r="C93" t="n">
-        <v>990.4</v>
+        <v>1000</v>
       </c>
       <c r="D93" t="n">
-        <v>993</v>
+        <v>1000</v>
       </c>
       <c r="E93" t="n">
-        <v>990.4</v>
+        <v>1000</v>
       </c>
       <c r="F93" t="n">
-        <v>1547</v>
+        <v>34.7493</v>
       </c>
       <c r="G93" t="n">
-        <v>994.9599999999999</v>
+        <v>25208.33726893</v>
       </c>
       <c r="H93" t="n">
-        <v>998.2349999999999</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3653,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>990.4</v>
+        <v>1003</v>
       </c>
       <c r="C94" t="n">
-        <v>992</v>
+        <v>1003</v>
       </c>
       <c r="D94" t="n">
-        <v>992</v>
+        <v>1003</v>
       </c>
       <c r="E94" t="n">
-        <v>990.4</v>
+        <v>1003</v>
       </c>
       <c r="F94" t="n">
-        <v>1820</v>
+        <v>176.9441</v>
       </c>
       <c r="G94" t="n">
-        <v>994.36</v>
+        <v>25385.28136893001</v>
       </c>
       <c r="H94" t="n">
-        <v>998.0016666666666</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3688,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>990</v>
+        <v>1005</v>
       </c>
       <c r="C95" t="n">
-        <v>989.1</v>
+        <v>1006</v>
       </c>
       <c r="D95" t="n">
-        <v>990</v>
+        <v>1006</v>
       </c>
       <c r="E95" t="n">
-        <v>989.1</v>
+        <v>1005</v>
       </c>
       <c r="F95" t="n">
-        <v>1013.3078</v>
+        <v>49.9999</v>
       </c>
       <c r="G95" t="n">
-        <v>993.6333333333333</v>
+        <v>25435.28126893</v>
       </c>
       <c r="H95" t="n">
-        <v>997.7366666666665</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3723,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>990</v>
+        <v>1008</v>
       </c>
       <c r="C96" t="n">
-        <v>990</v>
+        <v>1008</v>
       </c>
       <c r="D96" t="n">
-        <v>990</v>
+        <v>1008</v>
       </c>
       <c r="E96" t="n">
-        <v>989</v>
+        <v>1008</v>
       </c>
       <c r="F96" t="n">
-        <v>6262.6922</v>
+        <v>500</v>
       </c>
       <c r="G96" t="n">
-        <v>993.1</v>
+        <v>25935.28126893</v>
       </c>
       <c r="H96" t="n">
-        <v>997.5366666666665</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3758,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>990</v>
+        <v>1012</v>
       </c>
       <c r="C97" t="n">
-        <v>990</v>
+        <v>1013</v>
       </c>
       <c r="D97" t="n">
-        <v>990</v>
+        <v>1013</v>
       </c>
       <c r="E97" t="n">
-        <v>990</v>
+        <v>1012</v>
       </c>
       <c r="F97" t="n">
-        <v>2334</v>
+        <v>5398.00592299</v>
       </c>
       <c r="G97" t="n">
-        <v>992.5</v>
+        <v>31333.28719192</v>
       </c>
       <c r="H97" t="n">
-        <v>997.3849999999999</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3793,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>990</v>
+        <v>1014</v>
       </c>
       <c r="C98" t="n">
-        <v>992</v>
+        <v>1014</v>
       </c>
       <c r="D98" t="n">
-        <v>992</v>
+        <v>1014</v>
       </c>
       <c r="E98" t="n">
-        <v>988</v>
+        <v>1014</v>
       </c>
       <c r="F98" t="n">
-        <v>1151.7739</v>
+        <v>952.7741617299999</v>
       </c>
       <c r="G98" t="n">
-        <v>992.1666666666666</v>
+        <v>32286.06135365001</v>
       </c>
       <c r="H98" t="n">
-        <v>997.2683333333332</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +3828,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>989</v>
+        <v>1013</v>
       </c>
       <c r="C99" t="n">
-        <v>990</v>
+        <v>1013</v>
       </c>
       <c r="D99" t="n">
-        <v>990</v>
+        <v>1013</v>
       </c>
       <c r="E99" t="n">
-        <v>988</v>
+        <v>1013</v>
       </c>
       <c r="F99" t="n">
-        <v>2543</v>
+        <v>78.7032</v>
       </c>
       <c r="G99" t="n">
-        <v>991.7666666666667</v>
+        <v>32207.35815365001</v>
       </c>
       <c r="H99" t="n">
-        <v>997.1516666666665</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +3863,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>990</v>
+        <v>1014</v>
       </c>
       <c r="C100" t="n">
-        <v>989</v>
+        <v>1014</v>
       </c>
       <c r="D100" t="n">
-        <v>990</v>
+        <v>1014</v>
       </c>
       <c r="E100" t="n">
-        <v>989</v>
+        <v>1014</v>
       </c>
       <c r="F100" t="n">
-        <v>1891.0857</v>
+        <v>80</v>
       </c>
       <c r="G100" t="n">
-        <v>991.4333333333333</v>
+        <v>32287.35815365001</v>
       </c>
       <c r="H100" t="n">
-        <v>997.0033333333332</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +3898,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>989</v>
+        <v>1013</v>
       </c>
       <c r="C101" t="n">
-        <v>989</v>
+        <v>1013</v>
       </c>
       <c r="D101" t="n">
-        <v>989</v>
+        <v>1013</v>
       </c>
       <c r="E101" t="n">
-        <v>989</v>
+        <v>1013</v>
       </c>
       <c r="F101" t="n">
-        <v>100</v>
+        <v>1.7</v>
       </c>
       <c r="G101" t="n">
-        <v>991.2333333333333</v>
+        <v>32285.65815365001</v>
       </c>
       <c r="H101" t="n">
-        <v>996.9033333333332</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +3933,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>988.1</v>
+        <v>1013</v>
       </c>
       <c r="C102" t="n">
-        <v>988</v>
+        <v>1013</v>
       </c>
       <c r="D102" t="n">
-        <v>988.1</v>
+        <v>1013</v>
       </c>
       <c r="E102" t="n">
-        <v>988</v>
+        <v>1013</v>
       </c>
       <c r="F102" t="n">
-        <v>283</v>
+        <v>19</v>
       </c>
       <c r="G102" t="n">
-        <v>990.7</v>
+        <v>32285.65815365001</v>
       </c>
       <c r="H102" t="n">
-        <v>996.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +3968,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>989</v>
+        <v>1013</v>
       </c>
       <c r="C103" t="n">
-        <v>989</v>
+        <v>1013</v>
       </c>
       <c r="D103" t="n">
-        <v>989</v>
+        <v>1013</v>
       </c>
       <c r="E103" t="n">
-        <v>989</v>
+        <v>1013</v>
       </c>
       <c r="F103" t="n">
-        <v>345</v>
+        <v>0.5968</v>
       </c>
       <c r="G103" t="n">
-        <v>990.4333333333333</v>
+        <v>32285.65815365001</v>
       </c>
       <c r="H103" t="n">
-        <v>996.78</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4003,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>989</v>
+        <v>1008</v>
       </c>
       <c r="C104" t="n">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="D104" t="n">
-        <v>989</v>
+        <v>1008</v>
       </c>
       <c r="E104" t="n">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="F104" t="n">
-        <v>1830</v>
+        <v>6350.7801</v>
       </c>
       <c r="G104" t="n">
-        <v>990.3333333333334</v>
+        <v>25934.87805365001</v>
       </c>
       <c r="H104" t="n">
-        <v>996.7116666666666</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4038,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>988.1</v>
+        <v>1006</v>
       </c>
       <c r="C105" t="n">
-        <v>988</v>
+        <v>1006</v>
       </c>
       <c r="D105" t="n">
-        <v>988.1</v>
+        <v>1006</v>
       </c>
       <c r="E105" t="n">
-        <v>988</v>
+        <v>1006</v>
       </c>
       <c r="F105" t="n">
-        <v>1529</v>
+        <v>528.8682</v>
       </c>
       <c r="G105" t="n">
-        <v>990.0666666666667</v>
+        <v>26463.74625365001</v>
       </c>
       <c r="H105" t="n">
-        <v>996.6566666666665</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4073,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>988</v>
+        <v>1005</v>
       </c>
       <c r="C106" t="n">
-        <v>988</v>
+        <v>1004</v>
       </c>
       <c r="D106" t="n">
-        <v>989</v>
+        <v>1005</v>
       </c>
       <c r="E106" t="n">
-        <v>987.3</v>
+        <v>1004</v>
       </c>
       <c r="F106" t="n">
-        <v>2196.13</v>
+        <v>1627</v>
       </c>
       <c r="G106" t="n">
-        <v>989.9</v>
+        <v>24836.74625365001</v>
       </c>
       <c r="H106" t="n">
-        <v>996.5716666666666</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4108,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>987.2</v>
+        <v>1002</v>
       </c>
       <c r="C107" t="n">
-        <v>986.7</v>
+        <v>1002</v>
       </c>
       <c r="D107" t="n">
-        <v>987.2</v>
+        <v>1003</v>
       </c>
       <c r="E107" t="n">
-        <v>986.7</v>
+        <v>1001</v>
       </c>
       <c r="F107" t="n">
-        <v>2176</v>
+        <v>1829</v>
       </c>
       <c r="G107" t="n">
-        <v>989.3466666666667</v>
+        <v>23007.74625365001</v>
       </c>
       <c r="H107" t="n">
-        <v>996.4649999999999</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4143,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>986.6</v>
+        <v>1003</v>
       </c>
       <c r="C108" t="n">
-        <v>986</v>
+        <v>1001</v>
       </c>
       <c r="D108" t="n">
-        <v>987</v>
+        <v>1003</v>
       </c>
       <c r="E108" t="n">
-        <v>986</v>
+        <v>1001</v>
       </c>
       <c r="F108" t="n">
-        <v>1328</v>
+        <v>1729.3814</v>
       </c>
       <c r="G108" t="n">
-        <v>989.0533333333334</v>
+        <v>21278.36485365001</v>
       </c>
       <c r="H108" t="n">
-        <v>996.3449999999999</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,36 +4178,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>984.7</v>
+        <v>999.2</v>
       </c>
       <c r="C109" t="n">
-        <v>984</v>
+        <v>1000</v>
       </c>
       <c r="D109" t="n">
-        <v>985</v>
+        <v>1002</v>
       </c>
       <c r="E109" t="n">
-        <v>983.5</v>
+        <v>999.2</v>
       </c>
       <c r="F109" t="n">
-        <v>2221</v>
+        <v>2593.7958</v>
       </c>
       <c r="G109" t="n">
-        <v>988.5200000000001</v>
+        <v>18684.56905365001</v>
       </c>
       <c r="H109" t="n">
-        <v>996.1916666666667</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,36 +4213,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>984</v>
+        <v>999</v>
       </c>
       <c r="C110" t="n">
-        <v>986</v>
+        <v>998</v>
       </c>
       <c r="D110" t="n">
-        <v>986</v>
+        <v>999</v>
       </c>
       <c r="E110" t="n">
-        <v>984</v>
+        <v>998</v>
       </c>
       <c r="F110" t="n">
-        <v>580</v>
+        <v>1479.493</v>
       </c>
       <c r="G110" t="n">
-        <v>988.3133333333334</v>
+        <v>17205.07605365001</v>
       </c>
       <c r="H110" t="n">
-        <v>996.0733333333334</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,36 +4248,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>986</v>
+        <v>999</v>
       </c>
       <c r="C111" t="n">
-        <v>987</v>
+        <v>999</v>
       </c>
       <c r="D111" t="n">
-        <v>987</v>
+        <v>999</v>
       </c>
       <c r="E111" t="n">
-        <v>986</v>
+        <v>999</v>
       </c>
       <c r="F111" t="n">
-        <v>625</v>
+        <v>1742.2687</v>
       </c>
       <c r="G111" t="n">
-        <v>988.1133333333333</v>
+        <v>18947.34475365001</v>
       </c>
       <c r="H111" t="n">
-        <v>995.9716666666667</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,36 +4283,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>988</v>
+        <v>998</v>
       </c>
       <c r="C112" t="n">
-        <v>988</v>
+        <v>997</v>
       </c>
       <c r="D112" t="n">
-        <v>988</v>
+        <v>999</v>
       </c>
       <c r="E112" t="n">
-        <v>988</v>
+        <v>997</v>
       </c>
       <c r="F112" t="n">
-        <v>273.87</v>
+        <v>1535.0971</v>
       </c>
       <c r="G112" t="n">
-        <v>987.98</v>
+        <v>17412.24765365001</v>
       </c>
       <c r="H112" t="n">
-        <v>995.8866666666668</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,36 +4318,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="C113" t="n">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="D113" t="n">
-        <v>989</v>
+        <v>998</v>
       </c>
       <c r="E113" t="n">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="F113" t="n">
-        <v>1576.3636</v>
+        <v>1939.3651</v>
       </c>
       <c r="G113" t="n">
-        <v>987.7800000000001</v>
+        <v>15472.88255365001</v>
       </c>
       <c r="H113" t="n">
-        <v>995.8183333333334</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,36 +4353,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="C114" t="n">
-        <v>989</v>
+        <v>994</v>
       </c>
       <c r="D114" t="n">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="E114" t="n">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="F114" t="n">
-        <v>902.5007000000001</v>
+        <v>1621</v>
       </c>
       <c r="G114" t="n">
-        <v>987.7133333333334</v>
+        <v>13851.88255365001</v>
       </c>
       <c r="H114" t="n">
-        <v>995.6866666666667</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>996</v>
       </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,36 +4394,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="C115" t="n">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="D115" t="n">
-        <v>986</v>
+        <v>994</v>
       </c>
       <c r="E115" t="n">
-        <v>986</v>
+        <v>990.5</v>
       </c>
       <c r="F115" t="n">
-        <v>570</v>
+        <v>1660.9348</v>
       </c>
       <c r="G115" t="n">
-        <v>987.5133333333334</v>
+        <v>12190.94775365001</v>
       </c>
       <c r="H115" t="n">
-        <v>995.5366666666667</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,36 +4433,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>989</v>
+        <v>990.5</v>
       </c>
       <c r="C116" t="n">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="D116" t="n">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="E116" t="n">
-        <v>989</v>
+        <v>990.5</v>
       </c>
       <c r="F116" t="n">
-        <v>341.1378</v>
+        <v>1845.0652</v>
       </c>
       <c r="G116" t="n">
-        <v>987.5133333333334</v>
+        <v>14036.01295365001</v>
       </c>
       <c r="H116" t="n">
-        <v>995.4716666666667</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,36 +4472,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="C117" t="n">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="D117" t="n">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E117" t="n">
-        <v>989</v>
+        <v>990.5</v>
       </c>
       <c r="F117" t="n">
-        <v>753.5481</v>
+        <v>2647</v>
       </c>
       <c r="G117" t="n">
-        <v>987.58</v>
+        <v>11389.01295365001</v>
       </c>
       <c r="H117" t="n">
-        <v>995.4716666666667</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>996</v>
       </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,36 +4513,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="C118" t="n">
-        <v>989</v>
+        <v>990.5</v>
       </c>
       <c r="D118" t="n">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="E118" t="n">
-        <v>989</v>
+        <v>990.5</v>
       </c>
       <c r="F118" t="n">
-        <v>350.1504</v>
+        <v>2343.4478</v>
       </c>
       <c r="G118" t="n">
-        <v>987.58</v>
+        <v>9045.565153650014</v>
       </c>
       <c r="H118" t="n">
-        <v>995.4216666666667</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,36 +4552,37 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>989</v>
+        <v>990.5</v>
       </c>
       <c r="C119" t="n">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="D119" t="n">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="E119" t="n">
-        <v>989</v>
+        <v>990.5</v>
       </c>
       <c r="F119" t="n">
-        <v>355.8579</v>
+        <v>1651.6749</v>
       </c>
       <c r="G119" t="n">
-        <v>987.58</v>
+        <v>10697.24005365001</v>
       </c>
       <c r="H119" t="n">
-        <v>995.4616666666667</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,36 +4591,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>989</v>
+        <v>990.5</v>
       </c>
       <c r="C120" t="n">
-        <v>989</v>
+        <v>990.5</v>
       </c>
       <c r="D120" t="n">
-        <v>989</v>
+        <v>990.5</v>
       </c>
       <c r="E120" t="n">
-        <v>989</v>
+        <v>990.5</v>
       </c>
       <c r="F120" t="n">
-        <v>44.246</v>
+        <v>2202</v>
       </c>
       <c r="G120" t="n">
-        <v>987.6466666666668</v>
+        <v>8495.240053650014</v>
       </c>
       <c r="H120" t="n">
-        <v>995.5033333333334</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4960,36 +4632,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>989</v>
+        <v>990.5</v>
       </c>
       <c r="C121" t="n">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="D121" t="n">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E121" t="n">
-        <v>989</v>
+        <v>990.5</v>
       </c>
       <c r="F121" t="n">
-        <v>1728.0284</v>
+        <v>3004.4345</v>
       </c>
       <c r="G121" t="n">
-        <v>987.7133333333334</v>
+        <v>11499.67455365001</v>
       </c>
       <c r="H121" t="n">
-        <v>995.4200000000001</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>990.5</v>
       </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,36 +4673,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C122" t="n">
-        <v>989</v>
+        <v>990.4</v>
       </c>
       <c r="D122" t="n">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="E122" t="n">
-        <v>989</v>
+        <v>990.4</v>
       </c>
       <c r="F122" t="n">
-        <v>3945.2335</v>
+        <v>1547</v>
       </c>
       <c r="G122" t="n">
-        <v>987.8666666666667</v>
+        <v>9952.674553650013</v>
       </c>
       <c r="H122" t="n">
-        <v>995.2366666666668</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,36 +4714,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>983.5</v>
+        <v>990.4</v>
       </c>
       <c r="C123" t="n">
-        <v>981</v>
+        <v>992</v>
       </c>
       <c r="D123" t="n">
-        <v>983.5</v>
+        <v>992</v>
       </c>
       <c r="E123" t="n">
-        <v>981</v>
+        <v>990.4</v>
       </c>
       <c r="F123" t="n">
-        <v>321.9</v>
+        <v>1820</v>
       </c>
       <c r="G123" t="n">
-        <v>987.5333333333333</v>
+        <v>11772.67455365001</v>
       </c>
       <c r="H123" t="n">
-        <v>994.9200000000001</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>990.4</v>
       </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5074,36 +4755,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>984.8</v>
+        <v>990</v>
       </c>
       <c r="C124" t="n">
-        <v>984.8</v>
+        <v>989.1</v>
       </c>
       <c r="D124" t="n">
-        <v>984.8</v>
+        <v>990</v>
       </c>
       <c r="E124" t="n">
-        <v>984.8</v>
+        <v>989.1</v>
       </c>
       <c r="F124" t="n">
-        <v>85.17319999999999</v>
+        <v>1013.3078</v>
       </c>
       <c r="G124" t="n">
-        <v>987.5866666666666</v>
+        <v>10759.36675365001</v>
       </c>
       <c r="H124" t="n">
-        <v>994.6666666666667</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5112,36 +4796,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>979</v>
+        <v>990</v>
       </c>
       <c r="C125" t="n">
-        <v>984.9</v>
+        <v>990</v>
       </c>
       <c r="D125" t="n">
-        <v>984.9</v>
+        <v>990</v>
       </c>
       <c r="E125" t="n">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="F125" t="n">
-        <v>2109.7322</v>
+        <v>6262.6922</v>
       </c>
       <c r="G125" t="n">
-        <v>987.5133333333332</v>
+        <v>17022.05895365001</v>
       </c>
       <c r="H125" t="n">
-        <v>994.3650000000001</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>989.1</v>
       </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5150,36 +4837,37 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="C126" t="n">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="D126" t="n">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="E126" t="n">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="F126" t="n">
-        <v>57</v>
+        <v>2334</v>
       </c>
       <c r="G126" t="n">
-        <v>987.4466666666666</v>
+        <v>17022.05895365001</v>
       </c>
       <c r="H126" t="n">
-        <v>994.0316666666669</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,36 +4876,37 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C127" t="n">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="D127" t="n">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="E127" t="n">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F127" t="n">
-        <v>3295.3688</v>
+        <v>1151.7739</v>
       </c>
       <c r="G127" t="n">
-        <v>987.5133333333332</v>
+        <v>18173.83285365001</v>
       </c>
       <c r="H127" t="n">
-        <v>993.7150000000001</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5229,33 +4918,34 @@
         <v>989</v>
       </c>
       <c r="C128" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D128" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E128" t="n">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F128" t="n">
-        <v>1383.72</v>
+        <v>2543</v>
       </c>
       <c r="G128" t="n">
-        <v>987.5133333333332</v>
+        <v>15630.83285365001</v>
       </c>
       <c r="H128" t="n">
-        <v>993.3150000000002</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5264,36 +4954,37 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C129" t="n">
         <v>989</v>
       </c>
       <c r="D129" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E129" t="n">
         <v>989</v>
       </c>
       <c r="F129" t="n">
-        <v>1013.4832</v>
+        <v>1891.0857</v>
       </c>
       <c r="G129" t="n">
-        <v>987.5133333333332</v>
+        <v>13739.74715365001</v>
       </c>
       <c r="H129" t="n">
-        <v>992.8983333333334</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5314,28 +5005,25 @@
         <v>989</v>
       </c>
       <c r="F130" t="n">
-        <v>778.2759</v>
+        <v>100</v>
       </c>
       <c r="G130" t="n">
-        <v>987.7133333333333</v>
+        <v>13739.74715365001</v>
       </c>
       <c r="H130" t="n">
-        <v>992.4983333333334</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="n">
-        <v>989</v>
-      </c>
-      <c r="L130" t="n">
-        <v>989</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,44 +5032,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>985</v>
+        <v>988.1</v>
       </c>
       <c r="C131" t="n">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="D131" t="n">
-        <v>985</v>
+        <v>988.1</v>
       </c>
       <c r="E131" t="n">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="F131" t="n">
-        <v>1050</v>
+        <v>283</v>
       </c>
       <c r="G131" t="n">
-        <v>987.3133333333333</v>
+        <v>13456.74715365001</v>
       </c>
       <c r="H131" t="n">
-        <v>991.9816666666668</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="n">
-        <v>989</v>
-      </c>
-      <c r="L131" t="n">
-        <v>989</v>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5390,44 +5071,37 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="C132" t="n">
-        <v>980</v>
+        <v>989</v>
       </c>
       <c r="D132" t="n">
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="E132" t="n">
-        <v>980</v>
+        <v>989</v>
       </c>
       <c r="F132" t="n">
-        <v>455</v>
+        <v>345</v>
       </c>
       <c r="G132" t="n">
-        <v>986.7133333333333</v>
+        <v>13801.74715365001</v>
       </c>
       <c r="H132" t="n">
-        <v>991.4316666666668</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="n">
-        <v>983</v>
-      </c>
-      <c r="L132" t="n">
-        <v>989</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5436,44 +5110,37 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C133" t="n">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D133" t="n">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E133" t="n">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F133" t="n">
-        <v>197.847</v>
+        <v>1830</v>
       </c>
       <c r="G133" t="n">
-        <v>986.8466666666666</v>
+        <v>13801.74715365001</v>
       </c>
       <c r="H133" t="n">
-        <v>991.0650000000002</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="n">
-        <v>980</v>
-      </c>
-      <c r="L133" t="n">
-        <v>989</v>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5482,44 +5149,39 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>991</v>
+        <v>988.1</v>
       </c>
       <c r="C134" t="n">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="D134" t="n">
-        <v>992</v>
+        <v>988.1</v>
       </c>
       <c r="E134" t="n">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="F134" t="n">
-        <v>1498.712</v>
+        <v>1529</v>
       </c>
       <c r="G134" t="n">
-        <v>987.0466666666666</v>
+        <v>12272.74715365001</v>
       </c>
       <c r="H134" t="n">
-        <v>990.7150000000001</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="n">
-        <v>991</v>
-      </c>
-      <c r="L134" t="n">
         <v>989</v>
       </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5528,44 +5190,39 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C135" t="n">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="D135" t="n">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="E135" t="n">
-        <v>992</v>
+        <v>987.3</v>
       </c>
       <c r="F135" t="n">
-        <v>283.8622</v>
+        <v>2196.13</v>
       </c>
       <c r="G135" t="n">
-        <v>987.3799999999999</v>
+        <v>12272.74715365001</v>
       </c>
       <c r="H135" t="n">
-        <v>990.6150000000001</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="n">
-        <v>992</v>
-      </c>
-      <c r="L135" t="n">
-        <v>989</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+        <v>988</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5574,44 +5231,37 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>994</v>
+        <v>987.2</v>
       </c>
       <c r="C136" t="n">
-        <v>994</v>
+        <v>986.7</v>
       </c>
       <c r="D136" t="n">
-        <v>994</v>
+        <v>987.2</v>
       </c>
       <c r="E136" t="n">
-        <v>994</v>
+        <v>986.7</v>
       </c>
       <c r="F136" t="n">
-        <v>82.66079999999999</v>
+        <v>2176</v>
       </c>
       <c r="G136" t="n">
-        <v>987.7133333333333</v>
+        <v>10096.74715365001</v>
       </c>
       <c r="H136" t="n">
-        <v>990.4150000000002</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="n">
-        <v>994</v>
-      </c>
-      <c r="L136" t="n">
-        <v>989</v>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5620,44 +5270,37 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>995</v>
+        <v>986.6</v>
       </c>
       <c r="C137" t="n">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="D137" t="n">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="E137" t="n">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="F137" t="n">
-        <v>116.0376</v>
+        <v>1328</v>
       </c>
       <c r="G137" t="n">
-        <v>988.1799999999999</v>
+        <v>8768.747153650012</v>
       </c>
       <c r="H137" t="n">
-        <v>990.2816666666669</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="n">
-        <v>994</v>
-      </c>
-      <c r="L137" t="n">
-        <v>989</v>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5666,44 +5309,37 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>997</v>
+        <v>984.7</v>
       </c>
       <c r="C138" t="n">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="D138" t="n">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="E138" t="n">
-        <v>997</v>
+        <v>983.5</v>
       </c>
       <c r="F138" t="n">
-        <v>150</v>
+        <v>2221</v>
       </c>
       <c r="G138" t="n">
-        <v>989.2466666666666</v>
+        <v>6547.747153650012</v>
       </c>
       <c r="H138" t="n">
-        <v>990.1983333333335</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="n">
-        <v>996</v>
-      </c>
-      <c r="L138" t="n">
-        <v>989</v>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5712,44 +5348,37 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="C139" t="n">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="D139" t="n">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="E139" t="n">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="F139" t="n">
-        <v>237</v>
+        <v>580</v>
       </c>
       <c r="G139" t="n">
-        <v>990.0599999999999</v>
+        <v>7127.747153650012</v>
       </c>
       <c r="H139" t="n">
-        <v>990.1316666666668</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="n">
-        <v>997</v>
-      </c>
-      <c r="L139" t="n">
-        <v>989</v>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5758,42 +5387,37 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="C140" t="n">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="D140" t="n">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="E140" t="n">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="F140" t="n">
-        <v>791.7313</v>
+        <v>625</v>
       </c>
       <c r="G140" t="n">
-        <v>990.9333333333333</v>
+        <v>7752.747153650012</v>
       </c>
       <c r="H140" t="n">
-        <v>990.0983333333335</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>989</v>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5802,44 +5426,37 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="C141" t="n">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="D141" t="n">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="E141" t="n">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="F141" t="n">
-        <v>370</v>
+        <v>273.87</v>
       </c>
       <c r="G141" t="n">
-        <v>991.8</v>
+        <v>8026.617153650012</v>
       </c>
       <c r="H141" t="n">
-        <v>990.1150000000001</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="n">
-        <v>998</v>
-      </c>
-      <c r="L141" t="n">
-        <v>989</v>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5848,42 +5465,37 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="C142" t="n">
-        <v>1005</v>
+        <v>989</v>
       </c>
       <c r="D142" t="n">
-        <v>1005</v>
+        <v>989</v>
       </c>
       <c r="E142" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="F142" t="n">
-        <v>4535</v>
+        <v>1576.3636</v>
       </c>
       <c r="G142" t="n">
-        <v>992.8666666666667</v>
+        <v>9602.980753650012</v>
       </c>
       <c r="H142" t="n">
-        <v>990.2150000000001</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>989</v>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N142" t="n">
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5892,42 +5504,37 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1005</v>
+        <v>989</v>
       </c>
       <c r="C143" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="D143" t="n">
-        <v>1005</v>
+        <v>989</v>
       </c>
       <c r="E143" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="F143" t="n">
-        <v>1413.8523</v>
+        <v>902.5007000000001</v>
       </c>
       <c r="G143" t="n">
-        <v>993.6</v>
+        <v>9602.980753650012</v>
       </c>
       <c r="H143" t="n">
-        <v>990.2650000000001</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>989</v>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5936,42 +5543,37 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="C144" t="n">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="D144" t="n">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="E144" t="n">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="F144" t="n">
-        <v>2127.8335</v>
+        <v>570</v>
       </c>
       <c r="G144" t="n">
-        <v>994.3333333333334</v>
+        <v>9032.980753650012</v>
       </c>
       <c r="H144" t="n">
-        <v>990.3316666666668</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>989</v>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N144" t="n">
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5980,42 +5582,37 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="C145" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="D145" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="E145" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="F145" t="n">
-        <v>1225.52</v>
+        <v>341.1378</v>
       </c>
       <c r="G145" t="n">
-        <v>995.0666666666667</v>
+        <v>9374.118553650012</v>
       </c>
       <c r="H145" t="n">
-        <v>990.4316666666668</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>989</v>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N145" t="n">
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6024,42 +5621,37 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="C146" t="n">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="D146" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="E146" t="n">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="F146" t="n">
-        <v>203.04</v>
+        <v>753.5481</v>
       </c>
       <c r="G146" t="n">
-        <v>996.1333333333333</v>
+        <v>9374.118553650012</v>
       </c>
       <c r="H146" t="n">
-        <v>990.5483333333335</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>989</v>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N146" t="n">
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6068,42 +5660,37 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="C147" t="n">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="D147" t="n">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="E147" t="n">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="F147" t="n">
-        <v>1200</v>
+        <v>350.1504</v>
       </c>
       <c r="G147" t="n">
-        <v>997.4</v>
+        <v>9374.118553650012</v>
       </c>
       <c r="H147" t="n">
-        <v>990.5983333333335</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>989</v>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N147" t="n">
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6112,44 +5699,37 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="C148" t="n">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="D148" t="n">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="E148" t="n">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="F148" t="n">
-        <v>109.0783</v>
+        <v>355.8579</v>
       </c>
       <c r="G148" t="n">
-        <v>997.9333333333333</v>
+        <v>9374.118553650012</v>
       </c>
       <c r="H148" t="n">
-        <v>990.6983333333335</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="n">
-        <v>999</v>
-      </c>
-      <c r="L148" t="n">
-        <v>989</v>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6158,44 +5738,37 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="C149" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="D149" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="E149" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="F149" t="n">
-        <v>5</v>
+        <v>44.246</v>
       </c>
       <c r="G149" t="n">
-        <v>998.4666666666667</v>
+        <v>9374.118553650012</v>
       </c>
       <c r="H149" t="n">
-        <v>990.8566666666668</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="n">
-        <v>999</v>
-      </c>
-      <c r="L149" t="n">
-        <v>989</v>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6204,44 +5777,37 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="C150" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="D150" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="E150" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="F150" t="n">
-        <v>47.3999</v>
+        <v>1728.0284</v>
       </c>
       <c r="G150" t="n">
-        <v>998.8666666666667</v>
+        <v>9374.118553650012</v>
       </c>
       <c r="H150" t="n">
-        <v>990.9900000000001</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L150" t="n">
-        <v>989</v>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6250,44 +5816,37 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1005</v>
+        <v>989</v>
       </c>
       <c r="C151" t="n">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="D151" t="n">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="E151" t="n">
-        <v>1005</v>
+        <v>989</v>
       </c>
       <c r="F151" t="n">
-        <v>103.1</v>
+        <v>3945.2335</v>
       </c>
       <c r="G151" t="n">
-        <v>999.7333333333333</v>
+        <v>9374.118553650012</v>
       </c>
       <c r="H151" t="n">
-        <v>991.2650000000001</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
-      <c r="K151" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L151" t="n">
-        <v>989</v>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6296,42 +5855,37 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1006</v>
+        <v>983.5</v>
       </c>
       <c r="C152" t="n">
-        <v>1006</v>
+        <v>981</v>
       </c>
       <c r="D152" t="n">
-        <v>1006</v>
+        <v>983.5</v>
       </c>
       <c r="E152" t="n">
-        <v>1006</v>
+        <v>981</v>
       </c>
       <c r="F152" t="n">
-        <v>1036.1772</v>
+        <v>321.9</v>
       </c>
       <c r="G152" t="n">
-        <v>1000.4</v>
+        <v>9052.218553650013</v>
       </c>
       <c r="H152" t="n">
-        <v>991.4483333333335</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>989</v>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N152" t="n">
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6340,42 +5894,37 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1006</v>
+        <v>984.8</v>
       </c>
       <c r="C153" t="n">
-        <v>1006</v>
+        <v>984.8</v>
       </c>
       <c r="D153" t="n">
-        <v>1006</v>
+        <v>984.8</v>
       </c>
       <c r="E153" t="n">
-        <v>1006</v>
+        <v>984.8</v>
       </c>
       <c r="F153" t="n">
-        <v>2765</v>
+        <v>85.17319999999999</v>
       </c>
       <c r="G153" t="n">
-        <v>1001</v>
+        <v>9137.391753650012</v>
       </c>
       <c r="H153" t="n">
-        <v>991.7083333333335</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>989</v>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N153" t="n">
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6384,42 +5933,37 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1006</v>
+        <v>979</v>
       </c>
       <c r="C154" t="n">
-        <v>1006</v>
+        <v>984.9</v>
       </c>
       <c r="D154" t="n">
-        <v>1006</v>
+        <v>984.9</v>
       </c>
       <c r="E154" t="n">
-        <v>1006</v>
+        <v>979</v>
       </c>
       <c r="F154" t="n">
-        <v>53.0359</v>
+        <v>2109.7322</v>
       </c>
       <c r="G154" t="n">
-        <v>1001.6</v>
+        <v>11247.12395365001</v>
       </c>
       <c r="H154" t="n">
-        <v>991.9416666666668</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>989</v>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N154" t="n">
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6428,42 +5972,37 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1005</v>
+        <v>986</v>
       </c>
       <c r="C155" t="n">
-        <v>1005</v>
+        <v>986</v>
       </c>
       <c r="D155" t="n">
-        <v>1006</v>
+        <v>986</v>
       </c>
       <c r="E155" t="n">
-        <v>1004</v>
+        <v>986</v>
       </c>
       <c r="F155" t="n">
-        <v>1554.8558</v>
+        <v>57</v>
       </c>
       <c r="G155" t="n">
-        <v>1002.066666666667</v>
+        <v>11304.12395365001</v>
       </c>
       <c r="H155" t="n">
-        <v>992.2066666666668</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>989</v>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N155" t="n">
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6472,42 +6011,37 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1005</v>
+        <v>989</v>
       </c>
       <c r="C156" t="n">
-        <v>1005</v>
+        <v>989</v>
       </c>
       <c r="D156" t="n">
-        <v>1005</v>
+        <v>989</v>
       </c>
       <c r="E156" t="n">
-        <v>1005</v>
+        <v>989</v>
       </c>
       <c r="F156" t="n">
-        <v>46.9102</v>
+        <v>3295.3688</v>
       </c>
       <c r="G156" t="n">
-        <v>1002.466666666667</v>
+        <v>14599.49275365001</v>
       </c>
       <c r="H156" t="n">
-        <v>992.4566666666668</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>989</v>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N156" t="n">
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6516,42 +6050,37 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="C157" t="n">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="D157" t="n">
-        <v>1005</v>
+        <v>989</v>
       </c>
       <c r="E157" t="n">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="F157" t="n">
-        <v>4483.3208</v>
+        <v>1383.72</v>
       </c>
       <c r="G157" t="n">
-        <v>1002.4</v>
+        <v>14599.49275365001</v>
       </c>
       <c r="H157" t="n">
-        <v>992.6900000000002</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>989</v>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N157" t="n">
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6560,42 +6089,37 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="C158" t="n">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="D158" t="n">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="E158" t="n">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="F158" t="n">
-        <v>1120.5961</v>
+        <v>1013.4832</v>
       </c>
       <c r="G158" t="n">
-        <v>1002.666666666667</v>
+        <v>14599.49275365001</v>
       </c>
       <c r="H158" t="n">
-        <v>992.8900000000001</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>989</v>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N158" t="n">
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6604,42 +6128,37 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="C159" t="n">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="D159" t="n">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="E159" t="n">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="F159" t="n">
-        <v>2492.1433</v>
+        <v>778.2759</v>
       </c>
       <c r="G159" t="n">
-        <v>1002.866666666667</v>
+        <v>14599.49275365001</v>
       </c>
       <c r="H159" t="n">
-        <v>993.1066666666668</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>989</v>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N159" t="n">
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6648,42 +6167,37 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1003</v>
+        <v>985</v>
       </c>
       <c r="C160" t="n">
-        <v>1003</v>
+        <v>983</v>
       </c>
       <c r="D160" t="n">
-        <v>1004</v>
+        <v>985</v>
       </c>
       <c r="E160" t="n">
-        <v>1003</v>
+        <v>983</v>
       </c>
       <c r="F160" t="n">
-        <v>3970.1906</v>
+        <v>1050</v>
       </c>
       <c r="G160" t="n">
-        <v>1003.066666666667</v>
+        <v>13549.49275365001</v>
       </c>
       <c r="H160" t="n">
-        <v>993.3400000000001</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>989</v>
-      </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N160" t="n">
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6692,42 +6206,37 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1003</v>
+        <v>982</v>
       </c>
       <c r="C161" t="n">
-        <v>1003</v>
+        <v>980</v>
       </c>
       <c r="D161" t="n">
-        <v>1003</v>
+        <v>982</v>
       </c>
       <c r="E161" t="n">
-        <v>1003</v>
+        <v>980</v>
       </c>
       <c r="F161" t="n">
-        <v>1111.2598</v>
+        <v>455</v>
       </c>
       <c r="G161" t="n">
-        <v>1003.333333333333</v>
+        <v>13094.49275365001</v>
       </c>
       <c r="H161" t="n">
-        <v>993.5733333333335</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>0</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>989</v>
-      </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N161" t="n">
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6736,42 +6245,37 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="C162" t="n">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="D162" t="n">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="E162" t="n">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="F162" t="n">
-        <v>2115</v>
+        <v>197.847</v>
       </c>
       <c r="G162" t="n">
-        <v>1003.6</v>
+        <v>13292.33975365001</v>
       </c>
       <c r="H162" t="n">
-        <v>993.8233333333335</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>0</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>989</v>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N162" t="n">
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6780,42 +6284,37 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="C163" t="n">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="D163" t="n">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="E163" t="n">
-        <v>1002</v>
+        <v>991</v>
       </c>
       <c r="F163" t="n">
-        <v>200</v>
+        <v>1498.712</v>
       </c>
       <c r="G163" t="n">
-        <v>1003.8</v>
+        <v>14791.05175365001</v>
       </c>
       <c r="H163" t="n">
-        <v>994.0400000000002</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>0</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>989</v>
-      </c>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N163" t="n">
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6824,42 +6323,37 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="C164" t="n">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="D164" t="n">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="E164" t="n">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="F164" t="n">
-        <v>1800.43</v>
+        <v>283.8622</v>
       </c>
       <c r="G164" t="n">
-        <v>1004</v>
+        <v>15074.91395365001</v>
       </c>
       <c r="H164" t="n">
-        <v>994.2733333333334</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>0</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>989</v>
-      </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N164" t="n">
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6868,42 +6362,37 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="C165" t="n">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="D165" t="n">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="E165" t="n">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="F165" t="n">
-        <v>1063</v>
+        <v>82.66079999999999</v>
       </c>
       <c r="G165" t="n">
-        <v>1004.133333333333</v>
+        <v>15074.91395365001</v>
       </c>
       <c r="H165" t="n">
-        <v>994.5066666666668</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>0</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>989</v>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N165" t="n">
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6912,42 +6401,37 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="C166" t="n">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="D166" t="n">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="E166" t="n">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="F166" t="n">
-        <v>1515</v>
+        <v>116.0376</v>
       </c>
       <c r="G166" t="n">
-        <v>1003.866666666667</v>
+        <v>15190.95155365001</v>
       </c>
       <c r="H166" t="n">
-        <v>994.7566666666668</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>0</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>989</v>
-      </c>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N166" t="n">
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6956,44 +6440,37 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="C167" t="n">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="D167" t="n">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="E167" t="n">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="F167" t="n">
-        <v>2250.1245</v>
+        <v>150</v>
       </c>
       <c r="G167" t="n">
-        <v>1003.666666666667</v>
+        <v>15340.95155365001</v>
       </c>
       <c r="H167" t="n">
-        <v>995.0283333333335</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="n">
-        <v>0</v>
-      </c>
-      <c r="K167" t="n">
-        <v>1003</v>
-      </c>
-      <c r="L167" t="n">
-        <v>989</v>
-      </c>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7002,42 +6479,37 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="C168" t="n">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="D168" t="n">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="E168" t="n">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="F168" t="n">
-        <v>625</v>
+        <v>237</v>
       </c>
       <c r="G168" t="n">
-        <v>1003.466666666667</v>
+        <v>15340.95155365001</v>
       </c>
       <c r="H168" t="n">
-        <v>995.3116666666668</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>0</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>989</v>
-      </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N168" t="n">
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7046,42 +6518,1168 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>998</v>
+      </c>
+      <c r="C169" t="n">
+        <v>998</v>
+      </c>
+      <c r="D169" t="n">
+        <v>998</v>
+      </c>
+      <c r="E169" t="n">
+        <v>998</v>
+      </c>
+      <c r="F169" t="n">
+        <v>791.7313</v>
+      </c>
+      <c r="G169" t="n">
+        <v>16132.68285365001</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>999</v>
+      </c>
+      <c r="C170" t="n">
+        <v>999</v>
+      </c>
+      <c r="D170" t="n">
+        <v>999</v>
+      </c>
+      <c r="E170" t="n">
+        <v>999</v>
+      </c>
+      <c r="F170" t="n">
+        <v>370</v>
+      </c>
+      <c r="G170" t="n">
+        <v>16502.68285365001</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F171" t="n">
+        <v>4535</v>
+      </c>
+      <c r="G171" t="n">
+        <v>21037.68285365001</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1413.8523</v>
+      </c>
+      <c r="G172" t="n">
+        <v>19623.83055365001</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2127.8335</v>
+      </c>
+      <c r="G173" t="n">
+        <v>19623.83055365001</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1225.52</v>
+      </c>
+      <c r="G174" t="n">
+        <v>19623.83055365001</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C175" t="n">
+        <v>999</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E175" t="n">
+        <v>999</v>
+      </c>
+      <c r="F175" t="n">
+        <v>203.04</v>
+      </c>
+      <c r="G175" t="n">
+        <v>19420.79055365001</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>999</v>
+      </c>
+      <c r="C176" t="n">
+        <v>999</v>
+      </c>
+      <c r="D176" t="n">
+        <v>999</v>
+      </c>
+      <c r="E176" t="n">
+        <v>999</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G176" t="n">
+        <v>19420.79055365001</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>999</v>
+      </c>
+      <c r="C177" t="n">
+        <v>999</v>
+      </c>
+      <c r="D177" t="n">
+        <v>999</v>
+      </c>
+      <c r="E177" t="n">
+        <v>999</v>
+      </c>
+      <c r="F177" t="n">
+        <v>109.0783</v>
+      </c>
+      <c r="G177" t="n">
+        <v>19420.79055365001</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F178" t="n">
+        <v>5</v>
+      </c>
+      <c r="G178" t="n">
+        <v>19425.79055365001</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F179" t="n">
+        <v>47.3999</v>
+      </c>
+      <c r="G179" t="n">
+        <v>19425.79055365001</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1007</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F180" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="G180" t="n">
+        <v>19528.89055365001</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1036.1772</v>
+      </c>
+      <c r="G181" t="n">
+        <v>18492.71335365001</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2765</v>
+      </c>
+      <c r="G182" t="n">
+        <v>18492.71335365001</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F183" t="n">
+        <v>53.0359</v>
+      </c>
+      <c r="G183" t="n">
+        <v>18492.71335365001</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1004</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1554.8558</v>
+      </c>
+      <c r="G184" t="n">
+        <v>16937.85755365001</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F185" t="n">
+        <v>46.9102</v>
+      </c>
+      <c r="G185" t="n">
+        <v>16937.85755365001</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1004</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1004</v>
+      </c>
+      <c r="F186" t="n">
+        <v>4483.3208</v>
+      </c>
+      <c r="G186" t="n">
+        <v>12454.53675365001</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1004</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1004</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1120.5961</v>
+      </c>
+      <c r="G187" t="n">
+        <v>12454.53675365001</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C188" t="n">
         <v>1003</v>
       </c>
-      <c r="C169" t="n">
+      <c r="D188" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E188" t="n">
         <v>1003</v>
       </c>
-      <c r="D169" t="n">
+      <c r="F188" t="n">
+        <v>2492.1433</v>
+      </c>
+      <c r="G188" t="n">
+        <v>9962.393453650009</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
         <v>1003</v>
       </c>
-      <c r="E169" t="n">
+      <c r="C189" t="n">
         <v>1003</v>
       </c>
-      <c r="F169" t="n">
+      <c r="D189" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F189" t="n">
+        <v>3970.1906</v>
+      </c>
+      <c r="G189" t="n">
+        <v>9962.393453650009</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1111.2598</v>
+      </c>
+      <c r="G190" t="n">
+        <v>9962.393453650009</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2115</v>
+      </c>
+      <c r="G191" t="n">
+        <v>9962.393453650009</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1002</v>
+      </c>
+      <c r="F192" t="n">
+        <v>200</v>
+      </c>
+      <c r="G192" t="n">
+        <v>9762.393453650009</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1002</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1800.43</v>
+      </c>
+      <c r="G193" t="n">
+        <v>11562.82345365001</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1002</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1063</v>
+      </c>
+      <c r="G194" t="n">
+        <v>10499.82345365001</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1515</v>
+      </c>
+      <c r="G195" t="n">
+        <v>12014.82345365001</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2250.1245</v>
+      </c>
+      <c r="G196" t="n">
+        <v>12014.82345365001</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F197" t="n">
+        <v>625</v>
+      </c>
+      <c r="G197" t="n">
+        <v>12014.82345365001</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F198" t="n">
         <v>370</v>
       </c>
-      <c r="G169" t="n">
-        <v>1003.266666666667</v>
-      </c>
-      <c r="H169" t="n">
-        <v>995.6283333333336</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>0</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>989</v>
-      </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N169" t="n">
+      <c r="G198" t="n">
+        <v>12014.82345365001</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-25 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-25 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M198"/>
+  <dimension ref="A1:N156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="C2" t="n">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="D2" t="n">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="E2" t="n">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="F2" t="n">
-        <v>17.3709</v>
+        <v>88.8417</v>
       </c>
       <c r="G2" t="n">
-        <v>41998.3062</v>
+        <v>41445.72211127</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1030</v>
+        <v>1018</v>
       </c>
       <c r="C3" t="n">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="D3" t="n">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="E3" t="n">
-        <v>1030</v>
+        <v>1018</v>
       </c>
       <c r="F3" t="n">
-        <v>59.9747</v>
+        <v>631.6999</v>
       </c>
       <c r="G3" t="n">
-        <v>41998.3062</v>
+        <v>40814.02221127</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1033</v>
+        <v>1014</v>
       </c>
       <c r="C4" t="n">
-        <v>1032</v>
+        <v>1014</v>
       </c>
       <c r="D4" t="n">
-        <v>1033</v>
+        <v>1014</v>
       </c>
       <c r="E4" t="n">
-        <v>1032</v>
+        <v>1014</v>
       </c>
       <c r="F4" t="n">
-        <v>235.2795</v>
+        <v>170.6697</v>
       </c>
       <c r="G4" t="n">
-        <v>42233.5857</v>
+        <v>40643.35251127</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1036</v>
+        <v>1012</v>
       </c>
       <c r="C5" t="n">
-        <v>1038</v>
+        <v>1013</v>
       </c>
       <c r="D5" t="n">
-        <v>1038</v>
+        <v>1013</v>
       </c>
       <c r="E5" t="n">
-        <v>1036</v>
+        <v>1012</v>
       </c>
       <c r="F5" t="n">
-        <v>4820.70231127</v>
+        <v>610</v>
       </c>
       <c r="G5" t="n">
-        <v>47054.28801126999</v>
+        <v>40033.35251127</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1039</v>
+        <v>1008</v>
       </c>
       <c r="C6" t="n">
-        <v>1039</v>
+        <v>1006</v>
       </c>
       <c r="D6" t="n">
-        <v>1039</v>
+        <v>1008</v>
       </c>
       <c r="E6" t="n">
-        <v>1039</v>
+        <v>1006</v>
       </c>
       <c r="F6" t="n">
-        <v>477.7365</v>
+        <v>129.0258</v>
       </c>
       <c r="G6" t="n">
-        <v>47532.02451126999</v>
+        <v>39904.32671127</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1040</v>
+        <v>1008</v>
       </c>
       <c r="C7" t="n">
-        <v>1042</v>
+        <v>1008</v>
       </c>
       <c r="D7" t="n">
-        <v>1042</v>
+        <v>1008</v>
       </c>
       <c r="E7" t="n">
-        <v>1040</v>
+        <v>1008</v>
       </c>
       <c r="F7" t="n">
-        <v>88.7608</v>
+        <v>71.91540000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>47620.78531126999</v>
+        <v>39976.24211127</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1042</v>
+        <v>1013</v>
       </c>
       <c r="C8" t="n">
-        <v>1044</v>
+        <v>1015</v>
       </c>
       <c r="D8" t="n">
-        <v>1044</v>
+        <v>1015</v>
       </c>
       <c r="E8" t="n">
-        <v>1042</v>
+        <v>1013</v>
       </c>
       <c r="F8" t="n">
-        <v>1513.7392</v>
+        <v>910.3333</v>
       </c>
       <c r="G8" t="n">
-        <v>49134.52451126999</v>
+        <v>40886.57541126999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1043</v>
+        <v>1017</v>
       </c>
       <c r="C9" t="n">
-        <v>1041</v>
+        <v>1017</v>
       </c>
       <c r="D9" t="n">
-        <v>1043</v>
+        <v>1017</v>
       </c>
       <c r="E9" t="n">
-        <v>1041</v>
+        <v>1017</v>
       </c>
       <c r="F9" t="n">
-        <v>42.4481</v>
+        <v>175.4382</v>
       </c>
       <c r="G9" t="n">
-        <v>49092.07641126999</v>
+        <v>41062.01361126999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1040</v>
+        <v>1011</v>
       </c>
       <c r="C10" t="n">
-        <v>1033</v>
+        <v>1016</v>
       </c>
       <c r="D10" t="n">
-        <v>1042</v>
+        <v>1016</v>
       </c>
       <c r="E10" t="n">
-        <v>1033</v>
+        <v>1011</v>
       </c>
       <c r="F10" t="n">
-        <v>1005.4621</v>
+        <v>1128.8387</v>
       </c>
       <c r="G10" t="n">
-        <v>48086.61431126999</v>
+        <v>39933.17491126999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="C11" t="n">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="D11" t="n">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="E11" t="n">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="F11" t="n">
-        <v>31.9172</v>
+        <v>1755</v>
       </c>
       <c r="G11" t="n">
-        <v>48054.69711126999</v>
+        <v>38178.17491126999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1029</v>
+        <v>1013</v>
       </c>
       <c r="C12" t="n">
-        <v>1029</v>
+        <v>1013</v>
       </c>
       <c r="D12" t="n">
-        <v>1029</v>
+        <v>1013</v>
       </c>
       <c r="E12" t="n">
-        <v>1029</v>
+        <v>1013</v>
       </c>
       <c r="F12" t="n">
-        <v>6.6662</v>
+        <v>36.5988</v>
       </c>
       <c r="G12" t="n">
-        <v>48054.69711126999</v>
+        <v>38141.57611126999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1037</v>
+        <v>1009</v>
       </c>
       <c r="C13" t="n">
-        <v>1037</v>
+        <v>1009</v>
       </c>
       <c r="D13" t="n">
-        <v>1037</v>
+        <v>1009</v>
       </c>
       <c r="E13" t="n">
-        <v>1037</v>
+        <v>1009</v>
       </c>
       <c r="F13" t="n">
-        <v>31.9</v>
+        <v>2089.6099</v>
       </c>
       <c r="G13" t="n">
-        <v>48086.59711126999</v>
+        <v>36051.96621126999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1035</v>
+        <v>1013</v>
       </c>
       <c r="C14" t="n">
-        <v>1035</v>
+        <v>1013</v>
       </c>
       <c r="D14" t="n">
-        <v>1035</v>
+        <v>1013</v>
       </c>
       <c r="E14" t="n">
-        <v>1035</v>
+        <v>1013</v>
       </c>
       <c r="F14" t="n">
-        <v>35.0096</v>
+        <v>175.3585</v>
       </c>
       <c r="G14" t="n">
-        <v>48051.58751126999</v>
+        <v>36227.32471126999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1026</v>
+        <v>1009</v>
       </c>
       <c r="C15" t="n">
-        <v>1025</v>
+        <v>1009</v>
       </c>
       <c r="D15" t="n">
-        <v>1026</v>
+        <v>1009</v>
       </c>
       <c r="E15" t="n">
-        <v>1025</v>
+        <v>1009</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1736</v>
+        <v>175.4382</v>
       </c>
       <c r="G15" t="n">
-        <v>47928.41391126999</v>
+        <v>36051.88651126999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1031</v>
+        <v>1008</v>
       </c>
       <c r="C16" t="n">
-        <v>1031</v>
+        <v>1008</v>
       </c>
       <c r="D16" t="n">
-        <v>1031</v>
+        <v>1008</v>
       </c>
       <c r="E16" t="n">
-        <v>1031</v>
+        <v>1008</v>
       </c>
       <c r="F16" t="n">
-        <v>390</v>
+        <v>4209.9999</v>
       </c>
       <c r="G16" t="n">
-        <v>48318.41391126999</v>
+        <v>31841.88661126999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1023</v>
+        <v>1007</v>
       </c>
       <c r="C17" t="n">
-        <v>1023</v>
+        <v>1007</v>
       </c>
       <c r="D17" t="n">
-        <v>1023</v>
+        <v>1007</v>
       </c>
       <c r="E17" t="n">
-        <v>1023</v>
+        <v>1007</v>
       </c>
       <c r="F17" t="n">
-        <v>1.2598</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>48317.15411126999</v>
+        <v>31831.88661126999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1023</v>
+        <v>1007</v>
       </c>
       <c r="C18" t="n">
-        <v>1026</v>
+        <v>1007</v>
       </c>
       <c r="D18" t="n">
-        <v>1026</v>
+        <v>1007</v>
       </c>
       <c r="E18" t="n">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="F18" t="n">
-        <v>1345.5736</v>
+        <v>40.4969</v>
       </c>
       <c r="G18" t="n">
-        <v>49662.72771127</v>
+        <v>31831.88661126999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1024</v>
+        <v>1007</v>
       </c>
       <c r="C19" t="n">
-        <v>1024</v>
+        <v>1006</v>
       </c>
       <c r="D19" t="n">
-        <v>1024</v>
+        <v>1007</v>
       </c>
       <c r="E19" t="n">
-        <v>1024</v>
+        <v>1006</v>
       </c>
       <c r="F19" t="n">
-        <v>45.1113</v>
+        <v>69.74209999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>49617.61641127</v>
+        <v>31762.14451126999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1025</v>
+        <v>1001</v>
       </c>
       <c r="C20" t="n">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="D20" t="n">
-        <v>1025</v>
+        <v>1001</v>
       </c>
       <c r="E20" t="n">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="F20" t="n">
-        <v>1156.5639</v>
+        <v>182.5189</v>
       </c>
       <c r="G20" t="n">
-        <v>50774.18031127</v>
+        <v>31579.62561127</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1027</v>
+        <v>1005</v>
       </c>
       <c r="C21" t="n">
-        <v>1027</v>
+        <v>1006</v>
       </c>
       <c r="D21" t="n">
-        <v>1027</v>
+        <v>1006</v>
       </c>
       <c r="E21" t="n">
-        <v>1026</v>
+        <v>1005</v>
       </c>
       <c r="F21" t="n">
-        <v>299.7898</v>
+        <v>210</v>
       </c>
       <c r="G21" t="n">
-        <v>51073.97011127</v>
+        <v>31789.62561127</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1028</v>
+        <v>1005</v>
       </c>
       <c r="C22" t="n">
-        <v>1033</v>
+        <v>1005</v>
       </c>
       <c r="D22" t="n">
-        <v>1033</v>
+        <v>1005</v>
       </c>
       <c r="E22" t="n">
-        <v>1028</v>
+        <v>1005</v>
       </c>
       <c r="F22" t="n">
-        <v>985.1824</v>
+        <v>6.3644</v>
       </c>
       <c r="G22" t="n">
-        <v>52059.15251127</v>
+        <v>31783.26121127</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1034</v>
+        <v>1003</v>
       </c>
       <c r="C23" t="n">
-        <v>1027</v>
+        <v>1002</v>
       </c>
       <c r="D23" t="n">
-        <v>1034</v>
+        <v>1003</v>
       </c>
       <c r="E23" t="n">
-        <v>1027</v>
+        <v>1002</v>
       </c>
       <c r="F23" t="n">
-        <v>103.8108</v>
+        <v>225.8585</v>
       </c>
       <c r="G23" t="n">
-        <v>51955.34171127</v>
+        <v>31557.40271127</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1027</v>
+        <v>999.1</v>
       </c>
       <c r="C24" t="n">
-        <v>1027</v>
+        <v>999.1</v>
       </c>
       <c r="D24" t="n">
-        <v>1027</v>
+        <v>999.1</v>
       </c>
       <c r="E24" t="n">
-        <v>1027</v>
+        <v>999.1</v>
       </c>
       <c r="F24" t="n">
-        <v>2012.0647</v>
+        <v>171.0919</v>
       </c>
       <c r="G24" t="n">
-        <v>51955.34171127</v>
+        <v>31386.31081127</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1027</v>
+        <v>999.1</v>
       </c>
       <c r="C25" t="n">
-        <v>1026</v>
+        <v>999</v>
       </c>
       <c r="D25" t="n">
-        <v>1027</v>
+        <v>999.1</v>
       </c>
       <c r="E25" t="n">
-        <v>1026</v>
+        <v>999</v>
       </c>
       <c r="F25" t="n">
-        <v>1294.895</v>
+        <v>698.2125</v>
       </c>
       <c r="G25" t="n">
-        <v>50660.44671127</v>
+        <v>30688.09831127</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1026</v>
+        <v>997</v>
       </c>
       <c r="C26" t="n">
-        <v>1027</v>
+        <v>997</v>
       </c>
       <c r="D26" t="n">
-        <v>1027</v>
+        <v>997</v>
       </c>
       <c r="E26" t="n">
-        <v>1026</v>
+        <v>997</v>
       </c>
       <c r="F26" t="n">
-        <v>717.545</v>
+        <v>215.4855</v>
       </c>
       <c r="G26" t="n">
-        <v>51377.99171127</v>
+        <v>30472.61281127</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1027</v>
+        <v>997.9</v>
       </c>
       <c r="C27" t="n">
-        <v>1027</v>
+        <v>997.9</v>
       </c>
       <c r="D27" t="n">
-        <v>1027</v>
+        <v>997.9</v>
       </c>
       <c r="E27" t="n">
-        <v>1027</v>
+        <v>997.9</v>
       </c>
       <c r="F27" t="n">
-        <v>5711.7834</v>
+        <v>678.0903</v>
       </c>
       <c r="G27" t="n">
-        <v>51377.99171127</v>
+        <v>31150.70311127</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1027</v>
+        <v>995</v>
       </c>
       <c r="C28" t="n">
-        <v>1027</v>
+        <v>995</v>
       </c>
       <c r="D28" t="n">
-        <v>1027</v>
+        <v>995</v>
       </c>
       <c r="E28" t="n">
-        <v>1027</v>
+        <v>995</v>
       </c>
       <c r="F28" t="n">
-        <v>335.3798</v>
+        <v>464.0891</v>
       </c>
       <c r="G28" t="n">
-        <v>51377.99171127</v>
+        <v>30686.61401127</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,34 +1403,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1027</v>
+        <v>995</v>
       </c>
       <c r="C29" t="n">
-        <v>1027</v>
+        <v>992.2</v>
       </c>
       <c r="D29" t="n">
-        <v>1027</v>
+        <v>995</v>
       </c>
       <c r="E29" t="n">
-        <v>1027</v>
+        <v>992.2</v>
       </c>
       <c r="F29" t="n">
-        <v>795.0701</v>
+        <v>1299.9999</v>
       </c>
       <c r="G29" t="n">
-        <v>51377.99171127</v>
+        <v>29386.61411127</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,34 +1439,35 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1022</v>
+        <v>992.2</v>
       </c>
       <c r="C30" t="n">
-        <v>1022</v>
+        <v>992.2</v>
       </c>
       <c r="D30" t="n">
-        <v>1022</v>
+        <v>992.2</v>
       </c>
       <c r="E30" t="n">
-        <v>1022</v>
+        <v>992.2</v>
       </c>
       <c r="F30" t="n">
-        <v>897.6237</v>
+        <v>84.1228</v>
       </c>
       <c r="G30" t="n">
-        <v>50480.36801127</v>
+        <v>29386.61411127</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1019</v>
+        <v>998.9</v>
       </c>
       <c r="C31" t="n">
-        <v>1019</v>
+        <v>993.1</v>
       </c>
       <c r="D31" t="n">
-        <v>1019</v>
+        <v>998.9</v>
       </c>
       <c r="E31" t="n">
-        <v>1019</v>
+        <v>993.1</v>
       </c>
       <c r="F31" t="n">
-        <v>89.0351</v>
+        <v>199.72364803</v>
       </c>
       <c r="G31" t="n">
-        <v>50391.33291127</v>
+        <v>29586.3377593</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1020</v>
+        <v>991.3</v>
       </c>
       <c r="C32" t="n">
-        <v>1019</v>
+        <v>991.3</v>
       </c>
       <c r="D32" t="n">
-        <v>1020</v>
+        <v>991.3</v>
       </c>
       <c r="E32" t="n">
-        <v>1019</v>
+        <v>991.3</v>
       </c>
       <c r="F32" t="n">
-        <v>407.6339</v>
+        <v>1121.713</v>
       </c>
       <c r="G32" t="n">
-        <v>50391.33291127</v>
+        <v>28464.6247593</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1019</v>
+        <v>993.1</v>
       </c>
       <c r="C33" t="n">
-        <v>1019</v>
+        <v>993.1</v>
       </c>
       <c r="D33" t="n">
-        <v>1019</v>
+        <v>993.1</v>
       </c>
       <c r="E33" t="n">
-        <v>1019</v>
+        <v>993.1</v>
       </c>
       <c r="F33" t="n">
-        <v>2641.8645</v>
+        <v>1.7197</v>
       </c>
       <c r="G33" t="n">
-        <v>50391.33291127</v>
+        <v>28466.3444593</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1019</v>
+        <v>993.1</v>
       </c>
       <c r="C34" t="n">
-        <v>1019</v>
+        <v>993.1</v>
       </c>
       <c r="D34" t="n">
-        <v>1019</v>
+        <v>993.1</v>
       </c>
       <c r="E34" t="n">
-        <v>1019</v>
+        <v>993.1</v>
       </c>
       <c r="F34" t="n">
-        <v>1143.4301</v>
+        <v>65</v>
       </c>
       <c r="G34" t="n">
-        <v>50391.33291127</v>
+        <v>28466.3444593</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1019</v>
+        <v>993.2</v>
       </c>
       <c r="C35" t="n">
-        <v>1019</v>
+        <v>993.2</v>
       </c>
       <c r="D35" t="n">
-        <v>1019</v>
+        <v>993.2</v>
       </c>
       <c r="E35" t="n">
-        <v>1019</v>
+        <v>993.2</v>
       </c>
       <c r="F35" t="n">
-        <v>275</v>
+        <v>65</v>
       </c>
       <c r="G35" t="n">
-        <v>50391.33291127</v>
+        <v>28531.3444593</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1019</v>
+        <v>993.2</v>
       </c>
       <c r="C36" t="n">
-        <v>1019</v>
+        <v>993.2</v>
       </c>
       <c r="D36" t="n">
-        <v>1019</v>
+        <v>993.2</v>
       </c>
       <c r="E36" t="n">
-        <v>1019</v>
+        <v>993.2</v>
       </c>
       <c r="F36" t="n">
-        <v>119</v>
+        <v>280</v>
       </c>
       <c r="G36" t="n">
-        <v>50391.33291127</v>
+        <v>28531.3444593</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1019</v>
+        <v>993.2</v>
       </c>
       <c r="C37" t="n">
-        <v>1019</v>
+        <v>993.1</v>
       </c>
       <c r="D37" t="n">
-        <v>1019</v>
+        <v>993.2</v>
       </c>
       <c r="E37" t="n">
-        <v>1019</v>
+        <v>993.1</v>
       </c>
       <c r="F37" t="n">
-        <v>1298.42</v>
+        <v>275</v>
       </c>
       <c r="G37" t="n">
-        <v>50391.33291127</v>
+        <v>28256.3444593</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1019</v>
+        <v>993.1</v>
       </c>
       <c r="C38" t="n">
-        <v>1018</v>
+        <v>993.1</v>
       </c>
       <c r="D38" t="n">
-        <v>1019</v>
+        <v>993.1</v>
       </c>
       <c r="E38" t="n">
-        <v>1018</v>
+        <v>993.1</v>
       </c>
       <c r="F38" t="n">
-        <v>4932.9102</v>
+        <v>275</v>
       </c>
       <c r="G38" t="n">
-        <v>45458.42271127</v>
+        <v>28256.3444593</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1017</v>
+        <v>993.1</v>
       </c>
       <c r="C39" t="n">
-        <v>1017</v>
+        <v>993.1</v>
       </c>
       <c r="D39" t="n">
-        <v>1017</v>
+        <v>993.1</v>
       </c>
       <c r="E39" t="n">
-        <v>1014</v>
+        <v>993.1</v>
       </c>
       <c r="F39" t="n">
-        <v>4877.4023</v>
+        <v>280</v>
       </c>
       <c r="G39" t="n">
-        <v>40581.02041127</v>
+        <v>28256.3444593</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1017</v>
+        <v>993.1</v>
       </c>
       <c r="C40" t="n">
-        <v>1016</v>
+        <v>993.1</v>
       </c>
       <c r="D40" t="n">
-        <v>1017</v>
+        <v>993.1</v>
       </c>
       <c r="E40" t="n">
-        <v>1016</v>
+        <v>993.1</v>
       </c>
       <c r="F40" t="n">
-        <v>4207.2364</v>
+        <v>275</v>
       </c>
       <c r="G40" t="n">
-        <v>36373.78401127</v>
+        <v>28256.3444593</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1016</v>
+        <v>996.9</v>
       </c>
       <c r="C41" t="n">
-        <v>1012</v>
+        <v>996.9</v>
       </c>
       <c r="D41" t="n">
-        <v>1016</v>
+        <v>996.9</v>
       </c>
       <c r="E41" t="n">
-        <v>1012</v>
+        <v>996.9</v>
       </c>
       <c r="F41" t="n">
-        <v>2792.2771</v>
+        <v>1.00310963</v>
       </c>
       <c r="G41" t="n">
-        <v>33581.50691127</v>
+        <v>28257.34756893</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1012</v>
+        <v>995</v>
       </c>
       <c r="C42" t="n">
-        <v>1019</v>
+        <v>995</v>
       </c>
       <c r="D42" t="n">
-        <v>1019</v>
+        <v>995</v>
       </c>
       <c r="E42" t="n">
-        <v>1010</v>
+        <v>995</v>
       </c>
       <c r="F42" t="n">
-        <v>7848.5722</v>
+        <v>47.1141</v>
       </c>
       <c r="G42" t="n">
-        <v>41430.07911127</v>
+        <v>28210.23346893</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1011</v>
+        <v>992.9</v>
       </c>
       <c r="C43" t="n">
-        <v>1011</v>
+        <v>992.9</v>
       </c>
       <c r="D43" t="n">
-        <v>1011</v>
+        <v>992.9</v>
       </c>
       <c r="E43" t="n">
-        <v>1011</v>
+        <v>992.9</v>
       </c>
       <c r="F43" t="n">
-        <v>73.1987</v>
+        <v>103</v>
       </c>
       <c r="G43" t="n">
-        <v>41356.88041127</v>
+        <v>28107.23346893</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1021</v>
+        <v>990.6</v>
       </c>
       <c r="C44" t="n">
-        <v>1021</v>
+        <v>989</v>
       </c>
       <c r="D44" t="n">
-        <v>1021</v>
+        <v>990.6</v>
       </c>
       <c r="E44" t="n">
-        <v>1021</v>
+        <v>989</v>
       </c>
       <c r="F44" t="n">
-        <v>88.8417</v>
+        <v>3011.31</v>
       </c>
       <c r="G44" t="n">
-        <v>41445.72211127</v>
+        <v>25095.92346893</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1018</v>
+        <v>991</v>
       </c>
       <c r="C45" t="n">
-        <v>1019</v>
+        <v>992</v>
       </c>
       <c r="D45" t="n">
-        <v>1019</v>
+        <v>992</v>
       </c>
       <c r="E45" t="n">
-        <v>1018</v>
+        <v>991</v>
       </c>
       <c r="F45" t="n">
-        <v>631.6999</v>
+        <v>1050</v>
       </c>
       <c r="G45" t="n">
-        <v>40814.02221127</v>
+        <v>26145.92346893</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1014</v>
+        <v>986.6</v>
       </c>
       <c r="C46" t="n">
-        <v>1014</v>
+        <v>986.6</v>
       </c>
       <c r="D46" t="n">
-        <v>1014</v>
+        <v>986.6</v>
       </c>
       <c r="E46" t="n">
-        <v>1014</v>
+        <v>986.6</v>
       </c>
       <c r="F46" t="n">
-        <v>170.6697</v>
+        <v>269.96</v>
       </c>
       <c r="G46" t="n">
-        <v>40643.35251127</v>
+        <v>25875.96346893</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1012</v>
+        <v>986.6</v>
       </c>
       <c r="C47" t="n">
-        <v>1013</v>
+        <v>986.5</v>
       </c>
       <c r="D47" t="n">
-        <v>1013</v>
+        <v>986.6</v>
       </c>
       <c r="E47" t="n">
-        <v>1012</v>
+        <v>986.5</v>
       </c>
       <c r="F47" t="n">
-        <v>610</v>
+        <v>1069.1151</v>
       </c>
       <c r="G47" t="n">
-        <v>40033.35251127</v>
+        <v>24806.84836893</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1008</v>
+        <v>994</v>
       </c>
       <c r="C48" t="n">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="D48" t="n">
-        <v>1008</v>
+        <v>994</v>
       </c>
       <c r="E48" t="n">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="F48" t="n">
-        <v>129.0258</v>
+        <v>305</v>
       </c>
       <c r="G48" t="n">
-        <v>39904.32671127</v>
+        <v>25111.84836893</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="C49" t="n">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="D49" t="n">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="E49" t="n">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="F49" t="n">
-        <v>71.91540000000001</v>
+        <v>96.4889</v>
       </c>
       <c r="G49" t="n">
-        <v>39976.24211127</v>
+        <v>25208.33726893</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="C50" t="n">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="D50" t="n">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="E50" t="n">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="F50" t="n">
-        <v>910.3333</v>
+        <v>104.7813</v>
       </c>
       <c r="G50" t="n">
-        <v>40886.57541126999</v>
+        <v>25208.33726893</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1017</v>
+        <v>1000</v>
       </c>
       <c r="C51" t="n">
-        <v>1017</v>
+        <v>1000</v>
       </c>
       <c r="D51" t="n">
-        <v>1017</v>
+        <v>1000</v>
       </c>
       <c r="E51" t="n">
-        <v>1017</v>
+        <v>1000</v>
       </c>
       <c r="F51" t="n">
-        <v>175.4382</v>
+        <v>34.7493</v>
       </c>
       <c r="G51" t="n">
-        <v>41062.01361126999</v>
+        <v>25208.33726893</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="C52" t="n">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="D52" t="n">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="E52" t="n">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="F52" t="n">
-        <v>1128.8387</v>
+        <v>176.9441</v>
       </c>
       <c r="G52" t="n">
-        <v>39933.17491126999</v>
+        <v>25385.28136893001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="C53" t="n">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="D53" t="n">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="E53" t="n">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="F53" t="n">
-        <v>1755</v>
+        <v>49.9999</v>
       </c>
       <c r="G53" t="n">
-        <v>38178.17491126999</v>
+        <v>25435.28126893</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="C54" t="n">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="D54" t="n">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="E54" t="n">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="F54" t="n">
-        <v>36.5988</v>
+        <v>500</v>
       </c>
       <c r="G54" t="n">
-        <v>38141.57611126999</v>
+        <v>25935.28126893</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="C55" t="n">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="D55" t="n">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="E55" t="n">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="F55" t="n">
-        <v>2089.6099</v>
+        <v>5398.00592299</v>
       </c>
       <c r="G55" t="n">
-        <v>36051.96621126999</v>
+        <v>31333.28719192</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C56" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D56" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E56" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F56" t="n">
-        <v>175.3585</v>
+        <v>952.7741617299999</v>
       </c>
       <c r="G56" t="n">
-        <v>36227.32471126999</v>
+        <v>32286.06135365001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="C57" t="n">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="D57" t="n">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="E57" t="n">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="F57" t="n">
-        <v>175.4382</v>
+        <v>78.7032</v>
       </c>
       <c r="G57" t="n">
-        <v>36051.88651126999</v>
+        <v>32207.35815365001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="C58" t="n">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="D58" t="n">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E58" t="n">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="F58" t="n">
-        <v>4209.9999</v>
+        <v>80</v>
       </c>
       <c r="G58" t="n">
-        <v>31841.88661126999</v>
+        <v>32287.35815365001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="C59" t="n">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="D59" t="n">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E59" t="n">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>1.7</v>
       </c>
       <c r="G59" t="n">
-        <v>31831.88661126999</v>
+        <v>32285.65815365001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="C60" t="n">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="D60" t="n">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E60" t="n">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="F60" t="n">
-        <v>40.4969</v>
+        <v>19</v>
       </c>
       <c r="G60" t="n">
-        <v>31831.88661126999</v>
+        <v>32285.65815365001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="C61" t="n">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="D61" t="n">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E61" t="n">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="F61" t="n">
-        <v>69.74209999999999</v>
+        <v>0.5968</v>
       </c>
       <c r="G61" t="n">
-        <v>31762.14451126999</v>
+        <v>32285.65815365001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1001</v>
+        <v>1008</v>
       </c>
       <c r="C62" t="n">
         <v>1000</v>
       </c>
       <c r="D62" t="n">
-        <v>1001</v>
+        <v>1008</v>
       </c>
       <c r="E62" t="n">
         <v>1000</v>
       </c>
       <c r="F62" t="n">
-        <v>182.5189</v>
+        <v>6350.7801</v>
       </c>
       <c r="G62" t="n">
-        <v>31579.62561127</v>
+        <v>25934.87805365001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,13 +2627,14 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C63" t="n">
         <v>1006</v>
@@ -2577,13 +2643,13 @@
         <v>1006</v>
       </c>
       <c r="E63" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="F63" t="n">
-        <v>210</v>
+        <v>528.8682</v>
       </c>
       <c r="G63" t="n">
-        <v>31789.62561127</v>
+        <v>26463.74625365001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2606,19 +2673,19 @@
         <v>1005</v>
       </c>
       <c r="C64" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D64" t="n">
         <v>1005</v>
       </c>
       <c r="E64" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F64" t="n">
-        <v>6.3644</v>
+        <v>1627</v>
       </c>
       <c r="G64" t="n">
-        <v>31783.26121127</v>
+        <v>24836.74625365001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,13 +2699,14 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C65" t="n">
         <v>1002</v>
@@ -2647,13 +2715,13 @@
         <v>1003</v>
       </c>
       <c r="E65" t="n">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F65" t="n">
-        <v>225.8585</v>
+        <v>1829</v>
       </c>
       <c r="G65" t="n">
-        <v>31557.40271127</v>
+        <v>23007.74625365001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>999.1</v>
+        <v>1003</v>
       </c>
       <c r="C66" t="n">
-        <v>999.1</v>
+        <v>1001</v>
       </c>
       <c r="D66" t="n">
-        <v>999.1</v>
+        <v>1003</v>
       </c>
       <c r="E66" t="n">
-        <v>999.1</v>
+        <v>1001</v>
       </c>
       <c r="F66" t="n">
-        <v>171.0919</v>
+        <v>1729.3814</v>
       </c>
       <c r="G66" t="n">
-        <v>31386.31081127</v>
+        <v>21278.36485365001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>999.1</v>
+        <v>999.2</v>
       </c>
       <c r="C67" t="n">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D67" t="n">
-        <v>999.1</v>
+        <v>1002</v>
       </c>
       <c r="E67" t="n">
-        <v>999</v>
+        <v>999.2</v>
       </c>
       <c r="F67" t="n">
-        <v>698.2125</v>
+        <v>2593.7958</v>
       </c>
       <c r="G67" t="n">
-        <v>30688.09831127</v>
+        <v>18684.56905365001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C68" t="n">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D68" t="n">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E68" t="n">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="F68" t="n">
-        <v>215.4855</v>
+        <v>1479.493</v>
       </c>
       <c r="G68" t="n">
-        <v>30472.61281127</v>
+        <v>17205.07605365001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>997.9</v>
+        <v>999</v>
       </c>
       <c r="C69" t="n">
-        <v>997.9</v>
+        <v>999</v>
       </c>
       <c r="D69" t="n">
-        <v>997.9</v>
+        <v>999</v>
       </c>
       <c r="E69" t="n">
-        <v>997.9</v>
+        <v>999</v>
       </c>
       <c r="F69" t="n">
-        <v>678.0903</v>
+        <v>1742.2687</v>
       </c>
       <c r="G69" t="n">
-        <v>31150.70311127</v>
+        <v>18947.34475365001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="C70" t="n">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D70" t="n">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="E70" t="n">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="F70" t="n">
-        <v>464.0891</v>
+        <v>1535.0971</v>
       </c>
       <c r="G70" t="n">
-        <v>30686.61401127</v>
+        <v>17412.24765365001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C71" t="n">
-        <v>992.2</v>
+        <v>996</v>
       </c>
       <c r="D71" t="n">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="E71" t="n">
-        <v>992.2</v>
+        <v>996</v>
       </c>
       <c r="F71" t="n">
-        <v>1299.9999</v>
+        <v>1939.3651</v>
       </c>
       <c r="G71" t="n">
-        <v>29386.61411127</v>
+        <v>15472.88255365001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>992.2</v>
+        <v>995</v>
       </c>
       <c r="C72" t="n">
-        <v>992.2</v>
+        <v>994</v>
       </c>
       <c r="D72" t="n">
-        <v>992.2</v>
+        <v>996</v>
       </c>
       <c r="E72" t="n">
-        <v>992.2</v>
+        <v>992</v>
       </c>
       <c r="F72" t="n">
-        <v>84.1228</v>
+        <v>1621</v>
       </c>
       <c r="G72" t="n">
-        <v>29386.61411127</v>
+        <v>13851.88255365001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>998.9</v>
+        <v>992</v>
       </c>
       <c r="C73" t="n">
-        <v>993.1</v>
+        <v>992</v>
       </c>
       <c r="D73" t="n">
-        <v>998.9</v>
+        <v>994</v>
       </c>
       <c r="E73" t="n">
-        <v>993.1</v>
+        <v>990.5</v>
       </c>
       <c r="F73" t="n">
-        <v>199.72364803</v>
+        <v>1660.9348</v>
       </c>
       <c r="G73" t="n">
-        <v>29586.3377593</v>
+        <v>12190.94775365001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>991.3</v>
+        <v>990.5</v>
       </c>
       <c r="C74" t="n">
-        <v>991.3</v>
+        <v>996</v>
       </c>
       <c r="D74" t="n">
-        <v>991.3</v>
+        <v>996</v>
       </c>
       <c r="E74" t="n">
-        <v>991.3</v>
+        <v>990.5</v>
       </c>
       <c r="F74" t="n">
-        <v>1121.713</v>
+        <v>1845.0652</v>
       </c>
       <c r="G74" t="n">
-        <v>28464.6247593</v>
+        <v>14036.01295365001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>993.1</v>
+        <v>992</v>
       </c>
       <c r="C75" t="n">
-        <v>993.1</v>
+        <v>993</v>
       </c>
       <c r="D75" t="n">
-        <v>993.1</v>
+        <v>995</v>
       </c>
       <c r="E75" t="n">
-        <v>993.1</v>
+        <v>990.5</v>
       </c>
       <c r="F75" t="n">
-        <v>1.7197</v>
+        <v>2647</v>
       </c>
       <c r="G75" t="n">
-        <v>28466.3444593</v>
+        <v>11389.01295365001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>993.1</v>
+        <v>993</v>
       </c>
       <c r="C76" t="n">
-        <v>993.1</v>
+        <v>990.5</v>
       </c>
       <c r="D76" t="n">
-        <v>993.1</v>
+        <v>993</v>
       </c>
       <c r="E76" t="n">
-        <v>993.1</v>
+        <v>990.5</v>
       </c>
       <c r="F76" t="n">
-        <v>65</v>
+        <v>2343.4478</v>
       </c>
       <c r="G76" t="n">
-        <v>28466.3444593</v>
+        <v>9045.565153650014</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>993.2</v>
+        <v>990.5</v>
       </c>
       <c r="C77" t="n">
-        <v>993.2</v>
+        <v>992</v>
       </c>
       <c r="D77" t="n">
-        <v>993.2</v>
+        <v>992</v>
       </c>
       <c r="E77" t="n">
-        <v>993.2</v>
+        <v>990.5</v>
       </c>
       <c r="F77" t="n">
-        <v>65</v>
+        <v>1651.6749</v>
       </c>
       <c r="G77" t="n">
-        <v>28531.3444593</v>
+        <v>10697.24005365001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>993.2</v>
+        <v>990.5</v>
       </c>
       <c r="C78" t="n">
-        <v>993.2</v>
+        <v>990.5</v>
       </c>
       <c r="D78" t="n">
-        <v>993.2</v>
+        <v>990.5</v>
       </c>
       <c r="E78" t="n">
-        <v>993.2</v>
+        <v>990.5</v>
       </c>
       <c r="F78" t="n">
-        <v>280</v>
+        <v>2202</v>
       </c>
       <c r="G78" t="n">
-        <v>28531.3444593</v>
+        <v>8495.240053650014</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>993.2</v>
+        <v>990.5</v>
       </c>
       <c r="C79" t="n">
-        <v>993.1</v>
+        <v>995</v>
       </c>
       <c r="D79" t="n">
-        <v>993.2</v>
+        <v>995</v>
       </c>
       <c r="E79" t="n">
-        <v>993.1</v>
+        <v>990.5</v>
       </c>
       <c r="F79" t="n">
-        <v>275</v>
+        <v>3004.4345</v>
       </c>
       <c r="G79" t="n">
-        <v>28256.3444593</v>
+        <v>11499.67455365001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>993.1</v>
+        <v>991</v>
       </c>
       <c r="C80" t="n">
-        <v>993.1</v>
+        <v>990.4</v>
       </c>
       <c r="D80" t="n">
-        <v>993.1</v>
+        <v>993</v>
       </c>
       <c r="E80" t="n">
-        <v>993.1</v>
+        <v>990.4</v>
       </c>
       <c r="F80" t="n">
-        <v>275</v>
+        <v>1547</v>
       </c>
       <c r="G80" t="n">
-        <v>28256.3444593</v>
+        <v>9952.674553650013</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>993.1</v>
+        <v>990.4</v>
       </c>
       <c r="C81" t="n">
-        <v>993.1</v>
+        <v>992</v>
       </c>
       <c r="D81" t="n">
-        <v>993.1</v>
+        <v>992</v>
       </c>
       <c r="E81" t="n">
-        <v>993.1</v>
+        <v>990.4</v>
       </c>
       <c r="F81" t="n">
-        <v>280</v>
+        <v>1820</v>
       </c>
       <c r="G81" t="n">
-        <v>28256.3444593</v>
+        <v>11772.67455365001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>993.1</v>
+        <v>990</v>
       </c>
       <c r="C82" t="n">
-        <v>993.1</v>
+        <v>989.1</v>
       </c>
       <c r="D82" t="n">
-        <v>993.1</v>
+        <v>990</v>
       </c>
       <c r="E82" t="n">
-        <v>993.1</v>
+        <v>989.1</v>
       </c>
       <c r="F82" t="n">
-        <v>275</v>
+        <v>1013.3078</v>
       </c>
       <c r="G82" t="n">
-        <v>28256.3444593</v>
+        <v>10759.36675365001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>996.9</v>
+        <v>990</v>
       </c>
       <c r="C83" t="n">
-        <v>996.9</v>
+        <v>990</v>
       </c>
       <c r="D83" t="n">
-        <v>996.9</v>
+        <v>990</v>
       </c>
       <c r="E83" t="n">
-        <v>996.9</v>
+        <v>989</v>
       </c>
       <c r="F83" t="n">
-        <v>1.00310963</v>
+        <v>6262.6922</v>
       </c>
       <c r="G83" t="n">
-        <v>28257.34756893</v>
+        <v>17022.05895365001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C84" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="D84" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="E84" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="F84" t="n">
-        <v>47.1141</v>
+        <v>2334</v>
       </c>
       <c r="G84" t="n">
-        <v>28210.23346893</v>
+        <v>17022.05895365001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>992.9</v>
+        <v>990</v>
       </c>
       <c r="C85" t="n">
-        <v>992.9</v>
+        <v>992</v>
       </c>
       <c r="D85" t="n">
-        <v>992.9</v>
+        <v>992</v>
       </c>
       <c r="E85" t="n">
-        <v>992.9</v>
+        <v>988</v>
       </c>
       <c r="F85" t="n">
-        <v>103</v>
+        <v>1151.7739</v>
       </c>
       <c r="G85" t="n">
-        <v>28107.23346893</v>
+        <v>18173.83285365001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>990.6</v>
+        <v>989</v>
       </c>
       <c r="C86" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D86" t="n">
-        <v>990.6</v>
+        <v>990</v>
       </c>
       <c r="E86" t="n">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F86" t="n">
-        <v>3011.31</v>
+        <v>2543</v>
       </c>
       <c r="G86" t="n">
-        <v>25095.92346893</v>
+        <v>15630.83285365001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C87" t="n">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="D87" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E87" t="n">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F87" t="n">
-        <v>1050</v>
+        <v>1891.0857</v>
       </c>
       <c r="G87" t="n">
-        <v>26145.92346893</v>
+        <v>13739.74715365001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>986.6</v>
+        <v>989</v>
       </c>
       <c r="C88" t="n">
-        <v>986.6</v>
+        <v>989</v>
       </c>
       <c r="D88" t="n">
-        <v>986.6</v>
+        <v>989</v>
       </c>
       <c r="E88" t="n">
-        <v>986.6</v>
+        <v>989</v>
       </c>
       <c r="F88" t="n">
-        <v>269.96</v>
+        <v>100</v>
       </c>
       <c r="G88" t="n">
-        <v>25875.96346893</v>
+        <v>13739.74715365001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>986.6</v>
+        <v>988.1</v>
       </c>
       <c r="C89" t="n">
-        <v>986.5</v>
+        <v>988</v>
       </c>
       <c r="D89" t="n">
-        <v>986.6</v>
+        <v>988.1</v>
       </c>
       <c r="E89" t="n">
-        <v>986.5</v>
+        <v>988</v>
       </c>
       <c r="F89" t="n">
-        <v>1069.1151</v>
+        <v>283</v>
       </c>
       <c r="G89" t="n">
-        <v>24806.84836893</v>
+        <v>13456.74715365001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C90" t="n">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="D90" t="n">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="E90" t="n">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="F90" t="n">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="G90" t="n">
-        <v>25111.84836893</v>
+        <v>13801.74715365001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="C91" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="D91" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="E91" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="F91" t="n">
-        <v>96.4889</v>
+        <v>1830</v>
       </c>
       <c r="G91" t="n">
-        <v>25208.33726893</v>
+        <v>13801.74715365001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1000</v>
+        <v>988.1</v>
       </c>
       <c r="C92" t="n">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="D92" t="n">
-        <v>1000</v>
+        <v>988.1</v>
       </c>
       <c r="E92" t="n">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="F92" t="n">
-        <v>104.7813</v>
+        <v>1529</v>
       </c>
       <c r="G92" t="n">
-        <v>25208.33726893</v>
+        <v>12272.74715365001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="C93" t="n">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="D93" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="E93" t="n">
-        <v>1000</v>
+        <v>987.3</v>
       </c>
       <c r="F93" t="n">
-        <v>34.7493</v>
+        <v>2196.13</v>
       </c>
       <c r="G93" t="n">
-        <v>25208.33726893</v>
+        <v>12272.74715365001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1003</v>
+        <v>987.2</v>
       </c>
       <c r="C94" t="n">
-        <v>1003</v>
+        <v>986.7</v>
       </c>
       <c r="D94" t="n">
-        <v>1003</v>
+        <v>987.2</v>
       </c>
       <c r="E94" t="n">
-        <v>1003</v>
+        <v>986.7</v>
       </c>
       <c r="F94" t="n">
-        <v>176.9441</v>
+        <v>2176</v>
       </c>
       <c r="G94" t="n">
-        <v>25385.28136893001</v>
+        <v>10096.74715365001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1005</v>
+        <v>986.6</v>
       </c>
       <c r="C95" t="n">
-        <v>1006</v>
+        <v>986</v>
       </c>
       <c r="D95" t="n">
-        <v>1006</v>
+        <v>987</v>
       </c>
       <c r="E95" t="n">
-        <v>1005</v>
+        <v>986</v>
       </c>
       <c r="F95" t="n">
-        <v>49.9999</v>
+        <v>1328</v>
       </c>
       <c r="G95" t="n">
-        <v>25435.28126893</v>
+        <v>8768.747153650012</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1008</v>
+        <v>984.7</v>
       </c>
       <c r="C96" t="n">
-        <v>1008</v>
+        <v>984</v>
       </c>
       <c r="D96" t="n">
-        <v>1008</v>
+        <v>985</v>
       </c>
       <c r="E96" t="n">
-        <v>1008</v>
+        <v>983.5</v>
       </c>
       <c r="F96" t="n">
-        <v>500</v>
+        <v>2221</v>
       </c>
       <c r="G96" t="n">
-        <v>25935.28126893</v>
+        <v>6547.747153650012</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1012</v>
+        <v>984</v>
       </c>
       <c r="C97" t="n">
-        <v>1013</v>
+        <v>986</v>
       </c>
       <c r="D97" t="n">
-        <v>1013</v>
+        <v>986</v>
       </c>
       <c r="E97" t="n">
-        <v>1012</v>
+        <v>984</v>
       </c>
       <c r="F97" t="n">
-        <v>5398.00592299</v>
+        <v>580</v>
       </c>
       <c r="G97" t="n">
-        <v>31333.28719192</v>
+        <v>7127.747153650012</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1014</v>
+        <v>986</v>
       </c>
       <c r="C98" t="n">
-        <v>1014</v>
+        <v>987</v>
       </c>
       <c r="D98" t="n">
-        <v>1014</v>
+        <v>987</v>
       </c>
       <c r="E98" t="n">
-        <v>1014</v>
+        <v>986</v>
       </c>
       <c r="F98" t="n">
-        <v>952.7741617299999</v>
+        <v>625</v>
       </c>
       <c r="G98" t="n">
-        <v>32286.06135365001</v>
+        <v>7752.747153650012</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1013</v>
+        <v>988</v>
       </c>
       <c r="C99" t="n">
-        <v>1013</v>
+        <v>988</v>
       </c>
       <c r="D99" t="n">
-        <v>1013</v>
+        <v>988</v>
       </c>
       <c r="E99" t="n">
-        <v>1013</v>
+        <v>988</v>
       </c>
       <c r="F99" t="n">
-        <v>78.7032</v>
+        <v>273.87</v>
       </c>
       <c r="G99" t="n">
-        <v>32207.35815365001</v>
+        <v>8026.617153650012</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1014</v>
+        <v>989</v>
       </c>
       <c r="C100" t="n">
-        <v>1014</v>
+        <v>989</v>
       </c>
       <c r="D100" t="n">
-        <v>1014</v>
+        <v>989</v>
       </c>
       <c r="E100" t="n">
-        <v>1014</v>
+        <v>989</v>
       </c>
       <c r="F100" t="n">
-        <v>80</v>
+        <v>1576.3636</v>
       </c>
       <c r="G100" t="n">
-        <v>32287.35815365001</v>
+        <v>9602.980753650012</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1013</v>
+        <v>989</v>
       </c>
       <c r="C101" t="n">
-        <v>1013</v>
+        <v>989</v>
       </c>
       <c r="D101" t="n">
-        <v>1013</v>
+        <v>989</v>
       </c>
       <c r="E101" t="n">
-        <v>1013</v>
+        <v>989</v>
       </c>
       <c r="F101" t="n">
-        <v>1.7</v>
+        <v>902.5007000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>32285.65815365001</v>
+        <v>9602.980753650012</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1013</v>
+        <v>986</v>
       </c>
       <c r="C102" t="n">
-        <v>1013</v>
+        <v>986</v>
       </c>
       <c r="D102" t="n">
-        <v>1013</v>
+        <v>986</v>
       </c>
       <c r="E102" t="n">
-        <v>1013</v>
+        <v>986</v>
       </c>
       <c r="F102" t="n">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="G102" t="n">
-        <v>32285.65815365001</v>
+        <v>9032.980753650012</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1013</v>
+        <v>989</v>
       </c>
       <c r="C103" t="n">
-        <v>1013</v>
+        <v>989</v>
       </c>
       <c r="D103" t="n">
-        <v>1013</v>
+        <v>989</v>
       </c>
       <c r="E103" t="n">
-        <v>1013</v>
+        <v>989</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5968</v>
+        <v>341.1378</v>
       </c>
       <c r="G103" t="n">
-        <v>32285.65815365001</v>
+        <v>9374.118553650012</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1008</v>
+        <v>989</v>
       </c>
       <c r="C104" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="D104" t="n">
-        <v>1008</v>
+        <v>989</v>
       </c>
       <c r="E104" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="F104" t="n">
-        <v>6350.7801</v>
+        <v>753.5481</v>
       </c>
       <c r="G104" t="n">
-        <v>25934.87805365001</v>
+        <v>9374.118553650012</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="C105" t="n">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="D105" t="n">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="E105" t="n">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="F105" t="n">
-        <v>528.8682</v>
+        <v>350.1504</v>
       </c>
       <c r="G105" t="n">
-        <v>26463.74625365001</v>
+        <v>9374.118553650012</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,308 +4175,373 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1005</v>
+        <v>989</v>
       </c>
       <c r="C106" t="n">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="D106" t="n">
-        <v>1005</v>
+        <v>989</v>
       </c>
       <c r="E106" t="n">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="F106" t="n">
-        <v>1627</v>
+        <v>355.8579</v>
       </c>
       <c r="G106" t="n">
-        <v>24836.74625365001</v>
+        <v>9374.118553650012</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>989</v>
+      </c>
+      <c r="K106" t="n">
+        <v>989</v>
+      </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="C107" t="n">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="D107" t="n">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="E107" t="n">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="F107" t="n">
-        <v>1829</v>
+        <v>44.246</v>
       </c>
       <c r="G107" t="n">
-        <v>23007.74625365001</v>
+        <v>9374.118553650012</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>989</v>
+      </c>
+      <c r="K107" t="n">
+        <v>989</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="C108" t="n">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="D108" t="n">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="E108" t="n">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="F108" t="n">
-        <v>1729.3814</v>
+        <v>1728.0284</v>
       </c>
       <c r="G108" t="n">
-        <v>21278.36485365001</v>
+        <v>9374.118553650012</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>989</v>
+      </c>
+      <c r="K108" t="n">
+        <v>989</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>999.2</v>
+        <v>989</v>
       </c>
       <c r="C109" t="n">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="D109" t="n">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="E109" t="n">
-        <v>999.2</v>
+        <v>989</v>
       </c>
       <c r="F109" t="n">
-        <v>2593.7958</v>
+        <v>3945.2335</v>
       </c>
       <c r="G109" t="n">
-        <v>18684.56905365001</v>
+        <v>9374.118553650012</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>989</v>
+      </c>
+      <c r="K109" t="n">
+        <v>989</v>
+      </c>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>999</v>
+        <v>983.5</v>
       </c>
       <c r="C110" t="n">
-        <v>998</v>
+        <v>981</v>
       </c>
       <c r="D110" t="n">
-        <v>999</v>
+        <v>983.5</v>
       </c>
       <c r="E110" t="n">
-        <v>998</v>
+        <v>981</v>
       </c>
       <c r="F110" t="n">
-        <v>1479.493</v>
+        <v>321.9</v>
       </c>
       <c r="G110" t="n">
-        <v>17205.07605365001</v>
+        <v>9052.218553650013</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>989</v>
+      </c>
+      <c r="K110" t="n">
+        <v>989</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>999</v>
+        <v>984.8</v>
       </c>
       <c r="C111" t="n">
-        <v>999</v>
+        <v>984.8</v>
       </c>
       <c r="D111" t="n">
-        <v>999</v>
+        <v>984.8</v>
       </c>
       <c r="E111" t="n">
-        <v>999</v>
+        <v>984.8</v>
       </c>
       <c r="F111" t="n">
-        <v>1742.2687</v>
+        <v>85.17319999999999</v>
       </c>
       <c r="G111" t="n">
-        <v>18947.34475365001</v>
+        <v>9137.391753650012</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>981</v>
+      </c>
+      <c r="K111" t="n">
+        <v>989</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>998</v>
+        <v>979</v>
       </c>
       <c r="C112" t="n">
-        <v>997</v>
+        <v>984.9</v>
       </c>
       <c r="D112" t="n">
-        <v>999</v>
+        <v>984.9</v>
       </c>
       <c r="E112" t="n">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="F112" t="n">
-        <v>1535.0971</v>
+        <v>2109.7322</v>
       </c>
       <c r="G112" t="n">
-        <v>17412.24765365001</v>
+        <v>11247.12395365001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>984.8</v>
+      </c>
+      <c r="K112" t="n">
+        <v>989</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="C113" t="n">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="D113" t="n">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="E113" t="n">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="F113" t="n">
-        <v>1939.3651</v>
+        <v>57</v>
       </c>
       <c r="G113" t="n">
-        <v>15472.88255365001</v>
+        <v>11304.12395365001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>984.9</v>
+      </c>
+      <c r="K113" t="n">
+        <v>989</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="C114" t="n">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="D114" t="n">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="E114" t="n">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="F114" t="n">
-        <v>1621</v>
+        <v>3295.3688</v>
       </c>
       <c r="G114" t="n">
-        <v>13851.88255365001</v>
+        <v>14599.49275365001</v>
       </c>
       <c r="H114" t="n">
         <v>1</v>
@@ -4377,48 +4550,55 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>996</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
+        <v>986</v>
+      </c>
+      <c r="K114" t="n">
+        <v>989</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C115" t="n">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="D115" t="n">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="E115" t="n">
-        <v>990.5</v>
+        <v>989</v>
       </c>
       <c r="F115" t="n">
-        <v>1660.9348</v>
+        <v>1383.72</v>
       </c>
       <c r="G115" t="n">
-        <v>12190.94775365001</v>
+        <v>14599.49275365001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>989</v>
+      </c>
+      <c r="K115" t="n">
+        <v>989</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4427,37 +4607,42 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>990.5</v>
+        <v>989</v>
       </c>
       <c r="C116" t="n">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="D116" t="n">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="E116" t="n">
-        <v>990.5</v>
+        <v>989</v>
       </c>
       <c r="F116" t="n">
-        <v>1845.0652</v>
+        <v>1013.4832</v>
       </c>
       <c r="G116" t="n">
-        <v>14036.01295365001</v>
+        <v>14599.49275365001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>989</v>
+      </c>
+      <c r="K116" t="n">
+        <v>989</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4466,28 +4651,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C117" t="n">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="D117" t="n">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="E117" t="n">
-        <v>990.5</v>
+        <v>989</v>
       </c>
       <c r="F117" t="n">
-        <v>2647</v>
+        <v>778.2759</v>
       </c>
       <c r="G117" t="n">
-        <v>11389.01295365001</v>
+        <v>14599.49275365001</v>
       </c>
       <c r="H117" t="n">
         <v>1</v>
@@ -4496,9 +4682,11 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>996</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
+        <v>989</v>
+      </c>
+      <c r="K117" t="n">
+        <v>989</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4507,37 +4695,42 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="C118" t="n">
-        <v>990.5</v>
+        <v>983</v>
       </c>
       <c r="D118" t="n">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="E118" t="n">
-        <v>990.5</v>
+        <v>983</v>
       </c>
       <c r="F118" t="n">
-        <v>2343.4478</v>
+        <v>1050</v>
       </c>
       <c r="G118" t="n">
-        <v>9045.565153650014</v>
+        <v>13549.49275365001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>989</v>
+      </c>
+      <c r="K118" t="n">
+        <v>989</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4546,37 +4739,42 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>990.5</v>
+        <v>982</v>
       </c>
       <c r="C119" t="n">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="D119" t="n">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="E119" t="n">
-        <v>990.5</v>
+        <v>980</v>
       </c>
       <c r="F119" t="n">
-        <v>1651.6749</v>
+        <v>455</v>
       </c>
       <c r="G119" t="n">
-        <v>10697.24005365001</v>
+        <v>13094.49275365001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>983</v>
+      </c>
+      <c r="K119" t="n">
+        <v>989</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4585,28 +4783,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>990.5</v>
+        <v>990</v>
       </c>
       <c r="C120" t="n">
-        <v>990.5</v>
+        <v>991</v>
       </c>
       <c r="D120" t="n">
-        <v>990.5</v>
+        <v>991</v>
       </c>
       <c r="E120" t="n">
-        <v>990.5</v>
+        <v>990</v>
       </c>
       <c r="F120" t="n">
-        <v>2202</v>
+        <v>197.847</v>
       </c>
       <c r="G120" t="n">
-        <v>8495.240053650014</v>
+        <v>13292.33975365001</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
@@ -4615,9 +4814,11 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>992</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
+        <v>980</v>
+      </c>
+      <c r="K120" t="n">
+        <v>989</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4626,28 +4827,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>990.5</v>
+        <v>991</v>
       </c>
       <c r="C121" t="n">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D121" t="n">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E121" t="n">
-        <v>990.5</v>
+        <v>991</v>
       </c>
       <c r="F121" t="n">
-        <v>3004.4345</v>
+        <v>1498.712</v>
       </c>
       <c r="G121" t="n">
-        <v>11499.67455365001</v>
+        <v>14791.05175365001</v>
       </c>
       <c r="H121" t="n">
         <v>1</v>
@@ -4656,9 +4858,11 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>990.5</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
+        <v>991</v>
+      </c>
+      <c r="K121" t="n">
+        <v>989</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4667,28 +4871,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C122" t="n">
-        <v>990.4</v>
+        <v>994</v>
       </c>
       <c r="D122" t="n">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E122" t="n">
-        <v>990.4</v>
+        <v>992</v>
       </c>
       <c r="F122" t="n">
-        <v>1547</v>
+        <v>283.8622</v>
       </c>
       <c r="G122" t="n">
-        <v>9952.674553650013</v>
+        <v>15074.91395365001</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
@@ -4697,9 +4902,11 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>995</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
+        <v>992</v>
+      </c>
+      <c r="K122" t="n">
+        <v>989</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4708,28 +4915,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>990.4</v>
+        <v>994</v>
       </c>
       <c r="C123" t="n">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D123" t="n">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="E123" t="n">
-        <v>990.4</v>
+        <v>994</v>
       </c>
       <c r="F123" t="n">
-        <v>1820</v>
+        <v>82.66079999999999</v>
       </c>
       <c r="G123" t="n">
-        <v>11772.67455365001</v>
+        <v>15074.91395365001</v>
       </c>
       <c r="H123" t="n">
         <v>1</v>
@@ -4738,9 +4946,11 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>990.4</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
+        <v>994</v>
+      </c>
+      <c r="K123" t="n">
+        <v>989</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4749,28 +4959,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="C124" t="n">
-        <v>989.1</v>
+        <v>996</v>
       </c>
       <c r="D124" t="n">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="E124" t="n">
-        <v>989.1</v>
+        <v>995</v>
       </c>
       <c r="F124" t="n">
-        <v>1013.3078</v>
+        <v>116.0376</v>
       </c>
       <c r="G124" t="n">
-        <v>10759.36675365001</v>
+        <v>15190.95155365001</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
@@ -4779,9 +4990,11 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>992</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
+        <v>994</v>
+      </c>
+      <c r="K124" t="n">
+        <v>989</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4790,28 +5003,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>990</v>
+        <v>997</v>
       </c>
       <c r="C125" t="n">
-        <v>990</v>
+        <v>997</v>
       </c>
       <c r="D125" t="n">
-        <v>990</v>
+        <v>997</v>
       </c>
       <c r="E125" t="n">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="F125" t="n">
-        <v>6262.6922</v>
+        <v>150</v>
       </c>
       <c r="G125" t="n">
-        <v>17022.05895365001</v>
+        <v>15340.95155365001</v>
       </c>
       <c r="H125" t="n">
         <v>1</v>
@@ -4820,9 +5034,11 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>989.1</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
+        <v>996</v>
+      </c>
+      <c r="K125" t="n">
+        <v>989</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4831,37 +5047,42 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>990</v>
+        <v>997</v>
       </c>
       <c r="C126" t="n">
-        <v>990</v>
+        <v>997</v>
       </c>
       <c r="D126" t="n">
-        <v>990</v>
+        <v>997</v>
       </c>
       <c r="E126" t="n">
-        <v>990</v>
+        <v>997</v>
       </c>
       <c r="F126" t="n">
-        <v>2334</v>
+        <v>237</v>
       </c>
       <c r="G126" t="n">
-        <v>17022.05895365001</v>
+        <v>15340.95155365001</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>997</v>
+      </c>
+      <c r="K126" t="n">
+        <v>989</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4870,37 +5091,42 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="C127" t="n">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="D127" t="n">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="E127" t="n">
-        <v>988</v>
+        <v>998</v>
       </c>
       <c r="F127" t="n">
-        <v>1151.7739</v>
+        <v>791.7313</v>
       </c>
       <c r="G127" t="n">
-        <v>18173.83285365001</v>
+        <v>16132.68285365001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>997</v>
+      </c>
+      <c r="K127" t="n">
+        <v>989</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4909,37 +5135,42 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="C128" t="n">
-        <v>990</v>
+        <v>999</v>
       </c>
       <c r="D128" t="n">
-        <v>990</v>
+        <v>999</v>
       </c>
       <c r="E128" t="n">
-        <v>988</v>
+        <v>999</v>
       </c>
       <c r="F128" t="n">
-        <v>2543</v>
+        <v>370</v>
       </c>
       <c r="G128" t="n">
-        <v>15630.83285365001</v>
+        <v>16502.68285365001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>998</v>
+      </c>
+      <c r="K128" t="n">
+        <v>989</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4948,37 +5179,42 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="C129" t="n">
-        <v>989</v>
+        <v>1005</v>
       </c>
       <c r="D129" t="n">
-        <v>990</v>
+        <v>1005</v>
       </c>
       <c r="E129" t="n">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="F129" t="n">
-        <v>1891.0857</v>
+        <v>4535</v>
       </c>
       <c r="G129" t="n">
-        <v>13739.74715365001</v>
+        <v>21037.68285365001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>999</v>
+      </c>
+      <c r="K129" t="n">
+        <v>989</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4987,37 +5223,42 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>989</v>
+        <v>1005</v>
       </c>
       <c r="C130" t="n">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="D130" t="n">
-        <v>989</v>
+        <v>1005</v>
       </c>
       <c r="E130" t="n">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="F130" t="n">
-        <v>100</v>
+        <v>1413.8523</v>
       </c>
       <c r="G130" t="n">
-        <v>13739.74715365001</v>
+        <v>19623.83055365001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1005</v>
+      </c>
+      <c r="K130" t="n">
+        <v>989</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5026,37 +5267,42 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>988.1</v>
+        <v>1000</v>
       </c>
       <c r="C131" t="n">
-        <v>988</v>
+        <v>1000</v>
       </c>
       <c r="D131" t="n">
-        <v>988.1</v>
+        <v>1002</v>
       </c>
       <c r="E131" t="n">
-        <v>988</v>
+        <v>1000</v>
       </c>
       <c r="F131" t="n">
-        <v>283</v>
+        <v>2127.8335</v>
       </c>
       <c r="G131" t="n">
-        <v>13456.74715365001</v>
+        <v>19623.83055365001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K131" t="n">
+        <v>989</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5065,37 +5311,42 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="C132" t="n">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="D132" t="n">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="E132" t="n">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="F132" t="n">
-        <v>345</v>
+        <v>1225.52</v>
       </c>
       <c r="G132" t="n">
-        <v>13801.74715365001</v>
+        <v>19623.83055365001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K132" t="n">
+        <v>989</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5104,28 +5355,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="C133" t="n">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="D133" t="n">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="E133" t="n">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="F133" t="n">
-        <v>1830</v>
+        <v>203.04</v>
       </c>
       <c r="G133" t="n">
-        <v>13801.74715365001</v>
+        <v>19420.79055365001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5134,7 +5386,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>989</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5143,39 +5397,40 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="C134" t="n">
-        <v>988</v>
+        <v>999</v>
       </c>
       <c r="D134" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="E134" t="n">
-        <v>988</v>
+        <v>999</v>
       </c>
       <c r="F134" t="n">
-        <v>1529</v>
+        <v>1200</v>
       </c>
       <c r="G134" t="n">
-        <v>12272.74715365001</v>
+        <v>19420.79055365001</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>989</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>989</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5184,39 +5439,40 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>988</v>
+        <v>999</v>
       </c>
       <c r="C135" t="n">
-        <v>988</v>
+        <v>999</v>
       </c>
       <c r="D135" t="n">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="E135" t="n">
-        <v>987.3</v>
+        <v>999</v>
       </c>
       <c r="F135" t="n">
-        <v>2196.13</v>
+        <v>109.0783</v>
       </c>
       <c r="G135" t="n">
-        <v>12272.74715365001</v>
+        <v>19420.79055365001</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>988</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>989</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5225,28 +5481,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>987.2</v>
+        <v>1000</v>
       </c>
       <c r="C136" t="n">
-        <v>986.7</v>
+        <v>1000</v>
       </c>
       <c r="D136" t="n">
-        <v>987.2</v>
+        <v>1000</v>
       </c>
       <c r="E136" t="n">
-        <v>986.7</v>
+        <v>1000</v>
       </c>
       <c r="F136" t="n">
-        <v>2176</v>
+        <v>5</v>
       </c>
       <c r="G136" t="n">
-        <v>10096.74715365001</v>
+        <v>19425.79055365001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5255,7 +5512,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>989</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5264,28 +5523,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>986.6</v>
+        <v>1000</v>
       </c>
       <c r="C137" t="n">
-        <v>986</v>
+        <v>1000</v>
       </c>
       <c r="D137" t="n">
-        <v>987</v>
+        <v>1000</v>
       </c>
       <c r="E137" t="n">
-        <v>986</v>
+        <v>1000</v>
       </c>
       <c r="F137" t="n">
-        <v>1328</v>
+        <v>47.3999</v>
       </c>
       <c r="G137" t="n">
-        <v>8768.747153650012</v>
+        <v>19425.79055365001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5294,7 +5554,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>989</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5303,37 +5565,42 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>984.7</v>
+        <v>1005</v>
       </c>
       <c r="C138" t="n">
-        <v>984</v>
+        <v>1007</v>
       </c>
       <c r="D138" t="n">
-        <v>985</v>
+        <v>1007</v>
       </c>
       <c r="E138" t="n">
-        <v>983.5</v>
+        <v>1005</v>
       </c>
       <c r="F138" t="n">
-        <v>2221</v>
+        <v>103.1</v>
       </c>
       <c r="G138" t="n">
-        <v>6547.747153650012</v>
+        <v>19528.89055365001</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K138" t="n">
+        <v>989</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5342,28 +5609,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>984</v>
+        <v>1006</v>
       </c>
       <c r="C139" t="n">
-        <v>986</v>
+        <v>1006</v>
       </c>
       <c r="D139" t="n">
-        <v>986</v>
+        <v>1006</v>
       </c>
       <c r="E139" t="n">
-        <v>984</v>
+        <v>1006</v>
       </c>
       <c r="F139" t="n">
-        <v>580</v>
+        <v>1036.1772</v>
       </c>
       <c r="G139" t="n">
-        <v>7127.747153650012</v>
+        <v>18492.71335365001</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5372,7 +5640,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>989</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5381,28 +5651,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>986</v>
+        <v>1006</v>
       </c>
       <c r="C140" t="n">
-        <v>987</v>
+        <v>1006</v>
       </c>
       <c r="D140" t="n">
-        <v>987</v>
+        <v>1006</v>
       </c>
       <c r="E140" t="n">
-        <v>986</v>
+        <v>1006</v>
       </c>
       <c r="F140" t="n">
-        <v>625</v>
+        <v>2765</v>
       </c>
       <c r="G140" t="n">
-        <v>7752.747153650012</v>
+        <v>18492.71335365001</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5411,7 +5682,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>989</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5420,28 +5693,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>988</v>
+        <v>1006</v>
       </c>
       <c r="C141" t="n">
-        <v>988</v>
+        <v>1006</v>
       </c>
       <c r="D141" t="n">
-        <v>988</v>
+        <v>1006</v>
       </c>
       <c r="E141" t="n">
-        <v>988</v>
+        <v>1006</v>
       </c>
       <c r="F141" t="n">
-        <v>273.87</v>
+        <v>53.0359</v>
       </c>
       <c r="G141" t="n">
-        <v>8026.617153650012</v>
+        <v>18492.71335365001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5450,7 +5724,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>989</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5459,28 +5735,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>989</v>
+        <v>1005</v>
       </c>
       <c r="C142" t="n">
-        <v>989</v>
+        <v>1005</v>
       </c>
       <c r="D142" t="n">
-        <v>989</v>
+        <v>1006</v>
       </c>
       <c r="E142" t="n">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="F142" t="n">
-        <v>1576.3636</v>
+        <v>1554.8558</v>
       </c>
       <c r="G142" t="n">
-        <v>9602.980753650012</v>
+        <v>16937.85755365001</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5489,7 +5766,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>989</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5498,28 +5777,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>989</v>
+        <v>1005</v>
       </c>
       <c r="C143" t="n">
-        <v>989</v>
+        <v>1005</v>
       </c>
       <c r="D143" t="n">
-        <v>989</v>
+        <v>1005</v>
       </c>
       <c r="E143" t="n">
-        <v>989</v>
+        <v>1005</v>
       </c>
       <c r="F143" t="n">
-        <v>902.5007000000001</v>
+        <v>46.9102</v>
       </c>
       <c r="G143" t="n">
-        <v>9602.980753650012</v>
+        <v>16937.85755365001</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5528,7 +5808,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>989</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5537,28 +5819,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>986</v>
+        <v>1004</v>
       </c>
       <c r="C144" t="n">
-        <v>986</v>
+        <v>1004</v>
       </c>
       <c r="D144" t="n">
-        <v>986</v>
+        <v>1005</v>
       </c>
       <c r="E144" t="n">
-        <v>986</v>
+        <v>1004</v>
       </c>
       <c r="F144" t="n">
-        <v>570</v>
+        <v>4483.3208</v>
       </c>
       <c r="G144" t="n">
-        <v>9032.980753650012</v>
+        <v>12454.53675365001</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5567,7 +5850,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>989</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5576,28 +5861,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="C145" t="n">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="D145" t="n">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="E145" t="n">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="F145" t="n">
-        <v>341.1378</v>
+        <v>1120.5961</v>
       </c>
       <c r="G145" t="n">
-        <v>9374.118553650012</v>
+        <v>12454.53675365001</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5606,7 +5892,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>989</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5615,28 +5903,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="C146" t="n">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="D146" t="n">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="E146" t="n">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="F146" t="n">
-        <v>753.5481</v>
+        <v>2492.1433</v>
       </c>
       <c r="G146" t="n">
-        <v>9374.118553650012</v>
+        <v>9962.393453650009</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5645,7 +5934,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>989</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5654,28 +5945,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="C147" t="n">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="D147" t="n">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="E147" t="n">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="F147" t="n">
-        <v>350.1504</v>
+        <v>3970.1906</v>
       </c>
       <c r="G147" t="n">
-        <v>9374.118553650012</v>
+        <v>9962.393453650009</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5684,7 +5976,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>989</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5693,28 +5987,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="C148" t="n">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="D148" t="n">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="E148" t="n">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="F148" t="n">
-        <v>355.8579</v>
+        <v>1111.2598</v>
       </c>
       <c r="G148" t="n">
-        <v>9374.118553650012</v>
+        <v>9962.393453650009</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5723,7 +6018,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>989</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5732,28 +6029,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="C149" t="n">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="D149" t="n">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="E149" t="n">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="F149" t="n">
-        <v>44.246</v>
+        <v>2115</v>
       </c>
       <c r="G149" t="n">
-        <v>9374.118553650012</v>
+        <v>9962.393453650009</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5762,7 +6060,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>989</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5771,28 +6071,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="C150" t="n">
-        <v>989</v>
+        <v>1002</v>
       </c>
       <c r="D150" t="n">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="E150" t="n">
-        <v>989</v>
+        <v>1002</v>
       </c>
       <c r="F150" t="n">
-        <v>1728.0284</v>
+        <v>200</v>
       </c>
       <c r="G150" t="n">
-        <v>9374.118553650012</v>
+        <v>9762.393453650009</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5801,7 +6102,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>989</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5810,28 +6113,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>989</v>
+        <v>1002</v>
       </c>
       <c r="C151" t="n">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="D151" t="n">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="E151" t="n">
-        <v>989</v>
+        <v>1002</v>
       </c>
       <c r="F151" t="n">
-        <v>3945.2335</v>
+        <v>1800.43</v>
       </c>
       <c r="G151" t="n">
-        <v>9374.118553650012</v>
+        <v>11562.82345365001</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5840,7 +6144,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>989</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5849,28 +6155,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>983.5</v>
+        <v>1002</v>
       </c>
       <c r="C152" t="n">
-        <v>981</v>
+        <v>1002</v>
       </c>
       <c r="D152" t="n">
-        <v>983.5</v>
+        <v>1002</v>
       </c>
       <c r="E152" t="n">
-        <v>981</v>
+        <v>1002</v>
       </c>
       <c r="F152" t="n">
-        <v>321.9</v>
+        <v>1063</v>
       </c>
       <c r="G152" t="n">
-        <v>9052.218553650013</v>
+        <v>10499.82345365001</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5879,7 +6186,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>989</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5888,28 +6197,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>984.8</v>
+        <v>1003</v>
       </c>
       <c r="C153" t="n">
-        <v>984.8</v>
+        <v>1003</v>
       </c>
       <c r="D153" t="n">
-        <v>984.8</v>
+        <v>1003</v>
       </c>
       <c r="E153" t="n">
-        <v>984.8</v>
+        <v>1003</v>
       </c>
       <c r="F153" t="n">
-        <v>85.17319999999999</v>
+        <v>1515</v>
       </c>
       <c r="G153" t="n">
-        <v>9137.391753650012</v>
+        <v>12014.82345365001</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5918,7 +6228,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>989</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5927,28 +6239,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>979</v>
+        <v>1003</v>
       </c>
       <c r="C154" t="n">
-        <v>984.9</v>
+        <v>1003</v>
       </c>
       <c r="D154" t="n">
-        <v>984.9</v>
+        <v>1003</v>
       </c>
       <c r="E154" t="n">
-        <v>979</v>
+        <v>1003</v>
       </c>
       <c r="F154" t="n">
-        <v>2109.7322</v>
+        <v>2250.1245</v>
       </c>
       <c r="G154" t="n">
-        <v>11247.12395365001</v>
+        <v>12014.82345365001</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5957,7 +6270,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>989</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5966,28 +6281,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>986</v>
+        <v>1003</v>
       </c>
       <c r="C155" t="n">
-        <v>986</v>
+        <v>1003</v>
       </c>
       <c r="D155" t="n">
-        <v>986</v>
+        <v>1003</v>
       </c>
       <c r="E155" t="n">
-        <v>986</v>
+        <v>1003</v>
       </c>
       <c r="F155" t="n">
-        <v>57</v>
+        <v>625</v>
       </c>
       <c r="G155" t="n">
-        <v>11304.12395365001</v>
+        <v>12014.82345365001</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5996,7 +6312,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>989</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6005,28 +6323,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="C156" t="n">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="D156" t="n">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="E156" t="n">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="F156" t="n">
-        <v>3295.3688</v>
+        <v>370</v>
       </c>
       <c r="G156" t="n">
-        <v>14599.49275365001</v>
+        <v>12014.82345365001</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6035,7 +6354,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>989</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6044,1644 +6365,7 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>989</v>
-      </c>
-      <c r="C157" t="n">
-        <v>989</v>
-      </c>
-      <c r="D157" t="n">
-        <v>989</v>
-      </c>
-      <c r="E157" t="n">
-        <v>989</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1383.72</v>
-      </c>
-      <c r="G157" t="n">
-        <v>14599.49275365001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>989</v>
-      </c>
-      <c r="C158" t="n">
-        <v>989</v>
-      </c>
-      <c r="D158" t="n">
-        <v>989</v>
-      </c>
-      <c r="E158" t="n">
-        <v>989</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1013.4832</v>
-      </c>
-      <c r="G158" t="n">
-        <v>14599.49275365001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>989</v>
-      </c>
-      <c r="C159" t="n">
-        <v>989</v>
-      </c>
-      <c r="D159" t="n">
-        <v>989</v>
-      </c>
-      <c r="E159" t="n">
-        <v>989</v>
-      </c>
-      <c r="F159" t="n">
-        <v>778.2759</v>
-      </c>
-      <c r="G159" t="n">
-        <v>14599.49275365001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>985</v>
-      </c>
-      <c r="C160" t="n">
-        <v>983</v>
-      </c>
-      <c r="D160" t="n">
-        <v>985</v>
-      </c>
-      <c r="E160" t="n">
-        <v>983</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1050</v>
-      </c>
-      <c r="G160" t="n">
-        <v>13549.49275365001</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>982</v>
-      </c>
-      <c r="C161" t="n">
-        <v>980</v>
-      </c>
-      <c r="D161" t="n">
-        <v>982</v>
-      </c>
-      <c r="E161" t="n">
-        <v>980</v>
-      </c>
-      <c r="F161" t="n">
-        <v>455</v>
-      </c>
-      <c r="G161" t="n">
-        <v>13094.49275365001</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>990</v>
-      </c>
-      <c r="C162" t="n">
-        <v>991</v>
-      </c>
-      <c r="D162" t="n">
-        <v>991</v>
-      </c>
-      <c r="E162" t="n">
-        <v>990</v>
-      </c>
-      <c r="F162" t="n">
-        <v>197.847</v>
-      </c>
-      <c r="G162" t="n">
-        <v>13292.33975365001</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>991</v>
-      </c>
-      <c r="C163" t="n">
-        <v>992</v>
-      </c>
-      <c r="D163" t="n">
-        <v>992</v>
-      </c>
-      <c r="E163" t="n">
-        <v>991</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1498.712</v>
-      </c>
-      <c r="G163" t="n">
-        <v>14791.05175365001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>992</v>
-      </c>
-      <c r="C164" t="n">
-        <v>994</v>
-      </c>
-      <c r="D164" t="n">
-        <v>994</v>
-      </c>
-      <c r="E164" t="n">
-        <v>992</v>
-      </c>
-      <c r="F164" t="n">
-        <v>283.8622</v>
-      </c>
-      <c r="G164" t="n">
-        <v>15074.91395365001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>994</v>
-      </c>
-      <c r="C165" t="n">
-        <v>994</v>
-      </c>
-      <c r="D165" t="n">
-        <v>994</v>
-      </c>
-      <c r="E165" t="n">
-        <v>994</v>
-      </c>
-      <c r="F165" t="n">
-        <v>82.66079999999999</v>
-      </c>
-      <c r="G165" t="n">
-        <v>15074.91395365001</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>995</v>
-      </c>
-      <c r="C166" t="n">
-        <v>996</v>
-      </c>
-      <c r="D166" t="n">
-        <v>996</v>
-      </c>
-      <c r="E166" t="n">
-        <v>995</v>
-      </c>
-      <c r="F166" t="n">
-        <v>116.0376</v>
-      </c>
-      <c r="G166" t="n">
-        <v>15190.95155365001</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>997</v>
-      </c>
-      <c r="C167" t="n">
-        <v>997</v>
-      </c>
-      <c r="D167" t="n">
-        <v>997</v>
-      </c>
-      <c r="E167" t="n">
-        <v>997</v>
-      </c>
-      <c r="F167" t="n">
-        <v>150</v>
-      </c>
-      <c r="G167" t="n">
-        <v>15340.95155365001</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>997</v>
-      </c>
-      <c r="C168" t="n">
-        <v>997</v>
-      </c>
-      <c r="D168" t="n">
-        <v>997</v>
-      </c>
-      <c r="E168" t="n">
-        <v>997</v>
-      </c>
-      <c r="F168" t="n">
-        <v>237</v>
-      </c>
-      <c r="G168" t="n">
-        <v>15340.95155365001</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>998</v>
-      </c>
-      <c r="C169" t="n">
-        <v>998</v>
-      </c>
-      <c r="D169" t="n">
-        <v>998</v>
-      </c>
-      <c r="E169" t="n">
-        <v>998</v>
-      </c>
-      <c r="F169" t="n">
-        <v>791.7313</v>
-      </c>
-      <c r="G169" t="n">
-        <v>16132.68285365001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>999</v>
-      </c>
-      <c r="C170" t="n">
-        <v>999</v>
-      </c>
-      <c r="D170" t="n">
-        <v>999</v>
-      </c>
-      <c r="E170" t="n">
-        <v>999</v>
-      </c>
-      <c r="F170" t="n">
-        <v>370</v>
-      </c>
-      <c r="G170" t="n">
-        <v>16502.68285365001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C171" t="n">
-        <v>1005</v>
-      </c>
-      <c r="D171" t="n">
-        <v>1005</v>
-      </c>
-      <c r="E171" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F171" t="n">
-        <v>4535</v>
-      </c>
-      <c r="G171" t="n">
-        <v>21037.68285365001</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>1005</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D172" t="n">
-        <v>1005</v>
-      </c>
-      <c r="E172" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1413.8523</v>
-      </c>
-      <c r="G172" t="n">
-        <v>19623.83055365001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D173" t="n">
-        <v>1002</v>
-      </c>
-      <c r="E173" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F173" t="n">
-        <v>2127.8335</v>
-      </c>
-      <c r="G173" t="n">
-        <v>19623.83055365001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D174" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E174" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1225.52</v>
-      </c>
-      <c r="G174" t="n">
-        <v>19623.83055365001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C175" t="n">
-        <v>999</v>
-      </c>
-      <c r="D175" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E175" t="n">
-        <v>999</v>
-      </c>
-      <c r="F175" t="n">
-        <v>203.04</v>
-      </c>
-      <c r="G175" t="n">
-        <v>19420.79055365001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>999</v>
-      </c>
-      <c r="C176" t="n">
-        <v>999</v>
-      </c>
-      <c r="D176" t="n">
-        <v>999</v>
-      </c>
-      <c r="E176" t="n">
-        <v>999</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G176" t="n">
-        <v>19420.79055365001</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>999</v>
-      </c>
-      <c r="C177" t="n">
-        <v>999</v>
-      </c>
-      <c r="D177" t="n">
-        <v>999</v>
-      </c>
-      <c r="E177" t="n">
-        <v>999</v>
-      </c>
-      <c r="F177" t="n">
-        <v>109.0783</v>
-      </c>
-      <c r="G177" t="n">
-        <v>19420.79055365001</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D178" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E178" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F178" t="n">
-        <v>5</v>
-      </c>
-      <c r="G178" t="n">
-        <v>19425.79055365001</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E179" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F179" t="n">
-        <v>47.3999</v>
-      </c>
-      <c r="G179" t="n">
-        <v>19425.79055365001</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>1005</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1007</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1007</v>
-      </c>
-      <c r="E180" t="n">
-        <v>1005</v>
-      </c>
-      <c r="F180" t="n">
-        <v>103.1</v>
-      </c>
-      <c r="G180" t="n">
-        <v>19528.89055365001</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>1006</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1006</v>
-      </c>
-      <c r="D181" t="n">
-        <v>1006</v>
-      </c>
-      <c r="E181" t="n">
-        <v>1006</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1036.1772</v>
-      </c>
-      <c r="G181" t="n">
-        <v>18492.71335365001</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>1006</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1006</v>
-      </c>
-      <c r="D182" t="n">
-        <v>1006</v>
-      </c>
-      <c r="E182" t="n">
-        <v>1006</v>
-      </c>
-      <c r="F182" t="n">
-        <v>2765</v>
-      </c>
-      <c r="G182" t="n">
-        <v>18492.71335365001</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>1006</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1006</v>
-      </c>
-      <c r="D183" t="n">
-        <v>1006</v>
-      </c>
-      <c r="E183" t="n">
-        <v>1006</v>
-      </c>
-      <c r="F183" t="n">
-        <v>53.0359</v>
-      </c>
-      <c r="G183" t="n">
-        <v>18492.71335365001</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>1005</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1005</v>
-      </c>
-      <c r="D184" t="n">
-        <v>1006</v>
-      </c>
-      <c r="E184" t="n">
-        <v>1004</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1554.8558</v>
-      </c>
-      <c r="G184" t="n">
-        <v>16937.85755365001</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>1005</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1005</v>
-      </c>
-      <c r="D185" t="n">
-        <v>1005</v>
-      </c>
-      <c r="E185" t="n">
-        <v>1005</v>
-      </c>
-      <c r="F185" t="n">
-        <v>46.9102</v>
-      </c>
-      <c r="G185" t="n">
-        <v>16937.85755365001</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>1004</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1004</v>
-      </c>
-      <c r="D186" t="n">
-        <v>1005</v>
-      </c>
-      <c r="E186" t="n">
-        <v>1004</v>
-      </c>
-      <c r="F186" t="n">
-        <v>4483.3208</v>
-      </c>
-      <c r="G186" t="n">
-        <v>12454.53675365001</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>1004</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1004</v>
-      </c>
-      <c r="D187" t="n">
-        <v>1004</v>
-      </c>
-      <c r="E187" t="n">
-        <v>1004</v>
-      </c>
-      <c r="F187" t="n">
-        <v>1120.5961</v>
-      </c>
-      <c r="G187" t="n">
-        <v>12454.53675365001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>1004</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1003</v>
-      </c>
-      <c r="D188" t="n">
-        <v>1004</v>
-      </c>
-      <c r="E188" t="n">
-        <v>1003</v>
-      </c>
-      <c r="F188" t="n">
-        <v>2492.1433</v>
-      </c>
-      <c r="G188" t="n">
-        <v>9962.393453650009</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>1003</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1003</v>
-      </c>
-      <c r="D189" t="n">
-        <v>1004</v>
-      </c>
-      <c r="E189" t="n">
-        <v>1003</v>
-      </c>
-      <c r="F189" t="n">
-        <v>3970.1906</v>
-      </c>
-      <c r="G189" t="n">
-        <v>9962.393453650009</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>1003</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1003</v>
-      </c>
-      <c r="D190" t="n">
-        <v>1003</v>
-      </c>
-      <c r="E190" t="n">
-        <v>1003</v>
-      </c>
-      <c r="F190" t="n">
-        <v>1111.2598</v>
-      </c>
-      <c r="G190" t="n">
-        <v>9962.393453650009</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>1003</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1003</v>
-      </c>
-      <c r="D191" t="n">
-        <v>1003</v>
-      </c>
-      <c r="E191" t="n">
-        <v>1003</v>
-      </c>
-      <c r="F191" t="n">
-        <v>2115</v>
-      </c>
-      <c r="G191" t="n">
-        <v>9962.393453650009</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>1003</v>
-      </c>
-      <c r="C192" t="n">
-        <v>1002</v>
-      </c>
-      <c r="D192" t="n">
-        <v>1003</v>
-      </c>
-      <c r="E192" t="n">
-        <v>1002</v>
-      </c>
-      <c r="F192" t="n">
-        <v>200</v>
-      </c>
-      <c r="G192" t="n">
-        <v>9762.393453650009</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>1002</v>
-      </c>
-      <c r="C193" t="n">
-        <v>1003</v>
-      </c>
-      <c r="D193" t="n">
-        <v>1003</v>
-      </c>
-      <c r="E193" t="n">
-        <v>1002</v>
-      </c>
-      <c r="F193" t="n">
-        <v>1800.43</v>
-      </c>
-      <c r="G193" t="n">
-        <v>11562.82345365001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>1002</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1002</v>
-      </c>
-      <c r="D194" t="n">
-        <v>1002</v>
-      </c>
-      <c r="E194" t="n">
-        <v>1002</v>
-      </c>
-      <c r="F194" t="n">
-        <v>1063</v>
-      </c>
-      <c r="G194" t="n">
-        <v>10499.82345365001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>1003</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1003</v>
-      </c>
-      <c r="D195" t="n">
-        <v>1003</v>
-      </c>
-      <c r="E195" t="n">
-        <v>1003</v>
-      </c>
-      <c r="F195" t="n">
-        <v>1515</v>
-      </c>
-      <c r="G195" t="n">
-        <v>12014.82345365001</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>1003</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1003</v>
-      </c>
-      <c r="D196" t="n">
-        <v>1003</v>
-      </c>
-      <c r="E196" t="n">
-        <v>1003</v>
-      </c>
-      <c r="F196" t="n">
-        <v>2250.1245</v>
-      </c>
-      <c r="G196" t="n">
-        <v>12014.82345365001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>1003</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1003</v>
-      </c>
-      <c r="D197" t="n">
-        <v>1003</v>
-      </c>
-      <c r="E197" t="n">
-        <v>1003</v>
-      </c>
-      <c r="F197" t="n">
-        <v>625</v>
-      </c>
-      <c r="G197" t="n">
-        <v>12014.82345365001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>1003</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1003</v>
-      </c>
-      <c r="D198" t="n">
-        <v>1003</v>
-      </c>
-      <c r="E198" t="n">
-        <v>1003</v>
-      </c>
-      <c r="F198" t="n">
-        <v>370</v>
-      </c>
-      <c r="G198" t="n">
-        <v>12014.82345365001</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
+      <c r="N156" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-25 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-25 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N156"/>
+  <dimension ref="A1:N227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C2" t="n">
         <v>1021</v>
       </c>
       <c r="D2" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E2" t="n">
         <v>1021</v>
       </c>
       <c r="F2" t="n">
-        <v>88.8417</v>
+        <v>3090.2535</v>
       </c>
       <c r="G2" t="n">
-        <v>41445.72211127</v>
+        <v>34168.2268</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C3" t="n">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D3" t="n">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E3" t="n">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="F3" t="n">
-        <v>631.6999</v>
+        <v>989.2165</v>
       </c>
       <c r="G3" t="n">
-        <v>40814.02221127</v>
+        <v>33179.01029999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C4" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D4" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E4" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F4" t="n">
-        <v>170.6697</v>
+        <v>54.0026</v>
       </c>
       <c r="G4" t="n">
-        <v>40643.35251127</v>
+        <v>33125.00769999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="C5" t="n">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="D5" t="n">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="E5" t="n">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="F5" t="n">
-        <v>610</v>
+        <v>2459.9245</v>
       </c>
       <c r="G5" t="n">
-        <v>40033.35251127</v>
+        <v>35584.9322</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="C6" t="n">
-        <v>1006</v>
+        <v>1021</v>
       </c>
       <c r="D6" t="n">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="E6" t="n">
-        <v>1006</v>
+        <v>1021</v>
       </c>
       <c r="F6" t="n">
-        <v>129.0258</v>
+        <v>75</v>
       </c>
       <c r="G6" t="n">
-        <v>39904.32671127</v>
+        <v>35584.9322</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="C7" t="n">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="D7" t="n">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="E7" t="n">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="F7" t="n">
-        <v>71.91540000000001</v>
+        <v>310</v>
       </c>
       <c r="G7" t="n">
-        <v>39976.24211127</v>
+        <v>35584.9322</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="C8" t="n">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="D8" t="n">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="E8" t="n">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="F8" t="n">
-        <v>910.3333</v>
+        <v>198.5337</v>
       </c>
       <c r="G8" t="n">
-        <v>40886.57541126999</v>
+        <v>35584.9322</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="C9" t="n">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="D9" t="n">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="E9" t="n">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="F9" t="n">
-        <v>175.4382</v>
+        <v>0.4939</v>
       </c>
       <c r="G9" t="n">
-        <v>41062.01361126999</v>
+        <v>35584.9322</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1011</v>
+        <v>1022</v>
       </c>
       <c r="C10" t="n">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="D10" t="n">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="E10" t="n">
-        <v>1011</v>
+        <v>1022</v>
       </c>
       <c r="F10" t="n">
-        <v>1128.8387</v>
+        <v>1200</v>
       </c>
       <c r="G10" t="n">
-        <v>39933.17491126999</v>
+        <v>36784.9322</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="C11" t="n">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="D11" t="n">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="E11" t="n">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="F11" t="n">
-        <v>1755</v>
+        <v>1055.4766</v>
       </c>
       <c r="G11" t="n">
-        <v>38178.17491126999</v>
+        <v>35729.45559999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="C12" t="n">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="D12" t="n">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E12" t="n">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="F12" t="n">
-        <v>36.5988</v>
+        <v>93.548</v>
       </c>
       <c r="G12" t="n">
-        <v>38141.57611126999</v>
+        <v>35729.45559999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1009</v>
+        <v>1018</v>
       </c>
       <c r="C13" t="n">
-        <v>1009</v>
+        <v>1018</v>
       </c>
       <c r="D13" t="n">
-        <v>1009</v>
+        <v>1018</v>
       </c>
       <c r="E13" t="n">
-        <v>1009</v>
+        <v>1018</v>
       </c>
       <c r="F13" t="n">
-        <v>2089.6099</v>
+        <v>2116.8056</v>
       </c>
       <c r="G13" t="n">
-        <v>36051.96621126999</v>
+        <v>35729.45559999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="C14" t="n">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="D14" t="n">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="E14" t="n">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="F14" t="n">
-        <v>175.3585</v>
+        <v>49.3032</v>
       </c>
       <c r="G14" t="n">
-        <v>36227.32471126999</v>
+        <v>35778.7588</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="C15" t="n">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="D15" t="n">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="E15" t="n">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="F15" t="n">
-        <v>175.4382</v>
+        <v>1070.321</v>
       </c>
       <c r="G15" t="n">
-        <v>36051.88651126999</v>
+        <v>35778.7588</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1008</v>
+        <v>1022</v>
       </c>
       <c r="C16" t="n">
-        <v>1008</v>
+        <v>1022</v>
       </c>
       <c r="D16" t="n">
-        <v>1008</v>
+        <v>1022</v>
       </c>
       <c r="E16" t="n">
-        <v>1008</v>
+        <v>1022</v>
       </c>
       <c r="F16" t="n">
-        <v>4209.9999</v>
+        <v>68.29179999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>31841.88661126999</v>
+        <v>35778.7588</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1007</v>
+        <v>1022</v>
       </c>
       <c r="C17" t="n">
-        <v>1007</v>
+        <v>1023</v>
       </c>
       <c r="D17" t="n">
-        <v>1007</v>
+        <v>1023</v>
       </c>
       <c r="E17" t="n">
-        <v>1007</v>
+        <v>1022</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>620.8194999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>31831.88661126999</v>
+        <v>36399.57829999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1007</v>
+        <v>1023</v>
       </c>
       <c r="C18" t="n">
-        <v>1007</v>
+        <v>1023</v>
       </c>
       <c r="D18" t="n">
-        <v>1007</v>
+        <v>1023</v>
       </c>
       <c r="E18" t="n">
-        <v>1007</v>
+        <v>1023</v>
       </c>
       <c r="F18" t="n">
-        <v>40.4969</v>
+        <v>239.9786</v>
       </c>
       <c r="G18" t="n">
-        <v>31831.88661126999</v>
+        <v>36399.57829999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1007</v>
+        <v>1023</v>
       </c>
       <c r="C19" t="n">
-        <v>1006</v>
+        <v>1024</v>
       </c>
       <c r="D19" t="n">
-        <v>1007</v>
+        <v>1024</v>
       </c>
       <c r="E19" t="n">
-        <v>1006</v>
+        <v>1023</v>
       </c>
       <c r="F19" t="n">
-        <v>69.74209999999999</v>
+        <v>557.4672</v>
       </c>
       <c r="G19" t="n">
-        <v>31762.14451126999</v>
+        <v>36957.04549999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1001</v>
+        <v>1024</v>
       </c>
       <c r="C20" t="n">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="D20" t="n">
-        <v>1001</v>
+        <v>1024</v>
       </c>
       <c r="E20" t="n">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="F20" t="n">
-        <v>182.5189</v>
+        <v>285.3856</v>
       </c>
       <c r="G20" t="n">
-        <v>31579.62561127</v>
+        <v>36957.04549999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1005</v>
+        <v>1024</v>
       </c>
       <c r="C21" t="n">
-        <v>1006</v>
+        <v>1024</v>
       </c>
       <c r="D21" t="n">
-        <v>1006</v>
+        <v>1024</v>
       </c>
       <c r="E21" t="n">
-        <v>1005</v>
+        <v>1024</v>
       </c>
       <c r="F21" t="n">
-        <v>210</v>
+        <v>708.4331</v>
       </c>
       <c r="G21" t="n">
-        <v>31789.62561127</v>
+        <v>36957.04549999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1005</v>
+        <v>1024</v>
       </c>
       <c r="C22" t="n">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="D22" t="n">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="E22" t="n">
-        <v>1005</v>
+        <v>1024</v>
       </c>
       <c r="F22" t="n">
-        <v>6.3644</v>
+        <v>1014.235</v>
       </c>
       <c r="G22" t="n">
-        <v>31783.26121127</v>
+        <v>37971.28049999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1003</v>
+        <v>1025</v>
       </c>
       <c r="C23" t="n">
-        <v>1002</v>
+        <v>1026</v>
       </c>
       <c r="D23" t="n">
-        <v>1003</v>
+        <v>1026</v>
       </c>
       <c r="E23" t="n">
-        <v>1002</v>
+        <v>1025</v>
       </c>
       <c r="F23" t="n">
-        <v>225.8585</v>
+        <v>491.6056</v>
       </c>
       <c r="G23" t="n">
-        <v>31557.40271127</v>
+        <v>38462.8861</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>999.1</v>
+        <v>1026</v>
       </c>
       <c r="C24" t="n">
-        <v>999.1</v>
+        <v>1026</v>
       </c>
       <c r="D24" t="n">
-        <v>999.1</v>
+        <v>1026</v>
       </c>
       <c r="E24" t="n">
-        <v>999.1</v>
+        <v>1026</v>
       </c>
       <c r="F24" t="n">
-        <v>171.0919</v>
+        <v>1676.4043</v>
       </c>
       <c r="G24" t="n">
-        <v>31386.31081127</v>
+        <v>38462.8861</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>999.1</v>
+        <v>1027</v>
       </c>
       <c r="C25" t="n">
-        <v>999</v>
+        <v>1032</v>
       </c>
       <c r="D25" t="n">
-        <v>999.1</v>
+        <v>1032</v>
       </c>
       <c r="E25" t="n">
-        <v>999</v>
+        <v>1027</v>
       </c>
       <c r="F25" t="n">
-        <v>698.2125</v>
+        <v>1957.1206</v>
       </c>
       <c r="G25" t="n">
-        <v>30688.09831127</v>
+        <v>40420.0067</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>997</v>
+        <v>1029</v>
       </c>
       <c r="C26" t="n">
-        <v>997</v>
+        <v>1029</v>
       </c>
       <c r="D26" t="n">
-        <v>997</v>
+        <v>1029</v>
       </c>
       <c r="E26" t="n">
-        <v>997</v>
+        <v>1029</v>
       </c>
       <c r="F26" t="n">
-        <v>215.4855</v>
+        <v>876.6728000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>30472.61281127</v>
+        <v>39543.3339</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>997.9</v>
+        <v>1032</v>
       </c>
       <c r="C27" t="n">
-        <v>997.9</v>
+        <v>1038</v>
       </c>
       <c r="D27" t="n">
-        <v>997.9</v>
+        <v>1038</v>
       </c>
       <c r="E27" t="n">
-        <v>997.9</v>
+        <v>1032</v>
       </c>
       <c r="F27" t="n">
-        <v>678.0903</v>
+        <v>2710</v>
       </c>
       <c r="G27" t="n">
-        <v>31150.70311127</v>
+        <v>42253.3339</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>995</v>
+        <v>1038</v>
       </c>
       <c r="C28" t="n">
-        <v>995</v>
+        <v>1038</v>
       </c>
       <c r="D28" t="n">
-        <v>995</v>
+        <v>1038</v>
       </c>
       <c r="E28" t="n">
-        <v>995</v>
+        <v>1038</v>
       </c>
       <c r="F28" t="n">
-        <v>464.0891</v>
+        <v>990</v>
       </c>
       <c r="G28" t="n">
-        <v>30686.61401127</v>
+        <v>42253.3339</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>995</v>
+        <v>1035</v>
       </c>
       <c r="C29" t="n">
-        <v>992.2</v>
+        <v>1035</v>
       </c>
       <c r="D29" t="n">
-        <v>995</v>
+        <v>1035</v>
       </c>
       <c r="E29" t="n">
-        <v>992.2</v>
+        <v>1035</v>
       </c>
       <c r="F29" t="n">
-        <v>1299.9999</v>
+        <v>45.0277</v>
       </c>
       <c r="G29" t="n">
-        <v>29386.61411127</v>
+        <v>42208.3062</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>992.2</v>
+        <v>1031</v>
       </c>
       <c r="C30" t="n">
-        <v>992.2</v>
+        <v>1030</v>
       </c>
       <c r="D30" t="n">
-        <v>992.2</v>
+        <v>1031</v>
       </c>
       <c r="E30" t="n">
-        <v>992.2</v>
+        <v>1030</v>
       </c>
       <c r="F30" t="n">
-        <v>84.1228</v>
+        <v>210</v>
       </c>
       <c r="G30" t="n">
-        <v>29386.61411127</v>
+        <v>41998.3062</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>998.9</v>
+        <v>1030</v>
       </c>
       <c r="C31" t="n">
-        <v>993.1</v>
+        <v>1030</v>
       </c>
       <c r="D31" t="n">
-        <v>998.9</v>
+        <v>1030</v>
       </c>
       <c r="E31" t="n">
-        <v>993.1</v>
+        <v>1030</v>
       </c>
       <c r="F31" t="n">
-        <v>199.72364803</v>
+        <v>17.3709</v>
       </c>
       <c r="G31" t="n">
-        <v>29586.3377593</v>
+        <v>41998.3062</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>991.3</v>
+        <v>1030</v>
       </c>
       <c r="C32" t="n">
-        <v>991.3</v>
+        <v>1030</v>
       </c>
       <c r="D32" t="n">
-        <v>991.3</v>
+        <v>1030</v>
       </c>
       <c r="E32" t="n">
-        <v>991.3</v>
+        <v>1030</v>
       </c>
       <c r="F32" t="n">
-        <v>1121.713</v>
+        <v>59.9747</v>
       </c>
       <c r="G32" t="n">
-        <v>28464.6247593</v>
+        <v>41998.3062</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>993.1</v>
+        <v>1033</v>
       </c>
       <c r="C33" t="n">
-        <v>993.1</v>
+        <v>1032</v>
       </c>
       <c r="D33" t="n">
-        <v>993.1</v>
+        <v>1033</v>
       </c>
       <c r="E33" t="n">
-        <v>993.1</v>
+        <v>1032</v>
       </c>
       <c r="F33" t="n">
-        <v>1.7197</v>
+        <v>235.2795</v>
       </c>
       <c r="G33" t="n">
-        <v>28466.3444593</v>
+        <v>42233.5857</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>993.1</v>
+        <v>1036</v>
       </c>
       <c r="C34" t="n">
-        <v>993.1</v>
+        <v>1038</v>
       </c>
       <c r="D34" t="n">
-        <v>993.1</v>
+        <v>1038</v>
       </c>
       <c r="E34" t="n">
-        <v>993.1</v>
+        <v>1036</v>
       </c>
       <c r="F34" t="n">
-        <v>65</v>
+        <v>4820.70231127</v>
       </c>
       <c r="G34" t="n">
-        <v>28466.3444593</v>
+        <v>47054.28801126999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>993.2</v>
+        <v>1039</v>
       </c>
       <c r="C35" t="n">
-        <v>993.2</v>
+        <v>1039</v>
       </c>
       <c r="D35" t="n">
-        <v>993.2</v>
+        <v>1039</v>
       </c>
       <c r="E35" t="n">
-        <v>993.2</v>
+        <v>1039</v>
       </c>
       <c r="F35" t="n">
-        <v>65</v>
+        <v>477.7365</v>
       </c>
       <c r="G35" t="n">
-        <v>28531.3444593</v>
+        <v>47532.02451126999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,28 +1662,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>993.2</v>
+        <v>1040</v>
       </c>
       <c r="C36" t="n">
-        <v>993.2</v>
+        <v>1042</v>
       </c>
       <c r="D36" t="n">
-        <v>993.2</v>
+        <v>1042</v>
       </c>
       <c r="E36" t="n">
-        <v>993.2</v>
+        <v>1040</v>
       </c>
       <c r="F36" t="n">
-        <v>280</v>
+        <v>88.7608</v>
       </c>
       <c r="G36" t="n">
-        <v>28531.3444593</v>
+        <v>47620.78531126999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,28 +1698,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>993.2</v>
+        <v>1042</v>
       </c>
       <c r="C37" t="n">
-        <v>993.1</v>
+        <v>1044</v>
       </c>
       <c r="D37" t="n">
-        <v>993.2</v>
+        <v>1044</v>
       </c>
       <c r="E37" t="n">
-        <v>993.1</v>
+        <v>1042</v>
       </c>
       <c r="F37" t="n">
-        <v>275</v>
+        <v>1513.7392</v>
       </c>
       <c r="G37" t="n">
-        <v>28256.3444593</v>
+        <v>49134.52451126999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,28 +1734,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>993.1</v>
+        <v>1043</v>
       </c>
       <c r="C38" t="n">
-        <v>993.1</v>
+        <v>1041</v>
       </c>
       <c r="D38" t="n">
-        <v>993.1</v>
+        <v>1043</v>
       </c>
       <c r="E38" t="n">
-        <v>993.1</v>
+        <v>1041</v>
       </c>
       <c r="F38" t="n">
-        <v>275</v>
+        <v>42.4481</v>
       </c>
       <c r="G38" t="n">
-        <v>28256.3444593</v>
+        <v>49092.07641126999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1770,28 +1770,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>993.1</v>
+        <v>1040</v>
       </c>
       <c r="C39" t="n">
-        <v>993.1</v>
+        <v>1033</v>
       </c>
       <c r="D39" t="n">
-        <v>993.1</v>
+        <v>1042</v>
       </c>
       <c r="E39" t="n">
-        <v>993.1</v>
+        <v>1033</v>
       </c>
       <c r="F39" t="n">
-        <v>280</v>
+        <v>1005.4621</v>
       </c>
       <c r="G39" t="n">
-        <v>28256.3444593</v>
+        <v>48086.61431126999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1806,28 +1806,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>993.1</v>
+        <v>1030</v>
       </c>
       <c r="C40" t="n">
-        <v>993.1</v>
+        <v>1029</v>
       </c>
       <c r="D40" t="n">
-        <v>993.1</v>
+        <v>1030</v>
       </c>
       <c r="E40" t="n">
-        <v>993.1</v>
+        <v>1029</v>
       </c>
       <c r="F40" t="n">
-        <v>275</v>
+        <v>31.9172</v>
       </c>
       <c r="G40" t="n">
-        <v>28256.3444593</v>
+        <v>48054.69711126999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1842,28 +1842,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>996.9</v>
+        <v>1029</v>
       </c>
       <c r="C41" t="n">
-        <v>996.9</v>
+        <v>1029</v>
       </c>
       <c r="D41" t="n">
-        <v>996.9</v>
+        <v>1029</v>
       </c>
       <c r="E41" t="n">
-        <v>996.9</v>
+        <v>1029</v>
       </c>
       <c r="F41" t="n">
-        <v>1.00310963</v>
+        <v>6.6662</v>
       </c>
       <c r="G41" t="n">
-        <v>28257.34756893</v>
+        <v>48054.69711126999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1878,28 +1878,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>995</v>
+        <v>1037</v>
       </c>
       <c r="C42" t="n">
-        <v>995</v>
+        <v>1037</v>
       </c>
       <c r="D42" t="n">
-        <v>995</v>
+        <v>1037</v>
       </c>
       <c r="E42" t="n">
-        <v>995</v>
+        <v>1037</v>
       </c>
       <c r="F42" t="n">
-        <v>47.1141</v>
+        <v>31.9</v>
       </c>
       <c r="G42" t="n">
-        <v>28210.23346893</v>
+        <v>48086.59711126999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1914,28 +1914,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>992.9</v>
+        <v>1035</v>
       </c>
       <c r="C43" t="n">
-        <v>992.9</v>
+        <v>1035</v>
       </c>
       <c r="D43" t="n">
-        <v>992.9</v>
+        <v>1035</v>
       </c>
       <c r="E43" t="n">
-        <v>992.9</v>
+        <v>1035</v>
       </c>
       <c r="F43" t="n">
-        <v>103</v>
+        <v>35.0096</v>
       </c>
       <c r="G43" t="n">
-        <v>28107.23346893</v>
+        <v>48051.58751126999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1950,28 +1950,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>990.6</v>
+        <v>1026</v>
       </c>
       <c r="C44" t="n">
-        <v>989</v>
+        <v>1025</v>
       </c>
       <c r="D44" t="n">
-        <v>990.6</v>
+        <v>1026</v>
       </c>
       <c r="E44" t="n">
-        <v>989</v>
+        <v>1025</v>
       </c>
       <c r="F44" t="n">
-        <v>3011.31</v>
+        <v>123.1736</v>
       </c>
       <c r="G44" t="n">
-        <v>25095.92346893</v>
+        <v>47928.41391126999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1986,28 +1986,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>991</v>
+        <v>1031</v>
       </c>
       <c r="C45" t="n">
-        <v>992</v>
+        <v>1031</v>
       </c>
       <c r="D45" t="n">
-        <v>992</v>
+        <v>1031</v>
       </c>
       <c r="E45" t="n">
-        <v>991</v>
+        <v>1031</v>
       </c>
       <c r="F45" t="n">
-        <v>1050</v>
+        <v>390</v>
       </c>
       <c r="G45" t="n">
-        <v>26145.92346893</v>
+        <v>48318.41391126999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2022,28 +2022,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>986.6</v>
+        <v>1023</v>
       </c>
       <c r="C46" t="n">
-        <v>986.6</v>
+        <v>1023</v>
       </c>
       <c r="D46" t="n">
-        <v>986.6</v>
+        <v>1023</v>
       </c>
       <c r="E46" t="n">
-        <v>986.6</v>
+        <v>1023</v>
       </c>
       <c r="F46" t="n">
-        <v>269.96</v>
+        <v>1.2598</v>
       </c>
       <c r="G46" t="n">
-        <v>25875.96346893</v>
+        <v>48317.15411126999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>986.6</v>
+        <v>1023</v>
       </c>
       <c r="C47" t="n">
-        <v>986.5</v>
+        <v>1026</v>
       </c>
       <c r="D47" t="n">
-        <v>986.6</v>
+        <v>1026</v>
       </c>
       <c r="E47" t="n">
-        <v>986.5</v>
+        <v>1019</v>
       </c>
       <c r="F47" t="n">
-        <v>1069.1151</v>
+        <v>1345.5736</v>
       </c>
       <c r="G47" t="n">
-        <v>24806.84836893</v>
+        <v>49662.72771127</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>994</v>
+        <v>1024</v>
       </c>
       <c r="C48" t="n">
-        <v>994</v>
+        <v>1024</v>
       </c>
       <c r="D48" t="n">
-        <v>994</v>
+        <v>1024</v>
       </c>
       <c r="E48" t="n">
-        <v>994</v>
+        <v>1024</v>
       </c>
       <c r="F48" t="n">
-        <v>305</v>
+        <v>45.1113</v>
       </c>
       <c r="G48" t="n">
-        <v>25111.84836893</v>
+        <v>49617.61641127</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1000</v>
+        <v>1025</v>
       </c>
       <c r="C49" t="n">
-        <v>1000</v>
+        <v>1025</v>
       </c>
       <c r="D49" t="n">
-        <v>1000</v>
+        <v>1025</v>
       </c>
       <c r="E49" t="n">
-        <v>1000</v>
+        <v>1025</v>
       </c>
       <c r="F49" t="n">
-        <v>96.4889</v>
+        <v>1156.5639</v>
       </c>
       <c r="G49" t="n">
-        <v>25208.33726893</v>
+        <v>50774.18031127</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1000</v>
+        <v>1027</v>
       </c>
       <c r="C50" t="n">
-        <v>1000</v>
+        <v>1027</v>
       </c>
       <c r="D50" t="n">
-        <v>1000</v>
+        <v>1027</v>
       </c>
       <c r="E50" t="n">
-        <v>1000</v>
+        <v>1026</v>
       </c>
       <c r="F50" t="n">
-        <v>104.7813</v>
+        <v>299.7898</v>
       </c>
       <c r="G50" t="n">
-        <v>25208.33726893</v>
+        <v>51073.97011127</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1000</v>
+        <v>1028</v>
       </c>
       <c r="C51" t="n">
-        <v>1000</v>
+        <v>1033</v>
       </c>
       <c r="D51" t="n">
-        <v>1000</v>
+        <v>1033</v>
       </c>
       <c r="E51" t="n">
-        <v>1000</v>
+        <v>1028</v>
       </c>
       <c r="F51" t="n">
-        <v>34.7493</v>
+        <v>985.1824</v>
       </c>
       <c r="G51" t="n">
-        <v>25208.33726893</v>
+        <v>52059.15251127</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1003</v>
+        <v>1034</v>
       </c>
       <c r="C52" t="n">
-        <v>1003</v>
+        <v>1027</v>
       </c>
       <c r="D52" t="n">
-        <v>1003</v>
+        <v>1034</v>
       </c>
       <c r="E52" t="n">
-        <v>1003</v>
+        <v>1027</v>
       </c>
       <c r="F52" t="n">
-        <v>176.9441</v>
+        <v>103.8108</v>
       </c>
       <c r="G52" t="n">
-        <v>25385.28136893001</v>
+        <v>51955.34171127</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2274,28 +2274,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1005</v>
+        <v>1027</v>
       </c>
       <c r="C53" t="n">
-        <v>1006</v>
+        <v>1027</v>
       </c>
       <c r="D53" t="n">
-        <v>1006</v>
+        <v>1027</v>
       </c>
       <c r="E53" t="n">
-        <v>1005</v>
+        <v>1027</v>
       </c>
       <c r="F53" t="n">
-        <v>49.9999</v>
+        <v>2012.0647</v>
       </c>
       <c r="G53" t="n">
-        <v>25435.28126893</v>
+        <v>51955.34171127</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1008</v>
+        <v>1027</v>
       </c>
       <c r="C54" t="n">
-        <v>1008</v>
+        <v>1026</v>
       </c>
       <c r="D54" t="n">
-        <v>1008</v>
+        <v>1027</v>
       </c>
       <c r="E54" t="n">
-        <v>1008</v>
+        <v>1026</v>
       </c>
       <c r="F54" t="n">
-        <v>500</v>
+        <v>1294.895</v>
       </c>
       <c r="G54" t="n">
-        <v>25935.28126893</v>
+        <v>50660.44671127</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1012</v>
+        <v>1026</v>
       </c>
       <c r="C55" t="n">
-        <v>1013</v>
+        <v>1027</v>
       </c>
       <c r="D55" t="n">
-        <v>1013</v>
+        <v>1027</v>
       </c>
       <c r="E55" t="n">
-        <v>1012</v>
+        <v>1026</v>
       </c>
       <c r="F55" t="n">
-        <v>5398.00592299</v>
+        <v>717.545</v>
       </c>
       <c r="G55" t="n">
-        <v>31333.28719192</v>
+        <v>51377.99171127</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1014</v>
+        <v>1027</v>
       </c>
       <c r="C56" t="n">
-        <v>1014</v>
+        <v>1027</v>
       </c>
       <c r="D56" t="n">
-        <v>1014</v>
+        <v>1027</v>
       </c>
       <c r="E56" t="n">
-        <v>1014</v>
+        <v>1027</v>
       </c>
       <c r="F56" t="n">
-        <v>952.7741617299999</v>
+        <v>5711.7834</v>
       </c>
       <c r="G56" t="n">
-        <v>32286.06135365001</v>
+        <v>51377.99171127</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,28 +2418,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1013</v>
+        <v>1027</v>
       </c>
       <c r="C57" t="n">
-        <v>1013</v>
+        <v>1027</v>
       </c>
       <c r="D57" t="n">
-        <v>1013</v>
+        <v>1027</v>
       </c>
       <c r="E57" t="n">
-        <v>1013</v>
+        <v>1027</v>
       </c>
       <c r="F57" t="n">
-        <v>78.7032</v>
+        <v>335.3798</v>
       </c>
       <c r="G57" t="n">
-        <v>32207.35815365001</v>
+        <v>51377.99171127</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1014</v>
+        <v>1027</v>
       </c>
       <c r="C58" t="n">
-        <v>1014</v>
+        <v>1027</v>
       </c>
       <c r="D58" t="n">
-        <v>1014</v>
+        <v>1027</v>
       </c>
       <c r="E58" t="n">
-        <v>1014</v>
+        <v>1027</v>
       </c>
       <c r="F58" t="n">
-        <v>80</v>
+        <v>795.0701</v>
       </c>
       <c r="G58" t="n">
-        <v>32287.35815365001</v>
+        <v>51377.99171127</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,28 +2490,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="C59" t="n">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="D59" t="n">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="E59" t="n">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="F59" t="n">
-        <v>1.7</v>
+        <v>897.6237</v>
       </c>
       <c r="G59" t="n">
-        <v>32285.65815365001</v>
+        <v>50480.36801127</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="C60" t="n">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="D60" t="n">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="E60" t="n">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="F60" t="n">
-        <v>19</v>
+        <v>89.0351</v>
       </c>
       <c r="G60" t="n">
-        <v>32285.65815365001</v>
+        <v>50391.33291127</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="C61" t="n">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="D61" t="n">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="E61" t="n">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5968</v>
+        <v>407.6339</v>
       </c>
       <c r="G61" t="n">
-        <v>32285.65815365001</v>
+        <v>50391.33291127</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1008</v>
+        <v>1019</v>
       </c>
       <c r="C62" t="n">
-        <v>1000</v>
+        <v>1019</v>
       </c>
       <c r="D62" t="n">
-        <v>1008</v>
+        <v>1019</v>
       </c>
       <c r="E62" t="n">
-        <v>1000</v>
+        <v>1019</v>
       </c>
       <c r="F62" t="n">
-        <v>6350.7801</v>
+        <v>2641.8645</v>
       </c>
       <c r="G62" t="n">
-        <v>25934.87805365001</v>
+        <v>50391.33291127</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="C63" t="n">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="D63" t="n">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="E63" t="n">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="F63" t="n">
-        <v>528.8682</v>
+        <v>1143.4301</v>
       </c>
       <c r="G63" t="n">
-        <v>26463.74625365001</v>
+        <v>50391.33291127</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="C64" t="n">
-        <v>1004</v>
+        <v>1019</v>
       </c>
       <c r="D64" t="n">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="E64" t="n">
-        <v>1004</v>
+        <v>1019</v>
       </c>
       <c r="F64" t="n">
-        <v>1627</v>
+        <v>275</v>
       </c>
       <c r="G64" t="n">
-        <v>24836.74625365001</v>
+        <v>50391.33291127</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1002</v>
+        <v>1019</v>
       </c>
       <c r="C65" t="n">
-        <v>1002</v>
+        <v>1019</v>
       </c>
       <c r="D65" t="n">
-        <v>1003</v>
+        <v>1019</v>
       </c>
       <c r="E65" t="n">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="F65" t="n">
-        <v>1829</v>
+        <v>119</v>
       </c>
       <c r="G65" t="n">
-        <v>23007.74625365001</v>
+        <v>50391.33291127</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1003</v>
+        <v>1019</v>
       </c>
       <c r="C66" t="n">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="D66" t="n">
-        <v>1003</v>
+        <v>1019</v>
       </c>
       <c r="E66" t="n">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="F66" t="n">
-        <v>1729.3814</v>
+        <v>1298.42</v>
       </c>
       <c r="G66" t="n">
-        <v>21278.36485365001</v>
+        <v>50391.33291127</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>999.2</v>
+        <v>1019</v>
       </c>
       <c r="C67" t="n">
-        <v>1000</v>
+        <v>1018</v>
       </c>
       <c r="D67" t="n">
-        <v>1002</v>
+        <v>1019</v>
       </c>
       <c r="E67" t="n">
-        <v>999.2</v>
+        <v>1018</v>
       </c>
       <c r="F67" t="n">
-        <v>2593.7958</v>
+        <v>4932.9102</v>
       </c>
       <c r="G67" t="n">
-        <v>18684.56905365001</v>
+        <v>45458.42271127</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>999</v>
+        <v>1017</v>
       </c>
       <c r="C68" t="n">
-        <v>998</v>
+        <v>1017</v>
       </c>
       <c r="D68" t="n">
-        <v>999</v>
+        <v>1017</v>
       </c>
       <c r="E68" t="n">
-        <v>998</v>
+        <v>1014</v>
       </c>
       <c r="F68" t="n">
-        <v>1479.493</v>
+        <v>4877.4023</v>
       </c>
       <c r="G68" t="n">
-        <v>17205.07605365001</v>
+        <v>40581.02041127</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>999</v>
+        <v>1017</v>
       </c>
       <c r="C69" t="n">
-        <v>999</v>
+        <v>1016</v>
       </c>
       <c r="D69" t="n">
-        <v>999</v>
+        <v>1017</v>
       </c>
       <c r="E69" t="n">
-        <v>999</v>
+        <v>1016</v>
       </c>
       <c r="F69" t="n">
-        <v>1742.2687</v>
+        <v>4207.2364</v>
       </c>
       <c r="G69" t="n">
-        <v>18947.34475365001</v>
+        <v>36373.78401127</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="C70" t="n">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="D70" t="n">
-        <v>999</v>
+        <v>1016</v>
       </c>
       <c r="E70" t="n">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="F70" t="n">
-        <v>1535.0971</v>
+        <v>2792.2771</v>
       </c>
       <c r="G70" t="n">
-        <v>17412.24765365001</v>
+        <v>33581.50691127</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="C71" t="n">
-        <v>996</v>
+        <v>1019</v>
       </c>
       <c r="D71" t="n">
-        <v>998</v>
+        <v>1019</v>
       </c>
       <c r="E71" t="n">
-        <v>996</v>
+        <v>1010</v>
       </c>
       <c r="F71" t="n">
-        <v>1939.3651</v>
+        <v>7848.5722</v>
       </c>
       <c r="G71" t="n">
-        <v>15472.88255365001</v>
+        <v>41430.07911127</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>995</v>
+        <v>1011</v>
       </c>
       <c r="C72" t="n">
-        <v>994</v>
+        <v>1011</v>
       </c>
       <c r="D72" t="n">
-        <v>996</v>
+        <v>1011</v>
       </c>
       <c r="E72" t="n">
-        <v>992</v>
+        <v>1011</v>
       </c>
       <c r="F72" t="n">
-        <v>1621</v>
+        <v>73.1987</v>
       </c>
       <c r="G72" t="n">
-        <v>13851.88255365001</v>
+        <v>41356.88041127</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>992</v>
+        <v>1021</v>
       </c>
       <c r="C73" t="n">
-        <v>992</v>
+        <v>1021</v>
       </c>
       <c r="D73" t="n">
-        <v>994</v>
+        <v>1021</v>
       </c>
       <c r="E73" t="n">
-        <v>990.5</v>
+        <v>1021</v>
       </c>
       <c r="F73" t="n">
-        <v>1660.9348</v>
+        <v>88.8417</v>
       </c>
       <c r="G73" t="n">
-        <v>12190.94775365001</v>
+        <v>41445.72211127</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>990.5</v>
+        <v>1018</v>
       </c>
       <c r="C74" t="n">
-        <v>996</v>
+        <v>1019</v>
       </c>
       <c r="D74" t="n">
-        <v>996</v>
+        <v>1019</v>
       </c>
       <c r="E74" t="n">
-        <v>990.5</v>
+        <v>1018</v>
       </c>
       <c r="F74" t="n">
-        <v>1845.0652</v>
+        <v>631.6999</v>
       </c>
       <c r="G74" t="n">
-        <v>14036.01295365001</v>
+        <v>40814.02221127</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>992</v>
+        <v>1014</v>
       </c>
       <c r="C75" t="n">
-        <v>993</v>
+        <v>1014</v>
       </c>
       <c r="D75" t="n">
-        <v>995</v>
+        <v>1014</v>
       </c>
       <c r="E75" t="n">
-        <v>990.5</v>
+        <v>1014</v>
       </c>
       <c r="F75" t="n">
-        <v>2647</v>
+        <v>170.6697</v>
       </c>
       <c r="G75" t="n">
-        <v>11389.01295365001</v>
+        <v>40643.35251127</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>993</v>
+        <v>1012</v>
       </c>
       <c r="C76" t="n">
-        <v>990.5</v>
+        <v>1013</v>
       </c>
       <c r="D76" t="n">
-        <v>993</v>
+        <v>1013</v>
       </c>
       <c r="E76" t="n">
-        <v>990.5</v>
+        <v>1012</v>
       </c>
       <c r="F76" t="n">
-        <v>2343.4478</v>
+        <v>610</v>
       </c>
       <c r="G76" t="n">
-        <v>9045.565153650014</v>
+        <v>40033.35251127</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>990.5</v>
+        <v>1008</v>
       </c>
       <c r="C77" t="n">
-        <v>992</v>
+        <v>1006</v>
       </c>
       <c r="D77" t="n">
-        <v>992</v>
+        <v>1008</v>
       </c>
       <c r="E77" t="n">
-        <v>990.5</v>
+        <v>1006</v>
       </c>
       <c r="F77" t="n">
-        <v>1651.6749</v>
+        <v>129.0258</v>
       </c>
       <c r="G77" t="n">
-        <v>10697.24005365001</v>
+        <v>39904.32671127</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>990.5</v>
+        <v>1008</v>
       </c>
       <c r="C78" t="n">
-        <v>990.5</v>
+        <v>1008</v>
       </c>
       <c r="D78" t="n">
-        <v>990.5</v>
+        <v>1008</v>
       </c>
       <c r="E78" t="n">
-        <v>990.5</v>
+        <v>1008</v>
       </c>
       <c r="F78" t="n">
-        <v>2202</v>
+        <v>71.91540000000001</v>
       </c>
       <c r="G78" t="n">
-        <v>8495.240053650014</v>
+        <v>39976.24211127</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>990.5</v>
+        <v>1013</v>
       </c>
       <c r="C79" t="n">
-        <v>995</v>
+        <v>1015</v>
       </c>
       <c r="D79" t="n">
-        <v>995</v>
+        <v>1015</v>
       </c>
       <c r="E79" t="n">
-        <v>990.5</v>
+        <v>1013</v>
       </c>
       <c r="F79" t="n">
-        <v>3004.4345</v>
+        <v>910.3333</v>
       </c>
       <c r="G79" t="n">
-        <v>11499.67455365001</v>
+        <v>40886.57541126999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>991</v>
+        <v>1017</v>
       </c>
       <c r="C80" t="n">
-        <v>990.4</v>
+        <v>1017</v>
       </c>
       <c r="D80" t="n">
-        <v>993</v>
+        <v>1017</v>
       </c>
       <c r="E80" t="n">
-        <v>990.4</v>
+        <v>1017</v>
       </c>
       <c r="F80" t="n">
-        <v>1547</v>
+        <v>175.4382</v>
       </c>
       <c r="G80" t="n">
-        <v>9952.674553650013</v>
+        <v>41062.01361126999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>990.4</v>
+        <v>1011</v>
       </c>
       <c r="C81" t="n">
-        <v>992</v>
+        <v>1016</v>
       </c>
       <c r="D81" t="n">
-        <v>992</v>
+        <v>1016</v>
       </c>
       <c r="E81" t="n">
-        <v>990.4</v>
+        <v>1011</v>
       </c>
       <c r="F81" t="n">
-        <v>1820</v>
+        <v>1128.8387</v>
       </c>
       <c r="G81" t="n">
-        <v>11772.67455365001</v>
+        <v>39933.17491126999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>990</v>
+        <v>1015</v>
       </c>
       <c r="C82" t="n">
-        <v>989.1</v>
+        <v>1015</v>
       </c>
       <c r="D82" t="n">
-        <v>990</v>
+        <v>1015</v>
       </c>
       <c r="E82" t="n">
-        <v>989.1</v>
+        <v>1015</v>
       </c>
       <c r="F82" t="n">
-        <v>1013.3078</v>
+        <v>1755</v>
       </c>
       <c r="G82" t="n">
-        <v>10759.36675365001</v>
+        <v>38178.17491126999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>990</v>
+        <v>1013</v>
       </c>
       <c r="C83" t="n">
-        <v>990</v>
+        <v>1013</v>
       </c>
       <c r="D83" t="n">
-        <v>990</v>
+        <v>1013</v>
       </c>
       <c r="E83" t="n">
-        <v>989</v>
+        <v>1013</v>
       </c>
       <c r="F83" t="n">
-        <v>6262.6922</v>
+        <v>36.5988</v>
       </c>
       <c r="G83" t="n">
-        <v>17022.05895365001</v>
+        <v>38141.57611126999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>990</v>
+        <v>1009</v>
       </c>
       <c r="C84" t="n">
-        <v>990</v>
+        <v>1009</v>
       </c>
       <c r="D84" t="n">
-        <v>990</v>
+        <v>1009</v>
       </c>
       <c r="E84" t="n">
-        <v>990</v>
+        <v>1009</v>
       </c>
       <c r="F84" t="n">
-        <v>2334</v>
+        <v>2089.6099</v>
       </c>
       <c r="G84" t="n">
-        <v>17022.05895365001</v>
+        <v>36051.96621126999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>990</v>
+        <v>1013</v>
       </c>
       <c r="C85" t="n">
-        <v>992</v>
+        <v>1013</v>
       </c>
       <c r="D85" t="n">
-        <v>992</v>
+        <v>1013</v>
       </c>
       <c r="E85" t="n">
-        <v>988</v>
+        <v>1013</v>
       </c>
       <c r="F85" t="n">
-        <v>1151.7739</v>
+        <v>175.3585</v>
       </c>
       <c r="G85" t="n">
-        <v>18173.83285365001</v>
+        <v>36227.32471126999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>989</v>
+        <v>1009</v>
       </c>
       <c r="C86" t="n">
-        <v>990</v>
+        <v>1009</v>
       </c>
       <c r="D86" t="n">
-        <v>990</v>
+        <v>1009</v>
       </c>
       <c r="E86" t="n">
-        <v>988</v>
+        <v>1009</v>
       </c>
       <c r="F86" t="n">
-        <v>2543</v>
+        <v>175.4382</v>
       </c>
       <c r="G86" t="n">
-        <v>15630.83285365001</v>
+        <v>36051.88651126999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>990</v>
+        <v>1008</v>
       </c>
       <c r="C87" t="n">
-        <v>989</v>
+        <v>1008</v>
       </c>
       <c r="D87" t="n">
-        <v>990</v>
+        <v>1008</v>
       </c>
       <c r="E87" t="n">
-        <v>989</v>
+        <v>1008</v>
       </c>
       <c r="F87" t="n">
-        <v>1891.0857</v>
+        <v>4209.9999</v>
       </c>
       <c r="G87" t="n">
-        <v>13739.74715365001</v>
+        <v>31841.88661126999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>989</v>
+        <v>1007</v>
       </c>
       <c r="C88" t="n">
-        <v>989</v>
+        <v>1007</v>
       </c>
       <c r="D88" t="n">
-        <v>989</v>
+        <v>1007</v>
       </c>
       <c r="E88" t="n">
-        <v>989</v>
+        <v>1007</v>
       </c>
       <c r="F88" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>13739.74715365001</v>
+        <v>31831.88661126999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>988.1</v>
+        <v>1007</v>
       </c>
       <c r="C89" t="n">
-        <v>988</v>
+        <v>1007</v>
       </c>
       <c r="D89" t="n">
-        <v>988.1</v>
+        <v>1007</v>
       </c>
       <c r="E89" t="n">
-        <v>988</v>
+        <v>1007</v>
       </c>
       <c r="F89" t="n">
-        <v>283</v>
+        <v>40.4969</v>
       </c>
       <c r="G89" t="n">
-        <v>13456.74715365001</v>
+        <v>31831.88661126999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>989</v>
+        <v>1007</v>
       </c>
       <c r="C90" t="n">
-        <v>989</v>
+        <v>1006</v>
       </c>
       <c r="D90" t="n">
-        <v>989</v>
+        <v>1007</v>
       </c>
       <c r="E90" t="n">
-        <v>989</v>
+        <v>1006</v>
       </c>
       <c r="F90" t="n">
-        <v>345</v>
+        <v>69.74209999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>13801.74715365001</v>
+        <v>31762.14451126999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>989</v>
+        <v>1001</v>
       </c>
       <c r="C91" t="n">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="D91" t="n">
-        <v>989</v>
+        <v>1001</v>
       </c>
       <c r="E91" t="n">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="F91" t="n">
-        <v>1830</v>
+        <v>182.5189</v>
       </c>
       <c r="G91" t="n">
-        <v>13801.74715365001</v>
+        <v>31579.62561127</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>988.1</v>
+        <v>1005</v>
       </c>
       <c r="C92" t="n">
-        <v>988</v>
+        <v>1006</v>
       </c>
       <c r="D92" t="n">
-        <v>988.1</v>
+        <v>1006</v>
       </c>
       <c r="E92" t="n">
-        <v>988</v>
+        <v>1005</v>
       </c>
       <c r="F92" t="n">
-        <v>1529</v>
+        <v>210</v>
       </c>
       <c r="G92" t="n">
-        <v>12272.74715365001</v>
+        <v>31789.62561127</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>988</v>
+        <v>1005</v>
       </c>
       <c r="C93" t="n">
-        <v>988</v>
+        <v>1005</v>
       </c>
       <c r="D93" t="n">
-        <v>989</v>
+        <v>1005</v>
       </c>
       <c r="E93" t="n">
-        <v>987.3</v>
+        <v>1005</v>
       </c>
       <c r="F93" t="n">
-        <v>2196.13</v>
+        <v>6.3644</v>
       </c>
       <c r="G93" t="n">
-        <v>12272.74715365001</v>
+        <v>31783.26121127</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>987.2</v>
+        <v>1003</v>
       </c>
       <c r="C94" t="n">
-        <v>986.7</v>
+        <v>1002</v>
       </c>
       <c r="D94" t="n">
-        <v>987.2</v>
+        <v>1003</v>
       </c>
       <c r="E94" t="n">
-        <v>986.7</v>
+        <v>1002</v>
       </c>
       <c r="F94" t="n">
-        <v>2176</v>
+        <v>225.8585</v>
       </c>
       <c r="G94" t="n">
-        <v>10096.74715365001</v>
+        <v>31557.40271127</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>986.6</v>
+        <v>999.1</v>
       </c>
       <c r="C95" t="n">
-        <v>986</v>
+        <v>999.1</v>
       </c>
       <c r="D95" t="n">
-        <v>987</v>
+        <v>999.1</v>
       </c>
       <c r="E95" t="n">
-        <v>986</v>
+        <v>999.1</v>
       </c>
       <c r="F95" t="n">
-        <v>1328</v>
+        <v>171.0919</v>
       </c>
       <c r="G95" t="n">
-        <v>8768.747153650012</v>
+        <v>31386.31081127</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>984.7</v>
+        <v>999.1</v>
       </c>
       <c r="C96" t="n">
-        <v>984</v>
+        <v>999</v>
       </c>
       <c r="D96" t="n">
-        <v>985</v>
+        <v>999.1</v>
       </c>
       <c r="E96" t="n">
-        <v>983.5</v>
+        <v>999</v>
       </c>
       <c r="F96" t="n">
-        <v>2221</v>
+        <v>698.2125</v>
       </c>
       <c r="G96" t="n">
-        <v>6547.747153650012</v>
+        <v>30688.09831127</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>984</v>
+        <v>997</v>
       </c>
       <c r="C97" t="n">
-        <v>986</v>
+        <v>997</v>
       </c>
       <c r="D97" t="n">
-        <v>986</v>
+        <v>997</v>
       </c>
       <c r="E97" t="n">
-        <v>984</v>
+        <v>997</v>
       </c>
       <c r="F97" t="n">
-        <v>580</v>
+        <v>215.4855</v>
       </c>
       <c r="G97" t="n">
-        <v>7127.747153650012</v>
+        <v>30472.61281127</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>986</v>
+        <v>997.9</v>
       </c>
       <c r="C98" t="n">
-        <v>987</v>
+        <v>997.9</v>
       </c>
       <c r="D98" t="n">
-        <v>987</v>
+        <v>997.9</v>
       </c>
       <c r="E98" t="n">
-        <v>986</v>
+        <v>997.9</v>
       </c>
       <c r="F98" t="n">
-        <v>625</v>
+        <v>678.0903</v>
       </c>
       <c r="G98" t="n">
-        <v>7752.747153650012</v>
+        <v>31150.70311127</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="C99" t="n">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="D99" t="n">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="E99" t="n">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="F99" t="n">
-        <v>273.87</v>
+        <v>464.0891</v>
       </c>
       <c r="G99" t="n">
-        <v>8026.617153650012</v>
+        <v>30686.61401127</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="C100" t="n">
-        <v>989</v>
+        <v>992.2</v>
       </c>
       <c r="D100" t="n">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E100" t="n">
-        <v>989</v>
+        <v>992.2</v>
       </c>
       <c r="F100" t="n">
-        <v>1576.3636</v>
+        <v>1299.9999</v>
       </c>
       <c r="G100" t="n">
-        <v>9602.980753650012</v>
+        <v>29386.61411127</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>989</v>
+        <v>992.2</v>
       </c>
       <c r="C101" t="n">
-        <v>989</v>
+        <v>992.2</v>
       </c>
       <c r="D101" t="n">
-        <v>989</v>
+        <v>992.2</v>
       </c>
       <c r="E101" t="n">
-        <v>989</v>
+        <v>992.2</v>
       </c>
       <c r="F101" t="n">
-        <v>902.5007000000001</v>
+        <v>84.1228</v>
       </c>
       <c r="G101" t="n">
-        <v>9602.980753650012</v>
+        <v>29386.61411127</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>986</v>
+        <v>998.9</v>
       </c>
       <c r="C102" t="n">
-        <v>986</v>
+        <v>993.1</v>
       </c>
       <c r="D102" t="n">
-        <v>986</v>
+        <v>998.9</v>
       </c>
       <c r="E102" t="n">
-        <v>986</v>
+        <v>993.1</v>
       </c>
       <c r="F102" t="n">
-        <v>570</v>
+        <v>199.72364803</v>
       </c>
       <c r="G102" t="n">
-        <v>9032.980753650012</v>
+        <v>29586.3377593</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>989</v>
+        <v>991.3</v>
       </c>
       <c r="C103" t="n">
-        <v>989</v>
+        <v>991.3</v>
       </c>
       <c r="D103" t="n">
-        <v>989</v>
+        <v>991.3</v>
       </c>
       <c r="E103" t="n">
-        <v>989</v>
+        <v>991.3</v>
       </c>
       <c r="F103" t="n">
-        <v>341.1378</v>
+        <v>1121.713</v>
       </c>
       <c r="G103" t="n">
-        <v>9374.118553650012</v>
+        <v>28464.6247593</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>989</v>
+        <v>993.1</v>
       </c>
       <c r="C104" t="n">
-        <v>989</v>
+        <v>993.1</v>
       </c>
       <c r="D104" t="n">
-        <v>989</v>
+        <v>993.1</v>
       </c>
       <c r="E104" t="n">
-        <v>989</v>
+        <v>993.1</v>
       </c>
       <c r="F104" t="n">
-        <v>753.5481</v>
+        <v>1.7197</v>
       </c>
       <c r="G104" t="n">
-        <v>9374.118553650012</v>
+        <v>28466.3444593</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>989</v>
+        <v>993.1</v>
       </c>
       <c r="C105" t="n">
-        <v>989</v>
+        <v>993.1</v>
       </c>
       <c r="D105" t="n">
-        <v>989</v>
+        <v>993.1</v>
       </c>
       <c r="E105" t="n">
-        <v>989</v>
+        <v>993.1</v>
       </c>
       <c r="F105" t="n">
-        <v>350.1504</v>
+        <v>65</v>
       </c>
       <c r="G105" t="n">
-        <v>9374.118553650012</v>
+        <v>28466.3444593</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,35 +4182,31 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>989</v>
+        <v>993.2</v>
       </c>
       <c r="C106" t="n">
-        <v>989</v>
+        <v>993.2</v>
       </c>
       <c r="D106" t="n">
-        <v>989</v>
+        <v>993.2</v>
       </c>
       <c r="E106" t="n">
-        <v>989</v>
+        <v>993.2</v>
       </c>
       <c r="F106" t="n">
-        <v>355.8579</v>
+        <v>65</v>
       </c>
       <c r="G106" t="n">
-        <v>9374.118553650012</v>
+        <v>28531.3444593</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>989</v>
-      </c>
-      <c r="K106" t="n">
-        <v>989</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
@@ -4222,40 +4218,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>989</v>
+        <v>993.2</v>
       </c>
       <c r="C107" t="n">
-        <v>989</v>
+        <v>993.2</v>
       </c>
       <c r="D107" t="n">
-        <v>989</v>
+        <v>993.2</v>
       </c>
       <c r="E107" t="n">
-        <v>989</v>
+        <v>993.2</v>
       </c>
       <c r="F107" t="n">
-        <v>44.246</v>
+        <v>280</v>
       </c>
       <c r="G107" t="n">
-        <v>9374.118553650012</v>
+        <v>28531.3444593</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>989</v>
-      </c>
-      <c r="K107" t="n">
-        <v>989</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4266,40 +4254,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>989</v>
+        <v>993.2</v>
       </c>
       <c r="C108" t="n">
-        <v>989</v>
+        <v>993.1</v>
       </c>
       <c r="D108" t="n">
-        <v>989</v>
+        <v>993.2</v>
       </c>
       <c r="E108" t="n">
-        <v>989</v>
+        <v>993.1</v>
       </c>
       <c r="F108" t="n">
-        <v>1728.0284</v>
+        <v>275</v>
       </c>
       <c r="G108" t="n">
-        <v>9374.118553650012</v>
+        <v>28256.3444593</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>989</v>
-      </c>
-      <c r="K108" t="n">
-        <v>989</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4310,35 +4290,31 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>989</v>
+        <v>993.1</v>
       </c>
       <c r="C109" t="n">
-        <v>989</v>
+        <v>993.1</v>
       </c>
       <c r="D109" t="n">
-        <v>989</v>
+        <v>993.1</v>
       </c>
       <c r="E109" t="n">
-        <v>989</v>
+        <v>993.1</v>
       </c>
       <c r="F109" t="n">
-        <v>3945.2335</v>
+        <v>275</v>
       </c>
       <c r="G109" t="n">
-        <v>9374.118553650012</v>
+        <v>28256.3444593</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>989</v>
-      </c>
-      <c r="K109" t="n">
-        <v>989</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
@@ -4350,40 +4326,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>983.5</v>
+        <v>993.1</v>
       </c>
       <c r="C110" t="n">
-        <v>981</v>
+        <v>993.1</v>
       </c>
       <c r="D110" t="n">
-        <v>983.5</v>
+        <v>993.1</v>
       </c>
       <c r="E110" t="n">
-        <v>981</v>
+        <v>993.1</v>
       </c>
       <c r="F110" t="n">
-        <v>321.9</v>
+        <v>280</v>
       </c>
       <c r="G110" t="n">
-        <v>9052.218553650013</v>
+        <v>28256.3444593</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>989</v>
-      </c>
-      <c r="K110" t="n">
-        <v>989</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4394,40 +4362,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>984.8</v>
+        <v>993.1</v>
       </c>
       <c r="C111" t="n">
-        <v>984.8</v>
+        <v>993.1</v>
       </c>
       <c r="D111" t="n">
-        <v>984.8</v>
+        <v>993.1</v>
       </c>
       <c r="E111" t="n">
-        <v>984.8</v>
+        <v>993.1</v>
       </c>
       <c r="F111" t="n">
-        <v>85.17319999999999</v>
+        <v>275</v>
       </c>
       <c r="G111" t="n">
-        <v>9137.391753650012</v>
+        <v>28256.3444593</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>981</v>
-      </c>
-      <c r="K111" t="n">
-        <v>989</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4438,40 +4398,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>979</v>
+        <v>996.9</v>
       </c>
       <c r="C112" t="n">
-        <v>984.9</v>
+        <v>996.9</v>
       </c>
       <c r="D112" t="n">
-        <v>984.9</v>
+        <v>996.9</v>
       </c>
       <c r="E112" t="n">
-        <v>979</v>
+        <v>996.9</v>
       </c>
       <c r="F112" t="n">
-        <v>2109.7322</v>
+        <v>1.00310963</v>
       </c>
       <c r="G112" t="n">
-        <v>11247.12395365001</v>
+        <v>28257.34756893</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>984.8</v>
-      </c>
-      <c r="K112" t="n">
-        <v>989</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4482,40 +4434,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>986</v>
+        <v>995</v>
       </c>
       <c r="C113" t="n">
-        <v>986</v>
+        <v>995</v>
       </c>
       <c r="D113" t="n">
-        <v>986</v>
+        <v>995</v>
       </c>
       <c r="E113" t="n">
-        <v>986</v>
+        <v>995</v>
       </c>
       <c r="F113" t="n">
-        <v>57</v>
+        <v>47.1141</v>
       </c>
       <c r="G113" t="n">
-        <v>11304.12395365001</v>
+        <v>28210.23346893</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>984.9</v>
-      </c>
-      <c r="K113" t="n">
-        <v>989</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4526,40 +4470,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>989</v>
+        <v>992.9</v>
       </c>
       <c r="C114" t="n">
-        <v>989</v>
+        <v>992.9</v>
       </c>
       <c r="D114" t="n">
-        <v>989</v>
+        <v>992.9</v>
       </c>
       <c r="E114" t="n">
-        <v>989</v>
+        <v>992.9</v>
       </c>
       <c r="F114" t="n">
-        <v>3295.3688</v>
+        <v>103</v>
       </c>
       <c r="G114" t="n">
-        <v>14599.49275365001</v>
+        <v>28107.23346893</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>986</v>
-      </c>
-      <c r="K114" t="n">
-        <v>989</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4570,40 +4506,32 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>989</v>
+        <v>990.6</v>
       </c>
       <c r="C115" t="n">
         <v>989</v>
       </c>
       <c r="D115" t="n">
-        <v>989</v>
+        <v>990.6</v>
       </c>
       <c r="E115" t="n">
         <v>989</v>
       </c>
       <c r="F115" t="n">
-        <v>1383.72</v>
+        <v>3011.31</v>
       </c>
       <c r="G115" t="n">
-        <v>14599.49275365001</v>
+        <v>25095.92346893</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>989</v>
-      </c>
-      <c r="K115" t="n">
-        <v>989</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4614,40 +4542,32 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C116" t="n">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="D116" t="n">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="E116" t="n">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="F116" t="n">
-        <v>1013.4832</v>
+        <v>1050</v>
       </c>
       <c r="G116" t="n">
-        <v>14599.49275365001</v>
+        <v>26145.92346893</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>989</v>
-      </c>
-      <c r="K116" t="n">
-        <v>989</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4658,40 +4578,32 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>989</v>
+        <v>986.6</v>
       </c>
       <c r="C117" t="n">
-        <v>989</v>
+        <v>986.6</v>
       </c>
       <c r="D117" t="n">
-        <v>989</v>
+        <v>986.6</v>
       </c>
       <c r="E117" t="n">
-        <v>989</v>
+        <v>986.6</v>
       </c>
       <c r="F117" t="n">
-        <v>778.2759</v>
+        <v>269.96</v>
       </c>
       <c r="G117" t="n">
-        <v>14599.49275365001</v>
+        <v>25875.96346893</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>989</v>
-      </c>
-      <c r="K117" t="n">
-        <v>989</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4702,40 +4614,32 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>985</v>
+        <v>986.6</v>
       </c>
       <c r="C118" t="n">
-        <v>983</v>
+        <v>986.5</v>
       </c>
       <c r="D118" t="n">
-        <v>985</v>
+        <v>986.6</v>
       </c>
       <c r="E118" t="n">
-        <v>983</v>
+        <v>986.5</v>
       </c>
       <c r="F118" t="n">
-        <v>1050</v>
+        <v>1069.1151</v>
       </c>
       <c r="G118" t="n">
-        <v>13549.49275365001</v>
+        <v>24806.84836893</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>989</v>
-      </c>
-      <c r="K118" t="n">
-        <v>989</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4746,40 +4650,32 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>982</v>
+        <v>994</v>
       </c>
       <c r="C119" t="n">
-        <v>980</v>
+        <v>994</v>
       </c>
       <c r="D119" t="n">
-        <v>982</v>
+        <v>994</v>
       </c>
       <c r="E119" t="n">
-        <v>980</v>
+        <v>994</v>
       </c>
       <c r="F119" t="n">
-        <v>455</v>
+        <v>305</v>
       </c>
       <c r="G119" t="n">
-        <v>13094.49275365001</v>
+        <v>25111.84836893</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>983</v>
-      </c>
-      <c r="K119" t="n">
-        <v>989</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4790,40 +4686,32 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="C120" t="n">
-        <v>991</v>
+        <v>1000</v>
       </c>
       <c r="D120" t="n">
-        <v>991</v>
+        <v>1000</v>
       </c>
       <c r="E120" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="F120" t="n">
-        <v>197.847</v>
+        <v>96.4889</v>
       </c>
       <c r="G120" t="n">
-        <v>13292.33975365001</v>
+        <v>25208.33726893</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>980</v>
-      </c>
-      <c r="K120" t="n">
-        <v>989</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4834,40 +4722,32 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>991</v>
+        <v>1000</v>
       </c>
       <c r="C121" t="n">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="D121" t="n">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="E121" t="n">
-        <v>991</v>
+        <v>1000</v>
       </c>
       <c r="F121" t="n">
-        <v>1498.712</v>
+        <v>104.7813</v>
       </c>
       <c r="G121" t="n">
-        <v>14791.05175365001</v>
+        <v>25208.33726893</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>991</v>
-      </c>
-      <c r="K121" t="n">
-        <v>989</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4878,40 +4758,32 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="C122" t="n">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="D122" t="n">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="E122" t="n">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="F122" t="n">
-        <v>283.8622</v>
+        <v>34.7493</v>
       </c>
       <c r="G122" t="n">
-        <v>15074.91395365001</v>
+        <v>25208.33726893</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>992</v>
-      </c>
-      <c r="K122" t="n">
-        <v>989</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4922,40 +4794,32 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>994</v>
+        <v>1003</v>
       </c>
       <c r="C123" t="n">
-        <v>994</v>
+        <v>1003</v>
       </c>
       <c r="D123" t="n">
-        <v>994</v>
+        <v>1003</v>
       </c>
       <c r="E123" t="n">
-        <v>994</v>
+        <v>1003</v>
       </c>
       <c r="F123" t="n">
-        <v>82.66079999999999</v>
+        <v>176.9441</v>
       </c>
       <c r="G123" t="n">
-        <v>15074.91395365001</v>
+        <v>25385.28136893001</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>994</v>
-      </c>
-      <c r="K123" t="n">
-        <v>989</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4966,40 +4830,32 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>995</v>
+        <v>1005</v>
       </c>
       <c r="C124" t="n">
-        <v>996</v>
+        <v>1006</v>
       </c>
       <c r="D124" t="n">
-        <v>996</v>
+        <v>1006</v>
       </c>
       <c r="E124" t="n">
-        <v>995</v>
+        <v>1005</v>
       </c>
       <c r="F124" t="n">
-        <v>116.0376</v>
+        <v>49.9999</v>
       </c>
       <c r="G124" t="n">
-        <v>15190.95155365001</v>
+        <v>25435.28126893</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>994</v>
-      </c>
-      <c r="K124" t="n">
-        <v>989</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5010,40 +4866,32 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>997</v>
+        <v>1008</v>
       </c>
       <c r="C125" t="n">
-        <v>997</v>
+        <v>1008</v>
       </c>
       <c r="D125" t="n">
-        <v>997</v>
+        <v>1008</v>
       </c>
       <c r="E125" t="n">
-        <v>997</v>
+        <v>1008</v>
       </c>
       <c r="F125" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="G125" t="n">
-        <v>15340.95155365001</v>
+        <v>25935.28126893</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>996</v>
-      </c>
-      <c r="K125" t="n">
-        <v>989</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5054,40 +4902,32 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="C126" t="n">
-        <v>997</v>
+        <v>1013</v>
       </c>
       <c r="D126" t="n">
-        <v>997</v>
+        <v>1013</v>
       </c>
       <c r="E126" t="n">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="F126" t="n">
-        <v>237</v>
+        <v>5398.00592299</v>
       </c>
       <c r="G126" t="n">
-        <v>15340.95155365001</v>
+        <v>31333.28719192</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>997</v>
-      </c>
-      <c r="K126" t="n">
-        <v>989</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5098,40 +4938,32 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>998</v>
+        <v>1014</v>
       </c>
       <c r="C127" t="n">
-        <v>998</v>
+        <v>1014</v>
       </c>
       <c r="D127" t="n">
-        <v>998</v>
+        <v>1014</v>
       </c>
       <c r="E127" t="n">
-        <v>998</v>
+        <v>1014</v>
       </c>
       <c r="F127" t="n">
-        <v>791.7313</v>
+        <v>952.7741617299999</v>
       </c>
       <c r="G127" t="n">
-        <v>16132.68285365001</v>
+        <v>32286.06135365001</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>997</v>
-      </c>
-      <c r="K127" t="n">
-        <v>989</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5142,40 +4974,32 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>999</v>
+        <v>1013</v>
       </c>
       <c r="C128" t="n">
-        <v>999</v>
+        <v>1013</v>
       </c>
       <c r="D128" t="n">
-        <v>999</v>
+        <v>1013</v>
       </c>
       <c r="E128" t="n">
-        <v>999</v>
+        <v>1013</v>
       </c>
       <c r="F128" t="n">
-        <v>370</v>
+        <v>78.7032</v>
       </c>
       <c r="G128" t="n">
-        <v>16502.68285365001</v>
+        <v>32207.35815365001</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>998</v>
-      </c>
-      <c r="K128" t="n">
-        <v>989</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5186,40 +5010,32 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="C129" t="n">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="D129" t="n">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="E129" t="n">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="F129" t="n">
-        <v>4535</v>
+        <v>80</v>
       </c>
       <c r="G129" t="n">
-        <v>21037.68285365001</v>
+        <v>32287.35815365001</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>999</v>
-      </c>
-      <c r="K129" t="n">
-        <v>989</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5230,40 +5046,32 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1005</v>
+        <v>1013</v>
       </c>
       <c r="C130" t="n">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="D130" t="n">
-        <v>1005</v>
+        <v>1013</v>
       </c>
       <c r="E130" t="n">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="F130" t="n">
-        <v>1413.8523</v>
+        <v>1.7</v>
       </c>
       <c r="G130" t="n">
-        <v>19623.83055365001</v>
+        <v>32285.65815365001</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>1005</v>
-      </c>
-      <c r="K130" t="n">
-        <v>989</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5274,40 +5082,32 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="C131" t="n">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="D131" t="n">
-        <v>1002</v>
+        <v>1013</v>
       </c>
       <c r="E131" t="n">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="F131" t="n">
-        <v>2127.8335</v>
+        <v>19</v>
       </c>
       <c r="G131" t="n">
-        <v>19623.83055365001</v>
+        <v>32285.65815365001</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K131" t="n">
-        <v>989</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5318,40 +5118,32 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="C132" t="n">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="D132" t="n">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="E132" t="n">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="F132" t="n">
-        <v>1225.52</v>
+        <v>0.5968</v>
       </c>
       <c r="G132" t="n">
-        <v>19623.83055365001</v>
+        <v>32285.65815365001</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K132" t="n">
-        <v>989</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5362,22 +5154,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>1008</v>
+      </c>
+      <c r="C133" t="n">
         <v>1000</v>
       </c>
-      <c r="C133" t="n">
-        <v>999</v>
-      </c>
       <c r="D133" t="n">
+        <v>1008</v>
+      </c>
+      <c r="E133" t="n">
         <v>1000</v>
       </c>
-      <c r="E133" t="n">
-        <v>999</v>
-      </c>
       <c r="F133" t="n">
-        <v>203.04</v>
+        <v>6350.7801</v>
       </c>
       <c r="G133" t="n">
-        <v>19420.79055365001</v>
+        <v>25934.87805365001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5386,14 +5178,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>989</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5404,22 +5190,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="C134" t="n">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="D134" t="n">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="E134" t="n">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="F134" t="n">
-        <v>1200</v>
+        <v>528.8682</v>
       </c>
       <c r="G134" t="n">
-        <v>19420.79055365001</v>
+        <v>26463.74625365001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5428,14 +5214,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>989</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5446,22 +5226,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="C135" t="n">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="D135" t="n">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="E135" t="n">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="F135" t="n">
-        <v>109.0783</v>
+        <v>1627</v>
       </c>
       <c r="G135" t="n">
-        <v>19420.79055365001</v>
+        <v>24836.74625365001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5470,14 +5250,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>989</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5488,22 +5262,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C136" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D136" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="E136" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F136" t="n">
-        <v>5</v>
+        <v>1829</v>
       </c>
       <c r="G136" t="n">
-        <v>19425.79055365001</v>
+        <v>23007.74625365001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5512,14 +5286,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>989</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5530,22 +5298,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="C137" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D137" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="E137" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F137" t="n">
-        <v>47.3999</v>
+        <v>1729.3814</v>
       </c>
       <c r="G137" t="n">
-        <v>19425.79055365001</v>
+        <v>21278.36485365001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5554,14 +5322,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>989</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5572,40 +5334,32 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1005</v>
+        <v>999.2</v>
       </c>
       <c r="C138" t="n">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="D138" t="n">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="E138" t="n">
-        <v>1005</v>
+        <v>999.2</v>
       </c>
       <c r="F138" t="n">
-        <v>103.1</v>
+        <v>2593.7958</v>
       </c>
       <c r="G138" t="n">
-        <v>19528.89055365001</v>
+        <v>18684.56905365001</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K138" t="n">
-        <v>989</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5616,22 +5370,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="C139" t="n">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="D139" t="n">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="E139" t="n">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="F139" t="n">
-        <v>1036.1772</v>
+        <v>1479.493</v>
       </c>
       <c r="G139" t="n">
-        <v>18492.71335365001</v>
+        <v>17205.07605365001</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5640,14 +5394,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>989</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5658,22 +5406,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="C140" t="n">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="D140" t="n">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="E140" t="n">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="F140" t="n">
-        <v>2765</v>
+        <v>1742.2687</v>
       </c>
       <c r="G140" t="n">
-        <v>18492.71335365001</v>
+        <v>18947.34475365001</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5682,14 +5430,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>989</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5700,22 +5442,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="C141" t="n">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="D141" t="n">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="E141" t="n">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F141" t="n">
-        <v>53.0359</v>
+        <v>1535.0971</v>
       </c>
       <c r="G141" t="n">
-        <v>18492.71335365001</v>
+        <v>17412.24765365001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5724,14 +5466,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>989</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5742,22 +5478,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="C142" t="n">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="D142" t="n">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="E142" t="n">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="F142" t="n">
-        <v>1554.8558</v>
+        <v>1939.3651</v>
       </c>
       <c r="G142" t="n">
-        <v>16937.85755365001</v>
+        <v>15472.88255365001</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5766,14 +5502,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>989</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5784,22 +5514,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="C143" t="n">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="D143" t="n">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="E143" t="n">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="F143" t="n">
-        <v>46.9102</v>
+        <v>1621</v>
       </c>
       <c r="G143" t="n">
-        <v>16937.85755365001</v>
+        <v>13851.88255365001</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5808,14 +5538,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>989</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5826,22 +5550,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="C144" t="n">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="D144" t="n">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="E144" t="n">
-        <v>1004</v>
+        <v>990.5</v>
       </c>
       <c r="F144" t="n">
-        <v>4483.3208</v>
+        <v>1660.9348</v>
       </c>
       <c r="G144" t="n">
-        <v>12454.53675365001</v>
+        <v>12190.94775365001</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5850,14 +5574,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>989</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5868,36 +5586,36 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1004</v>
+        <v>990.5</v>
       </c>
       <c r="C145" t="n">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="D145" t="n">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="E145" t="n">
-        <v>1004</v>
+        <v>990.5</v>
       </c>
       <c r="F145" t="n">
-        <v>1120.5961</v>
+        <v>1845.0652</v>
       </c>
       <c r="G145" t="n">
-        <v>12454.53675365001</v>
+        <v>14036.01295365001</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>989</v>
-      </c>
+      <c r="J145" t="n">
+        <v>992</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M145" t="n">
@@ -5910,33 +5628,33 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="C146" t="n">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="D146" t="n">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="E146" t="n">
-        <v>1003</v>
+        <v>990.5</v>
       </c>
       <c r="F146" t="n">
-        <v>2492.1433</v>
+        <v>2647</v>
       </c>
       <c r="G146" t="n">
-        <v>9962.393453650009</v>
+        <v>11389.01295365001</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>989</v>
-      </c>
+      <c r="J146" t="n">
+        <v>996</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5952,33 +5670,33 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="C147" t="n">
-        <v>1003</v>
+        <v>990.5</v>
       </c>
       <c r="D147" t="n">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="E147" t="n">
-        <v>1003</v>
+        <v>990.5</v>
       </c>
       <c r="F147" t="n">
-        <v>3970.1906</v>
+        <v>2343.4478</v>
       </c>
       <c r="G147" t="n">
-        <v>9962.393453650009</v>
+        <v>9045.565153650014</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>989</v>
-      </c>
+      <c r="J147" t="n">
+        <v>993</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5994,33 +5712,33 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1003</v>
+        <v>990.5</v>
       </c>
       <c r="C148" t="n">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="D148" t="n">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="E148" t="n">
-        <v>1003</v>
+        <v>990.5</v>
       </c>
       <c r="F148" t="n">
-        <v>1111.2598</v>
+        <v>1651.6749</v>
       </c>
       <c r="G148" t="n">
-        <v>9962.393453650009</v>
+        <v>10697.24005365001</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>989</v>
-      </c>
+      <c r="J148" t="n">
+        <v>990.5</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6036,33 +5754,33 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1003</v>
+        <v>990.5</v>
       </c>
       <c r="C149" t="n">
-        <v>1003</v>
+        <v>990.5</v>
       </c>
       <c r="D149" t="n">
-        <v>1003</v>
+        <v>990.5</v>
       </c>
       <c r="E149" t="n">
-        <v>1003</v>
+        <v>990.5</v>
       </c>
       <c r="F149" t="n">
-        <v>2115</v>
+        <v>2202</v>
       </c>
       <c r="G149" t="n">
-        <v>9962.393453650009</v>
+        <v>8495.240053650014</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>989</v>
-      </c>
+      <c r="J149" t="n">
+        <v>992</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6078,33 +5796,33 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1003</v>
+        <v>990.5</v>
       </c>
       <c r="C150" t="n">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="D150" t="n">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="E150" t="n">
-        <v>1002</v>
+        <v>990.5</v>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>3004.4345</v>
       </c>
       <c r="G150" t="n">
-        <v>9762.393453650009</v>
+        <v>11499.67455365001</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>989</v>
-      </c>
+      <c r="J150" t="n">
+        <v>990.5</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6120,33 +5838,33 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1002</v>
+        <v>991</v>
       </c>
       <c r="C151" t="n">
-        <v>1003</v>
+        <v>990.4</v>
       </c>
       <c r="D151" t="n">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="E151" t="n">
-        <v>1002</v>
+        <v>990.4</v>
       </c>
       <c r="F151" t="n">
-        <v>1800.43</v>
+        <v>1547</v>
       </c>
       <c r="G151" t="n">
-        <v>11562.82345365001</v>
+        <v>9952.674553650013</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>989</v>
-      </c>
+      <c r="J151" t="n">
+        <v>995</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6162,33 +5880,33 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1002</v>
+        <v>990.4</v>
       </c>
       <c r="C152" t="n">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="D152" t="n">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="E152" t="n">
-        <v>1002</v>
+        <v>990.4</v>
       </c>
       <c r="F152" t="n">
-        <v>1063</v>
+        <v>1820</v>
       </c>
       <c r="G152" t="n">
-        <v>10499.82345365001</v>
+        <v>11772.67455365001</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>989</v>
-      </c>
+      <c r="J152" t="n">
+        <v>990.4</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6204,33 +5922,33 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="C153" t="n">
-        <v>1003</v>
+        <v>989.1</v>
       </c>
       <c r="D153" t="n">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="E153" t="n">
-        <v>1003</v>
+        <v>989.1</v>
       </c>
       <c r="F153" t="n">
-        <v>1515</v>
+        <v>1013.3078</v>
       </c>
       <c r="G153" t="n">
-        <v>12014.82345365001</v>
+        <v>10759.36675365001</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>989</v>
-      </c>
+      <c r="J153" t="n">
+        <v>992</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6246,33 +5964,33 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="C154" t="n">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="D154" t="n">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="E154" t="n">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="F154" t="n">
-        <v>2250.1245</v>
+        <v>6262.6922</v>
       </c>
       <c r="G154" t="n">
-        <v>12014.82345365001</v>
+        <v>17022.05895365001</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>989</v>
-      </c>
+      <c r="J154" t="n">
+        <v>989.1</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6288,33 +6006,33 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="C155" t="n">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="D155" t="n">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="E155" t="n">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="F155" t="n">
-        <v>625</v>
+        <v>2334</v>
       </c>
       <c r="G155" t="n">
-        <v>12014.82345365001</v>
+        <v>17022.05895365001</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>989</v>
-      </c>
+      <c r="J155" t="n">
+        <v>990</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6330,42 +6048,2940 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>990</v>
+      </c>
+      <c r="C156" t="n">
+        <v>992</v>
+      </c>
+      <c r="D156" t="n">
+        <v>992</v>
+      </c>
+      <c r="E156" t="n">
+        <v>988</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1151.7739</v>
+      </c>
+      <c r="G156" t="n">
+        <v>18173.83285365001</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>990</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>989</v>
+      </c>
+      <c r="C157" t="n">
+        <v>990</v>
+      </c>
+      <c r="D157" t="n">
+        <v>990</v>
+      </c>
+      <c r="E157" t="n">
+        <v>988</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2543</v>
+      </c>
+      <c r="G157" t="n">
+        <v>15630.83285365001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>992</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>990</v>
+      </c>
+      <c r="C158" t="n">
+        <v>989</v>
+      </c>
+      <c r="D158" t="n">
+        <v>990</v>
+      </c>
+      <c r="E158" t="n">
+        <v>989</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1891.0857</v>
+      </c>
+      <c r="G158" t="n">
+        <v>13739.74715365001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>990</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>989</v>
+      </c>
+      <c r="C159" t="n">
+        <v>989</v>
+      </c>
+      <c r="D159" t="n">
+        <v>989</v>
+      </c>
+      <c r="E159" t="n">
+        <v>989</v>
+      </c>
+      <c r="F159" t="n">
+        <v>100</v>
+      </c>
+      <c r="G159" t="n">
+        <v>13739.74715365001</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>989</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>988.1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>988</v>
+      </c>
+      <c r="D160" t="n">
+        <v>988.1</v>
+      </c>
+      <c r="E160" t="n">
+        <v>988</v>
+      </c>
+      <c r="F160" t="n">
+        <v>283</v>
+      </c>
+      <c r="G160" t="n">
+        <v>13456.74715365001</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>989</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>989</v>
+      </c>
+      <c r="C161" t="n">
+        <v>989</v>
+      </c>
+      <c r="D161" t="n">
+        <v>989</v>
+      </c>
+      <c r="E161" t="n">
+        <v>989</v>
+      </c>
+      <c r="F161" t="n">
+        <v>345</v>
+      </c>
+      <c r="G161" t="n">
+        <v>13801.74715365001</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>988</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>989</v>
+      </c>
+      <c r="C162" t="n">
+        <v>989</v>
+      </c>
+      <c r="D162" t="n">
+        <v>989</v>
+      </c>
+      <c r="E162" t="n">
+        <v>989</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1830</v>
+      </c>
+      <c r="G162" t="n">
+        <v>13801.74715365001</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>988.1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>988</v>
+      </c>
+      <c r="D163" t="n">
+        <v>988.1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>988</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1529</v>
+      </c>
+      <c r="G163" t="n">
+        <v>12272.74715365001</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>988</v>
+      </c>
+      <c r="C164" t="n">
+        <v>988</v>
+      </c>
+      <c r="D164" t="n">
+        <v>989</v>
+      </c>
+      <c r="E164" t="n">
+        <v>987.3</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2196.13</v>
+      </c>
+      <c r="G164" t="n">
+        <v>12272.74715365001</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>987.2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>986.7</v>
+      </c>
+      <c r="D165" t="n">
+        <v>987.2</v>
+      </c>
+      <c r="E165" t="n">
+        <v>986.7</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2176</v>
+      </c>
+      <c r="G165" t="n">
+        <v>10096.74715365001</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>988</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>986.6</v>
+      </c>
+      <c r="C166" t="n">
+        <v>986</v>
+      </c>
+      <c r="D166" t="n">
+        <v>987</v>
+      </c>
+      <c r="E166" t="n">
+        <v>986</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1328</v>
+      </c>
+      <c r="G166" t="n">
+        <v>8768.747153650012</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>984.7</v>
+      </c>
+      <c r="C167" t="n">
+        <v>984</v>
+      </c>
+      <c r="D167" t="n">
+        <v>985</v>
+      </c>
+      <c r="E167" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2221</v>
+      </c>
+      <c r="G167" t="n">
+        <v>6547.747153650012</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>986</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>984</v>
+      </c>
+      <c r="C168" t="n">
+        <v>986</v>
+      </c>
+      <c r="D168" t="n">
+        <v>986</v>
+      </c>
+      <c r="E168" t="n">
+        <v>984</v>
+      </c>
+      <c r="F168" t="n">
+        <v>580</v>
+      </c>
+      <c r="G168" t="n">
+        <v>7127.747153650012</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>984</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>986</v>
+      </c>
+      <c r="C169" t="n">
+        <v>987</v>
+      </c>
+      <c r="D169" t="n">
+        <v>987</v>
+      </c>
+      <c r="E169" t="n">
+        <v>986</v>
+      </c>
+      <c r="F169" t="n">
+        <v>625</v>
+      </c>
+      <c r="G169" t="n">
+        <v>7752.747153650012</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>986</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>988</v>
+      </c>
+      <c r="C170" t="n">
+        <v>988</v>
+      </c>
+      <c r="D170" t="n">
+        <v>988</v>
+      </c>
+      <c r="E170" t="n">
+        <v>988</v>
+      </c>
+      <c r="F170" t="n">
+        <v>273.87</v>
+      </c>
+      <c r="G170" t="n">
+        <v>8026.617153650012</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>987</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>989</v>
+      </c>
+      <c r="C171" t="n">
+        <v>989</v>
+      </c>
+      <c r="D171" t="n">
+        <v>989</v>
+      </c>
+      <c r="E171" t="n">
+        <v>989</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1576.3636</v>
+      </c>
+      <c r="G171" t="n">
+        <v>9602.980753650012</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>988</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>989</v>
+      </c>
+      <c r="C172" t="n">
+        <v>989</v>
+      </c>
+      <c r="D172" t="n">
+        <v>989</v>
+      </c>
+      <c r="E172" t="n">
+        <v>989</v>
+      </c>
+      <c r="F172" t="n">
+        <v>902.5007000000001</v>
+      </c>
+      <c r="G172" t="n">
+        <v>9602.980753650012</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>989</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>986</v>
+      </c>
+      <c r="C173" t="n">
+        <v>986</v>
+      </c>
+      <c r="D173" t="n">
+        <v>986</v>
+      </c>
+      <c r="E173" t="n">
+        <v>986</v>
+      </c>
+      <c r="F173" t="n">
+        <v>570</v>
+      </c>
+      <c r="G173" t="n">
+        <v>9032.980753650012</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>989</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>989</v>
+      </c>
+      <c r="C174" t="n">
+        <v>989</v>
+      </c>
+      <c r="D174" t="n">
+        <v>989</v>
+      </c>
+      <c r="E174" t="n">
+        <v>989</v>
+      </c>
+      <c r="F174" t="n">
+        <v>341.1378</v>
+      </c>
+      <c r="G174" t="n">
+        <v>9374.118553650012</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>986</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>989</v>
+      </c>
+      <c r="C175" t="n">
+        <v>989</v>
+      </c>
+      <c r="D175" t="n">
+        <v>989</v>
+      </c>
+      <c r="E175" t="n">
+        <v>989</v>
+      </c>
+      <c r="F175" t="n">
+        <v>753.5481</v>
+      </c>
+      <c r="G175" t="n">
+        <v>9374.118553650012</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>989</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>989</v>
+      </c>
+      <c r="C176" t="n">
+        <v>989</v>
+      </c>
+      <c r="D176" t="n">
+        <v>989</v>
+      </c>
+      <c r="E176" t="n">
+        <v>989</v>
+      </c>
+      <c r="F176" t="n">
+        <v>350.1504</v>
+      </c>
+      <c r="G176" t="n">
+        <v>9374.118553650012</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>989</v>
+      </c>
+      <c r="C177" t="n">
+        <v>989</v>
+      </c>
+      <c r="D177" t="n">
+        <v>989</v>
+      </c>
+      <c r="E177" t="n">
+        <v>989</v>
+      </c>
+      <c r="F177" t="n">
+        <v>355.8579</v>
+      </c>
+      <c r="G177" t="n">
+        <v>9374.118553650012</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>989</v>
+      </c>
+      <c r="C178" t="n">
+        <v>989</v>
+      </c>
+      <c r="D178" t="n">
+        <v>989</v>
+      </c>
+      <c r="E178" t="n">
+        <v>989</v>
+      </c>
+      <c r="F178" t="n">
+        <v>44.246</v>
+      </c>
+      <c r="G178" t="n">
+        <v>9374.118553650012</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>989</v>
+      </c>
+      <c r="C179" t="n">
+        <v>989</v>
+      </c>
+      <c r="D179" t="n">
+        <v>989</v>
+      </c>
+      <c r="E179" t="n">
+        <v>989</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1728.0284</v>
+      </c>
+      <c r="G179" t="n">
+        <v>9374.118553650012</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>989</v>
+      </c>
+      <c r="C180" t="n">
+        <v>989</v>
+      </c>
+      <c r="D180" t="n">
+        <v>989</v>
+      </c>
+      <c r="E180" t="n">
+        <v>989</v>
+      </c>
+      <c r="F180" t="n">
+        <v>3945.2335</v>
+      </c>
+      <c r="G180" t="n">
+        <v>9374.118553650012</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="C181" t="n">
+        <v>981</v>
+      </c>
+      <c r="D181" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="E181" t="n">
+        <v>981</v>
+      </c>
+      <c r="F181" t="n">
+        <v>321.9</v>
+      </c>
+      <c r="G181" t="n">
+        <v>9052.218553650013</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>984.8</v>
+      </c>
+      <c r="C182" t="n">
+        <v>984.8</v>
+      </c>
+      <c r="D182" t="n">
+        <v>984.8</v>
+      </c>
+      <c r="E182" t="n">
+        <v>984.8</v>
+      </c>
+      <c r="F182" t="n">
+        <v>85.17319999999999</v>
+      </c>
+      <c r="G182" t="n">
+        <v>9137.391753650012</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>979</v>
+      </c>
+      <c r="C183" t="n">
+        <v>984.9</v>
+      </c>
+      <c r="D183" t="n">
+        <v>984.9</v>
+      </c>
+      <c r="E183" t="n">
+        <v>979</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2109.7322</v>
+      </c>
+      <c r="G183" t="n">
+        <v>11247.12395365001</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>986</v>
+      </c>
+      <c r="C184" t="n">
+        <v>986</v>
+      </c>
+      <c r="D184" t="n">
+        <v>986</v>
+      </c>
+      <c r="E184" t="n">
+        <v>986</v>
+      </c>
+      <c r="F184" t="n">
+        <v>57</v>
+      </c>
+      <c r="G184" t="n">
+        <v>11304.12395365001</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>989</v>
+      </c>
+      <c r="C185" t="n">
+        <v>989</v>
+      </c>
+      <c r="D185" t="n">
+        <v>989</v>
+      </c>
+      <c r="E185" t="n">
+        <v>989</v>
+      </c>
+      <c r="F185" t="n">
+        <v>3295.3688</v>
+      </c>
+      <c r="G185" t="n">
+        <v>14599.49275365001</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>989</v>
+      </c>
+      <c r="C186" t="n">
+        <v>989</v>
+      </c>
+      <c r="D186" t="n">
+        <v>989</v>
+      </c>
+      <c r="E186" t="n">
+        <v>989</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1383.72</v>
+      </c>
+      <c r="G186" t="n">
+        <v>14599.49275365001</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>989</v>
+      </c>
+      <c r="C187" t="n">
+        <v>989</v>
+      </c>
+      <c r="D187" t="n">
+        <v>989</v>
+      </c>
+      <c r="E187" t="n">
+        <v>989</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1013.4832</v>
+      </c>
+      <c r="G187" t="n">
+        <v>14599.49275365001</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>989</v>
+      </c>
+      <c r="C188" t="n">
+        <v>989</v>
+      </c>
+      <c r="D188" t="n">
+        <v>989</v>
+      </c>
+      <c r="E188" t="n">
+        <v>989</v>
+      </c>
+      <c r="F188" t="n">
+        <v>778.2759</v>
+      </c>
+      <c r="G188" t="n">
+        <v>14599.49275365001</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>985</v>
+      </c>
+      <c r="C189" t="n">
+        <v>983</v>
+      </c>
+      <c r="D189" t="n">
+        <v>985</v>
+      </c>
+      <c r="E189" t="n">
+        <v>983</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G189" t="n">
+        <v>13549.49275365001</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>982</v>
+      </c>
+      <c r="C190" t="n">
+        <v>980</v>
+      </c>
+      <c r="D190" t="n">
+        <v>982</v>
+      </c>
+      <c r="E190" t="n">
+        <v>980</v>
+      </c>
+      <c r="F190" t="n">
+        <v>455</v>
+      </c>
+      <c r="G190" t="n">
+        <v>13094.49275365001</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>983</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>990</v>
+      </c>
+      <c r="C191" t="n">
+        <v>991</v>
+      </c>
+      <c r="D191" t="n">
+        <v>991</v>
+      </c>
+      <c r="E191" t="n">
+        <v>990</v>
+      </c>
+      <c r="F191" t="n">
+        <v>197.847</v>
+      </c>
+      <c r="G191" t="n">
+        <v>13292.33975365001</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>980</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>991</v>
+      </c>
+      <c r="C192" t="n">
+        <v>992</v>
+      </c>
+      <c r="D192" t="n">
+        <v>992</v>
+      </c>
+      <c r="E192" t="n">
+        <v>991</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1498.712</v>
+      </c>
+      <c r="G192" t="n">
+        <v>14791.05175365001</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>991</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>992</v>
+      </c>
+      <c r="C193" t="n">
+        <v>994</v>
+      </c>
+      <c r="D193" t="n">
+        <v>994</v>
+      </c>
+      <c r="E193" t="n">
+        <v>992</v>
+      </c>
+      <c r="F193" t="n">
+        <v>283.8622</v>
+      </c>
+      <c r="G193" t="n">
+        <v>15074.91395365001</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>994</v>
+      </c>
+      <c r="C194" t="n">
+        <v>994</v>
+      </c>
+      <c r="D194" t="n">
+        <v>994</v>
+      </c>
+      <c r="E194" t="n">
+        <v>994</v>
+      </c>
+      <c r="F194" t="n">
+        <v>82.66079999999999</v>
+      </c>
+      <c r="G194" t="n">
+        <v>15074.91395365001</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>995</v>
+      </c>
+      <c r="C195" t="n">
+        <v>996</v>
+      </c>
+      <c r="D195" t="n">
+        <v>996</v>
+      </c>
+      <c r="E195" t="n">
+        <v>995</v>
+      </c>
+      <c r="F195" t="n">
+        <v>116.0376</v>
+      </c>
+      <c r="G195" t="n">
+        <v>15190.95155365001</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>997</v>
+      </c>
+      <c r="C196" t="n">
+        <v>997</v>
+      </c>
+      <c r="D196" t="n">
+        <v>997</v>
+      </c>
+      <c r="E196" t="n">
+        <v>997</v>
+      </c>
+      <c r="F196" t="n">
+        <v>150</v>
+      </c>
+      <c r="G196" t="n">
+        <v>15340.95155365001</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>997</v>
+      </c>
+      <c r="C197" t="n">
+        <v>997</v>
+      </c>
+      <c r="D197" t="n">
+        <v>997</v>
+      </c>
+      <c r="E197" t="n">
+        <v>997</v>
+      </c>
+      <c r="F197" t="n">
+        <v>237</v>
+      </c>
+      <c r="G197" t="n">
+        <v>15340.95155365001</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>998</v>
+      </c>
+      <c r="C198" t="n">
+        <v>998</v>
+      </c>
+      <c r="D198" t="n">
+        <v>998</v>
+      </c>
+      <c r="E198" t="n">
+        <v>998</v>
+      </c>
+      <c r="F198" t="n">
+        <v>791.7313</v>
+      </c>
+      <c r="G198" t="n">
+        <v>16132.68285365001</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>999</v>
+      </c>
+      <c r="C199" t="n">
+        <v>999</v>
+      </c>
+      <c r="D199" t="n">
+        <v>999</v>
+      </c>
+      <c r="E199" t="n">
+        <v>999</v>
+      </c>
+      <c r="F199" t="n">
+        <v>370</v>
+      </c>
+      <c r="G199" t="n">
+        <v>16502.68285365001</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>998</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F200" t="n">
+        <v>4535</v>
+      </c>
+      <c r="G200" t="n">
+        <v>21037.68285365001</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1413.8523</v>
+      </c>
+      <c r="G201" t="n">
+        <v>19623.83055365001</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2127.8335</v>
+      </c>
+      <c r="G202" t="n">
+        <v>19623.83055365001</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1225.52</v>
+      </c>
+      <c r="G203" t="n">
+        <v>19623.83055365001</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C204" t="n">
+        <v>999</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E204" t="n">
+        <v>999</v>
+      </c>
+      <c r="F204" t="n">
+        <v>203.04</v>
+      </c>
+      <c r="G204" t="n">
+        <v>19420.79055365001</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>999</v>
+      </c>
+      <c r="D205" t="n">
+        <v>999</v>
+      </c>
+      <c r="E205" t="n">
+        <v>999</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G205" t="n">
+        <v>19420.79055365001</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>999</v>
+      </c>
+      <c r="C206" t="n">
+        <v>999</v>
+      </c>
+      <c r="D206" t="n">
+        <v>999</v>
+      </c>
+      <c r="E206" t="n">
+        <v>999</v>
+      </c>
+      <c r="F206" t="n">
+        <v>109.0783</v>
+      </c>
+      <c r="G206" t="n">
+        <v>19420.79055365001</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F207" t="n">
+        <v>5</v>
+      </c>
+      <c r="G207" t="n">
+        <v>19425.79055365001</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F208" t="n">
+        <v>47.3999</v>
+      </c>
+      <c r="G208" t="n">
+        <v>19425.79055365001</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1007</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F209" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="G209" t="n">
+        <v>19528.89055365001</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1036.1772</v>
+      </c>
+      <c r="G210" t="n">
+        <v>18492.71335365001</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2765</v>
+      </c>
+      <c r="G211" t="n">
+        <v>18492.71335365001</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F212" t="n">
+        <v>53.0359</v>
+      </c>
+      <c r="G212" t="n">
+        <v>18492.71335365001</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1004</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1554.8558</v>
+      </c>
+      <c r="G213" t="n">
+        <v>16937.85755365001</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F214" t="n">
+        <v>46.9102</v>
+      </c>
+      <c r="G214" t="n">
+        <v>16937.85755365001</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1004</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1004</v>
+      </c>
+      <c r="F215" t="n">
+        <v>4483.3208</v>
+      </c>
+      <c r="G215" t="n">
+        <v>12454.53675365001</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1004</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1004</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1120.5961</v>
+      </c>
+      <c r="G216" t="n">
+        <v>12454.53675365001</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C217" t="n">
         <v>1003</v>
       </c>
-      <c r="C156" t="n">
+      <c r="D217" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E217" t="n">
         <v>1003</v>
       </c>
-      <c r="D156" t="n">
+      <c r="F217" t="n">
+        <v>2492.1433</v>
+      </c>
+      <c r="G217" t="n">
+        <v>9962.393453650009</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
         <v>1003</v>
       </c>
-      <c r="E156" t="n">
+      <c r="C218" t="n">
         <v>1003</v>
       </c>
-      <c r="F156" t="n">
+      <c r="D218" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F218" t="n">
+        <v>3970.1906</v>
+      </c>
+      <c r="G218" t="n">
+        <v>9962.393453650009</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1003</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1111.2598</v>
+      </c>
+      <c r="G219" t="n">
+        <v>9962.393453650009</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1003</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2115</v>
+      </c>
+      <c r="G220" t="n">
+        <v>9962.393453650009</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1003</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1002</v>
+      </c>
+      <c r="F221" t="n">
+        <v>200</v>
+      </c>
+      <c r="G221" t="n">
+        <v>9762.393453650009</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1003</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1002</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1800.43</v>
+      </c>
+      <c r="G222" t="n">
+        <v>11562.82345365001</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1002</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1002</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1063</v>
+      </c>
+      <c r="G223" t="n">
+        <v>10499.82345365001</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1003</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1515</v>
+      </c>
+      <c r="G224" t="n">
+        <v>12014.82345365001</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1002</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F225" t="n">
+        <v>2250.1245</v>
+      </c>
+      <c r="G225" t="n">
+        <v>12014.82345365001</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1003</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F226" t="n">
+        <v>625</v>
+      </c>
+      <c r="G226" t="n">
+        <v>12014.82345365001</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1003</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F227" t="n">
         <v>370</v>
       </c>
-      <c r="G156" t="n">
+      <c r="G227" t="n">
         <v>12014.82345365001</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>989</v>
-      </c>
-      <c r="L156" t="inlineStr">
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1003</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-25 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-25 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N227"/>
+  <dimension ref="A1:M227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>41998.3062</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>49134.52451126999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>49092.07641126999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>48086.61431126999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>48054.69711126999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>48054.69711126999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>48086.59711126999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>52059.15251127</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>51955.34171127</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>51955.34171127</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>50660.44671127</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>51377.99171127</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>50480.36801127</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>50391.33291127</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>50391.33291127</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>50391.33291127</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>50391.33291127</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>50391.33291127</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>45458.42271127</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>40581.02041127</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>36373.78401127</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>41356.88041127</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>40033.35251127</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>39904.32671127</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>39976.24211127</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,15 @@
         <v>40886.57541126999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>41062.01361126999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>39933.17491126999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3091,15 @@
         <v>38178.17491126999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3157,15 @@
         <v>36051.96621126999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>36227.32471126999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3751,15 @@
         <v>29586.3377593</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5172,18 +4774,15 @@
         <v>25934.87805365001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5244,18 +4840,15 @@
         <v>24836.74625365001</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5604,24 +5170,15 @@
         <v>14036.01295365001</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5646,24 +5203,15 @@
         <v>11389.01295365001</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5688,24 +5236,15 @@
         <v>9045.565153650014</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5730,24 +5269,21 @@
         <v>10697.24005365001</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
         <v>990.5</v>
       </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5772,24 +5308,21 @@
         <v>8495.240053650014</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
         <v>992</v>
       </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5814,24 +5347,21 @@
         <v>11499.67455365001</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
         <v>990.5</v>
       </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5856,24 +5386,21 @@
         <v>9952.674553650013</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
         <v>995</v>
       </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5898,24 +5425,21 @@
         <v>11772.67455365001</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
         <v>990.4</v>
       </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5940,24 +5464,19 @@
         <v>10759.36675365001</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>992</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5982,24 +5501,19 @@
         <v>17022.05895365001</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>989.1</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6024,24 +5538,19 @@
         <v>17022.05895365001</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>990</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6066,24 +5575,19 @@
         <v>18173.83285365001</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>990</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6108,24 +5612,19 @@
         <v>15630.83285365001</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>992</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6150,24 +5649,19 @@
         <v>13739.74715365001</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>990</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6192,24 +5686,19 @@
         <v>13739.74715365001</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>989</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6234,24 +5723,19 @@
         <v>13456.74715365001</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>989</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6276,24 +5760,19 @@
         <v>13801.74715365001</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>988</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6320,20 +5799,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6360,20 +5836,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6400,20 +5873,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6438,24 +5908,21 @@
         <v>10096.74715365001</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
         <v>988</v>
       </c>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6480,22 +5947,21 @@
         <v>8768.747153650012</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>986.7</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6520,24 +5986,21 @@
         <v>6547.747153650012</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
         <v>986</v>
       </c>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6562,24 +6025,19 @@
         <v>7127.747153650012</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>984</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6604,24 +6062,21 @@
         <v>7752.747153650012</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
         <v>986</v>
       </c>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6646,24 +6101,21 @@
         <v>8026.617153650012</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
         <v>987</v>
       </c>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6688,24 +6140,21 @@
         <v>9602.980753650012</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
         <v>988</v>
       </c>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6730,24 +6179,19 @@
         <v>9602.980753650012</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>989</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6772,24 +6216,21 @@
         <v>9032.980753650012</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
         <v>989</v>
       </c>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6814,24 +6255,19 @@
         <v>9374.118553650012</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>986</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6856,24 +6292,19 @@
         <v>9374.118553650012</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>989</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6900,20 +6331,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6940,20 +6368,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6980,20 +6405,17 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7020,20 +6442,17 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7060,20 +6479,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7100,20 +6516,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7140,20 +6553,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7180,20 +6590,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7220,20 +6627,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7260,20 +6664,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7300,20 +6701,17 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7340,20 +6738,17 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7378,22 +6773,21 @@
         <v>14599.49275365001</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7418,22 +6812,21 @@
         <v>13549.49275365001</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7458,24 +6851,19 @@
         <v>13094.49275365001</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="n">
-        <v>983</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7500,24 +6888,21 @@
         <v>13292.33975365001</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="n">
         <v>980</v>
       </c>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7542,24 +6927,21 @@
         <v>14791.05175365001</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
         <v>991</v>
       </c>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7584,22 +6966,21 @@
         <v>15074.91395365001</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7624,22 +7005,21 @@
         <v>15074.91395365001</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7664,22 +7044,21 @@
         <v>15190.95155365001</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7704,22 +7083,21 @@
         <v>15340.95155365001</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>996</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7744,22 +7122,21 @@
         <v>15340.95155365001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>997</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7784,22 +7161,21 @@
         <v>16132.68285365001</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>997</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7824,24 +7200,21 @@
         <v>16502.68285365001</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="n">
         <v>998</v>
       </c>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7866,22 +7239,21 @@
         <v>21037.68285365001</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7906,22 +7278,21 @@
         <v>19623.83055365001</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7948,20 +7319,17 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7988,20 +7356,17 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8028,20 +7393,17 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8066,22 +7428,21 @@
         <v>19420.79055365001</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8108,20 +7469,17 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8148,20 +7506,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8188,20 +7543,17 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8226,22 +7578,21 @@
         <v>19528.89055365001</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8268,20 +7619,17 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8308,20 +7656,17 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8348,20 +7693,17 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8388,20 +7730,17 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8428,20 +7767,17 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8466,22 +7802,21 @@
         <v>12454.53675365001</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
+      <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8506,22 +7841,21 @@
         <v>12454.53675365001</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
+      <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8546,22 +7880,21 @@
         <v>9962.393453650009</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
+      <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8586,24 +7919,21 @@
         <v>9962.393453650009</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="n">
         <v>1003</v>
       </c>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8628,24 +7958,21 @@
         <v>9962.393453650009</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="n">
         <v>1003</v>
       </c>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8670,24 +7997,21 @@
         <v>9962.393453650009</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="n">
         <v>1003</v>
       </c>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8712,24 +8036,21 @@
         <v>9762.393453650009</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="n">
         <v>1003</v>
       </c>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8754,24 +8075,21 @@
         <v>11562.82345365001</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="n">
         <v>1002</v>
       </c>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8796,24 +8114,21 @@
         <v>10499.82345365001</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="n">
         <v>1003</v>
       </c>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8838,24 +8153,21 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="n">
         <v>1002</v>
       </c>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8880,24 +8192,21 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="n">
         <v>1003</v>
       </c>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8922,24 +8231,21 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="n">
         <v>1003</v>
       </c>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8964,26 +8270,23 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="n">
         <v>1003</v>
       </c>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-25 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1441,7 +1441,7 @@
         <v>41998.3062</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>42233.5857</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>47054.28801126999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>47532.02451126999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>49134.52451126999</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>49092.07641126999</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>48086.61431126999</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>48054.69711126999</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>48054.69711126999</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>48086.59711126999</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>48318.41391126999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>48317.15411126999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>49662.72771127</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>49617.61641127</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>50774.18031127</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>51073.97011127</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>52059.15251127</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>51955.34171127</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>51955.34171127</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>50660.44671127</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>51377.99171127</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>51377.99171127</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>51377.99171127</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>51377.99171127</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>50480.36801127</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>50391.33291127</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>50391.33291127</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>50391.33291127</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>50391.33291127</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>50391.33291127</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>50391.33291127</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>50391.33291127</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>45458.42271127</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>40581.02041127</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>36373.78401127</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>33581.50691127</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>41430.07911127</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>41356.88041127</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>41445.72211127</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>40814.02221127</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>40643.35251127</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>40033.35251127</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>39904.32671127</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>39976.24211127</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>40886.57541126999</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>41062.01361126999</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>39933.17491126999</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>38178.17491126999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>36051.96621126999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>36227.32471126999</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>29586.3377593</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>25934.87805365001</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>24836.74625365001</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5269,1560 +5269,1370 @@
         <v>10697.24005365001</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
         <v>990.5</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
+      <c r="C149" t="n">
+        <v>990.5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>990.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>990.5</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2202</v>
+      </c>
+      <c r="G149" t="n">
+        <v>8495.240053650014</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>990.5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>995</v>
+      </c>
+      <c r="D150" t="n">
+        <v>995</v>
+      </c>
+      <c r="E150" t="n">
+        <v>990.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3004.4345</v>
+      </c>
+      <c r="G150" t="n">
+        <v>11499.67455365001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>991</v>
+      </c>
+      <c r="C151" t="n">
+        <v>990.4</v>
+      </c>
+      <c r="D151" t="n">
+        <v>993</v>
+      </c>
+      <c r="E151" t="n">
+        <v>990.4</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1547</v>
+      </c>
+      <c r="G151" t="n">
+        <v>9952.674553650013</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>990.4</v>
+      </c>
+      <c r="C152" t="n">
+        <v>992</v>
+      </c>
+      <c r="D152" t="n">
+        <v>992</v>
+      </c>
+      <c r="E152" t="n">
+        <v>990.4</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1820</v>
+      </c>
+      <c r="G152" t="n">
+        <v>11772.67455365001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>990</v>
+      </c>
+      <c r="C153" t="n">
+        <v>989.1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>990</v>
+      </c>
+      <c r="E153" t="n">
+        <v>989.1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1013.3078</v>
+      </c>
+      <c r="G153" t="n">
+        <v>10759.36675365001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>990</v>
+      </c>
+      <c r="C154" t="n">
+        <v>990</v>
+      </c>
+      <c r="D154" t="n">
+        <v>990</v>
+      </c>
+      <c r="E154" t="n">
+        <v>989</v>
+      </c>
+      <c r="F154" t="n">
+        <v>6262.6922</v>
+      </c>
+      <c r="G154" t="n">
+        <v>17022.05895365001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>990</v>
+      </c>
+      <c r="C155" t="n">
+        <v>990</v>
+      </c>
+      <c r="D155" t="n">
+        <v>990</v>
+      </c>
+      <c r="E155" t="n">
+        <v>990</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2334</v>
+      </c>
+      <c r="G155" t="n">
+        <v>17022.05895365001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>990</v>
+      </c>
+      <c r="C156" t="n">
+        <v>992</v>
+      </c>
+      <c r="D156" t="n">
+        <v>992</v>
+      </c>
+      <c r="E156" t="n">
+        <v>988</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1151.7739</v>
+      </c>
+      <c r="G156" t="n">
+        <v>18173.83285365001</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>989</v>
+      </c>
+      <c r="C157" t="n">
+        <v>990</v>
+      </c>
+      <c r="D157" t="n">
+        <v>990</v>
+      </c>
+      <c r="E157" t="n">
+        <v>988</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2543</v>
+      </c>
+      <c r="G157" t="n">
+        <v>15630.83285365001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>990</v>
+      </c>
+      <c r="C158" t="n">
+        <v>989</v>
+      </c>
+      <c r="D158" t="n">
+        <v>990</v>
+      </c>
+      <c r="E158" t="n">
+        <v>989</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1891.0857</v>
+      </c>
+      <c r="G158" t="n">
+        <v>13739.74715365001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>989</v>
+      </c>
+      <c r="C159" t="n">
+        <v>989</v>
+      </c>
+      <c r="D159" t="n">
+        <v>989</v>
+      </c>
+      <c r="E159" t="n">
+        <v>989</v>
+      </c>
+      <c r="F159" t="n">
+        <v>100</v>
+      </c>
+      <c r="G159" t="n">
+        <v>13739.74715365001</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>988.1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>988</v>
+      </c>
+      <c r="D160" t="n">
+        <v>988.1</v>
+      </c>
+      <c r="E160" t="n">
+        <v>988</v>
+      </c>
+      <c r="F160" t="n">
+        <v>283</v>
+      </c>
+      <c r="G160" t="n">
+        <v>13456.74715365001</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>989</v>
+      </c>
+      <c r="C161" t="n">
+        <v>989</v>
+      </c>
+      <c r="D161" t="n">
+        <v>989</v>
+      </c>
+      <c r="E161" t="n">
+        <v>989</v>
+      </c>
+      <c r="F161" t="n">
+        <v>345</v>
+      </c>
+      <c r="G161" t="n">
+        <v>13801.74715365001</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>989</v>
+      </c>
+      <c r="C162" t="n">
+        <v>989</v>
+      </c>
+      <c r="D162" t="n">
+        <v>989</v>
+      </c>
+      <c r="E162" t="n">
+        <v>989</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1830</v>
+      </c>
+      <c r="G162" t="n">
+        <v>13801.74715365001</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>988.1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>988</v>
+      </c>
+      <c r="D163" t="n">
+        <v>988.1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>988</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1529</v>
+      </c>
+      <c r="G163" t="n">
+        <v>12272.74715365001</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>988</v>
+      </c>
+      <c r="C164" t="n">
+        <v>988</v>
+      </c>
+      <c r="D164" t="n">
+        <v>989</v>
+      </c>
+      <c r="E164" t="n">
+        <v>987.3</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2196.13</v>
+      </c>
+      <c r="G164" t="n">
+        <v>12272.74715365001</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>987.2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>986.7</v>
+      </c>
+      <c r="D165" t="n">
+        <v>987.2</v>
+      </c>
+      <c r="E165" t="n">
+        <v>986.7</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2176</v>
+      </c>
+      <c r="G165" t="n">
+        <v>10096.74715365001</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>986.6</v>
+      </c>
+      <c r="C166" t="n">
+        <v>986</v>
+      </c>
+      <c r="D166" t="n">
+        <v>987</v>
+      </c>
+      <c r="E166" t="n">
+        <v>986</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1328</v>
+      </c>
+      <c r="G166" t="n">
+        <v>8768.747153650012</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>984.7</v>
+      </c>
+      <c r="C167" t="n">
+        <v>984</v>
+      </c>
+      <c r="D167" t="n">
+        <v>985</v>
+      </c>
+      <c r="E167" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2221</v>
+      </c>
+      <c r="G167" t="n">
+        <v>6547.747153650012</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>984</v>
+      </c>
+      <c r="C168" t="n">
+        <v>986</v>
+      </c>
+      <c r="D168" t="n">
+        <v>986</v>
+      </c>
+      <c r="E168" t="n">
+        <v>984</v>
+      </c>
+      <c r="F168" t="n">
+        <v>580</v>
+      </c>
+      <c r="G168" t="n">
+        <v>7127.747153650012</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>986</v>
+      </c>
+      <c r="C169" t="n">
+        <v>987</v>
+      </c>
+      <c r="D169" t="n">
+        <v>987</v>
+      </c>
+      <c r="E169" t="n">
+        <v>986</v>
+      </c>
+      <c r="F169" t="n">
+        <v>625</v>
+      </c>
+      <c r="G169" t="n">
+        <v>7752.747153650012</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>988</v>
+      </c>
+      <c r="C170" t="n">
+        <v>988</v>
+      </c>
+      <c r="D170" t="n">
+        <v>988</v>
+      </c>
+      <c r="E170" t="n">
+        <v>988</v>
+      </c>
+      <c r="F170" t="n">
+        <v>273.87</v>
+      </c>
+      <c r="G170" t="n">
+        <v>8026.617153650012</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>989</v>
+      </c>
+      <c r="C171" t="n">
+        <v>989</v>
+      </c>
+      <c r="D171" t="n">
+        <v>989</v>
+      </c>
+      <c r="E171" t="n">
+        <v>989</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1576.3636</v>
+      </c>
+      <c r="G171" t="n">
+        <v>9602.980753650012</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>989</v>
+      </c>
+      <c r="C172" t="n">
+        <v>989</v>
+      </c>
+      <c r="D172" t="n">
+        <v>989</v>
+      </c>
+      <c r="E172" t="n">
+        <v>989</v>
+      </c>
+      <c r="F172" t="n">
+        <v>902.5007000000001</v>
+      </c>
+      <c r="G172" t="n">
+        <v>9602.980753650012</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>986</v>
+      </c>
+      <c r="C173" t="n">
+        <v>986</v>
+      </c>
+      <c r="D173" t="n">
+        <v>986</v>
+      </c>
+      <c r="E173" t="n">
+        <v>986</v>
+      </c>
+      <c r="F173" t="n">
+        <v>570</v>
+      </c>
+      <c r="G173" t="n">
+        <v>9032.980753650012</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>989</v>
+      </c>
+      <c r="C174" t="n">
+        <v>989</v>
+      </c>
+      <c r="D174" t="n">
+        <v>989</v>
+      </c>
+      <c r="E174" t="n">
+        <v>989</v>
+      </c>
+      <c r="F174" t="n">
+        <v>341.1378</v>
+      </c>
+      <c r="G174" t="n">
+        <v>9374.118553650012</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>989</v>
+      </c>
+      <c r="C175" t="n">
+        <v>989</v>
+      </c>
+      <c r="D175" t="n">
+        <v>989</v>
+      </c>
+      <c r="E175" t="n">
+        <v>989</v>
+      </c>
+      <c r="F175" t="n">
+        <v>753.5481</v>
+      </c>
+      <c r="G175" t="n">
+        <v>9374.118553650012</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>989</v>
+      </c>
+      <c r="C176" t="n">
+        <v>989</v>
+      </c>
+      <c r="D176" t="n">
+        <v>989</v>
+      </c>
+      <c r="E176" t="n">
+        <v>989</v>
+      </c>
+      <c r="F176" t="n">
+        <v>350.1504</v>
+      </c>
+      <c r="G176" t="n">
+        <v>9374.118553650012</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>989</v>
+      </c>
+      <c r="C177" t="n">
+        <v>989</v>
+      </c>
+      <c r="D177" t="n">
+        <v>989</v>
+      </c>
+      <c r="E177" t="n">
+        <v>989</v>
+      </c>
+      <c r="F177" t="n">
+        <v>355.8579</v>
+      </c>
+      <c r="G177" t="n">
+        <v>9374.118553650012</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>989</v>
+      </c>
+      <c r="C178" t="n">
+        <v>989</v>
+      </c>
+      <c r="D178" t="n">
+        <v>989</v>
+      </c>
+      <c r="E178" t="n">
+        <v>989</v>
+      </c>
+      <c r="F178" t="n">
+        <v>44.246</v>
+      </c>
+      <c r="G178" t="n">
+        <v>9374.118553650012</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>989</v>
+      </c>
+      <c r="C179" t="n">
+        <v>989</v>
+      </c>
+      <c r="D179" t="n">
+        <v>989</v>
+      </c>
+      <c r="E179" t="n">
+        <v>989</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1728.0284</v>
+      </c>
+      <c r="G179" t="n">
+        <v>9374.118553650012</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>989</v>
+      </c>
+      <c r="C180" t="n">
+        <v>989</v>
+      </c>
+      <c r="D180" t="n">
+        <v>989</v>
+      </c>
+      <c r="E180" t="n">
+        <v>989</v>
+      </c>
+      <c r="F180" t="n">
+        <v>3945.2335</v>
+      </c>
+      <c r="G180" t="n">
+        <v>9374.118553650012</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="C181" t="n">
+        <v>981</v>
+      </c>
+      <c r="D181" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="E181" t="n">
+        <v>981</v>
+      </c>
+      <c r="F181" t="n">
+        <v>321.9</v>
+      </c>
+      <c r="G181" t="n">
+        <v>9052.218553650013</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>984.8</v>
+      </c>
+      <c r="C182" t="n">
+        <v>984.8</v>
+      </c>
+      <c r="D182" t="n">
+        <v>984.8</v>
+      </c>
+      <c r="E182" t="n">
+        <v>984.8</v>
+      </c>
+      <c r="F182" t="n">
+        <v>85.17319999999999</v>
+      </c>
+      <c r="G182" t="n">
+        <v>9137.391753650012</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>979</v>
+      </c>
+      <c r="C183" t="n">
+        <v>984.9</v>
+      </c>
+      <c r="D183" t="n">
+        <v>984.9</v>
+      </c>
+      <c r="E183" t="n">
+        <v>979</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2109.7322</v>
+      </c>
+      <c r="G183" t="n">
+        <v>11247.12395365001</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>986</v>
+      </c>
+      <c r="C184" t="n">
+        <v>986</v>
+      </c>
+      <c r="D184" t="n">
+        <v>986</v>
+      </c>
+      <c r="E184" t="n">
+        <v>986</v>
+      </c>
+      <c r="F184" t="n">
+        <v>57</v>
+      </c>
+      <c r="G184" t="n">
+        <v>11304.12395365001</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>989</v>
+      </c>
+      <c r="C185" t="n">
+        <v>989</v>
+      </c>
+      <c r="D185" t="n">
+        <v>989</v>
+      </c>
+      <c r="E185" t="n">
+        <v>989</v>
+      </c>
+      <c r="F185" t="n">
+        <v>3295.3688</v>
+      </c>
+      <c r="G185" t="n">
+        <v>14599.49275365001</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>989</v>
+      </c>
+      <c r="C186" t="n">
+        <v>989</v>
+      </c>
+      <c r="D186" t="n">
+        <v>989</v>
+      </c>
+      <c r="E186" t="n">
+        <v>989</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1383.72</v>
+      </c>
+      <c r="G186" t="n">
+        <v>14599.49275365001</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>989</v>
+      </c>
+      <c r="C187" t="n">
+        <v>989</v>
+      </c>
+      <c r="D187" t="n">
+        <v>989</v>
+      </c>
+      <c r="E187" t="n">
+        <v>989</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1013.4832</v>
+      </c>
+      <c r="G187" t="n">
+        <v>14599.49275365001</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>989</v>
+      </c>
+      <c r="C188" t="n">
+        <v>989</v>
+      </c>
+      <c r="D188" t="n">
+        <v>989</v>
+      </c>
+      <c r="E188" t="n">
+        <v>989</v>
+      </c>
+      <c r="F188" t="n">
+        <v>778.2759</v>
+      </c>
+      <c r="G188" t="n">
+        <v>14599.49275365001</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>985</v>
+      </c>
+      <c r="C189" t="n">
+        <v>983</v>
+      </c>
+      <c r="D189" t="n">
+        <v>985</v>
+      </c>
+      <c r="E189" t="n">
+        <v>983</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G189" t="n">
+        <v>13549.49275365001</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>989</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>990.5</v>
-      </c>
-      <c r="C149" t="n">
-        <v>990.5</v>
-      </c>
-      <c r="D149" t="n">
-        <v>990.5</v>
-      </c>
-      <c r="E149" t="n">
-        <v>990.5</v>
-      </c>
-      <c r="F149" t="n">
-        <v>2202</v>
-      </c>
-      <c r="G149" t="n">
-        <v>8495.240053650014</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>992</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>990.5</v>
-      </c>
-      <c r="C150" t="n">
-        <v>995</v>
-      </c>
-      <c r="D150" t="n">
-        <v>995</v>
-      </c>
-      <c r="E150" t="n">
-        <v>990.5</v>
-      </c>
-      <c r="F150" t="n">
-        <v>3004.4345</v>
-      </c>
-      <c r="G150" t="n">
-        <v>11499.67455365001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>990.5</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>991</v>
-      </c>
-      <c r="C151" t="n">
-        <v>990.4</v>
-      </c>
-      <c r="D151" t="n">
-        <v>993</v>
-      </c>
-      <c r="E151" t="n">
-        <v>990.4</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1547</v>
-      </c>
-      <c r="G151" t="n">
-        <v>9952.674553650013</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>995</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>990.4</v>
-      </c>
-      <c r="C152" t="n">
-        <v>992</v>
-      </c>
-      <c r="D152" t="n">
-        <v>992</v>
-      </c>
-      <c r="E152" t="n">
-        <v>990.4</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1820</v>
-      </c>
-      <c r="G152" t="n">
-        <v>11772.67455365001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>990.4</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>990</v>
-      </c>
-      <c r="C153" t="n">
-        <v>989.1</v>
-      </c>
-      <c r="D153" t="n">
-        <v>990</v>
-      </c>
-      <c r="E153" t="n">
-        <v>989.1</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1013.3078</v>
-      </c>
-      <c r="G153" t="n">
-        <v>10759.36675365001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>990</v>
-      </c>
-      <c r="C154" t="n">
-        <v>990</v>
-      </c>
-      <c r="D154" t="n">
-        <v>990</v>
-      </c>
-      <c r="E154" t="n">
-        <v>989</v>
-      </c>
-      <c r="F154" t="n">
-        <v>6262.6922</v>
-      </c>
-      <c r="G154" t="n">
-        <v>17022.05895365001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>990</v>
-      </c>
-      <c r="C155" t="n">
-        <v>990</v>
-      </c>
-      <c r="D155" t="n">
-        <v>990</v>
-      </c>
-      <c r="E155" t="n">
-        <v>990</v>
-      </c>
-      <c r="F155" t="n">
-        <v>2334</v>
-      </c>
-      <c r="G155" t="n">
-        <v>17022.05895365001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>990</v>
-      </c>
-      <c r="C156" t="n">
-        <v>992</v>
-      </c>
-      <c r="D156" t="n">
-        <v>992</v>
-      </c>
-      <c r="E156" t="n">
-        <v>988</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1151.7739</v>
-      </c>
-      <c r="G156" t="n">
-        <v>18173.83285365001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>989</v>
-      </c>
-      <c r="C157" t="n">
-        <v>990</v>
-      </c>
-      <c r="D157" t="n">
-        <v>990</v>
-      </c>
-      <c r="E157" t="n">
-        <v>988</v>
-      </c>
-      <c r="F157" t="n">
-        <v>2543</v>
-      </c>
-      <c r="G157" t="n">
-        <v>15630.83285365001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>990</v>
-      </c>
-      <c r="C158" t="n">
-        <v>989</v>
-      </c>
-      <c r="D158" t="n">
-        <v>990</v>
-      </c>
-      <c r="E158" t="n">
-        <v>989</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1891.0857</v>
-      </c>
-      <c r="G158" t="n">
-        <v>13739.74715365001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>989</v>
-      </c>
-      <c r="C159" t="n">
-        <v>989</v>
-      </c>
-      <c r="D159" t="n">
-        <v>989</v>
-      </c>
-      <c r="E159" t="n">
-        <v>989</v>
-      </c>
-      <c r="F159" t="n">
-        <v>100</v>
-      </c>
-      <c r="G159" t="n">
-        <v>13739.74715365001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>988.1</v>
-      </c>
-      <c r="C160" t="n">
-        <v>988</v>
-      </c>
-      <c r="D160" t="n">
-        <v>988.1</v>
-      </c>
-      <c r="E160" t="n">
-        <v>988</v>
-      </c>
-      <c r="F160" t="n">
-        <v>283</v>
-      </c>
-      <c r="G160" t="n">
-        <v>13456.74715365001</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>989</v>
-      </c>
-      <c r="C161" t="n">
-        <v>989</v>
-      </c>
-      <c r="D161" t="n">
-        <v>989</v>
-      </c>
-      <c r="E161" t="n">
-        <v>989</v>
-      </c>
-      <c r="F161" t="n">
-        <v>345</v>
-      </c>
-      <c r="G161" t="n">
-        <v>13801.74715365001</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>989</v>
-      </c>
-      <c r="C162" t="n">
-        <v>989</v>
-      </c>
-      <c r="D162" t="n">
-        <v>989</v>
-      </c>
-      <c r="E162" t="n">
-        <v>989</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1830</v>
-      </c>
-      <c r="G162" t="n">
-        <v>13801.74715365001</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>988.1</v>
-      </c>
-      <c r="C163" t="n">
-        <v>988</v>
-      </c>
-      <c r="D163" t="n">
-        <v>988.1</v>
-      </c>
-      <c r="E163" t="n">
-        <v>988</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1529</v>
-      </c>
-      <c r="G163" t="n">
-        <v>12272.74715365001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>988</v>
-      </c>
-      <c r="C164" t="n">
-        <v>988</v>
-      </c>
-      <c r="D164" t="n">
-        <v>989</v>
-      </c>
-      <c r="E164" t="n">
-        <v>987.3</v>
-      </c>
-      <c r="F164" t="n">
-        <v>2196.13</v>
-      </c>
-      <c r="G164" t="n">
-        <v>12272.74715365001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>987.2</v>
-      </c>
-      <c r="C165" t="n">
-        <v>986.7</v>
-      </c>
-      <c r="D165" t="n">
-        <v>987.2</v>
-      </c>
-      <c r="E165" t="n">
-        <v>986.7</v>
-      </c>
-      <c r="F165" t="n">
-        <v>2176</v>
-      </c>
-      <c r="G165" t="n">
-        <v>10096.74715365001</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>988</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>986.6</v>
-      </c>
-      <c r="C166" t="n">
-        <v>986</v>
-      </c>
-      <c r="D166" t="n">
-        <v>987</v>
-      </c>
-      <c r="E166" t="n">
-        <v>986</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1328</v>
-      </c>
-      <c r="G166" t="n">
-        <v>8768.747153650012</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>986.7</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>984.7</v>
-      </c>
-      <c r="C167" t="n">
-        <v>984</v>
-      </c>
-      <c r="D167" t="n">
-        <v>985</v>
-      </c>
-      <c r="E167" t="n">
-        <v>983.5</v>
-      </c>
-      <c r="F167" t="n">
-        <v>2221</v>
-      </c>
-      <c r="G167" t="n">
-        <v>6547.747153650012</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>986</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>984</v>
-      </c>
-      <c r="C168" t="n">
-        <v>986</v>
-      </c>
-      <c r="D168" t="n">
-        <v>986</v>
-      </c>
-      <c r="E168" t="n">
-        <v>984</v>
-      </c>
-      <c r="F168" t="n">
-        <v>580</v>
-      </c>
-      <c r="G168" t="n">
-        <v>7127.747153650012</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>986</v>
-      </c>
-      <c r="C169" t="n">
-        <v>987</v>
-      </c>
-      <c r="D169" t="n">
-        <v>987</v>
-      </c>
-      <c r="E169" t="n">
-        <v>986</v>
-      </c>
-      <c r="F169" t="n">
-        <v>625</v>
-      </c>
-      <c r="G169" t="n">
-        <v>7752.747153650012</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>986</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>988</v>
-      </c>
-      <c r="C170" t="n">
-        <v>988</v>
-      </c>
-      <c r="D170" t="n">
-        <v>988</v>
-      </c>
-      <c r="E170" t="n">
-        <v>988</v>
-      </c>
-      <c r="F170" t="n">
-        <v>273.87</v>
-      </c>
-      <c r="G170" t="n">
-        <v>8026.617153650012</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>987</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>989</v>
-      </c>
-      <c r="C171" t="n">
-        <v>989</v>
-      </c>
-      <c r="D171" t="n">
-        <v>989</v>
-      </c>
-      <c r="E171" t="n">
-        <v>989</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1576.3636</v>
-      </c>
-      <c r="G171" t="n">
-        <v>9602.980753650012</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>988</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>989</v>
-      </c>
-      <c r="C172" t="n">
-        <v>989</v>
-      </c>
-      <c r="D172" t="n">
-        <v>989</v>
-      </c>
-      <c r="E172" t="n">
-        <v>989</v>
-      </c>
-      <c r="F172" t="n">
-        <v>902.5007000000001</v>
-      </c>
-      <c r="G172" t="n">
-        <v>9602.980753650012</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>986</v>
-      </c>
-      <c r="C173" t="n">
-        <v>986</v>
-      </c>
-      <c r="D173" t="n">
-        <v>986</v>
-      </c>
-      <c r="E173" t="n">
-        <v>986</v>
-      </c>
-      <c r="F173" t="n">
-        <v>570</v>
-      </c>
-      <c r="G173" t="n">
-        <v>9032.980753650012</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>989</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>989</v>
-      </c>
-      <c r="C174" t="n">
-        <v>989</v>
-      </c>
-      <c r="D174" t="n">
-        <v>989</v>
-      </c>
-      <c r="E174" t="n">
-        <v>989</v>
-      </c>
-      <c r="F174" t="n">
-        <v>341.1378</v>
-      </c>
-      <c r="G174" t="n">
-        <v>9374.118553650012</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>989</v>
-      </c>
-      <c r="C175" t="n">
-        <v>989</v>
-      </c>
-      <c r="D175" t="n">
-        <v>989</v>
-      </c>
-      <c r="E175" t="n">
-        <v>989</v>
-      </c>
-      <c r="F175" t="n">
-        <v>753.5481</v>
-      </c>
-      <c r="G175" t="n">
-        <v>9374.118553650012</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>989</v>
-      </c>
-      <c r="C176" t="n">
-        <v>989</v>
-      </c>
-      <c r="D176" t="n">
-        <v>989</v>
-      </c>
-      <c r="E176" t="n">
-        <v>989</v>
-      </c>
-      <c r="F176" t="n">
-        <v>350.1504</v>
-      </c>
-      <c r="G176" t="n">
-        <v>9374.118553650012</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>989</v>
-      </c>
-      <c r="C177" t="n">
-        <v>989</v>
-      </c>
-      <c r="D177" t="n">
-        <v>989</v>
-      </c>
-      <c r="E177" t="n">
-        <v>989</v>
-      </c>
-      <c r="F177" t="n">
-        <v>355.8579</v>
-      </c>
-      <c r="G177" t="n">
-        <v>9374.118553650012</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>989</v>
-      </c>
-      <c r="C178" t="n">
-        <v>989</v>
-      </c>
-      <c r="D178" t="n">
-        <v>989</v>
-      </c>
-      <c r="E178" t="n">
-        <v>989</v>
-      </c>
-      <c r="F178" t="n">
-        <v>44.246</v>
-      </c>
-      <c r="G178" t="n">
-        <v>9374.118553650012</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>989</v>
-      </c>
-      <c r="C179" t="n">
-        <v>989</v>
-      </c>
-      <c r="D179" t="n">
-        <v>989</v>
-      </c>
-      <c r="E179" t="n">
-        <v>989</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1728.0284</v>
-      </c>
-      <c r="G179" t="n">
-        <v>9374.118553650012</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>989</v>
-      </c>
-      <c r="C180" t="n">
-        <v>989</v>
-      </c>
-      <c r="D180" t="n">
-        <v>989</v>
-      </c>
-      <c r="E180" t="n">
-        <v>989</v>
-      </c>
-      <c r="F180" t="n">
-        <v>3945.2335</v>
-      </c>
-      <c r="G180" t="n">
-        <v>9374.118553650012</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>983.5</v>
-      </c>
-      <c r="C181" t="n">
-        <v>981</v>
-      </c>
-      <c r="D181" t="n">
-        <v>983.5</v>
-      </c>
-      <c r="E181" t="n">
-        <v>981</v>
-      </c>
-      <c r="F181" t="n">
-        <v>321.9</v>
-      </c>
-      <c r="G181" t="n">
-        <v>9052.218553650013</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>984.8</v>
-      </c>
-      <c r="C182" t="n">
-        <v>984.8</v>
-      </c>
-      <c r="D182" t="n">
-        <v>984.8</v>
-      </c>
-      <c r="E182" t="n">
-        <v>984.8</v>
-      </c>
-      <c r="F182" t="n">
-        <v>85.17319999999999</v>
-      </c>
-      <c r="G182" t="n">
-        <v>9137.391753650012</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>979</v>
-      </c>
-      <c r="C183" t="n">
-        <v>984.9</v>
-      </c>
-      <c r="D183" t="n">
-        <v>984.9</v>
-      </c>
-      <c r="E183" t="n">
-        <v>979</v>
-      </c>
-      <c r="F183" t="n">
-        <v>2109.7322</v>
-      </c>
-      <c r="G183" t="n">
-        <v>11247.12395365001</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>986</v>
-      </c>
-      <c r="C184" t="n">
-        <v>986</v>
-      </c>
-      <c r="D184" t="n">
-        <v>986</v>
-      </c>
-      <c r="E184" t="n">
-        <v>986</v>
-      </c>
-      <c r="F184" t="n">
-        <v>57</v>
-      </c>
-      <c r="G184" t="n">
-        <v>11304.12395365001</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>989</v>
-      </c>
-      <c r="C185" t="n">
-        <v>989</v>
-      </c>
-      <c r="D185" t="n">
-        <v>989</v>
-      </c>
-      <c r="E185" t="n">
-        <v>989</v>
-      </c>
-      <c r="F185" t="n">
-        <v>3295.3688</v>
-      </c>
-      <c r="G185" t="n">
-        <v>14599.49275365001</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>989</v>
-      </c>
-      <c r="C186" t="n">
-        <v>989</v>
-      </c>
-      <c r="D186" t="n">
-        <v>989</v>
-      </c>
-      <c r="E186" t="n">
-        <v>989</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1383.72</v>
-      </c>
-      <c r="G186" t="n">
-        <v>14599.49275365001</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>989</v>
-      </c>
-      <c r="C187" t="n">
-        <v>989</v>
-      </c>
-      <c r="D187" t="n">
-        <v>989</v>
-      </c>
-      <c r="E187" t="n">
-        <v>989</v>
-      </c>
-      <c r="F187" t="n">
-        <v>1013.4832</v>
-      </c>
-      <c r="G187" t="n">
-        <v>14599.49275365001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>989</v>
-      </c>
-      <c r="C188" t="n">
-        <v>989</v>
-      </c>
-      <c r="D188" t="n">
-        <v>989</v>
-      </c>
-      <c r="E188" t="n">
-        <v>989</v>
-      </c>
-      <c r="F188" t="n">
-        <v>778.2759</v>
-      </c>
-      <c r="G188" t="n">
-        <v>14599.49275365001</v>
-      </c>
-      <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>989</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>985</v>
-      </c>
-      <c r="C189" t="n">
-        <v>983</v>
-      </c>
-      <c r="D189" t="n">
-        <v>985</v>
-      </c>
-      <c r="E189" t="n">
-        <v>983</v>
-      </c>
-      <c r="F189" t="n">
-        <v>1050</v>
-      </c>
-      <c r="G189" t="n">
-        <v>13549.49275365001</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>989</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6851,9 +6661,11 @@
         <v>13094.49275365001</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>983</v>
+      </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -6888,7 +6700,7 @@
         <v>13292.33975365001</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>980</v>
@@ -6927,7 +6739,7 @@
         <v>14791.05175365001</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>991</v>
@@ -6966,7 +6778,7 @@
         <v>15074.91395365001</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>992</v>
@@ -7005,7 +6817,7 @@
         <v>15074.91395365001</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>994</v>
@@ -7044,11 +6856,9 @@
         <v>15190.95155365001</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -7083,11 +6893,9 @@
         <v>15340.95155365001</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -7122,11 +6930,9 @@
         <v>15340.95155365001</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -7161,11 +6967,9 @@
         <v>16132.68285365001</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -7200,11 +7004,9 @@
         <v>16502.68285365001</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7239,11 +7041,9 @@
         <v>21037.68285365001</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -7278,11 +7078,9 @@
         <v>19623.83055365001</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -7428,11 +7226,9 @@
         <v>19420.79055365001</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
@@ -7578,7 +7374,7 @@
         <v>19528.89055365001</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>1000</v>
@@ -7802,7 +7598,7 @@
         <v>12454.53675365001</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>1005</v>
@@ -7841,11 +7637,9 @@
         <v>12454.53675365001</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>1004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
@@ -7880,11 +7674,9 @@
         <v>9962.393453650009</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>1004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -7919,11 +7711,9 @@
         <v>9962.393453650009</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -7958,7 +7748,7 @@
         <v>9962.393453650009</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>1003</v>
@@ -7997,11 +7787,9 @@
         <v>9962.393453650009</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>1003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
@@ -8036,7 +7824,7 @@
         <v>9762.393453650009</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>1003</v>
@@ -8075,11 +7863,9 @@
         <v>11562.82345365001</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>1002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
@@ -8114,7 +7900,7 @@
         <v>10499.82345365001</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>1003</v>
@@ -8153,7 +7939,7 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>1002</v>
@@ -8192,7 +7978,7 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>1003</v>
@@ -8231,7 +8017,7 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>1003</v>
@@ -8270,7 +8056,7 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>1003</v>
@@ -8287,6 +8073,6 @@
       <c r="M227" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-25 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>34168.2268</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>33125.00769999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>35584.9322</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>35584.9322</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>35584.9322</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>35584.9322</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>36784.9322</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>35778.7588</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>35778.7588</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>42233.5857</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>47054.28801126999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>47532.02451126999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>49134.52451126999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>48054.69711126999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>48054.69711126999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>48086.59711126999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>48318.41391126999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>48317.15411126999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>49662.72771127</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>49617.61641127</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>50774.18031127</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>51073.97011127</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>52059.15251127</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>51955.34171127</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>51955.34171127</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>50660.44671127</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>51377.99171127</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>51377.99171127</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>51377.99171127</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>51377.99171127</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>50480.36801127</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>50391.33291127</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>50391.33291127</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>50391.33291127</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>50391.33291127</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>50391.33291127</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>50391.33291127</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>36373.78401127</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>33581.50691127</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>41430.07911127</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>41356.88041127</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>41445.72211127</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>40814.02221127</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>40643.35251127</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>40033.35251127</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>39904.32671127</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>39976.24211127</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>40886.57541126999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>41062.01361126999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>39933.17491126999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>38178.17491126999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -6127,10 +6127,14 @@
         <v>9374.118553650012</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>986</v>
+      </c>
+      <c r="J174" t="n">
+        <v>986</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
@@ -6160,11 +6164,19 @@
         <v>9374.118553650012</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>989</v>
+      </c>
+      <c r="J175" t="n">
+        <v>986</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +6208,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>986</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6259,10 +6277,14 @@
         <v>9374.118553650012</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>989</v>
+      </c>
+      <c r="J178" t="n">
+        <v>989</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
@@ -6292,11 +6314,19 @@
         <v>9374.118553650012</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>989</v>
+      </c>
+      <c r="J179" t="n">
+        <v>989</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +6358,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>989</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6391,10 +6427,14 @@
         <v>9137.391753650012</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>981</v>
+      </c>
+      <c r="J182" t="n">
+        <v>981</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
@@ -6424,11 +6464,19 @@
         <v>11247.12395365001</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>984.8</v>
+      </c>
+      <c r="J183" t="n">
+        <v>981</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +6505,19 @@
         <v>11304.12395365001</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>984.9</v>
+      </c>
+      <c r="J184" t="n">
+        <v>981</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +6546,19 @@
         <v>14599.49275365001</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>986</v>
+      </c>
+      <c r="J185" t="n">
+        <v>981</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +6587,19 @@
         <v>14599.49275365001</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>989</v>
+      </c>
+      <c r="J186" t="n">
+        <v>981</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +6628,19 @@
         <v>14599.49275365001</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>989</v>
+      </c>
+      <c r="J187" t="n">
+        <v>981</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +6669,19 @@
         <v>14599.49275365001</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>989</v>
+      </c>
+      <c r="J188" t="n">
+        <v>981</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6627,10 +6715,12 @@
       <c r="I189" t="n">
         <v>989</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>981</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L189" t="n">
@@ -6666,7 +6756,9 @@
       <c r="I190" t="n">
         <v>983</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>981</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6705,7 +6797,9 @@
       <c r="I191" t="n">
         <v>980</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>981</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6744,7 +6838,9 @@
       <c r="I192" t="n">
         <v>991</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>981</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6778,12 +6874,12 @@
         <v>15074.91395365001</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>992</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>981</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6817,12 +6913,12 @@
         <v>15074.91395365001</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>994</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>981</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6859,7 +6955,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>981</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6896,7 +6994,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>981</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6933,7 +7033,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>981</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6970,7 +7072,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>981</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7007,7 +7111,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>981</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7044,7 +7150,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>981</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7081,7 +7189,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>981</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7118,7 +7228,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>981</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7155,7 +7267,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>981</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7192,7 +7306,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>981</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7229,7 +7345,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>981</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7266,7 +7384,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>981</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7303,7 +7423,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>981</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7340,7 +7462,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>981</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7374,12 +7498,12 @@
         <v>19528.89055365001</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>981</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7416,7 +7540,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>981</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7453,7 +7579,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>981</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7490,7 +7618,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>981</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7527,7 +7657,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>981</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7564,7 +7696,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>981</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7598,12 +7732,12 @@
         <v>12454.53675365001</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>1005</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>981</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7640,7 +7774,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>981</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7677,7 +7813,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>981</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7714,7 +7852,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>981</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7748,12 +7888,12 @@
         <v>9962.393453650009</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1003</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>981</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7790,7 +7930,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>981</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7824,12 +7966,12 @@
         <v>9762.393453650009</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>1003</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>981</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7866,7 +8008,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>981</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7900,12 +8044,12 @@
         <v>10499.82345365001</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>1003</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>981</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7939,12 +8083,12 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>1002</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>981</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7978,12 +8122,12 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1003</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>981</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8017,12 +8161,12 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>1003</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>981</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8056,12 +8200,12 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>1003</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>981</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8073,6 +8217,6 @@
       <c r="M227" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-25 BackTest WAVES.xlsx
@@ -451,7 +451,7 @@
         <v>34168.2268</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>33125.00769999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>35584.9322</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>35584.9322</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>35584.9322</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>35584.9322</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>36784.9322</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>35778.7588</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>35778.7588</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>42208.3062</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>47532.02451126999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>47620.78531126999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>49134.52451126999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>49092.07641126999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>48086.61431126999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>48054.69711126999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>48054.69711126999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>48086.59711126999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>48051.58751126999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>47928.41391126999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>48318.41391126999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>48317.15411126999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>49662.72771127</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>49617.61641127</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>50774.18031127</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>51073.97011127</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>52059.15251127</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>51955.34171127</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>51955.34171127</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>50660.44671127</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>51377.99171127</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>51377.99171127</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>51377.99171127</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>50480.36801127</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -5962,11 +5962,17 @@
         <v>7752.747153650012</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>986</v>
+      </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6005,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6038,17 @@
         <v>9602.980753650012</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>988</v>
+      </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6081,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6114,17 @@
         <v>9032.980753650012</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>989</v>
+      </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6132,10 +6158,12 @@
       <c r="I174" t="n">
         <v>986</v>
       </c>
-      <c r="J174" t="n">
-        <v>986</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6169,12 +6197,10 @@
       <c r="I175" t="n">
         <v>989</v>
       </c>
-      <c r="J175" t="n">
-        <v>986</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L175" t="n">
@@ -6205,15 +6231,15 @@
         <v>9374.118553650012</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>986</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>989</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L176" t="n">
@@ -6244,11 +6270,17 @@
         <v>9374.118553650012</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>989</v>
+      </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6282,10 +6314,12 @@
       <c r="I178" t="n">
         <v>989</v>
       </c>
-      <c r="J178" t="n">
-        <v>989</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6319,12 +6353,10 @@
       <c r="I179" t="n">
         <v>989</v>
       </c>
-      <c r="J179" t="n">
-        <v>989</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L179" t="n">
@@ -6355,15 +6387,15 @@
         <v>9374.118553650012</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
         <v>989</v>
       </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L180" t="n">
@@ -6394,11 +6426,17 @@
         <v>9052.218553650013</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>989</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6432,10 +6470,12 @@
       <c r="I182" t="n">
         <v>981</v>
       </c>
-      <c r="J182" t="n">
-        <v>981</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6469,12 +6509,10 @@
       <c r="I183" t="n">
         <v>984.8</v>
       </c>
-      <c r="J183" t="n">
-        <v>981</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L183" t="n">
@@ -6510,9 +6548,7 @@
       <c r="I184" t="n">
         <v>984.9</v>
       </c>
-      <c r="J184" t="n">
-        <v>981</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6551,9 +6587,7 @@
       <c r="I185" t="n">
         <v>986</v>
       </c>
-      <c r="J185" t="n">
-        <v>981</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6592,9 +6626,7 @@
       <c r="I186" t="n">
         <v>989</v>
       </c>
-      <c r="J186" t="n">
-        <v>981</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6633,9 +6665,7 @@
       <c r="I187" t="n">
         <v>989</v>
       </c>
-      <c r="J187" t="n">
-        <v>981</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6674,9 +6704,7 @@
       <c r="I188" t="n">
         <v>989</v>
       </c>
-      <c r="J188" t="n">
-        <v>981</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6715,9 +6743,7 @@
       <c r="I189" t="n">
         <v>989</v>
       </c>
-      <c r="J189" t="n">
-        <v>981</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6756,9 +6782,7 @@
       <c r="I190" t="n">
         <v>983</v>
       </c>
-      <c r="J190" t="n">
-        <v>981</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6797,9 +6821,7 @@
       <c r="I191" t="n">
         <v>980</v>
       </c>
-      <c r="J191" t="n">
-        <v>981</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6838,9 +6860,7 @@
       <c r="I192" t="n">
         <v>991</v>
       </c>
-      <c r="J192" t="n">
-        <v>981</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6874,12 +6894,12 @@
         <v>15074.91395365001</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>992</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6913,12 +6933,12 @@
         <v>15074.91395365001</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>994</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6952,12 +6972,12 @@
         <v>15190.95155365001</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>994</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6991,12 +7011,12 @@
         <v>15340.95155365001</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>996</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7030,12 +7050,12 @@
         <v>15340.95155365001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>997</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7069,12 +7089,12 @@
         <v>16132.68285365001</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>997</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7108,12 +7128,12 @@
         <v>16502.68285365001</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>998</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7147,12 +7167,12 @@
         <v>21037.68285365001</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>999</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7186,12 +7206,12 @@
         <v>19623.83055365001</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1005</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7225,12 +7245,12 @@
         <v>19623.83055365001</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7264,12 +7284,12 @@
         <v>19623.83055365001</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7303,12 +7323,12 @@
         <v>19420.79055365001</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7342,12 +7362,12 @@
         <v>19420.79055365001</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>999</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7381,12 +7401,12 @@
         <v>19420.79055365001</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>999</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7420,12 +7440,12 @@
         <v>19425.79055365001</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>999</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7459,12 +7479,12 @@
         <v>19425.79055365001</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7498,12 +7518,12 @@
         <v>19528.89055365001</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7537,12 +7557,12 @@
         <v>18492.71335365001</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1007</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7576,12 +7596,12 @@
         <v>18492.71335365001</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1006</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7615,12 +7635,12 @@
         <v>18492.71335365001</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1006</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7654,12 +7674,12 @@
         <v>16937.85755365001</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1006</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7693,12 +7713,12 @@
         <v>16937.85755365001</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1005</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7732,12 +7752,12 @@
         <v>12454.53675365001</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1005</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7771,12 +7791,12 @@
         <v>12454.53675365001</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1004</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7810,12 +7830,12 @@
         <v>9962.393453650009</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1004</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7849,12 +7869,12 @@
         <v>9962.393453650009</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1003</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7888,12 +7908,12 @@
         <v>9962.393453650009</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1003</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7927,12 +7947,12 @@
         <v>9962.393453650009</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1003</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7966,12 +7986,12 @@
         <v>9762.393453650009</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1003</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8005,12 +8025,12 @@
         <v>11562.82345365001</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1002</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8044,12 +8064,12 @@
         <v>10499.82345365001</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1003</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8083,12 +8103,12 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1002</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8122,12 +8142,12 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1003</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8161,12 +8181,12 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1003</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8200,12 +8220,12 @@
         <v>12014.82345365001</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>981</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1003</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-25 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-25 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M227"/>
+  <dimension ref="A1:L227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3090.2535</v>
       </c>
       <c r="G2" t="n">
-        <v>34168.2268</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>989.2165</v>
       </c>
       <c r="G3" t="n">
-        <v>33179.01029999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>54.0026</v>
       </c>
       <c r="G4" t="n">
-        <v>33125.00769999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>2459.9245</v>
       </c>
       <c r="G5" t="n">
-        <v>35584.9322</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>75</v>
       </c>
       <c r="G6" t="n">
-        <v>35584.9322</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>310</v>
       </c>
       <c r="G7" t="n">
-        <v>35584.9322</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>198.5337</v>
       </c>
       <c r="G8" t="n">
-        <v>35584.9322</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>0.4939</v>
       </c>
       <c r="G9" t="n">
-        <v>35584.9322</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1200</v>
       </c>
       <c r="G10" t="n">
-        <v>36784.9322</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1055.4766</v>
       </c>
       <c r="G11" t="n">
-        <v>35729.45559999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>93.548</v>
       </c>
       <c r="G12" t="n">
-        <v>35729.45559999999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>2116.8056</v>
       </c>
       <c r="G13" t="n">
-        <v>35729.45559999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>49.3032</v>
       </c>
       <c r="G14" t="n">
-        <v>35778.7588</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>1070.321</v>
       </c>
       <c r="G15" t="n">
-        <v>35778.7588</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>68.29179999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>35778.7588</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>620.8194999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>36399.57829999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>239.9786</v>
       </c>
       <c r="G18" t="n">
-        <v>36399.57829999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>557.4672</v>
       </c>
       <c r="G19" t="n">
-        <v>36957.04549999999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>285.3856</v>
       </c>
       <c r="G20" t="n">
-        <v>36957.04549999999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>708.4331</v>
       </c>
       <c r="G21" t="n">
-        <v>36957.04549999999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1014.235</v>
       </c>
       <c r="G22" t="n">
-        <v>37971.28049999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>491.6056</v>
       </c>
       <c r="G23" t="n">
-        <v>38462.8861</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>1676.4043</v>
       </c>
       <c r="G24" t="n">
-        <v>38462.8861</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>1957.1206</v>
       </c>
       <c r="G25" t="n">
-        <v>40420.0067</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>876.6728000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>39543.3339</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>2710</v>
       </c>
       <c r="G27" t="n">
-        <v>42253.3339</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>990</v>
       </c>
       <c r="G28" t="n">
-        <v>42253.3339</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>45.0277</v>
       </c>
       <c r="G29" t="n">
-        <v>42208.3062</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>210</v>
       </c>
       <c r="G30" t="n">
-        <v>41998.3062</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>17.3709</v>
       </c>
       <c r="G31" t="n">
-        <v>41998.3062</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>59.9747</v>
       </c>
       <c r="G32" t="n">
-        <v>41998.3062</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>235.2795</v>
       </c>
       <c r="G33" t="n">
-        <v>42233.5857</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>4820.70231127</v>
       </c>
       <c r="G34" t="n">
-        <v>47054.28801126999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>477.7365</v>
       </c>
       <c r="G35" t="n">
-        <v>47532.02451126999</v>
-      </c>
-      <c r="H35" t="n">
         <v>2</v>
       </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>88.7608</v>
       </c>
       <c r="G36" t="n">
-        <v>47620.78531126999</v>
-      </c>
-      <c r="H36" t="n">
         <v>2</v>
       </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1513.7392</v>
       </c>
       <c r="G37" t="n">
-        <v>49134.52451126999</v>
-      </c>
-      <c r="H37" t="n">
         <v>2</v>
       </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>42.4481</v>
       </c>
       <c r="G38" t="n">
-        <v>49092.07641126999</v>
-      </c>
-      <c r="H38" t="n">
         <v>2</v>
       </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1005.4621</v>
       </c>
       <c r="G39" t="n">
-        <v>48086.61431126999</v>
-      </c>
-      <c r="H39" t="n">
         <v>2</v>
       </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>31.9172</v>
       </c>
       <c r="G40" t="n">
-        <v>48054.69711126999</v>
-      </c>
-      <c r="H40" t="n">
         <v>2</v>
       </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>6.6662</v>
       </c>
       <c r="G41" t="n">
-        <v>48054.69711126999</v>
-      </c>
-      <c r="H41" t="n">
         <v>2</v>
       </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>31.9</v>
       </c>
       <c r="G42" t="n">
-        <v>48086.59711126999</v>
-      </c>
-      <c r="H42" t="n">
         <v>2</v>
       </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>35.0096</v>
       </c>
       <c r="G43" t="n">
-        <v>48051.58751126999</v>
-      </c>
-      <c r="H43" t="n">
         <v>2</v>
       </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>123.1736</v>
       </c>
       <c r="G44" t="n">
-        <v>47928.41391126999</v>
-      </c>
-      <c r="H44" t="n">
         <v>2</v>
       </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>390</v>
       </c>
       <c r="G45" t="n">
-        <v>48318.41391126999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1.2598</v>
       </c>
       <c r="G46" t="n">
-        <v>48317.15411126999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1345.5736</v>
       </c>
       <c r="G47" t="n">
-        <v>49662.72771127</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>45.1113</v>
       </c>
       <c r="G48" t="n">
-        <v>49617.61641127</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>1156.5639</v>
       </c>
       <c r="G49" t="n">
-        <v>50774.18031127</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>299.7898</v>
       </c>
       <c r="G50" t="n">
-        <v>51073.97011127</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>985.1824</v>
       </c>
       <c r="G51" t="n">
-        <v>52059.15251127</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>103.8108</v>
       </c>
       <c r="G52" t="n">
-        <v>51955.34171127</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>2012.0647</v>
       </c>
       <c r="G53" t="n">
-        <v>51955.34171127</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>1294.895</v>
       </c>
       <c r="G54" t="n">
-        <v>50660.44671127</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>717.545</v>
       </c>
       <c r="G55" t="n">
-        <v>51377.99171127</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>5711.7834</v>
       </c>
       <c r="G56" t="n">
-        <v>51377.99171127</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>335.3798</v>
       </c>
       <c r="G57" t="n">
-        <v>51377.99171127</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>795.0701</v>
       </c>
       <c r="G58" t="n">
-        <v>51377.99171127</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>897.6237</v>
       </c>
       <c r="G59" t="n">
-        <v>50480.36801127</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>89.0351</v>
       </c>
       <c r="G60" t="n">
-        <v>50391.33291127</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>407.6339</v>
       </c>
       <c r="G61" t="n">
-        <v>50391.33291127</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>2641.8645</v>
       </c>
       <c r="G62" t="n">
-        <v>50391.33291127</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>1143.4301</v>
       </c>
       <c r="G63" t="n">
-        <v>50391.33291127</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>275</v>
       </c>
       <c r="G64" t="n">
-        <v>50391.33291127</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>119</v>
       </c>
       <c r="G65" t="n">
-        <v>50391.33291127</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>1298.42</v>
       </c>
       <c r="G66" t="n">
-        <v>50391.33291127</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>4932.9102</v>
       </c>
       <c r="G67" t="n">
-        <v>45458.42271127</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>4877.4023</v>
       </c>
       <c r="G68" t="n">
-        <v>40581.02041127</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>4207.2364</v>
       </c>
       <c r="G69" t="n">
-        <v>36373.78401127</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>2792.2771</v>
       </c>
       <c r="G70" t="n">
-        <v>33581.50691127</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>7848.5722</v>
       </c>
       <c r="G71" t="n">
-        <v>41430.07911127</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>73.1987</v>
       </c>
       <c r="G72" t="n">
-        <v>41356.88041127</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>88.8417</v>
       </c>
       <c r="G73" t="n">
-        <v>41445.72211127</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>631.6999</v>
       </c>
       <c r="G74" t="n">
-        <v>40814.02221127</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>170.6697</v>
       </c>
       <c r="G75" t="n">
-        <v>40643.35251127</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>610</v>
       </c>
       <c r="G76" t="n">
-        <v>40033.35251127</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>129.0258</v>
       </c>
       <c r="G77" t="n">
-        <v>39904.32671127</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>71.91540000000001</v>
       </c>
       <c r="G78" t="n">
-        <v>39976.24211127</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>910.3333</v>
       </c>
       <c r="G79" t="n">
-        <v>40886.57541126999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>175.4382</v>
       </c>
       <c r="G80" t="n">
-        <v>41062.01361126999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>1128.8387</v>
       </c>
       <c r="G81" t="n">
-        <v>39933.17491126999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>1755</v>
       </c>
       <c r="G82" t="n">
-        <v>38178.17491126999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>36.5988</v>
       </c>
       <c r="G83" t="n">
-        <v>38141.57611126999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>2089.6099</v>
       </c>
       <c r="G84" t="n">
-        <v>36051.96621126999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>175.3585</v>
       </c>
       <c r="G85" t="n">
-        <v>36227.32471126999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>175.4382</v>
       </c>
       <c r="G86" t="n">
-        <v>36051.88651126999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>4209.9999</v>
       </c>
       <c r="G87" t="n">
-        <v>31841.88661126999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>31831.88661126999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>40.4969</v>
       </c>
       <c r="G89" t="n">
-        <v>31831.88661126999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>69.74209999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>31762.14451126999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>182.5189</v>
       </c>
       <c r="G91" t="n">
-        <v>31579.62561127</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>210</v>
       </c>
       <c r="G92" t="n">
-        <v>31789.62561127</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>6.3644</v>
       </c>
       <c r="G93" t="n">
-        <v>31783.26121127</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>225.8585</v>
       </c>
       <c r="G94" t="n">
-        <v>31557.40271127</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>171.0919</v>
       </c>
       <c r="G95" t="n">
-        <v>31386.31081127</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>698.2125</v>
       </c>
       <c r="G96" t="n">
-        <v>30688.09831127</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>215.4855</v>
       </c>
       <c r="G97" t="n">
-        <v>30472.61281127</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>678.0903</v>
       </c>
       <c r="G98" t="n">
-        <v>31150.70311127</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>464.0891</v>
       </c>
       <c r="G99" t="n">
-        <v>30686.61401127</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>1299.9999</v>
       </c>
       <c r="G100" t="n">
-        <v>29386.61411127</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>84.1228</v>
       </c>
       <c r="G101" t="n">
-        <v>29386.61411127</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>199.72364803</v>
       </c>
       <c r="G102" t="n">
-        <v>29586.3377593</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>1121.713</v>
       </c>
       <c r="G103" t="n">
-        <v>28464.6247593</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>1.7197</v>
       </c>
       <c r="G104" t="n">
-        <v>28466.3444593</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>65</v>
       </c>
       <c r="G105" t="n">
-        <v>28466.3444593</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,19 @@
         <v>65</v>
       </c>
       <c r="G106" t="n">
-        <v>28531.3444593</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>993.1</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3597,21 @@
         <v>280</v>
       </c>
       <c r="G107" t="n">
-        <v>28531.3444593</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3633,23 @@
         <v>275</v>
       </c>
       <c r="G108" t="n">
-        <v>28256.3444593</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>993.2</v>
+      </c>
+      <c r="I108" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3671,23 @@
         <v>275</v>
       </c>
       <c r="G109" t="n">
-        <v>28256.3444593</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3709,23 @@
         <v>280</v>
       </c>
       <c r="G110" t="n">
-        <v>28256.3444593</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3747,23 @@
         <v>275</v>
       </c>
       <c r="G111" t="n">
-        <v>28256.3444593</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3785,23 @@
         <v>1.00310963</v>
       </c>
       <c r="G112" t="n">
-        <v>28257.34756893</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3823,23 @@
         <v>47.1141</v>
       </c>
       <c r="G113" t="n">
-        <v>28210.23346893</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>996.9</v>
+      </c>
+      <c r="I113" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3861,23 @@
         <v>103</v>
       </c>
       <c r="G114" t="n">
-        <v>28107.23346893</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>995</v>
+      </c>
+      <c r="I114" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3899,23 @@
         <v>3011.31</v>
       </c>
       <c r="G115" t="n">
-        <v>25095.92346893</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>992.9</v>
+      </c>
+      <c r="I115" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3937,23 @@
         <v>1050</v>
       </c>
       <c r="G116" t="n">
-        <v>26145.92346893</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>989</v>
+      </c>
+      <c r="I116" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3975,23 @@
         <v>269.96</v>
       </c>
       <c r="G117" t="n">
-        <v>25875.96346893</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>992</v>
+      </c>
+      <c r="I117" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4013,23 @@
         <v>1069.1151</v>
       </c>
       <c r="G118" t="n">
-        <v>24806.84836893</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>986.6</v>
+      </c>
+      <c r="I118" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4051,23 @@
         <v>305</v>
       </c>
       <c r="G119" t="n">
-        <v>25111.84836893</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>986.5</v>
+      </c>
+      <c r="I119" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4089,23 @@
         <v>96.4889</v>
       </c>
       <c r="G120" t="n">
-        <v>25208.33726893</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>994</v>
+      </c>
+      <c r="I120" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4127,21 @@
         <v>104.7813</v>
       </c>
       <c r="G121" t="n">
-        <v>25208.33726893</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4163,21 @@
         <v>34.7493</v>
       </c>
       <c r="G122" t="n">
-        <v>25208.33726893</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4199,21 @@
         <v>176.9441</v>
       </c>
       <c r="G123" t="n">
-        <v>25385.28136893001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4235,21 @@
         <v>49.9999</v>
       </c>
       <c r="G124" t="n">
-        <v>25435.28126893</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4271,21 @@
         <v>500</v>
       </c>
       <c r="G125" t="n">
-        <v>25935.28126893</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4307,21 @@
         <v>5398.00592299</v>
       </c>
       <c r="G126" t="n">
-        <v>31333.28719192</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4343,21 @@
         <v>952.7741617299999</v>
       </c>
       <c r="G127" t="n">
-        <v>32286.06135365001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4379,21 @@
         <v>78.7032</v>
       </c>
       <c r="G128" t="n">
-        <v>32207.35815365001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4415,21 @@
         <v>80</v>
       </c>
       <c r="G129" t="n">
-        <v>32287.35815365001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4451,21 @@
         <v>1.7</v>
       </c>
       <c r="G130" t="n">
-        <v>32285.65815365001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4487,21 @@
         <v>19</v>
       </c>
       <c r="G131" t="n">
-        <v>32285.65815365001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4523,21 @@
         <v>0.5968</v>
       </c>
       <c r="G132" t="n">
-        <v>32285.65815365001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4559,21 @@
         <v>6350.7801</v>
       </c>
       <c r="G133" t="n">
-        <v>25934.87805365001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4595,21 @@
         <v>528.8682</v>
       </c>
       <c r="G134" t="n">
-        <v>26463.74625365001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4631,21 @@
         <v>1627</v>
       </c>
       <c r="G135" t="n">
-        <v>24836.74625365001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4667,21 @@
         <v>1829</v>
       </c>
       <c r="G136" t="n">
-        <v>23007.74625365001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4703,21 @@
         <v>1729.3814</v>
       </c>
       <c r="G137" t="n">
-        <v>21278.36485365001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4739,21 @@
         <v>2593.7958</v>
       </c>
       <c r="G138" t="n">
-        <v>18684.56905365001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4775,21 @@
         <v>1479.493</v>
       </c>
       <c r="G139" t="n">
-        <v>17205.07605365001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4811,21 @@
         <v>1742.2687</v>
       </c>
       <c r="G140" t="n">
-        <v>18947.34475365001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4847,21 @@
         <v>1535.0971</v>
       </c>
       <c r="G141" t="n">
-        <v>17412.24765365001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4883,21 @@
         <v>1939.3651</v>
       </c>
       <c r="G142" t="n">
-        <v>15472.88255365001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4919,21 @@
         <v>1621</v>
       </c>
       <c r="G143" t="n">
-        <v>13851.88255365001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4955,21 @@
         <v>1660.9348</v>
       </c>
       <c r="G144" t="n">
-        <v>12190.94775365001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4991,21 @@
         <v>1845.0652</v>
       </c>
       <c r="G145" t="n">
-        <v>14036.01295365001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5027,21 @@
         <v>2647</v>
       </c>
       <c r="G146" t="n">
-        <v>11389.01295365001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5063,21 @@
         <v>2343.4478</v>
       </c>
       <c r="G147" t="n">
-        <v>9045.565153650014</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5099,21 @@
         <v>1651.6749</v>
       </c>
       <c r="G148" t="n">
-        <v>10697.24005365001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5135,21 @@
         <v>2202</v>
       </c>
       <c r="G149" t="n">
-        <v>8495.240053650014</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5171,21 @@
         <v>3004.4345</v>
       </c>
       <c r="G150" t="n">
-        <v>11499.67455365001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5207,21 @@
         <v>1547</v>
       </c>
       <c r="G151" t="n">
-        <v>9952.674553650013</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5243,21 @@
         <v>1820</v>
       </c>
       <c r="G152" t="n">
-        <v>11772.67455365001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5279,21 @@
         <v>1013.3078</v>
       </c>
       <c r="G153" t="n">
-        <v>10759.36675365001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5315,21 @@
         <v>6262.6922</v>
       </c>
       <c r="G154" t="n">
-        <v>17022.05895365001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5351,21 @@
         <v>2334</v>
       </c>
       <c r="G155" t="n">
-        <v>17022.05895365001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5387,21 @@
         <v>1151.7739</v>
       </c>
       <c r="G156" t="n">
-        <v>18173.83285365001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5423,21 @@
         <v>2543</v>
       </c>
       <c r="G157" t="n">
-        <v>15630.83285365001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5459,21 @@
         <v>1891.0857</v>
       </c>
       <c r="G158" t="n">
-        <v>13739.74715365001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5495,21 @@
         <v>100</v>
       </c>
       <c r="G159" t="n">
-        <v>13739.74715365001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5531,21 @@
         <v>283</v>
       </c>
       <c r="G160" t="n">
-        <v>13456.74715365001</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5567,21 @@
         <v>345</v>
       </c>
       <c r="G161" t="n">
-        <v>13801.74715365001</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5603,23 @@
         <v>1830</v>
       </c>
       <c r="G162" t="n">
-        <v>13801.74715365001</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>989</v>
+      </c>
+      <c r="I162" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5641,21 @@
         <v>1529</v>
       </c>
       <c r="G163" t="n">
-        <v>12272.74715365001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5677,23 @@
         <v>2196.13</v>
       </c>
       <c r="G164" t="n">
-        <v>12272.74715365001</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>988</v>
+      </c>
+      <c r="I164" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5715,21 @@
         <v>2176</v>
       </c>
       <c r="G165" t="n">
-        <v>10096.74715365001</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5751,21 @@
         <v>1328</v>
       </c>
       <c r="G166" t="n">
-        <v>8768.747153650012</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5787,23 @@
         <v>2221</v>
       </c>
       <c r="G167" t="n">
-        <v>6547.747153650012</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>986</v>
+      </c>
+      <c r="I167" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5825,23 @@
         <v>580</v>
       </c>
       <c r="G168" t="n">
-        <v>7127.747153650012</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>984</v>
+      </c>
+      <c r="I168" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,24 +5863,23 @@
         <v>625</v>
       </c>
       <c r="G169" t="n">
-        <v>7752.747153650012</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>986</v>
       </c>
       <c r="I169" t="n">
-        <v>986</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5998,22 +5901,23 @@
         <v>273.87</v>
       </c>
       <c r="G170" t="n">
-        <v>8026.617153650012</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>987</v>
+      </c>
+      <c r="I170" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6035,24 +5939,23 @@
         <v>1576.3636</v>
       </c>
       <c r="G171" t="n">
-        <v>9602.980753650012</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>988</v>
       </c>
       <c r="I171" t="n">
-        <v>988</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6074,22 +5977,23 @@
         <v>902.5007000000001</v>
       </c>
       <c r="G172" t="n">
-        <v>9602.980753650012</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>989</v>
+      </c>
+      <c r="I172" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6111,24 +6015,23 @@
         <v>570</v>
       </c>
       <c r="G173" t="n">
-        <v>9032.980753650012</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>989</v>
       </c>
       <c r="I173" t="n">
-        <v>989</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6150,24 +6053,23 @@
         <v>341.1378</v>
       </c>
       <c r="G174" t="n">
-        <v>9374.118553650012</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>986</v>
       </c>
       <c r="I174" t="n">
-        <v>986</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6189,24 +6091,23 @@
         <v>753.5481</v>
       </c>
       <c r="G175" t="n">
-        <v>9374.118553650012</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>989</v>
       </c>
       <c r="I175" t="n">
-        <v>989</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6228,24 +6129,23 @@
         <v>350.1504</v>
       </c>
       <c r="G176" t="n">
-        <v>9374.118553650012</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>989</v>
       </c>
       <c r="I176" t="n">
-        <v>989</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6267,24 +6167,23 @@
         <v>355.8579</v>
       </c>
       <c r="G177" t="n">
-        <v>9374.118553650012</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>989</v>
       </c>
       <c r="I177" t="n">
-        <v>989</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6306,24 +6205,23 @@
         <v>44.246</v>
       </c>
       <c r="G178" t="n">
-        <v>9374.118553650012</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>989</v>
       </c>
       <c r="I178" t="n">
-        <v>989</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6345,24 +6243,23 @@
         <v>1728.0284</v>
       </c>
       <c r="G179" t="n">
-        <v>9374.118553650012</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>989</v>
       </c>
       <c r="I179" t="n">
-        <v>989</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6384,24 +6281,23 @@
         <v>3945.2335</v>
       </c>
       <c r="G180" t="n">
-        <v>9374.118553650012</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>989</v>
       </c>
       <c r="I180" t="n">
-        <v>989</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6423,24 +6319,23 @@
         <v>321.9</v>
       </c>
       <c r="G181" t="n">
-        <v>9052.218553650013</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>989</v>
       </c>
       <c r="I181" t="n">
-        <v>989</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6462,24 +6357,23 @@
         <v>85.17319999999999</v>
       </c>
       <c r="G182" t="n">
-        <v>9137.391753650012</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>981</v>
       </c>
       <c r="I182" t="n">
-        <v>981</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6501,24 +6395,23 @@
         <v>2109.7322</v>
       </c>
       <c r="G183" t="n">
-        <v>11247.12395365001</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>984.8</v>
       </c>
       <c r="I183" t="n">
-        <v>984.8</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6540,24 +6433,23 @@
         <v>57</v>
       </c>
       <c r="G184" t="n">
-        <v>11304.12395365001</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>984.9</v>
       </c>
       <c r="I184" t="n">
-        <v>984.9</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6579,24 +6471,21 @@
         <v>3295.3688</v>
       </c>
       <c r="G185" t="n">
-        <v>14599.49275365001</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="n">
-        <v>986</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6618,24 +6507,21 @@
         <v>1383.72</v>
       </c>
       <c r="G186" t="n">
-        <v>14599.49275365001</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="n">
-        <v>989</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6657,24 +6543,21 @@
         <v>1013.4832</v>
       </c>
       <c r="G187" t="n">
-        <v>14599.49275365001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="n">
-        <v>989</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6696,24 +6579,21 @@
         <v>778.2759</v>
       </c>
       <c r="G188" t="n">
-        <v>14599.49275365001</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="n">
-        <v>989</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6735,24 +6615,21 @@
         <v>1050</v>
       </c>
       <c r="G189" t="n">
-        <v>13549.49275365001</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="n">
-        <v>989</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6774,24 +6651,21 @@
         <v>455</v>
       </c>
       <c r="G190" t="n">
-        <v>13094.49275365001</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="n">
-        <v>983</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6813,24 +6687,21 @@
         <v>197.847</v>
       </c>
       <c r="G191" t="n">
-        <v>13292.33975365001</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="n">
-        <v>980</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6852,24 +6723,21 @@
         <v>1498.712</v>
       </c>
       <c r="G192" t="n">
-        <v>14791.05175365001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="n">
-        <v>991</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6891,24 +6759,21 @@
         <v>283.8622</v>
       </c>
       <c r="G193" t="n">
-        <v>15074.91395365001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="n">
-        <v>992</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6930,24 +6795,21 @@
         <v>82.66079999999999</v>
       </c>
       <c r="G194" t="n">
-        <v>15074.91395365001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="n">
-        <v>994</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6969,24 +6831,21 @@
         <v>116.0376</v>
       </c>
       <c r="G195" t="n">
-        <v>15190.95155365001</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="n">
-        <v>994</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7008,24 +6867,21 @@
         <v>150</v>
       </c>
       <c r="G196" t="n">
-        <v>15340.95155365001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="n">
-        <v>996</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7047,24 +6903,21 @@
         <v>237</v>
       </c>
       <c r="G197" t="n">
-        <v>15340.95155365001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="n">
-        <v>997</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7086,24 +6939,21 @@
         <v>791.7313</v>
       </c>
       <c r="G198" t="n">
-        <v>16132.68285365001</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="n">
-        <v>997</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7125,24 +6975,21 @@
         <v>370</v>
       </c>
       <c r="G199" t="n">
-        <v>16502.68285365001</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="n">
-        <v>998</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7164,24 +7011,21 @@
         <v>4535</v>
       </c>
       <c r="G200" t="n">
-        <v>21037.68285365001</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="n">
-        <v>999</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7203,24 +7047,21 @@
         <v>1413.8523</v>
       </c>
       <c r="G201" t="n">
-        <v>19623.83055365001</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="n">
-        <v>1005</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7242,24 +7083,21 @@
         <v>2127.8335</v>
       </c>
       <c r="G202" t="n">
-        <v>19623.83055365001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7281,24 +7119,21 @@
         <v>1225.52</v>
       </c>
       <c r="G203" t="n">
-        <v>19623.83055365001</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7320,24 +7155,21 @@
         <v>203.04</v>
       </c>
       <c r="G204" t="n">
-        <v>19420.79055365001</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7359,24 +7191,21 @@
         <v>1200</v>
       </c>
       <c r="G205" t="n">
-        <v>19420.79055365001</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="n">
-        <v>999</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7398,24 +7227,21 @@
         <v>109.0783</v>
       </c>
       <c r="G206" t="n">
-        <v>19420.79055365001</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="n">
-        <v>999</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7437,24 +7263,21 @@
         <v>5</v>
       </c>
       <c r="G207" t="n">
-        <v>19425.79055365001</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="n">
-        <v>999</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7476,24 +7299,21 @@
         <v>47.3999</v>
       </c>
       <c r="G208" t="n">
-        <v>19425.79055365001</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7515,24 +7335,21 @@
         <v>103.1</v>
       </c>
       <c r="G209" t="n">
-        <v>19528.89055365001</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7554,24 +7371,21 @@
         <v>1036.1772</v>
       </c>
       <c r="G210" t="n">
-        <v>18492.71335365001</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="n">
-        <v>1007</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7593,24 +7407,21 @@
         <v>2765</v>
       </c>
       <c r="G211" t="n">
-        <v>18492.71335365001</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7632,24 +7443,21 @@
         <v>53.0359</v>
       </c>
       <c r="G212" t="n">
-        <v>18492.71335365001</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7671,24 +7479,21 @@
         <v>1554.8558</v>
       </c>
       <c r="G213" t="n">
-        <v>16937.85755365001</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7710,24 +7515,21 @@
         <v>46.9102</v>
       </c>
       <c r="G214" t="n">
-        <v>16937.85755365001</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="n">
-        <v>1005</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7749,24 +7551,21 @@
         <v>4483.3208</v>
       </c>
       <c r="G215" t="n">
-        <v>12454.53675365001</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="n">
-        <v>1005</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7788,24 +7587,21 @@
         <v>1120.5961</v>
       </c>
       <c r="G216" t="n">
-        <v>12454.53675365001</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="n">
-        <v>1004</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7827,24 +7623,21 @@
         <v>2492.1433</v>
       </c>
       <c r="G217" t="n">
-        <v>9962.393453650009</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="n">
-        <v>1004</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7866,24 +7659,21 @@
         <v>3970.1906</v>
       </c>
       <c r="G218" t="n">
-        <v>9962.393453650009</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="n">
-        <v>1003</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7905,24 +7695,21 @@
         <v>1111.2598</v>
       </c>
       <c r="G219" t="n">
-        <v>9962.393453650009</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="n">
-        <v>1003</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7944,24 +7731,21 @@
         <v>2115</v>
       </c>
       <c r="G220" t="n">
-        <v>9962.393453650009</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="n">
-        <v>1003</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7983,24 +7767,21 @@
         <v>200</v>
       </c>
       <c r="G221" t="n">
-        <v>9762.393453650009</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="n">
-        <v>1003</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8022,24 +7803,21 @@
         <v>1800.43</v>
       </c>
       <c r="G222" t="n">
-        <v>11562.82345365001</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="n">
-        <v>1002</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8061,24 +7839,21 @@
         <v>1063</v>
       </c>
       <c r="G223" t="n">
-        <v>10499.82345365001</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="n">
-        <v>1003</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8100,24 +7875,21 @@
         <v>1515</v>
       </c>
       <c r="G224" t="n">
-        <v>12014.82345365001</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="n">
-        <v>1002</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8139,24 +7911,21 @@
         <v>2250.1245</v>
       </c>
       <c r="G225" t="n">
-        <v>12014.82345365001</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="n">
-        <v>1003</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8178,24 +7947,21 @@
         <v>625</v>
       </c>
       <c r="G226" t="n">
-        <v>12014.82345365001</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="n">
-        <v>1003</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8217,24 +7983,21 @@
         <v>370</v>
       </c>
       <c r="G227" t="n">
-        <v>12014.82345365001</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="n">
-        <v>1003</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>993.1</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
